--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>AUOTY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,142 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10231900</v>
+        <v>8964200</v>
       </c>
       <c r="E8" s="3">
-        <v>11342600</v>
+        <v>10259600</v>
       </c>
       <c r="F8" s="3">
-        <v>10945500</v>
+        <v>11373300</v>
       </c>
       <c r="G8" s="3">
-        <v>11985100</v>
+        <v>10975100</v>
       </c>
       <c r="H8" s="3">
-        <v>13576000</v>
+        <v>12017600</v>
       </c>
       <c r="I8" s="3">
-        <v>13848200</v>
+        <v>13612800</v>
       </c>
       <c r="J8" s="3">
+        <v>13885700</v>
+      </c>
+      <c r="K8" s="3">
         <v>12587900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9296000</v>
+        <v>8949000</v>
       </c>
       <c r="E9" s="3">
-        <v>9312400</v>
+        <v>9321200</v>
       </c>
       <c r="F9" s="3">
-        <v>9798300</v>
+        <v>9337600</v>
       </c>
       <c r="G9" s="3">
-        <v>10660100</v>
+        <v>9824800</v>
       </c>
       <c r="H9" s="3">
-        <v>11962600</v>
+        <v>10689000</v>
       </c>
       <c r="I9" s="3">
-        <v>25435800</v>
+        <v>11994900</v>
       </c>
       <c r="J9" s="3">
+        <v>25504700</v>
+      </c>
+      <c r="K9" s="3">
         <v>25900900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>935900</v>
+        <v>15200</v>
       </c>
       <c r="E10" s="3">
-        <v>2030200</v>
+        <v>938500</v>
       </c>
       <c r="F10" s="3">
-        <v>1147200</v>
+        <v>2035700</v>
       </c>
       <c r="G10" s="3">
-        <v>1325000</v>
+        <v>1150300</v>
       </c>
       <c r="H10" s="3">
-        <v>1613500</v>
+        <v>1328600</v>
       </c>
       <c r="I10" s="3">
-        <v>-11587600</v>
+        <v>1617800</v>
       </c>
       <c r="J10" s="3">
+        <v>-11619000</v>
+      </c>
+      <c r="K10" s="3">
         <v>-13312900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,35 +812,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>317500</v>
+        <v>327100</v>
       </c>
       <c r="E12" s="3">
-        <v>327800</v>
+        <v>318400</v>
       </c>
       <c r="F12" s="3">
-        <v>302000</v>
+        <v>328700</v>
       </c>
       <c r="G12" s="3">
-        <v>296100</v>
+        <v>302800</v>
       </c>
       <c r="H12" s="3">
-        <v>304600</v>
+        <v>296900</v>
       </c>
       <c r="I12" s="3">
-        <v>283700</v>
+        <v>305400</v>
       </c>
       <c r="J12" s="3">
+        <v>284500</v>
+      </c>
+      <c r="K12" s="3">
         <v>329400</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -853,36 +869,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>30000</v>
+        <v>63400</v>
       </c>
       <c r="E14" s="3">
-        <v>54300</v>
+        <v>30100</v>
       </c>
       <c r="F14" s="3">
-        <v>32400</v>
+        <v>54400</v>
       </c>
       <c r="G14" s="3">
-        <v>400100</v>
+        <v>32500</v>
       </c>
       <c r="H14" s="3">
-        <v>76200</v>
+        <v>401200</v>
       </c>
       <c r="I14" s="3">
-        <v>133100</v>
+        <v>76500</v>
       </c>
       <c r="J14" s="3">
+        <v>133500</v>
+      </c>
+      <c r="K14" s="3">
         <v>800400</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,12 +926,15 @@
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
         <v>19800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,62 +943,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10040100</v>
+        <v>9710200</v>
       </c>
       <c r="E17" s="3">
-        <v>10095100</v>
+        <v>10067300</v>
       </c>
       <c r="F17" s="3">
-        <v>10567600</v>
+        <v>10122400</v>
       </c>
       <c r="G17" s="3">
-        <v>11802500</v>
+        <v>10596100</v>
       </c>
       <c r="H17" s="3">
-        <v>12915100</v>
+        <v>11834400</v>
       </c>
       <c r="I17" s="3">
-        <v>13705600</v>
+        <v>12950000</v>
       </c>
       <c r="J17" s="3">
+        <v>13742700</v>
+      </c>
+      <c r="K17" s="3">
         <v>14139900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>191800</v>
+        <v>-746000</v>
       </c>
       <c r="E18" s="3">
-        <v>1247500</v>
+        <v>192300</v>
       </c>
       <c r="F18" s="3">
-        <v>377900</v>
+        <v>1250900</v>
       </c>
       <c r="G18" s="3">
-        <v>182700</v>
+        <v>379000</v>
       </c>
       <c r="H18" s="3">
-        <v>661000</v>
+        <v>183200</v>
       </c>
       <c r="I18" s="3">
-        <v>142700</v>
+        <v>662800</v>
       </c>
       <c r="J18" s="3">
+        <v>143100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1552000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,143 +1017,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>269800</v>
+        <v>192700</v>
       </c>
       <c r="E20" s="3">
-        <v>157100</v>
+        <v>270600</v>
       </c>
       <c r="F20" s="3">
-        <v>84200</v>
+        <v>157500</v>
       </c>
       <c r="G20" s="3">
-        <v>156300</v>
+        <v>84400</v>
       </c>
       <c r="H20" s="3">
-        <v>138100</v>
+        <v>156700</v>
       </c>
       <c r="I20" s="3">
-        <v>349600</v>
+        <v>138500</v>
       </c>
       <c r="J20" s="3">
+        <v>350600</v>
+      </c>
+      <c r="K20" s="3">
         <v>220500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1602100</v>
+        <v>654000</v>
       </c>
       <c r="E21" s="3">
-        <v>2618500</v>
+        <v>1602700</v>
       </c>
       <c r="F21" s="3">
-        <v>1784700</v>
+        <v>2621500</v>
       </c>
       <c r="G21" s="3">
+        <v>1785100</v>
+      </c>
+      <c r="H21" s="3">
         <v>1929800</v>
       </c>
-      <c r="H21" s="3">
-        <v>2695100</v>
-      </c>
       <c r="I21" s="3">
-        <v>2612700</v>
+        <v>2696100</v>
       </c>
       <c r="J21" s="3">
+        <v>2612800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1176800</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>88600</v>
+        <v>108400</v>
       </c>
       <c r="E22" s="3">
-        <v>95400</v>
+        <v>88800</v>
       </c>
       <c r="F22" s="3">
-        <v>90100</v>
+        <v>95600</v>
       </c>
       <c r="G22" s="3">
-        <v>86200</v>
+        <v>90300</v>
       </c>
       <c r="H22" s="3">
-        <v>134500</v>
+        <v>86400</v>
       </c>
       <c r="I22" s="3">
-        <v>318200</v>
+        <v>134900</v>
       </c>
       <c r="J22" s="3">
+        <v>319000</v>
+      </c>
+      <c r="K22" s="3">
         <v>381200</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-661800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>374100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1312800</v>
+      </c>
+      <c r="G23" s="3">
         <v>373000</v>
       </c>
-      <c r="E23" s="3">
-        <v>1309200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>372000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>252700</v>
-      </c>
       <c r="H23" s="3">
-        <v>664600</v>
+        <v>253400</v>
       </c>
       <c r="I23" s="3">
-        <v>174200</v>
+        <v>666300</v>
       </c>
       <c r="J23" s="3">
+        <v>174600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1712700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>108300</v>
+        <v>58500</v>
       </c>
       <c r="E24" s="3">
-        <v>302800</v>
+        <v>108600</v>
       </c>
       <c r="F24" s="3">
-        <v>152300</v>
+        <v>303700</v>
       </c>
       <c r="G24" s="3">
-        <v>91700</v>
+        <v>152700</v>
       </c>
       <c r="H24" s="3">
-        <v>107900</v>
+        <v>91900</v>
       </c>
       <c r="I24" s="3">
-        <v>45200</v>
+        <v>108200</v>
       </c>
       <c r="J24" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K24" s="3">
         <v>37400</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>264700</v>
+        <v>-720300</v>
       </c>
       <c r="E26" s="3">
-        <v>1006400</v>
+        <v>265500</v>
       </c>
       <c r="F26" s="3">
-        <v>219700</v>
+        <v>1009100</v>
       </c>
       <c r="G26" s="3">
-        <v>161100</v>
+        <v>220300</v>
       </c>
       <c r="H26" s="3">
-        <v>556700</v>
+        <v>161500</v>
       </c>
       <c r="I26" s="3">
-        <v>128900</v>
+        <v>558200</v>
       </c>
       <c r="J26" s="3">
+        <v>129300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1750100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>337900</v>
+        <v>-639800</v>
       </c>
       <c r="E27" s="3">
-        <v>1076300</v>
+        <v>338900</v>
       </c>
       <c r="F27" s="3">
-        <v>260100</v>
+        <v>1079200</v>
       </c>
       <c r="G27" s="3">
-        <v>164000</v>
+        <v>260800</v>
       </c>
       <c r="H27" s="3">
-        <v>544400</v>
+        <v>164500</v>
       </c>
       <c r="I27" s="3">
-        <v>126500</v>
+        <v>545800</v>
       </c>
       <c r="J27" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1702400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,63 +1374,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-269800</v>
+        <v>-192700</v>
       </c>
       <c r="E32" s="3">
-        <v>-157100</v>
+        <v>-270600</v>
       </c>
       <c r="F32" s="3">
-        <v>-84200</v>
+        <v>-157500</v>
       </c>
       <c r="G32" s="3">
-        <v>-156300</v>
+        <v>-84400</v>
       </c>
       <c r="H32" s="3">
-        <v>-138100</v>
+        <v>-156700</v>
       </c>
       <c r="I32" s="3">
-        <v>-349600</v>
+        <v>-138500</v>
       </c>
       <c r="J32" s="3">
+        <v>-350600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-220500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>337900</v>
+        <v>-639800</v>
       </c>
       <c r="E33" s="3">
-        <v>1076300</v>
+        <v>338900</v>
       </c>
       <c r="F33" s="3">
-        <v>260100</v>
+        <v>1079200</v>
       </c>
       <c r="G33" s="3">
-        <v>164000</v>
+        <v>260800</v>
       </c>
       <c r="H33" s="3">
-        <v>544400</v>
+        <v>164500</v>
       </c>
       <c r="I33" s="3">
-        <v>126500</v>
+        <v>545800</v>
       </c>
       <c r="J33" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1702400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>337900</v>
+        <v>-639800</v>
       </c>
       <c r="E35" s="3">
-        <v>1076300</v>
+        <v>338900</v>
       </c>
       <c r="F35" s="3">
-        <v>260100</v>
+        <v>1079200</v>
       </c>
       <c r="G35" s="3">
-        <v>164000</v>
+        <v>260800</v>
       </c>
       <c r="H35" s="3">
-        <v>544400</v>
+        <v>164500</v>
       </c>
       <c r="I35" s="3">
-        <v>126500</v>
+        <v>545800</v>
       </c>
       <c r="J35" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1702400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,251 +1560,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2300400</v>
+        <v>2687000</v>
       </c>
       <c r="E41" s="3">
-        <v>3493000</v>
+        <v>2310100</v>
       </c>
       <c r="F41" s="3">
-        <v>2667200</v>
+        <v>3507700</v>
       </c>
       <c r="G41" s="3">
-        <v>2623600</v>
+        <v>2678400</v>
       </c>
       <c r="H41" s="3">
-        <v>2726200</v>
+        <v>2634600</v>
       </c>
       <c r="I41" s="3">
-        <v>2538100</v>
+        <v>2737600</v>
       </c>
       <c r="J41" s="3">
+        <v>2548800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2398600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>103100</v>
+        <v>126300</v>
       </c>
       <c r="E42" s="3">
-        <v>17200</v>
+        <v>103500</v>
       </c>
       <c r="F42" s="3">
-        <v>18600</v>
+        <v>17300</v>
       </c>
       <c r="G42" s="3">
-        <v>390300</v>
+        <v>18700</v>
       </c>
       <c r="H42" s="3">
-        <v>100600</v>
+        <v>391900</v>
       </c>
       <c r="I42" s="3">
-        <v>226200</v>
+        <v>101000</v>
       </c>
       <c r="J42" s="3">
+        <v>227100</v>
+      </c>
+      <c r="K42" s="3">
         <v>181200</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1579300</v>
+        <v>1074500</v>
       </c>
       <c r="E43" s="3">
-        <v>1352800</v>
+        <v>1586000</v>
       </c>
       <c r="F43" s="3">
-        <v>1606200</v>
+        <v>1358500</v>
       </c>
       <c r="G43" s="3">
-        <v>1159700</v>
+        <v>1612900</v>
       </c>
       <c r="H43" s="3">
-        <v>1984400</v>
+        <v>1164600</v>
       </c>
       <c r="I43" s="3">
-        <v>1456000</v>
+        <v>1992800</v>
       </c>
       <c r="J43" s="3">
+        <v>1462100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1418200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>875000</v>
+        <v>783600</v>
       </c>
       <c r="E44" s="3">
-        <v>826700</v>
+        <v>878700</v>
       </c>
       <c r="F44" s="3">
-        <v>920600</v>
+        <v>830100</v>
       </c>
       <c r="G44" s="3">
-        <v>1057500</v>
+        <v>924500</v>
       </c>
       <c r="H44" s="3">
-        <v>1211300</v>
+        <v>1062000</v>
       </c>
       <c r="I44" s="3">
-        <v>1250500</v>
+        <v>1216400</v>
       </c>
       <c r="J44" s="3">
+        <v>1255800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1416400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100200</v>
+        <v>111500</v>
       </c>
       <c r="E45" s="3">
-        <v>303000</v>
+        <v>100600</v>
       </c>
       <c r="F45" s="3">
-        <v>220300</v>
+        <v>304300</v>
       </c>
       <c r="G45" s="3">
-        <v>156700</v>
+        <v>221200</v>
       </c>
       <c r="H45" s="3">
-        <v>151000</v>
+        <v>157400</v>
       </c>
       <c r="I45" s="3">
-        <v>170200</v>
+        <v>151700</v>
       </c>
       <c r="J45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="K45" s="3">
         <v>430500</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4958000</v>
+        <v>4782900</v>
       </c>
       <c r="E46" s="3">
-        <v>5992600</v>
+        <v>4978900</v>
       </c>
       <c r="F46" s="3">
-        <v>5432900</v>
+        <v>6017900</v>
       </c>
       <c r="G46" s="3">
-        <v>5387900</v>
+        <v>5455800</v>
       </c>
       <c r="H46" s="3">
-        <v>6173500</v>
+        <v>5410500</v>
       </c>
       <c r="I46" s="3">
-        <v>5641000</v>
+        <v>6199500</v>
       </c>
       <c r="J46" s="3">
+        <v>5664800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5845000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>441200</v>
+        <v>452400</v>
       </c>
       <c r="E47" s="3">
-        <v>330800</v>
+        <v>443100</v>
       </c>
       <c r="F47" s="3">
-        <v>273000</v>
+        <v>332200</v>
       </c>
       <c r="G47" s="3">
-        <v>483900</v>
+        <v>274200</v>
       </c>
       <c r="H47" s="3">
-        <v>494700</v>
+        <v>486000</v>
       </c>
       <c r="I47" s="3">
-        <v>467500</v>
+        <v>496800</v>
       </c>
       <c r="J47" s="3">
+        <v>469400</v>
+      </c>
+      <c r="K47" s="3">
         <v>511800</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7394300</v>
+        <v>7364600</v>
       </c>
       <c r="E48" s="3">
-        <v>7505100</v>
+        <v>7425400</v>
       </c>
       <c r="F48" s="3">
-        <v>7423900</v>
+        <v>7536700</v>
       </c>
       <c r="G48" s="3">
-        <v>6959700</v>
+        <v>7455100</v>
       </c>
       <c r="H48" s="3">
-        <v>7725700</v>
+        <v>6989000</v>
       </c>
       <c r="I48" s="3">
-        <v>9030900</v>
+        <v>7758200</v>
       </c>
       <c r="J48" s="3">
+        <v>9068900</v>
+      </c>
+      <c r="K48" s="3">
         <v>10554300</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>444900</v>
+        <v>427800</v>
       </c>
       <c r="E49" s="3">
-        <v>438100</v>
+        <v>446800</v>
       </c>
       <c r="F49" s="3">
-        <v>452400</v>
+        <v>439900</v>
       </c>
       <c r="G49" s="3">
-        <v>484800</v>
+        <v>454300</v>
       </c>
       <c r="H49" s="3">
-        <v>129200</v>
+        <v>486800</v>
       </c>
       <c r="I49" s="3">
-        <v>147400</v>
+        <v>129800</v>
       </c>
       <c r="J49" s="3">
+        <v>148000</v>
+      </c>
+      <c r="K49" s="3">
         <v>496700</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>392600</v>
+        <v>253400</v>
       </c>
       <c r="E52" s="3">
-        <v>416000</v>
+        <v>394300</v>
       </c>
       <c r="F52" s="3">
-        <v>711900</v>
+        <v>417800</v>
       </c>
       <c r="G52" s="3">
-        <v>837700</v>
+        <v>714900</v>
       </c>
       <c r="H52" s="3">
-        <v>189200</v>
+        <v>841200</v>
       </c>
       <c r="I52" s="3">
-        <v>173600</v>
+        <v>190000</v>
       </c>
       <c r="J52" s="3">
+        <v>174400</v>
+      </c>
+      <c r="K52" s="3">
         <v>546100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13631000</v>
+        <v>13281100</v>
       </c>
       <c r="E54" s="3">
-        <v>14682700</v>
+        <v>13688400</v>
       </c>
       <c r="F54" s="3">
-        <v>14294100</v>
+        <v>14744500</v>
       </c>
       <c r="G54" s="3">
-        <v>14153900</v>
+        <v>14354300</v>
       </c>
       <c r="H54" s="3">
-        <v>14712400</v>
+        <v>14213500</v>
       </c>
       <c r="I54" s="3">
-        <v>15460400</v>
+        <v>14774300</v>
       </c>
       <c r="J54" s="3">
+        <v>15525500</v>
+      </c>
+      <c r="K54" s="3">
         <v>17953800</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,170 +2008,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1949700</v>
+        <v>1712000</v>
       </c>
       <c r="E57" s="3">
-        <v>1814400</v>
+        <v>1957900</v>
       </c>
       <c r="F57" s="3">
-        <v>1994600</v>
+        <v>1822100</v>
       </c>
       <c r="G57" s="3">
-        <v>2042600</v>
+        <v>2003000</v>
       </c>
       <c r="H57" s="3">
-        <v>2488600</v>
+        <v>2051200</v>
       </c>
       <c r="I57" s="3">
-        <v>2606400</v>
+        <v>2499100</v>
       </c>
       <c r="J57" s="3">
+        <v>2617300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2711000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1002500</v>
+        <v>398900</v>
       </c>
       <c r="E58" s="3">
-        <v>385100</v>
+        <v>1006800</v>
       </c>
       <c r="F58" s="3">
-        <v>618700</v>
+        <v>386800</v>
       </c>
       <c r="G58" s="3">
-        <v>1353700</v>
+        <v>621300</v>
       </c>
       <c r="H58" s="3">
-        <v>1895800</v>
+        <v>1359400</v>
       </c>
       <c r="I58" s="3">
-        <v>2202500</v>
+        <v>1903700</v>
       </c>
       <c r="J58" s="3">
+        <v>2211800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1799700</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1336200</v>
+        <v>912700</v>
       </c>
       <c r="E59" s="3">
-        <v>1367100</v>
+        <v>1341800</v>
       </c>
       <c r="F59" s="3">
-        <v>1287000</v>
+        <v>1372900</v>
       </c>
       <c r="G59" s="3">
-        <v>1304900</v>
+        <v>1292400</v>
       </c>
       <c r="H59" s="3">
-        <v>1407600</v>
+        <v>1310400</v>
       </c>
       <c r="I59" s="3">
-        <v>1222500</v>
+        <v>1413500</v>
       </c>
       <c r="J59" s="3">
+        <v>1227600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1861700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4288500</v>
+        <v>3023600</v>
       </c>
       <c r="E60" s="3">
-        <v>3566700</v>
+        <v>4306500</v>
       </c>
       <c r="F60" s="3">
-        <v>3900300</v>
+        <v>3581700</v>
       </c>
       <c r="G60" s="3">
-        <v>4701300</v>
+        <v>3916700</v>
       </c>
       <c r="H60" s="3">
-        <v>5792000</v>
+        <v>4721100</v>
       </c>
       <c r="I60" s="3">
-        <v>6031300</v>
+        <v>5816400</v>
       </c>
       <c r="J60" s="3">
+        <v>6056700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6372400</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1886200</v>
+        <v>3768900</v>
       </c>
       <c r="E61" s="3">
-        <v>3407600</v>
+        <v>1894100</v>
       </c>
       <c r="F61" s="3">
-        <v>3531800</v>
+        <v>3421900</v>
       </c>
       <c r="G61" s="3">
-        <v>2279600</v>
+        <v>3546700</v>
       </c>
       <c r="H61" s="3">
-        <v>2850000</v>
+        <v>2289200</v>
       </c>
       <c r="I61" s="3">
-        <v>3941500</v>
+        <v>2862000</v>
       </c>
       <c r="J61" s="3">
+        <v>3958100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5657500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>229700</v>
+        <v>210100</v>
       </c>
       <c r="E62" s="3">
-        <v>216700</v>
+        <v>230700</v>
       </c>
       <c r="F62" s="3">
-        <v>222200</v>
+        <v>217700</v>
       </c>
       <c r="G62" s="3">
-        <v>366900</v>
+        <v>223100</v>
       </c>
       <c r="H62" s="3">
-        <v>283500</v>
+        <v>368400</v>
       </c>
       <c r="I62" s="3">
-        <v>399200</v>
+        <v>284700</v>
       </c>
       <c r="J62" s="3">
+        <v>400900</v>
+      </c>
+      <c r="K62" s="3">
         <v>494700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6883800</v>
+        <v>7380300</v>
       </c>
       <c r="E66" s="3">
-        <v>7759500</v>
+        <v>6912800</v>
       </c>
       <c r="F66" s="3">
-        <v>8265900</v>
+        <v>7792100</v>
       </c>
       <c r="G66" s="3">
-        <v>8101100</v>
+        <v>8300700</v>
       </c>
       <c r="H66" s="3">
-        <v>9568500</v>
+        <v>8135200</v>
       </c>
       <c r="I66" s="3">
-        <v>10838800</v>
+        <v>9608700</v>
       </c>
       <c r="J66" s="3">
+        <v>10884500</v>
+      </c>
+      <c r="K66" s="3">
         <v>12993100</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,36 +2439,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1558100</v>
+        <v>765000</v>
       </c>
       <c r="E72" s="3">
-        <v>1700100</v>
+        <v>1564700</v>
       </c>
       <c r="F72" s="3">
-        <v>806300</v>
+        <v>1707300</v>
       </c>
       <c r="G72" s="3">
-        <v>678700</v>
+        <v>809700</v>
       </c>
       <c r="H72" s="3">
-        <v>-221400</v>
+        <v>681600</v>
       </c>
       <c r="I72" s="3">
-        <v>-728300</v>
+        <v>-222300</v>
       </c>
       <c r="J72" s="3">
+        <v>-731400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1816500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6747200</v>
+        <v>5900800</v>
       </c>
       <c r="E76" s="3">
-        <v>6923200</v>
+        <v>6775600</v>
       </c>
       <c r="F76" s="3">
-        <v>6028200</v>
+        <v>6952400</v>
       </c>
       <c r="G76" s="3">
-        <v>6052800</v>
+        <v>6053600</v>
       </c>
       <c r="H76" s="3">
-        <v>5143900</v>
+        <v>6078300</v>
       </c>
       <c r="I76" s="3">
-        <v>4621600</v>
+        <v>5165600</v>
       </c>
       <c r="J76" s="3">
+        <v>4641100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4960800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>337900</v>
+        <v>-639800</v>
       </c>
       <c r="E81" s="3">
-        <v>1076300</v>
+        <v>338900</v>
       </c>
       <c r="F81" s="3">
-        <v>260100</v>
+        <v>1079200</v>
       </c>
       <c r="G81" s="3">
-        <v>164000</v>
+        <v>260800</v>
       </c>
       <c r="H81" s="3">
-        <v>544400</v>
+        <v>164500</v>
       </c>
       <c r="I81" s="3">
-        <v>126500</v>
+        <v>545800</v>
       </c>
       <c r="J81" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1702400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1138400</v>
+        <v>1209200</v>
       </c>
       <c r="E83" s="3">
-        <v>1211700</v>
+        <v>1141500</v>
       </c>
       <c r="F83" s="3">
-        <v>1320200</v>
+        <v>1214900</v>
       </c>
       <c r="G83" s="3">
-        <v>1588000</v>
+        <v>1323800</v>
       </c>
       <c r="H83" s="3">
-        <v>1892600</v>
+        <v>1592300</v>
       </c>
       <c r="I83" s="3">
-        <v>2116600</v>
+        <v>1897700</v>
       </c>
       <c r="J83" s="3">
+        <v>2122300</v>
+      </c>
+      <c r="K83" s="3">
         <v>2503700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1337100</v>
+        <v>691400</v>
       </c>
       <c r="E89" s="3">
-        <v>2805900</v>
+        <v>1340700</v>
       </c>
       <c r="F89" s="3">
-        <v>1220500</v>
+        <v>2813500</v>
       </c>
       <c r="G89" s="3">
-        <v>2062200</v>
+        <v>1223800</v>
       </c>
       <c r="H89" s="3">
-        <v>2108400</v>
+        <v>2067800</v>
       </c>
       <c r="I89" s="3">
-        <v>1651100</v>
+        <v>2114100</v>
       </c>
       <c r="J89" s="3">
+        <v>1655600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1189000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1156500</v>
+        <v>-985400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1459500</v>
+        <v>-1159600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1537300</v>
+        <v>-1463500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1112200</v>
+        <v>-1541400</v>
       </c>
       <c r="H91" s="3">
-        <v>-564500</v>
+        <v>-1115200</v>
       </c>
       <c r="I91" s="3">
-        <v>-846700</v>
+        <v>-566000</v>
       </c>
       <c r="J91" s="3">
+        <v>-849000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1441200</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1147400</v>
+        <v>-937500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1452400</v>
+        <v>-1150500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1405800</v>
+        <v>-1456300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1055500</v>
+        <v>-1409600</v>
       </c>
       <c r="H94" s="3">
-        <v>-435900</v>
+        <v>-1058400</v>
       </c>
       <c r="I94" s="3">
-        <v>-772400</v>
+        <v>-437100</v>
       </c>
       <c r="J94" s="3">
+        <v>-774500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1436200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,35 +3059,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-480200</v>
+        <v>-160500</v>
       </c>
       <c r="E96" s="3">
-        <v>-179300</v>
+        <v>-481500</v>
       </c>
       <c r="F96" s="3">
-        <v>-112000</v>
+        <v>-179700</v>
       </c>
       <c r="G96" s="3">
-        <v>-160100</v>
+        <v>-112300</v>
       </c>
       <c r="H96" s="3">
-        <v>-48000</v>
+        <v>-160500</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-48100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,88 +3176,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1391800</v>
+        <v>691700</v>
       </c>
       <c r="E100" s="3">
-        <v>-446000</v>
+        <v>-1395600</v>
       </c>
       <c r="F100" s="3">
-        <v>356600</v>
+        <v>-447200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1140100</v>
+        <v>357600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1498100</v>
+        <v>-1143100</v>
       </c>
       <c r="I100" s="3">
-        <v>-890900</v>
+        <v>-1502100</v>
       </c>
       <c r="J100" s="3">
+        <v>-893300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-197600</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9500</v>
+        <v>-69200</v>
       </c>
       <c r="E101" s="3">
-        <v>-81700</v>
+        <v>9600</v>
       </c>
       <c r="F101" s="3">
-        <v>-127700</v>
+        <v>-81900</v>
       </c>
       <c r="G101" s="3">
-        <v>30700</v>
+        <v>-128000</v>
       </c>
       <c r="H101" s="3">
+        <v>30800</v>
+      </c>
+      <c r="I101" s="3">
         <v>13600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1192600</v>
+        <v>376400</v>
       </c>
       <c r="E102" s="3">
-        <v>825800</v>
+        <v>-1195800</v>
       </c>
       <c r="F102" s="3">
-        <v>43600</v>
+        <v>828100</v>
       </c>
       <c r="G102" s="3">
-        <v>-102600</v>
+        <v>43700</v>
       </c>
       <c r="H102" s="3">
-        <v>188000</v>
+        <v>-102900</v>
       </c>
       <c r="I102" s="3">
-        <v>-11400</v>
+        <v>188500</v>
       </c>
       <c r="J102" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-445600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -715,25 +715,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8964200</v>
+        <v>9157700</v>
       </c>
       <c r="E8" s="3">
-        <v>10259600</v>
+        <v>10481100</v>
       </c>
       <c r="F8" s="3">
-        <v>11373300</v>
+        <v>11618800</v>
       </c>
       <c r="G8" s="3">
-        <v>10975100</v>
+        <v>11212100</v>
       </c>
       <c r="H8" s="3">
-        <v>12017600</v>
+        <v>12277000</v>
       </c>
       <c r="I8" s="3">
-        <v>13612800</v>
+        <v>13906700</v>
       </c>
       <c r="J8" s="3">
-        <v>13885700</v>
+        <v>14185500</v>
       </c>
       <c r="K8" s="3">
         <v>12587900</v>
@@ -745,25 +745,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8949000</v>
+        <v>9142200</v>
       </c>
       <c r="E9" s="3">
-        <v>9321200</v>
+        <v>9522400</v>
       </c>
       <c r="F9" s="3">
-        <v>9337600</v>
+        <v>9539100</v>
       </c>
       <c r="G9" s="3">
-        <v>9824800</v>
+        <v>10037000</v>
       </c>
       <c r="H9" s="3">
-        <v>10689000</v>
+        <v>10919800</v>
       </c>
       <c r="I9" s="3">
-        <v>11994900</v>
+        <v>12253900</v>
       </c>
       <c r="J9" s="3">
-        <v>25504700</v>
+        <v>26055300</v>
       </c>
       <c r="K9" s="3">
         <v>25900900</v>
@@ -775,25 +775,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="E10" s="3">
-        <v>938500</v>
+        <v>958700</v>
       </c>
       <c r="F10" s="3">
-        <v>2035700</v>
+        <v>2079700</v>
       </c>
       <c r="G10" s="3">
-        <v>1150300</v>
+        <v>1175100</v>
       </c>
       <c r="H10" s="3">
-        <v>1328600</v>
+        <v>1357200</v>
       </c>
       <c r="I10" s="3">
-        <v>1617800</v>
+        <v>1652800</v>
       </c>
       <c r="J10" s="3">
-        <v>-11619000</v>
+        <v>-11869800</v>
       </c>
       <c r="K10" s="3">
         <v>-13312900</v>
@@ -819,25 +819,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>327100</v>
+        <v>334200</v>
       </c>
       <c r="E12" s="3">
-        <v>318400</v>
+        <v>325300</v>
       </c>
       <c r="F12" s="3">
-        <v>328700</v>
+        <v>335800</v>
       </c>
       <c r="G12" s="3">
-        <v>302800</v>
+        <v>309400</v>
       </c>
       <c r="H12" s="3">
-        <v>296900</v>
+        <v>303400</v>
       </c>
       <c r="I12" s="3">
-        <v>305400</v>
+        <v>312000</v>
       </c>
       <c r="J12" s="3">
-        <v>284500</v>
+        <v>290600</v>
       </c>
       <c r="K12" s="3">
         <v>329400</v>
@@ -879,25 +879,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>63400</v>
+        <v>64800</v>
       </c>
       <c r="E14" s="3">
-        <v>30100</v>
+        <v>30700</v>
       </c>
       <c r="F14" s="3">
-        <v>54400</v>
+        <v>55600</v>
       </c>
       <c r="G14" s="3">
-        <v>32500</v>
+        <v>33200</v>
       </c>
       <c r="H14" s="3">
-        <v>401200</v>
+        <v>409800</v>
       </c>
       <c r="I14" s="3">
-        <v>76500</v>
+        <v>78100</v>
       </c>
       <c r="J14" s="3">
-        <v>133500</v>
+        <v>136400</v>
       </c>
       <c r="K14" s="3">
         <v>800400</v>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9710200</v>
+        <v>9919900</v>
       </c>
       <c r="E17" s="3">
-        <v>10067300</v>
+        <v>10284600</v>
       </c>
       <c r="F17" s="3">
-        <v>10122400</v>
+        <v>10340900</v>
       </c>
       <c r="G17" s="3">
-        <v>10596100</v>
+        <v>10824900</v>
       </c>
       <c r="H17" s="3">
-        <v>11834400</v>
+        <v>12089900</v>
       </c>
       <c r="I17" s="3">
-        <v>12950000</v>
+        <v>13229600</v>
       </c>
       <c r="J17" s="3">
-        <v>13742700</v>
+        <v>14039300</v>
       </c>
       <c r="K17" s="3">
         <v>14139900</v>
@@ -980,25 +980,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-746000</v>
+        <v>-762100</v>
       </c>
       <c r="E18" s="3">
-        <v>192300</v>
+        <v>196500</v>
       </c>
       <c r="F18" s="3">
-        <v>1250900</v>
+        <v>1277900</v>
       </c>
       <c r="G18" s="3">
-        <v>379000</v>
+        <v>387200</v>
       </c>
       <c r="H18" s="3">
-        <v>183200</v>
+        <v>187100</v>
       </c>
       <c r="I18" s="3">
-        <v>662800</v>
+        <v>677100</v>
       </c>
       <c r="J18" s="3">
-        <v>143100</v>
+        <v>146100</v>
       </c>
       <c r="K18" s="3">
         <v>-1552000</v>
@@ -1024,25 +1024,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>192700</v>
+        <v>196800</v>
       </c>
       <c r="E20" s="3">
-        <v>270600</v>
+        <v>276400</v>
       </c>
       <c r="F20" s="3">
-        <v>157500</v>
+        <v>160900</v>
       </c>
       <c r="G20" s="3">
-        <v>84400</v>
+        <v>86200</v>
       </c>
       <c r="H20" s="3">
-        <v>156700</v>
+        <v>160100</v>
       </c>
       <c r="I20" s="3">
-        <v>138500</v>
+        <v>141500</v>
       </c>
       <c r="J20" s="3">
-        <v>350600</v>
+        <v>358200</v>
       </c>
       <c r="K20" s="3">
         <v>220500</v>
@@ -1054,25 +1054,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>654000</v>
+        <v>669600</v>
       </c>
       <c r="E21" s="3">
-        <v>1602700</v>
+        <v>1638700</v>
       </c>
       <c r="F21" s="3">
-        <v>2621500</v>
+        <v>2679600</v>
       </c>
       <c r="G21" s="3">
-        <v>1785100</v>
+        <v>1825300</v>
       </c>
       <c r="H21" s="3">
-        <v>1929800</v>
+        <v>1973400</v>
       </c>
       <c r="I21" s="3">
-        <v>2696100</v>
+        <v>2756700</v>
       </c>
       <c r="J21" s="3">
-        <v>2612800</v>
+        <v>2671800</v>
       </c>
       <c r="K21" s="3">
         <v>1176800</v>
@@ -1084,25 +1084,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>108400</v>
+        <v>110800</v>
       </c>
       <c r="E22" s="3">
-        <v>88800</v>
+        <v>90700</v>
       </c>
       <c r="F22" s="3">
-        <v>95600</v>
+        <v>97700</v>
       </c>
       <c r="G22" s="3">
-        <v>90300</v>
+        <v>92300</v>
       </c>
       <c r="H22" s="3">
-        <v>86400</v>
+        <v>88300</v>
       </c>
       <c r="I22" s="3">
-        <v>134900</v>
+        <v>137800</v>
       </c>
       <c r="J22" s="3">
-        <v>319000</v>
+        <v>325900</v>
       </c>
       <c r="K22" s="3">
         <v>381200</v>
@@ -1114,25 +1114,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-661800</v>
+        <v>-676100</v>
       </c>
       <c r="E23" s="3">
-        <v>374100</v>
+        <v>382100</v>
       </c>
       <c r="F23" s="3">
-        <v>1312800</v>
+        <v>1341100</v>
       </c>
       <c r="G23" s="3">
-        <v>373000</v>
+        <v>381100</v>
       </c>
       <c r="H23" s="3">
-        <v>253400</v>
+        <v>258900</v>
       </c>
       <c r="I23" s="3">
-        <v>666300</v>
+        <v>680700</v>
       </c>
       <c r="J23" s="3">
-        <v>174600</v>
+        <v>178400</v>
       </c>
       <c r="K23" s="3">
         <v>-1712700</v>
@@ -1144,25 +1144,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>58500</v>
+        <v>59800</v>
       </c>
       <c r="E24" s="3">
-        <v>108600</v>
+        <v>110900</v>
       </c>
       <c r="F24" s="3">
-        <v>303700</v>
+        <v>310200</v>
       </c>
       <c r="G24" s="3">
-        <v>152700</v>
+        <v>156000</v>
       </c>
       <c r="H24" s="3">
-        <v>91900</v>
+        <v>93900</v>
       </c>
       <c r="I24" s="3">
-        <v>108200</v>
+        <v>110500</v>
       </c>
       <c r="J24" s="3">
-        <v>45300</v>
+        <v>46300</v>
       </c>
       <c r="K24" s="3">
         <v>37400</v>
@@ -1204,25 +1204,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-720300</v>
+        <v>-735900</v>
       </c>
       <c r="E26" s="3">
-        <v>265500</v>
+        <v>271200</v>
       </c>
       <c r="F26" s="3">
-        <v>1009100</v>
+        <v>1030900</v>
       </c>
       <c r="G26" s="3">
-        <v>220300</v>
+        <v>225100</v>
       </c>
       <c r="H26" s="3">
-        <v>161500</v>
+        <v>165000</v>
       </c>
       <c r="I26" s="3">
-        <v>558200</v>
+        <v>570200</v>
       </c>
       <c r="J26" s="3">
-        <v>129300</v>
+        <v>132100</v>
       </c>
       <c r="K26" s="3">
         <v>-1750100</v>
@@ -1234,25 +1234,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-639800</v>
+        <v>-653600</v>
       </c>
       <c r="E27" s="3">
-        <v>338900</v>
+        <v>346200</v>
       </c>
       <c r="F27" s="3">
-        <v>1079200</v>
+        <v>1102500</v>
       </c>
       <c r="G27" s="3">
-        <v>260800</v>
+        <v>266400</v>
       </c>
       <c r="H27" s="3">
-        <v>164500</v>
+        <v>168000</v>
       </c>
       <c r="I27" s="3">
-        <v>545800</v>
+        <v>557600</v>
       </c>
       <c r="J27" s="3">
-        <v>126900</v>
+        <v>129600</v>
       </c>
       <c r="K27" s="3">
         <v>-1702400</v>
@@ -1384,25 +1384,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-192700</v>
+        <v>-196800</v>
       </c>
       <c r="E32" s="3">
-        <v>-270600</v>
+        <v>-276400</v>
       </c>
       <c r="F32" s="3">
-        <v>-157500</v>
+        <v>-160900</v>
       </c>
       <c r="G32" s="3">
-        <v>-84400</v>
+        <v>-86200</v>
       </c>
       <c r="H32" s="3">
-        <v>-156700</v>
+        <v>-160100</v>
       </c>
       <c r="I32" s="3">
-        <v>-138500</v>
+        <v>-141500</v>
       </c>
       <c r="J32" s="3">
-        <v>-350600</v>
+        <v>-358200</v>
       </c>
       <c r="K32" s="3">
         <v>-220500</v>
@@ -1414,25 +1414,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-639800</v>
+        <v>-653600</v>
       </c>
       <c r="E33" s="3">
-        <v>338900</v>
+        <v>346200</v>
       </c>
       <c r="F33" s="3">
-        <v>1079200</v>
+        <v>1102500</v>
       </c>
       <c r="G33" s="3">
-        <v>260800</v>
+        <v>266400</v>
       </c>
       <c r="H33" s="3">
-        <v>164500</v>
+        <v>168000</v>
       </c>
       <c r="I33" s="3">
-        <v>545800</v>
+        <v>557600</v>
       </c>
       <c r="J33" s="3">
-        <v>126900</v>
+        <v>129600</v>
       </c>
       <c r="K33" s="3">
         <v>-1702400</v>
@@ -1474,25 +1474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-639800</v>
+        <v>-653600</v>
       </c>
       <c r="E35" s="3">
-        <v>338900</v>
+        <v>346200</v>
       </c>
       <c r="F35" s="3">
-        <v>1079200</v>
+        <v>1102500</v>
       </c>
       <c r="G35" s="3">
-        <v>260800</v>
+        <v>266400</v>
       </c>
       <c r="H35" s="3">
-        <v>164500</v>
+        <v>168000</v>
       </c>
       <c r="I35" s="3">
-        <v>545800</v>
+        <v>557600</v>
       </c>
       <c r="J35" s="3">
-        <v>126900</v>
+        <v>129600</v>
       </c>
       <c r="K35" s="3">
         <v>-1702400</v>
@@ -1567,25 +1567,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2687000</v>
+        <v>2740900</v>
       </c>
       <c r="E41" s="3">
-        <v>2310100</v>
+        <v>2356400</v>
       </c>
       <c r="F41" s="3">
-        <v>3507700</v>
+        <v>3578100</v>
       </c>
       <c r="G41" s="3">
-        <v>2678400</v>
+        <v>2732100</v>
       </c>
       <c r="H41" s="3">
-        <v>2634600</v>
+        <v>2687500</v>
       </c>
       <c r="I41" s="3">
-        <v>2737600</v>
+        <v>2792600</v>
       </c>
       <c r="J41" s="3">
-        <v>2548800</v>
+        <v>2600000</v>
       </c>
       <c r="K41" s="3">
         <v>2398600</v>
@@ -1597,25 +1597,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>126300</v>
+        <v>128800</v>
       </c>
       <c r="E42" s="3">
-        <v>103500</v>
+        <v>105600</v>
       </c>
       <c r="F42" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="G42" s="3">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="H42" s="3">
-        <v>391900</v>
+        <v>399800</v>
       </c>
       <c r="I42" s="3">
-        <v>101000</v>
+        <v>103000</v>
       </c>
       <c r="J42" s="3">
-        <v>227100</v>
+        <v>231700</v>
       </c>
       <c r="K42" s="3">
         <v>181200</v>
@@ -1627,25 +1627,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1074500</v>
+        <v>1096100</v>
       </c>
       <c r="E43" s="3">
-        <v>1586000</v>
+        <v>1617800</v>
       </c>
       <c r="F43" s="3">
-        <v>1358500</v>
+        <v>1385700</v>
       </c>
       <c r="G43" s="3">
-        <v>1612900</v>
+        <v>1645300</v>
       </c>
       <c r="H43" s="3">
-        <v>1164600</v>
+        <v>1188000</v>
       </c>
       <c r="I43" s="3">
-        <v>1992800</v>
+        <v>2032800</v>
       </c>
       <c r="J43" s="3">
-        <v>1462100</v>
+        <v>1491400</v>
       </c>
       <c r="K43" s="3">
         <v>1418200</v>
@@ -1657,25 +1657,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>783600</v>
+        <v>799300</v>
       </c>
       <c r="E44" s="3">
-        <v>878700</v>
+        <v>896400</v>
       </c>
       <c r="F44" s="3">
-        <v>830100</v>
+        <v>846800</v>
       </c>
       <c r="G44" s="3">
-        <v>924500</v>
+        <v>943000</v>
       </c>
       <c r="H44" s="3">
-        <v>1062000</v>
+        <v>1083300</v>
       </c>
       <c r="I44" s="3">
-        <v>1216400</v>
+        <v>1240800</v>
       </c>
       <c r="J44" s="3">
-        <v>1255800</v>
+        <v>1281000</v>
       </c>
       <c r="K44" s="3">
         <v>1416400</v>
@@ -1687,25 +1687,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>111500</v>
+        <v>113700</v>
       </c>
       <c r="E45" s="3">
-        <v>100600</v>
+        <v>102600</v>
       </c>
       <c r="F45" s="3">
-        <v>304300</v>
+        <v>310400</v>
       </c>
       <c r="G45" s="3">
-        <v>221200</v>
+        <v>225700</v>
       </c>
       <c r="H45" s="3">
-        <v>157400</v>
+        <v>160600</v>
       </c>
       <c r="I45" s="3">
-        <v>151700</v>
+        <v>154700</v>
       </c>
       <c r="J45" s="3">
-        <v>171000</v>
+        <v>174400</v>
       </c>
       <c r="K45" s="3">
         <v>430500</v>
@@ -1717,25 +1717,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4782900</v>
+        <v>4878800</v>
       </c>
       <c r="E46" s="3">
-        <v>4978900</v>
+        <v>5078700</v>
       </c>
       <c r="F46" s="3">
-        <v>6017900</v>
+        <v>6138600</v>
       </c>
       <c r="G46" s="3">
-        <v>5455800</v>
+        <v>5565200</v>
       </c>
       <c r="H46" s="3">
-        <v>5410500</v>
+        <v>5519100</v>
       </c>
       <c r="I46" s="3">
-        <v>6199500</v>
+        <v>6323900</v>
       </c>
       <c r="J46" s="3">
-        <v>5664800</v>
+        <v>5778400</v>
       </c>
       <c r="K46" s="3">
         <v>5845000</v>
@@ -1747,25 +1747,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>452400</v>
+        <v>461500</v>
       </c>
       <c r="E47" s="3">
-        <v>443100</v>
+        <v>452000</v>
       </c>
       <c r="F47" s="3">
-        <v>332200</v>
+        <v>338800</v>
       </c>
       <c r="G47" s="3">
-        <v>274200</v>
+        <v>279700</v>
       </c>
       <c r="H47" s="3">
-        <v>486000</v>
+        <v>495700</v>
       </c>
       <c r="I47" s="3">
-        <v>496800</v>
+        <v>506800</v>
       </c>
       <c r="J47" s="3">
-        <v>469400</v>
+        <v>478800</v>
       </c>
       <c r="K47" s="3">
         <v>511800</v>
@@ -1777,25 +1777,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7364600</v>
+        <v>7512300</v>
       </c>
       <c r="E48" s="3">
-        <v>7425400</v>
+        <v>7574300</v>
       </c>
       <c r="F48" s="3">
-        <v>7536700</v>
+        <v>7687900</v>
       </c>
       <c r="G48" s="3">
-        <v>7455100</v>
+        <v>7604700</v>
       </c>
       <c r="H48" s="3">
-        <v>6989000</v>
+        <v>7129200</v>
       </c>
       <c r="I48" s="3">
-        <v>7758200</v>
+        <v>7913800</v>
       </c>
       <c r="J48" s="3">
-        <v>9068900</v>
+        <v>9250800</v>
       </c>
       <c r="K48" s="3">
         <v>10554300</v>
@@ -1807,25 +1807,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>427800</v>
+        <v>436400</v>
       </c>
       <c r="E49" s="3">
-        <v>446800</v>
+        <v>455800</v>
       </c>
       <c r="F49" s="3">
-        <v>439900</v>
+        <v>448700</v>
       </c>
       <c r="G49" s="3">
-        <v>454300</v>
+        <v>463400</v>
       </c>
       <c r="H49" s="3">
-        <v>486800</v>
+        <v>496600</v>
       </c>
       <c r="I49" s="3">
-        <v>129800</v>
+        <v>132400</v>
       </c>
       <c r="J49" s="3">
-        <v>148000</v>
+        <v>151000</v>
       </c>
       <c r="K49" s="3">
         <v>496700</v>
@@ -1897,25 +1897,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>253400</v>
+        <v>258500</v>
       </c>
       <c r="E52" s="3">
-        <v>394300</v>
+        <v>402200</v>
       </c>
       <c r="F52" s="3">
-        <v>417800</v>
+        <v>426200</v>
       </c>
       <c r="G52" s="3">
-        <v>714900</v>
+        <v>729200</v>
       </c>
       <c r="H52" s="3">
-        <v>841200</v>
+        <v>858100</v>
       </c>
       <c r="I52" s="3">
-        <v>190000</v>
+        <v>193800</v>
       </c>
       <c r="J52" s="3">
-        <v>174400</v>
+        <v>177900</v>
       </c>
       <c r="K52" s="3">
         <v>546100</v>
@@ -1957,25 +1957,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13281100</v>
+        <v>13547500</v>
       </c>
       <c r="E54" s="3">
-        <v>13688400</v>
+        <v>13963000</v>
       </c>
       <c r="F54" s="3">
-        <v>14744500</v>
+        <v>15040200</v>
       </c>
       <c r="G54" s="3">
-        <v>14354300</v>
+        <v>14642200</v>
       </c>
       <c r="H54" s="3">
-        <v>14213500</v>
+        <v>14498600</v>
       </c>
       <c r="I54" s="3">
-        <v>14774300</v>
+        <v>15070700</v>
       </c>
       <c r="J54" s="3">
-        <v>15525500</v>
+        <v>15837000</v>
       </c>
       <c r="K54" s="3">
         <v>17953800</v>
@@ -2015,25 +2015,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1712000</v>
+        <v>1746400</v>
       </c>
       <c r="E57" s="3">
-        <v>1957900</v>
+        <v>1997200</v>
       </c>
       <c r="F57" s="3">
-        <v>1822100</v>
+        <v>1858600</v>
       </c>
       <c r="G57" s="3">
-        <v>2003000</v>
+        <v>2043200</v>
       </c>
       <c r="H57" s="3">
-        <v>2051200</v>
+        <v>2092400</v>
       </c>
       <c r="I57" s="3">
-        <v>2499100</v>
+        <v>2549200</v>
       </c>
       <c r="J57" s="3">
-        <v>2617300</v>
+        <v>2669800</v>
       </c>
       <c r="K57" s="3">
         <v>2711000</v>
@@ -2045,25 +2045,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>398900</v>
+        <v>406900</v>
       </c>
       <c r="E58" s="3">
-        <v>1006800</v>
+        <v>1027000</v>
       </c>
       <c r="F58" s="3">
-        <v>386800</v>
+        <v>394500</v>
       </c>
       <c r="G58" s="3">
-        <v>621300</v>
+        <v>633700</v>
       </c>
       <c r="H58" s="3">
-        <v>1359400</v>
+        <v>1386700</v>
       </c>
       <c r="I58" s="3">
-        <v>1903700</v>
+        <v>1941900</v>
       </c>
       <c r="J58" s="3">
-        <v>2211800</v>
+        <v>2256100</v>
       </c>
       <c r="K58" s="3">
         <v>1799700</v>
@@ -2075,25 +2075,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>912700</v>
+        <v>931000</v>
       </c>
       <c r="E59" s="3">
-        <v>1341800</v>
+        <v>1368800</v>
       </c>
       <c r="F59" s="3">
-        <v>1372900</v>
+        <v>1400400</v>
       </c>
       <c r="G59" s="3">
-        <v>1292400</v>
+        <v>1318300</v>
       </c>
       <c r="H59" s="3">
-        <v>1310400</v>
+        <v>1336700</v>
       </c>
       <c r="I59" s="3">
-        <v>1413500</v>
+        <v>1441900</v>
       </c>
       <c r="J59" s="3">
-        <v>1227600</v>
+        <v>1252300</v>
       </c>
       <c r="K59" s="3">
         <v>1861700</v>
@@ -2105,25 +2105,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3023600</v>
+        <v>3084300</v>
       </c>
       <c r="E60" s="3">
-        <v>4306500</v>
+        <v>4392900</v>
       </c>
       <c r="F60" s="3">
-        <v>3581700</v>
+        <v>3653600</v>
       </c>
       <c r="G60" s="3">
-        <v>3916700</v>
+        <v>3995300</v>
       </c>
       <c r="H60" s="3">
-        <v>4721100</v>
+        <v>4815800</v>
       </c>
       <c r="I60" s="3">
-        <v>5816400</v>
+        <v>5933100</v>
       </c>
       <c r="J60" s="3">
-        <v>6056700</v>
+        <v>6178200</v>
       </c>
       <c r="K60" s="3">
         <v>6372400</v>
@@ -2135,25 +2135,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3768900</v>
+        <v>3844500</v>
       </c>
       <c r="E61" s="3">
-        <v>1894100</v>
+        <v>1932100</v>
       </c>
       <c r="F61" s="3">
-        <v>3421900</v>
+        <v>3490600</v>
       </c>
       <c r="G61" s="3">
-        <v>3546700</v>
+        <v>3617800</v>
       </c>
       <c r="H61" s="3">
-        <v>2289200</v>
+        <v>2335100</v>
       </c>
       <c r="I61" s="3">
-        <v>2862000</v>
+        <v>2919400</v>
       </c>
       <c r="J61" s="3">
-        <v>3958100</v>
+        <v>4037500</v>
       </c>
       <c r="K61" s="3">
         <v>5657500</v>
@@ -2165,25 +2165,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>210100</v>
+        <v>214300</v>
       </c>
       <c r="E62" s="3">
-        <v>230700</v>
+        <v>235300</v>
       </c>
       <c r="F62" s="3">
-        <v>217700</v>
+        <v>222000</v>
       </c>
       <c r="G62" s="3">
-        <v>223100</v>
+        <v>227600</v>
       </c>
       <c r="H62" s="3">
-        <v>368400</v>
+        <v>375800</v>
       </c>
       <c r="I62" s="3">
-        <v>284700</v>
+        <v>290400</v>
       </c>
       <c r="J62" s="3">
-        <v>400900</v>
+        <v>408900</v>
       </c>
       <c r="K62" s="3">
         <v>494700</v>
@@ -2285,25 +2285,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7380300</v>
+        <v>7528300</v>
       </c>
       <c r="E66" s="3">
-        <v>6912800</v>
+        <v>7051400</v>
       </c>
       <c r="F66" s="3">
-        <v>7792100</v>
+        <v>7948400</v>
       </c>
       <c r="G66" s="3">
-        <v>8300700</v>
+        <v>8467200</v>
       </c>
       <c r="H66" s="3">
-        <v>8135200</v>
+        <v>8298400</v>
       </c>
       <c r="I66" s="3">
-        <v>9608700</v>
+        <v>9801500</v>
       </c>
       <c r="J66" s="3">
-        <v>10884500</v>
+        <v>11102800</v>
       </c>
       <c r="K66" s="3">
         <v>12993100</v>
@@ -2449,25 +2449,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>765000</v>
+        <v>780300</v>
       </c>
       <c r="E72" s="3">
-        <v>1564700</v>
+        <v>1596000</v>
       </c>
       <c r="F72" s="3">
-        <v>1707300</v>
+        <v>1741500</v>
       </c>
       <c r="G72" s="3">
-        <v>809700</v>
+        <v>826000</v>
       </c>
       <c r="H72" s="3">
-        <v>681600</v>
+        <v>695300</v>
       </c>
       <c r="I72" s="3">
-        <v>-222300</v>
+        <v>-226800</v>
       </c>
       <c r="J72" s="3">
-        <v>-731400</v>
+        <v>-746100</v>
       </c>
       <c r="K72" s="3">
         <v>-1816500</v>
@@ -2569,25 +2569,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5900800</v>
+        <v>6019200</v>
       </c>
       <c r="E76" s="3">
-        <v>6775600</v>
+        <v>6911500</v>
       </c>
       <c r="F76" s="3">
-        <v>6952400</v>
+        <v>7091800</v>
       </c>
       <c r="G76" s="3">
-        <v>6053600</v>
+        <v>6175000</v>
       </c>
       <c r="H76" s="3">
-        <v>6078300</v>
+        <v>6200200</v>
       </c>
       <c r="I76" s="3">
-        <v>5165600</v>
+        <v>5269200</v>
       </c>
       <c r="J76" s="3">
-        <v>4641100</v>
+        <v>4734200</v>
       </c>
       <c r="K76" s="3">
         <v>4960800</v>
@@ -2664,25 +2664,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-639800</v>
+        <v>-653600</v>
       </c>
       <c r="E81" s="3">
-        <v>338900</v>
+        <v>346200</v>
       </c>
       <c r="F81" s="3">
-        <v>1079200</v>
+        <v>1102500</v>
       </c>
       <c r="G81" s="3">
-        <v>260800</v>
+        <v>266400</v>
       </c>
       <c r="H81" s="3">
-        <v>164500</v>
+        <v>168000</v>
       </c>
       <c r="I81" s="3">
-        <v>545800</v>
+        <v>557600</v>
       </c>
       <c r="J81" s="3">
-        <v>126900</v>
+        <v>129600</v>
       </c>
       <c r="K81" s="3">
         <v>-1702400</v>
@@ -2708,25 +2708,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1209200</v>
+        <v>1235300</v>
       </c>
       <c r="E83" s="3">
-        <v>1141500</v>
+        <v>1166100</v>
       </c>
       <c r="F83" s="3">
-        <v>1214900</v>
+        <v>1241200</v>
       </c>
       <c r="G83" s="3">
-        <v>1323800</v>
+        <v>1352300</v>
       </c>
       <c r="H83" s="3">
-        <v>1592300</v>
+        <v>1626700</v>
       </c>
       <c r="I83" s="3">
-        <v>1897700</v>
+        <v>1938700</v>
       </c>
       <c r="J83" s="3">
-        <v>2122300</v>
+        <v>2168100</v>
       </c>
       <c r="K83" s="3">
         <v>2503700</v>
@@ -2888,25 +2888,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>691400</v>
+        <v>706300</v>
       </c>
       <c r="E89" s="3">
-        <v>1340700</v>
+        <v>1369600</v>
       </c>
       <c r="F89" s="3">
-        <v>2813500</v>
+        <v>2874300</v>
       </c>
       <c r="G89" s="3">
-        <v>1223800</v>
+        <v>1250200</v>
       </c>
       <c r="H89" s="3">
-        <v>2067800</v>
+        <v>2112500</v>
       </c>
       <c r="I89" s="3">
-        <v>2114100</v>
+        <v>2159800</v>
       </c>
       <c r="J89" s="3">
-        <v>1655600</v>
+        <v>1691300</v>
       </c>
       <c r="K89" s="3">
         <v>1189000</v>
@@ -2932,25 +2932,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-985400</v>
+        <v>-1006700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1159600</v>
+        <v>-1184600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1463500</v>
+        <v>-1495000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1541400</v>
+        <v>-1574700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1115200</v>
+        <v>-1139300</v>
       </c>
       <c r="I91" s="3">
-        <v>-566000</v>
+        <v>-578200</v>
       </c>
       <c r="J91" s="3">
-        <v>-849000</v>
+        <v>-867300</v>
       </c>
       <c r="K91" s="3">
         <v>-1441200</v>
@@ -3022,25 +3022,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-937500</v>
+        <v>-957800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1150500</v>
+        <v>-1175300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1456300</v>
+        <v>-1487800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1409600</v>
+        <v>-1440000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1058400</v>
+        <v>-1081200</v>
       </c>
       <c r="I94" s="3">
-        <v>-437100</v>
+        <v>-446500</v>
       </c>
       <c r="J94" s="3">
-        <v>-774500</v>
+        <v>-791200</v>
       </c>
       <c r="K94" s="3">
         <v>-1436200</v>
@@ -3066,22 +3066,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-160500</v>
+        <v>-163900</v>
       </c>
       <c r="E96" s="3">
-        <v>-481500</v>
+        <v>-491800</v>
       </c>
       <c r="F96" s="3">
-        <v>-179700</v>
+        <v>-183600</v>
       </c>
       <c r="G96" s="3">
-        <v>-112300</v>
+        <v>-114800</v>
       </c>
       <c r="H96" s="3">
-        <v>-160500</v>
+        <v>-163900</v>
       </c>
       <c r="I96" s="3">
-        <v>-48100</v>
+        <v>-49200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>691700</v>
+        <v>706700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1395600</v>
+        <v>-1425700</v>
       </c>
       <c r="F100" s="3">
-        <v>-447200</v>
+        <v>-456900</v>
       </c>
       <c r="G100" s="3">
-        <v>357600</v>
+        <v>365300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1143100</v>
+        <v>-1167800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1502100</v>
+        <v>-1534600</v>
       </c>
       <c r="J100" s="3">
-        <v>-893300</v>
+        <v>-912600</v>
       </c>
       <c r="K100" s="3">
         <v>-197600</v>
@@ -3216,22 +3216,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-69200</v>
+        <v>-70700</v>
       </c>
       <c r="E101" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="F101" s="3">
-        <v>-81900</v>
+        <v>-83700</v>
       </c>
       <c r="G101" s="3">
-        <v>-128000</v>
+        <v>-130800</v>
       </c>
       <c r="H101" s="3">
-        <v>30800</v>
+        <v>31500</v>
       </c>
       <c r="I101" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="J101" s="3">
         <v>800</v>
@@ -3246,25 +3246,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>376400</v>
+        <v>384500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1195800</v>
+        <v>-1221700</v>
       </c>
       <c r="F102" s="3">
-        <v>828100</v>
+        <v>845900</v>
       </c>
       <c r="G102" s="3">
-        <v>43700</v>
+        <v>44700</v>
       </c>
       <c r="H102" s="3">
-        <v>-102900</v>
+        <v>-105100</v>
       </c>
       <c r="I102" s="3">
-        <v>188500</v>
+        <v>192600</v>
       </c>
       <c r="J102" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="K102" s="3">
         <v>-445600</v>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -715,25 +715,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9157700</v>
+        <v>9429200</v>
       </c>
       <c r="E8" s="3">
-        <v>10481100</v>
+        <v>10791800</v>
       </c>
       <c r="F8" s="3">
-        <v>11618800</v>
+        <v>11963300</v>
       </c>
       <c r="G8" s="3">
-        <v>11212100</v>
+        <v>11544400</v>
       </c>
       <c r="H8" s="3">
-        <v>12277000</v>
+        <v>12641000</v>
       </c>
       <c r="I8" s="3">
-        <v>13906700</v>
+        <v>14318900</v>
       </c>
       <c r="J8" s="3">
-        <v>14185500</v>
+        <v>14606000</v>
       </c>
       <c r="K8" s="3">
         <v>12587900</v>
@@ -745,25 +745,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9142200</v>
+        <v>9413200</v>
       </c>
       <c r="E9" s="3">
-        <v>9522400</v>
+        <v>9804700</v>
       </c>
       <c r="F9" s="3">
-        <v>9539100</v>
+        <v>9821900</v>
       </c>
       <c r="G9" s="3">
-        <v>10037000</v>
+        <v>10334500</v>
       </c>
       <c r="H9" s="3">
-        <v>10919800</v>
+        <v>11243500</v>
       </c>
       <c r="I9" s="3">
-        <v>12253900</v>
+        <v>12617200</v>
       </c>
       <c r="J9" s="3">
-        <v>26055300</v>
+        <v>26827700</v>
       </c>
       <c r="K9" s="3">
         <v>25900900</v>
@@ -775,25 +775,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="E10" s="3">
-        <v>958700</v>
+        <v>987100</v>
       </c>
       <c r="F10" s="3">
-        <v>2079700</v>
+        <v>2141300</v>
       </c>
       <c r="G10" s="3">
-        <v>1175100</v>
+        <v>1209900</v>
       </c>
       <c r="H10" s="3">
-        <v>1357200</v>
+        <v>1397500</v>
       </c>
       <c r="I10" s="3">
-        <v>1652800</v>
+        <v>1701800</v>
       </c>
       <c r="J10" s="3">
-        <v>-11869800</v>
+        <v>-12221700</v>
       </c>
       <c r="K10" s="3">
         <v>-13312900</v>
@@ -819,25 +819,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>334200</v>
+        <v>344100</v>
       </c>
       <c r="E12" s="3">
-        <v>325300</v>
+        <v>334900</v>
       </c>
       <c r="F12" s="3">
-        <v>335800</v>
+        <v>345700</v>
       </c>
       <c r="G12" s="3">
-        <v>309400</v>
+        <v>318600</v>
       </c>
       <c r="H12" s="3">
-        <v>303400</v>
+        <v>312300</v>
       </c>
       <c r="I12" s="3">
-        <v>312000</v>
+        <v>321200</v>
       </c>
       <c r="J12" s="3">
-        <v>290600</v>
+        <v>299200</v>
       </c>
       <c r="K12" s="3">
         <v>329400</v>
@@ -879,25 +879,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>64800</v>
+        <v>66700</v>
       </c>
       <c r="E14" s="3">
-        <v>30700</v>
+        <v>31600</v>
       </c>
       <c r="F14" s="3">
-        <v>55600</v>
+        <v>57200</v>
       </c>
       <c r="G14" s="3">
-        <v>33200</v>
+        <v>34200</v>
       </c>
       <c r="H14" s="3">
-        <v>409800</v>
+        <v>422000</v>
       </c>
       <c r="I14" s="3">
-        <v>78100</v>
+        <v>80400</v>
       </c>
       <c r="J14" s="3">
-        <v>136400</v>
+        <v>140400</v>
       </c>
       <c r="K14" s="3">
         <v>800400</v>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9919900</v>
+        <v>10214000</v>
       </c>
       <c r="E17" s="3">
-        <v>10284600</v>
+        <v>10589500</v>
       </c>
       <c r="F17" s="3">
-        <v>10340900</v>
+        <v>10647500</v>
       </c>
       <c r="G17" s="3">
-        <v>10824900</v>
+        <v>11145800</v>
       </c>
       <c r="H17" s="3">
-        <v>12089900</v>
+        <v>12448300</v>
       </c>
       <c r="I17" s="3">
-        <v>13229600</v>
+        <v>13621800</v>
       </c>
       <c r="J17" s="3">
-        <v>14039300</v>
+        <v>14455500</v>
       </c>
       <c r="K17" s="3">
         <v>14139900</v>
@@ -980,25 +980,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-762100</v>
+        <v>-784700</v>
       </c>
       <c r="E18" s="3">
-        <v>196500</v>
+        <v>202300</v>
       </c>
       <c r="F18" s="3">
-        <v>1277900</v>
+        <v>1315800</v>
       </c>
       <c r="G18" s="3">
-        <v>387200</v>
+        <v>398600</v>
       </c>
       <c r="H18" s="3">
-        <v>187100</v>
+        <v>192700</v>
       </c>
       <c r="I18" s="3">
-        <v>677100</v>
+        <v>697100</v>
       </c>
       <c r="J18" s="3">
-        <v>146100</v>
+        <v>150500</v>
       </c>
       <c r="K18" s="3">
         <v>-1552000</v>
@@ -1024,25 +1024,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>196800</v>
+        <v>202600</v>
       </c>
       <c r="E20" s="3">
-        <v>276400</v>
+        <v>284600</v>
       </c>
       <c r="F20" s="3">
-        <v>160900</v>
+        <v>165700</v>
       </c>
       <c r="G20" s="3">
-        <v>86200</v>
+        <v>88800</v>
       </c>
       <c r="H20" s="3">
-        <v>160100</v>
+        <v>164800</v>
       </c>
       <c r="I20" s="3">
-        <v>141500</v>
+        <v>145700</v>
       </c>
       <c r="J20" s="3">
-        <v>358200</v>
+        <v>368800</v>
       </c>
       <c r="K20" s="3">
         <v>220500</v>
@@ -1054,25 +1054,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>669600</v>
+        <v>690200</v>
       </c>
       <c r="E21" s="3">
-        <v>1638700</v>
+        <v>1687900</v>
       </c>
       <c r="F21" s="3">
-        <v>2679600</v>
+        <v>2759800</v>
       </c>
       <c r="G21" s="3">
-        <v>1825300</v>
+        <v>1880200</v>
       </c>
       <c r="H21" s="3">
-        <v>1973400</v>
+        <v>2032900</v>
       </c>
       <c r="I21" s="3">
-        <v>2756700</v>
+        <v>2839500</v>
       </c>
       <c r="J21" s="3">
-        <v>2671800</v>
+        <v>2752300</v>
       </c>
       <c r="K21" s="3">
         <v>1176800</v>
@@ -1084,25 +1084,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>110800</v>
+        <v>114100</v>
       </c>
       <c r="E22" s="3">
-        <v>90700</v>
+        <v>93400</v>
       </c>
       <c r="F22" s="3">
-        <v>97700</v>
+        <v>100600</v>
       </c>
       <c r="G22" s="3">
-        <v>92300</v>
+        <v>95000</v>
       </c>
       <c r="H22" s="3">
-        <v>88300</v>
+        <v>90900</v>
       </c>
       <c r="I22" s="3">
-        <v>137800</v>
+        <v>141900</v>
       </c>
       <c r="J22" s="3">
-        <v>325900</v>
+        <v>335600</v>
       </c>
       <c r="K22" s="3">
         <v>381200</v>
@@ -1114,25 +1114,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-676100</v>
+        <v>-696200</v>
       </c>
       <c r="E23" s="3">
-        <v>382100</v>
+        <v>393500</v>
       </c>
       <c r="F23" s="3">
-        <v>1341100</v>
+        <v>1380900</v>
       </c>
       <c r="G23" s="3">
-        <v>381100</v>
+        <v>392400</v>
       </c>
       <c r="H23" s="3">
-        <v>258900</v>
+        <v>266600</v>
       </c>
       <c r="I23" s="3">
-        <v>680700</v>
+        <v>700900</v>
       </c>
       <c r="J23" s="3">
-        <v>178400</v>
+        <v>183700</v>
       </c>
       <c r="K23" s="3">
         <v>-1712700</v>
@@ -1144,25 +1144,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>59800</v>
+        <v>61600</v>
       </c>
       <c r="E24" s="3">
-        <v>110900</v>
+        <v>114200</v>
       </c>
       <c r="F24" s="3">
-        <v>310200</v>
+        <v>319400</v>
       </c>
       <c r="G24" s="3">
-        <v>156000</v>
+        <v>160600</v>
       </c>
       <c r="H24" s="3">
-        <v>93900</v>
+        <v>96700</v>
       </c>
       <c r="I24" s="3">
-        <v>110500</v>
+        <v>113800</v>
       </c>
       <c r="J24" s="3">
-        <v>46300</v>
+        <v>47700</v>
       </c>
       <c r="K24" s="3">
         <v>37400</v>
@@ -1204,25 +1204,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-735900</v>
+        <v>-757700</v>
       </c>
       <c r="E26" s="3">
-        <v>271200</v>
+        <v>279200</v>
       </c>
       <c r="F26" s="3">
-        <v>1030900</v>
+        <v>1061500</v>
       </c>
       <c r="G26" s="3">
-        <v>225100</v>
+        <v>231800</v>
       </c>
       <c r="H26" s="3">
-        <v>165000</v>
+        <v>169900</v>
       </c>
       <c r="I26" s="3">
-        <v>570200</v>
+        <v>587100</v>
       </c>
       <c r="J26" s="3">
-        <v>132100</v>
+        <v>136000</v>
       </c>
       <c r="K26" s="3">
         <v>-1750100</v>
@@ -1234,25 +1234,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-653600</v>
+        <v>-673000</v>
       </c>
       <c r="E27" s="3">
-        <v>346200</v>
+        <v>356400</v>
       </c>
       <c r="F27" s="3">
-        <v>1102500</v>
+        <v>1135200</v>
       </c>
       <c r="G27" s="3">
-        <v>266400</v>
+        <v>274300</v>
       </c>
       <c r="H27" s="3">
-        <v>168000</v>
+        <v>173000</v>
       </c>
       <c r="I27" s="3">
-        <v>557600</v>
+        <v>574100</v>
       </c>
       <c r="J27" s="3">
-        <v>129600</v>
+        <v>133400</v>
       </c>
       <c r="K27" s="3">
         <v>-1702400</v>
@@ -1384,25 +1384,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-196800</v>
+        <v>-202600</v>
       </c>
       <c r="E32" s="3">
-        <v>-276400</v>
+        <v>-284600</v>
       </c>
       <c r="F32" s="3">
-        <v>-160900</v>
+        <v>-165700</v>
       </c>
       <c r="G32" s="3">
-        <v>-86200</v>
+        <v>-88800</v>
       </c>
       <c r="H32" s="3">
-        <v>-160100</v>
+        <v>-164800</v>
       </c>
       <c r="I32" s="3">
-        <v>-141500</v>
+        <v>-145700</v>
       </c>
       <c r="J32" s="3">
-        <v>-358200</v>
+        <v>-368800</v>
       </c>
       <c r="K32" s="3">
         <v>-220500</v>
@@ -1414,25 +1414,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-653600</v>
+        <v>-673000</v>
       </c>
       <c r="E33" s="3">
-        <v>346200</v>
+        <v>356400</v>
       </c>
       <c r="F33" s="3">
-        <v>1102500</v>
+        <v>1135200</v>
       </c>
       <c r="G33" s="3">
-        <v>266400</v>
+        <v>274300</v>
       </c>
       <c r="H33" s="3">
-        <v>168000</v>
+        <v>173000</v>
       </c>
       <c r="I33" s="3">
-        <v>557600</v>
+        <v>574100</v>
       </c>
       <c r="J33" s="3">
-        <v>129600</v>
+        <v>133400</v>
       </c>
       <c r="K33" s="3">
         <v>-1702400</v>
@@ -1474,25 +1474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-653600</v>
+        <v>-673000</v>
       </c>
       <c r="E35" s="3">
-        <v>346200</v>
+        <v>356400</v>
       </c>
       <c r="F35" s="3">
-        <v>1102500</v>
+        <v>1135200</v>
       </c>
       <c r="G35" s="3">
-        <v>266400</v>
+        <v>274300</v>
       </c>
       <c r="H35" s="3">
-        <v>168000</v>
+        <v>173000</v>
       </c>
       <c r="I35" s="3">
-        <v>557600</v>
+        <v>574100</v>
       </c>
       <c r="J35" s="3">
-        <v>129600</v>
+        <v>133400</v>
       </c>
       <c r="K35" s="3">
         <v>-1702400</v>
@@ -1567,25 +1567,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2740900</v>
+        <v>2822200</v>
       </c>
       <c r="E41" s="3">
-        <v>2356400</v>
+        <v>2426200</v>
       </c>
       <c r="F41" s="3">
-        <v>3578100</v>
+        <v>3684100</v>
       </c>
       <c r="G41" s="3">
-        <v>2732100</v>
+        <v>2813100</v>
       </c>
       <c r="H41" s="3">
-        <v>2687500</v>
+        <v>2767100</v>
       </c>
       <c r="I41" s="3">
-        <v>2792600</v>
+        <v>2875300</v>
       </c>
       <c r="J41" s="3">
-        <v>2600000</v>
+        <v>2677000</v>
       </c>
       <c r="K41" s="3">
         <v>2398600</v>
@@ -1597,25 +1597,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>128800</v>
+        <v>132600</v>
       </c>
       <c r="E42" s="3">
-        <v>105600</v>
+        <v>108700</v>
       </c>
       <c r="F42" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="G42" s="3">
-        <v>19100</v>
+        <v>19600</v>
       </c>
       <c r="H42" s="3">
-        <v>399800</v>
+        <v>411600</v>
       </c>
       <c r="I42" s="3">
-        <v>103000</v>
+        <v>106100</v>
       </c>
       <c r="J42" s="3">
-        <v>231700</v>
+        <v>238500</v>
       </c>
       <c r="K42" s="3">
         <v>181200</v>
@@ -1627,25 +1627,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1096100</v>
+        <v>1128600</v>
       </c>
       <c r="E43" s="3">
-        <v>1617800</v>
+        <v>1665800</v>
       </c>
       <c r="F43" s="3">
-        <v>1385700</v>
+        <v>1426800</v>
       </c>
       <c r="G43" s="3">
-        <v>1645300</v>
+        <v>1694100</v>
       </c>
       <c r="H43" s="3">
-        <v>1188000</v>
+        <v>1223200</v>
       </c>
       <c r="I43" s="3">
-        <v>2032800</v>
+        <v>2093000</v>
       </c>
       <c r="J43" s="3">
-        <v>1491400</v>
+        <v>1535600</v>
       </c>
       <c r="K43" s="3">
         <v>1418200</v>
@@ -1657,25 +1657,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>799300</v>
+        <v>823000</v>
       </c>
       <c r="E44" s="3">
-        <v>896400</v>
+        <v>922900</v>
       </c>
       <c r="F44" s="3">
-        <v>846800</v>
+        <v>871900</v>
       </c>
       <c r="G44" s="3">
-        <v>943000</v>
+        <v>971000</v>
       </c>
       <c r="H44" s="3">
-        <v>1083300</v>
+        <v>1115400</v>
       </c>
       <c r="I44" s="3">
-        <v>1240800</v>
+        <v>1277600</v>
       </c>
       <c r="J44" s="3">
-        <v>1281000</v>
+        <v>1318900</v>
       </c>
       <c r="K44" s="3">
         <v>1416400</v>
@@ -1687,25 +1687,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>113700</v>
+        <v>117100</v>
       </c>
       <c r="E45" s="3">
-        <v>102600</v>
+        <v>105600</v>
       </c>
       <c r="F45" s="3">
-        <v>310400</v>
+        <v>319600</v>
       </c>
       <c r="G45" s="3">
-        <v>225700</v>
+        <v>232400</v>
       </c>
       <c r="H45" s="3">
-        <v>160600</v>
+        <v>165300</v>
       </c>
       <c r="I45" s="3">
-        <v>154700</v>
+        <v>159300</v>
       </c>
       <c r="J45" s="3">
-        <v>174400</v>
+        <v>179600</v>
       </c>
       <c r="K45" s="3">
         <v>430500</v>
@@ -1717,25 +1717,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4878800</v>
+        <v>5023500</v>
       </c>
       <c r="E46" s="3">
-        <v>5078700</v>
+        <v>5229300</v>
       </c>
       <c r="F46" s="3">
-        <v>6138600</v>
+        <v>6320600</v>
       </c>
       <c r="G46" s="3">
-        <v>5565200</v>
+        <v>5730200</v>
       </c>
       <c r="H46" s="3">
-        <v>5519100</v>
+        <v>5682700</v>
       </c>
       <c r="I46" s="3">
-        <v>6323900</v>
+        <v>6511400</v>
       </c>
       <c r="J46" s="3">
-        <v>5778400</v>
+        <v>5949700</v>
       </c>
       <c r="K46" s="3">
         <v>5845000</v>
@@ -1747,25 +1747,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>461500</v>
+        <v>475100</v>
       </c>
       <c r="E47" s="3">
-        <v>452000</v>
+        <v>465400</v>
       </c>
       <c r="F47" s="3">
-        <v>338800</v>
+        <v>348900</v>
       </c>
       <c r="G47" s="3">
-        <v>279700</v>
+        <v>288000</v>
       </c>
       <c r="H47" s="3">
-        <v>495700</v>
+        <v>510400</v>
       </c>
       <c r="I47" s="3">
-        <v>506800</v>
+        <v>521800</v>
       </c>
       <c r="J47" s="3">
-        <v>478800</v>
+        <v>493000</v>
       </c>
       <c r="K47" s="3">
         <v>511800</v>
@@ -1777,25 +1777,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7512300</v>
+        <v>7735100</v>
       </c>
       <c r="E48" s="3">
-        <v>7574300</v>
+        <v>7798900</v>
       </c>
       <c r="F48" s="3">
-        <v>7687900</v>
+        <v>7915800</v>
       </c>
       <c r="G48" s="3">
-        <v>7604700</v>
+        <v>7830100</v>
       </c>
       <c r="H48" s="3">
-        <v>7129200</v>
+        <v>7340500</v>
       </c>
       <c r="I48" s="3">
-        <v>7913800</v>
+        <v>8148400</v>
       </c>
       <c r="J48" s="3">
-        <v>9250800</v>
+        <v>9525100</v>
       </c>
       <c r="K48" s="3">
         <v>10554300</v>
@@ -1807,25 +1807,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>436400</v>
+        <v>449300</v>
       </c>
       <c r="E49" s="3">
-        <v>455800</v>
+        <v>469300</v>
       </c>
       <c r="F49" s="3">
-        <v>448700</v>
+        <v>462000</v>
       </c>
       <c r="G49" s="3">
-        <v>463400</v>
+        <v>477200</v>
       </c>
       <c r="H49" s="3">
-        <v>496600</v>
+        <v>511300</v>
       </c>
       <c r="I49" s="3">
-        <v>132400</v>
+        <v>136300</v>
       </c>
       <c r="J49" s="3">
-        <v>151000</v>
+        <v>155500</v>
       </c>
       <c r="K49" s="3">
         <v>496700</v>
@@ -1897,25 +1897,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>258500</v>
+        <v>266200</v>
       </c>
       <c r="E52" s="3">
-        <v>402200</v>
+        <v>414100</v>
       </c>
       <c r="F52" s="3">
-        <v>426200</v>
+        <v>438800</v>
       </c>
       <c r="G52" s="3">
-        <v>729200</v>
+        <v>750800</v>
       </c>
       <c r="H52" s="3">
-        <v>858100</v>
+        <v>883500</v>
       </c>
       <c r="I52" s="3">
-        <v>193800</v>
+        <v>199600</v>
       </c>
       <c r="J52" s="3">
-        <v>177900</v>
+        <v>183100</v>
       </c>
       <c r="K52" s="3">
         <v>546100</v>
@@ -1957,25 +1957,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13547500</v>
+        <v>13949100</v>
       </c>
       <c r="E54" s="3">
-        <v>13963000</v>
+        <v>14376900</v>
       </c>
       <c r="F54" s="3">
-        <v>15040200</v>
+        <v>15486100</v>
       </c>
       <c r="G54" s="3">
-        <v>14642200</v>
+        <v>15076300</v>
       </c>
       <c r="H54" s="3">
-        <v>14498600</v>
+        <v>14928400</v>
       </c>
       <c r="I54" s="3">
-        <v>15070700</v>
+        <v>15517400</v>
       </c>
       <c r="J54" s="3">
-        <v>15837000</v>
+        <v>16306400</v>
       </c>
       <c r="K54" s="3">
         <v>17953800</v>
@@ -2015,25 +2015,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1746400</v>
+        <v>1798100</v>
       </c>
       <c r="E57" s="3">
-        <v>1997200</v>
+        <v>2056400</v>
       </c>
       <c r="F57" s="3">
-        <v>1858600</v>
+        <v>1913700</v>
       </c>
       <c r="G57" s="3">
-        <v>2043200</v>
+        <v>2103800</v>
       </c>
       <c r="H57" s="3">
-        <v>2092400</v>
+        <v>2154400</v>
       </c>
       <c r="I57" s="3">
-        <v>2549200</v>
+        <v>2624800</v>
       </c>
       <c r="J57" s="3">
-        <v>2669800</v>
+        <v>2749000</v>
       </c>
       <c r="K57" s="3">
         <v>2711000</v>
@@ -2045,25 +2045,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>406900</v>
+        <v>419000</v>
       </c>
       <c r="E58" s="3">
-        <v>1027000</v>
+        <v>1057400</v>
       </c>
       <c r="F58" s="3">
-        <v>394500</v>
+        <v>406200</v>
       </c>
       <c r="G58" s="3">
-        <v>633700</v>
+        <v>652500</v>
       </c>
       <c r="H58" s="3">
-        <v>1386700</v>
+        <v>1427800</v>
       </c>
       <c r="I58" s="3">
-        <v>1941900</v>
+        <v>1999500</v>
       </c>
       <c r="J58" s="3">
-        <v>2256100</v>
+        <v>2323000</v>
       </c>
       <c r="K58" s="3">
         <v>1799700</v>
@@ -2075,25 +2075,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>931000</v>
+        <v>958600</v>
       </c>
       <c r="E59" s="3">
-        <v>1368800</v>
+        <v>1409300</v>
       </c>
       <c r="F59" s="3">
-        <v>1400400</v>
+        <v>1441900</v>
       </c>
       <c r="G59" s="3">
-        <v>1318300</v>
+        <v>1357400</v>
       </c>
       <c r="H59" s="3">
-        <v>1336700</v>
+        <v>1376300</v>
       </c>
       <c r="I59" s="3">
-        <v>1441900</v>
+        <v>1484600</v>
       </c>
       <c r="J59" s="3">
-        <v>1252300</v>
+        <v>1289400</v>
       </c>
       <c r="K59" s="3">
         <v>1861700</v>
@@ -2105,25 +2105,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3084300</v>
+        <v>3175700</v>
       </c>
       <c r="E60" s="3">
-        <v>4392900</v>
+        <v>4523100</v>
       </c>
       <c r="F60" s="3">
-        <v>3653600</v>
+        <v>3761900</v>
       </c>
       <c r="G60" s="3">
-        <v>3995300</v>
+        <v>4113700</v>
       </c>
       <c r="H60" s="3">
-        <v>4815800</v>
+        <v>4958500</v>
       </c>
       <c r="I60" s="3">
-        <v>5933100</v>
+        <v>6108900</v>
       </c>
       <c r="J60" s="3">
-        <v>6178200</v>
+        <v>6361400</v>
       </c>
       <c r="K60" s="3">
         <v>6372400</v>
@@ -2135,25 +2135,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3844500</v>
+        <v>3958500</v>
       </c>
       <c r="E61" s="3">
-        <v>1932100</v>
+        <v>1989400</v>
       </c>
       <c r="F61" s="3">
-        <v>3490600</v>
+        <v>3594000</v>
       </c>
       <c r="G61" s="3">
-        <v>3617800</v>
+        <v>3725100</v>
       </c>
       <c r="H61" s="3">
-        <v>2335100</v>
+        <v>2404300</v>
       </c>
       <c r="I61" s="3">
-        <v>2919400</v>
+        <v>3006000</v>
       </c>
       <c r="J61" s="3">
-        <v>4037500</v>
+        <v>4157200</v>
       </c>
       <c r="K61" s="3">
         <v>5657500</v>
@@ -2165,25 +2165,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>214300</v>
+        <v>220700</v>
       </c>
       <c r="E62" s="3">
-        <v>235300</v>
+        <v>242300</v>
       </c>
       <c r="F62" s="3">
-        <v>222000</v>
+        <v>228600</v>
       </c>
       <c r="G62" s="3">
-        <v>227600</v>
+        <v>234300</v>
       </c>
       <c r="H62" s="3">
-        <v>375800</v>
+        <v>387000</v>
       </c>
       <c r="I62" s="3">
-        <v>290400</v>
+        <v>299100</v>
       </c>
       <c r="J62" s="3">
-        <v>408900</v>
+        <v>421000</v>
       </c>
       <c r="K62" s="3">
         <v>494700</v>
@@ -2285,25 +2285,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7528300</v>
+        <v>7751500</v>
       </c>
       <c r="E66" s="3">
-        <v>7051400</v>
+        <v>7260500</v>
       </c>
       <c r="F66" s="3">
-        <v>7948400</v>
+        <v>8184100</v>
       </c>
       <c r="G66" s="3">
-        <v>8467200</v>
+        <v>8718200</v>
       </c>
       <c r="H66" s="3">
-        <v>8298400</v>
+        <v>8544400</v>
       </c>
       <c r="I66" s="3">
-        <v>9801500</v>
+        <v>10092000</v>
       </c>
       <c r="J66" s="3">
-        <v>11102800</v>
+        <v>11431900</v>
       </c>
       <c r="K66" s="3">
         <v>12993100</v>
@@ -2449,25 +2449,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>780300</v>
+        <v>803500</v>
       </c>
       <c r="E72" s="3">
-        <v>1596000</v>
+        <v>1643400</v>
       </c>
       <c r="F72" s="3">
-        <v>1741500</v>
+        <v>1793100</v>
       </c>
       <c r="G72" s="3">
-        <v>826000</v>
+        <v>850400</v>
       </c>
       <c r="H72" s="3">
-        <v>695300</v>
+        <v>715900</v>
       </c>
       <c r="I72" s="3">
-        <v>-226800</v>
+        <v>-233500</v>
       </c>
       <c r="J72" s="3">
-        <v>-746100</v>
+        <v>-768200</v>
       </c>
       <c r="K72" s="3">
         <v>-1816500</v>
@@ -2569,25 +2569,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6019200</v>
+        <v>6197600</v>
       </c>
       <c r="E76" s="3">
-        <v>6911500</v>
+        <v>7116400</v>
       </c>
       <c r="F76" s="3">
-        <v>7091800</v>
+        <v>7302100</v>
       </c>
       <c r="G76" s="3">
-        <v>6175000</v>
+        <v>6358100</v>
       </c>
       <c r="H76" s="3">
-        <v>6200200</v>
+        <v>6384000</v>
       </c>
       <c r="I76" s="3">
-        <v>5269200</v>
+        <v>5425400</v>
       </c>
       <c r="J76" s="3">
-        <v>4734200</v>
+        <v>4874500</v>
       </c>
       <c r="K76" s="3">
         <v>4960800</v>
@@ -2664,25 +2664,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-653600</v>
+        <v>-673000</v>
       </c>
       <c r="E81" s="3">
-        <v>346200</v>
+        <v>356400</v>
       </c>
       <c r="F81" s="3">
-        <v>1102500</v>
+        <v>1135200</v>
       </c>
       <c r="G81" s="3">
-        <v>266400</v>
+        <v>274300</v>
       </c>
       <c r="H81" s="3">
-        <v>168000</v>
+        <v>173000</v>
       </c>
       <c r="I81" s="3">
-        <v>557600</v>
+        <v>574100</v>
       </c>
       <c r="J81" s="3">
-        <v>129600</v>
+        <v>133400</v>
       </c>
       <c r="K81" s="3">
         <v>-1702400</v>
@@ -2708,25 +2708,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1235300</v>
+        <v>1271900</v>
       </c>
       <c r="E83" s="3">
-        <v>1166100</v>
+        <v>1200700</v>
       </c>
       <c r="F83" s="3">
-        <v>1241200</v>
+        <v>1278000</v>
       </c>
       <c r="G83" s="3">
-        <v>1352300</v>
+        <v>1392400</v>
       </c>
       <c r="H83" s="3">
-        <v>1626700</v>
+        <v>1674900</v>
       </c>
       <c r="I83" s="3">
-        <v>1938700</v>
+        <v>1996100</v>
       </c>
       <c r="J83" s="3">
-        <v>2168100</v>
+        <v>2232400</v>
       </c>
       <c r="K83" s="3">
         <v>2503700</v>
@@ -2888,25 +2888,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>706300</v>
+        <v>727200</v>
       </c>
       <c r="E89" s="3">
-        <v>1369600</v>
+        <v>1410200</v>
       </c>
       <c r="F89" s="3">
-        <v>2874300</v>
+        <v>2959500</v>
       </c>
       <c r="G89" s="3">
-        <v>1250200</v>
+        <v>1287300</v>
       </c>
       <c r="H89" s="3">
-        <v>2112500</v>
+        <v>2175100</v>
       </c>
       <c r="I89" s="3">
-        <v>2159800</v>
+        <v>2223800</v>
       </c>
       <c r="J89" s="3">
-        <v>1691300</v>
+        <v>1741500</v>
       </c>
       <c r="K89" s="3">
         <v>1189000</v>
@@ -2932,25 +2932,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1006700</v>
+        <v>-1036500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1184600</v>
+        <v>-1219700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1495000</v>
+        <v>-1539400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1574700</v>
+        <v>-1621400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1139300</v>
+        <v>-1173100</v>
       </c>
       <c r="I91" s="3">
-        <v>-578200</v>
+        <v>-595300</v>
       </c>
       <c r="J91" s="3">
-        <v>-867300</v>
+        <v>-893100</v>
       </c>
       <c r="K91" s="3">
         <v>-1441200</v>
@@ -3022,25 +3022,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-957800</v>
+        <v>-986200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1175300</v>
+        <v>-1210200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1487800</v>
+        <v>-1531900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1440000</v>
+        <v>-1482700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1081200</v>
+        <v>-1113300</v>
       </c>
       <c r="I94" s="3">
-        <v>-446500</v>
+        <v>-459800</v>
       </c>
       <c r="J94" s="3">
-        <v>-791200</v>
+        <v>-814700</v>
       </c>
       <c r="K94" s="3">
         <v>-1436200</v>
@@ -3066,22 +3066,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-163900</v>
+        <v>-168800</v>
       </c>
       <c r="E96" s="3">
-        <v>-491800</v>
+        <v>-506400</v>
       </c>
       <c r="F96" s="3">
-        <v>-183600</v>
+        <v>-189100</v>
       </c>
       <c r="G96" s="3">
-        <v>-114800</v>
+        <v>-118200</v>
       </c>
       <c r="H96" s="3">
-        <v>-163900</v>
+        <v>-168800</v>
       </c>
       <c r="I96" s="3">
-        <v>-49200</v>
+        <v>-50600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>706700</v>
+        <v>727600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1425700</v>
+        <v>-1468000</v>
       </c>
       <c r="F100" s="3">
-        <v>-456900</v>
+        <v>-470400</v>
       </c>
       <c r="G100" s="3">
-        <v>365300</v>
+        <v>376100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1167800</v>
+        <v>-1202400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1534600</v>
+        <v>-1580100</v>
       </c>
       <c r="J100" s="3">
-        <v>-912600</v>
+        <v>-939600</v>
       </c>
       <c r="K100" s="3">
         <v>-197600</v>
@@ -3216,22 +3216,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-70700</v>
+        <v>-72800</v>
       </c>
       <c r="E101" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="F101" s="3">
-        <v>-83700</v>
+        <v>-86200</v>
       </c>
       <c r="G101" s="3">
-        <v>-130800</v>
+        <v>-134700</v>
       </c>
       <c r="H101" s="3">
-        <v>31500</v>
+        <v>32400</v>
       </c>
       <c r="I101" s="3">
-        <v>13900</v>
+        <v>14300</v>
       </c>
       <c r="J101" s="3">
         <v>800</v>
@@ -3246,25 +3246,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>384500</v>
+        <v>395900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1221700</v>
+        <v>-1257900</v>
       </c>
       <c r="F102" s="3">
-        <v>845900</v>
+        <v>871000</v>
       </c>
       <c r="G102" s="3">
-        <v>44700</v>
+        <v>46000</v>
       </c>
       <c r="H102" s="3">
-        <v>-105100</v>
+        <v>-108200</v>
       </c>
       <c r="I102" s="3">
-        <v>192600</v>
+        <v>198300</v>
       </c>
       <c r="J102" s="3">
-        <v>-11700</v>
+        <v>-12000</v>
       </c>
       <c r="K102" s="3">
         <v>-445600</v>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>AUOTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9429200</v>
+        <v>9469900</v>
       </c>
       <c r="E8" s="3">
-        <v>10791800</v>
+        <v>9394300</v>
       </c>
       <c r="F8" s="3">
-        <v>11963300</v>
+        <v>10751800</v>
       </c>
       <c r="G8" s="3">
-        <v>11544400</v>
+        <v>11918900</v>
       </c>
       <c r="H8" s="3">
-        <v>12641000</v>
+        <v>11501700</v>
       </c>
       <c r="I8" s="3">
-        <v>14318900</v>
+        <v>12594100</v>
       </c>
       <c r="J8" s="3">
+        <v>14265800</v>
+      </c>
+      <c r="K8" s="3">
         <v>14606000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12587900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9413200</v>
+        <v>8674200</v>
       </c>
       <c r="E9" s="3">
-        <v>9804700</v>
+        <v>9378300</v>
       </c>
       <c r="F9" s="3">
-        <v>9821900</v>
+        <v>9768300</v>
       </c>
       <c r="G9" s="3">
-        <v>10334500</v>
+        <v>9785500</v>
       </c>
       <c r="H9" s="3">
-        <v>11243500</v>
+        <v>10296200</v>
       </c>
       <c r="I9" s="3">
-        <v>12617200</v>
+        <v>11201800</v>
       </c>
       <c r="J9" s="3">
+        <v>12570400</v>
+      </c>
+      <c r="K9" s="3">
         <v>26827700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25900900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16000</v>
+        <v>795600</v>
       </c>
       <c r="E10" s="3">
-        <v>987100</v>
+        <v>15900</v>
       </c>
       <c r="F10" s="3">
-        <v>2141300</v>
+        <v>983500</v>
       </c>
       <c r="G10" s="3">
-        <v>1209900</v>
+        <v>2133400</v>
       </c>
       <c r="H10" s="3">
-        <v>1397500</v>
+        <v>1205500</v>
       </c>
       <c r="I10" s="3">
-        <v>1701800</v>
+        <v>1392300</v>
       </c>
       <c r="J10" s="3">
+        <v>1695400</v>
+      </c>
+      <c r="K10" s="3">
         <v>-12221700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-13312900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>344100</v>
+        <v>359500</v>
       </c>
       <c r="E12" s="3">
-        <v>334900</v>
+        <v>342800</v>
       </c>
       <c r="F12" s="3">
-        <v>345700</v>
+        <v>333700</v>
       </c>
       <c r="G12" s="3">
-        <v>318600</v>
+        <v>344400</v>
       </c>
       <c r="H12" s="3">
-        <v>312300</v>
+        <v>317400</v>
       </c>
       <c r="I12" s="3">
-        <v>321200</v>
+        <v>311200</v>
       </c>
       <c r="J12" s="3">
+        <v>320000</v>
+      </c>
+      <c r="K12" s="3">
         <v>299200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>329400</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,69 +888,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>66700</v>
+        <v>19100</v>
       </c>
       <c r="E14" s="3">
-        <v>31600</v>
+        <v>66500</v>
       </c>
       <c r="F14" s="3">
-        <v>57200</v>
+        <v>31500</v>
       </c>
       <c r="G14" s="3">
-        <v>34200</v>
+        <v>57000</v>
       </c>
       <c r="H14" s="3">
-        <v>422000</v>
+        <v>34100</v>
       </c>
       <c r="I14" s="3">
-        <v>80400</v>
+        <v>420400</v>
       </c>
       <c r="J14" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K14" s="3">
         <v>140400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800400</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10214000</v>
+        <v>9416200</v>
       </c>
       <c r="E17" s="3">
-        <v>10589500</v>
+        <v>10176100</v>
       </c>
       <c r="F17" s="3">
-        <v>10647500</v>
+        <v>10550300</v>
       </c>
       <c r="G17" s="3">
-        <v>11145800</v>
+        <v>10608000</v>
       </c>
       <c r="H17" s="3">
-        <v>12448300</v>
+        <v>11104500</v>
       </c>
       <c r="I17" s="3">
-        <v>13621800</v>
+        <v>12402200</v>
       </c>
       <c r="J17" s="3">
+        <v>13571300</v>
+      </c>
+      <c r="K17" s="3">
         <v>14455500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14139900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-784700</v>
+        <v>53700</v>
       </c>
       <c r="E18" s="3">
-        <v>202300</v>
+        <v>-781800</v>
       </c>
       <c r="F18" s="3">
-        <v>1315800</v>
+        <v>201500</v>
       </c>
       <c r="G18" s="3">
-        <v>398600</v>
+        <v>1310900</v>
       </c>
       <c r="H18" s="3">
-        <v>192700</v>
+        <v>397200</v>
       </c>
       <c r="I18" s="3">
-        <v>697100</v>
+        <v>191900</v>
       </c>
       <c r="J18" s="3">
+        <v>694600</v>
+      </c>
+      <c r="K18" s="3">
         <v>150500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1552000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>202600</v>
+        <v>146700</v>
       </c>
       <c r="E20" s="3">
-        <v>284600</v>
+        <v>201900</v>
       </c>
       <c r="F20" s="3">
-        <v>165700</v>
+        <v>283600</v>
       </c>
       <c r="G20" s="3">
-        <v>88800</v>
+        <v>165100</v>
       </c>
       <c r="H20" s="3">
-        <v>164800</v>
+        <v>88400</v>
       </c>
       <c r="I20" s="3">
-        <v>145700</v>
+        <v>164200</v>
       </c>
       <c r="J20" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K20" s="3">
         <v>368800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>220500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>690200</v>
+        <v>1442800</v>
       </c>
       <c r="E21" s="3">
-        <v>1687900</v>
+        <v>692700</v>
       </c>
       <c r="F21" s="3">
-        <v>2759800</v>
+        <v>1686500</v>
       </c>
       <c r="G21" s="3">
-        <v>1880200</v>
+        <v>2754700</v>
       </c>
       <c r="H21" s="3">
-        <v>2032900</v>
+        <v>1878800</v>
       </c>
       <c r="I21" s="3">
-        <v>2839500</v>
+        <v>2032000</v>
       </c>
       <c r="J21" s="3">
+        <v>2837000</v>
+      </c>
+      <c r="K21" s="3">
         <v>2752300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1176800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>114100</v>
+        <v>102900</v>
       </c>
       <c r="E22" s="3">
-        <v>93400</v>
+        <v>113600</v>
       </c>
       <c r="F22" s="3">
-        <v>100600</v>
+        <v>93100</v>
       </c>
       <c r="G22" s="3">
-        <v>95000</v>
+        <v>100200</v>
       </c>
       <c r="H22" s="3">
-        <v>90900</v>
+        <v>94600</v>
       </c>
       <c r="I22" s="3">
-        <v>141900</v>
+        <v>90600</v>
       </c>
       <c r="J22" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K22" s="3">
         <v>335600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>381200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-696200</v>
+        <v>97400</v>
       </c>
       <c r="E23" s="3">
-        <v>393500</v>
+        <v>-693600</v>
       </c>
       <c r="F23" s="3">
-        <v>1380900</v>
+        <v>392000</v>
       </c>
       <c r="G23" s="3">
-        <v>392400</v>
+        <v>1375800</v>
       </c>
       <c r="H23" s="3">
-        <v>266600</v>
+        <v>390900</v>
       </c>
       <c r="I23" s="3">
-        <v>700900</v>
+        <v>265600</v>
       </c>
       <c r="J23" s="3">
+        <v>698300</v>
+      </c>
+      <c r="K23" s="3">
         <v>183700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1712700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61600</v>
+        <v>-4200</v>
       </c>
       <c r="E24" s="3">
-        <v>114200</v>
+        <v>61300</v>
       </c>
       <c r="F24" s="3">
-        <v>319400</v>
+        <v>113800</v>
       </c>
       <c r="G24" s="3">
-        <v>160600</v>
+        <v>318200</v>
       </c>
       <c r="H24" s="3">
-        <v>96700</v>
+        <v>160000</v>
       </c>
       <c r="I24" s="3">
-        <v>113800</v>
+        <v>96300</v>
       </c>
       <c r="J24" s="3">
+        <v>113400</v>
+      </c>
+      <c r="K24" s="3">
         <v>47700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-757700</v>
+        <v>101600</v>
       </c>
       <c r="E26" s="3">
-        <v>279200</v>
+        <v>-754900</v>
       </c>
       <c r="F26" s="3">
-        <v>1061500</v>
+        <v>278200</v>
       </c>
       <c r="G26" s="3">
-        <v>231800</v>
+        <v>1057500</v>
       </c>
       <c r="H26" s="3">
-        <v>169900</v>
+        <v>230900</v>
       </c>
       <c r="I26" s="3">
-        <v>587100</v>
+        <v>169300</v>
       </c>
       <c r="J26" s="3">
+        <v>585000</v>
+      </c>
+      <c r="K26" s="3">
         <v>136000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1750100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-673000</v>
+        <v>118000</v>
       </c>
       <c r="E27" s="3">
-        <v>356400</v>
+        <v>-670500</v>
       </c>
       <c r="F27" s="3">
-        <v>1135200</v>
+        <v>355100</v>
       </c>
       <c r="G27" s="3">
-        <v>274300</v>
+        <v>1131000</v>
       </c>
       <c r="H27" s="3">
-        <v>173000</v>
+        <v>273300</v>
       </c>
       <c r="I27" s="3">
-        <v>574100</v>
+        <v>172400</v>
       </c>
       <c r="J27" s="3">
+        <v>572000</v>
+      </c>
+      <c r="K27" s="3">
         <v>133400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1702400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-202600</v>
+        <v>-146700</v>
       </c>
       <c r="E32" s="3">
-        <v>-284600</v>
+        <v>-201900</v>
       </c>
       <c r="F32" s="3">
-        <v>-165700</v>
+        <v>-283600</v>
       </c>
       <c r="G32" s="3">
-        <v>-88800</v>
+        <v>-165100</v>
       </c>
       <c r="H32" s="3">
-        <v>-164800</v>
+        <v>-88400</v>
       </c>
       <c r="I32" s="3">
-        <v>-145700</v>
+        <v>-164200</v>
       </c>
       <c r="J32" s="3">
+        <v>-145100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-368800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-220500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-673000</v>
+        <v>118000</v>
       </c>
       <c r="E33" s="3">
-        <v>356400</v>
+        <v>-670500</v>
       </c>
       <c r="F33" s="3">
-        <v>1135200</v>
+        <v>355100</v>
       </c>
       <c r="G33" s="3">
-        <v>274300</v>
+        <v>1131000</v>
       </c>
       <c r="H33" s="3">
-        <v>173000</v>
+        <v>273300</v>
       </c>
       <c r="I33" s="3">
-        <v>574100</v>
+        <v>172400</v>
       </c>
       <c r="J33" s="3">
+        <v>572000</v>
+      </c>
+      <c r="K33" s="3">
         <v>133400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1702400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-673000</v>
+        <v>118000</v>
       </c>
       <c r="E35" s="3">
-        <v>356400</v>
+        <v>-670500</v>
       </c>
       <c r="F35" s="3">
-        <v>1135200</v>
+        <v>355100</v>
       </c>
       <c r="G35" s="3">
-        <v>274300</v>
+        <v>1131000</v>
       </c>
       <c r="H35" s="3">
-        <v>173000</v>
+        <v>273300</v>
       </c>
       <c r="I35" s="3">
-        <v>574100</v>
+        <v>172400</v>
       </c>
       <c r="J35" s="3">
+        <v>572000</v>
+      </c>
+      <c r="K35" s="3">
         <v>133400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1702400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,278 +1646,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2822200</v>
+        <v>3155100</v>
       </c>
       <c r="E41" s="3">
-        <v>2426200</v>
+        <v>2811700</v>
       </c>
       <c r="F41" s="3">
-        <v>3684100</v>
+        <v>2417300</v>
       </c>
       <c r="G41" s="3">
-        <v>2813100</v>
+        <v>3670500</v>
       </c>
       <c r="H41" s="3">
-        <v>2767100</v>
+        <v>2802700</v>
       </c>
       <c r="I41" s="3">
-        <v>2875300</v>
+        <v>2756900</v>
       </c>
       <c r="J41" s="3">
+        <v>2864700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2677000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2398600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>132600</v>
+        <v>39100</v>
       </c>
       <c r="E42" s="3">
-        <v>108700</v>
+        <v>132100</v>
       </c>
       <c r="F42" s="3">
-        <v>18200</v>
+        <v>108300</v>
       </c>
       <c r="G42" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H42" s="3">
         <v>19600</v>
       </c>
-      <c r="H42" s="3">
-        <v>411600</v>
-      </c>
       <c r="I42" s="3">
-        <v>106100</v>
+        <v>410100</v>
       </c>
       <c r="J42" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K42" s="3">
         <v>238500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>181200</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1128600</v>
+        <v>1638400</v>
       </c>
       <c r="E43" s="3">
-        <v>1665800</v>
+        <v>1124400</v>
       </c>
       <c r="F43" s="3">
-        <v>1426800</v>
+        <v>1659600</v>
       </c>
       <c r="G43" s="3">
-        <v>1694100</v>
+        <v>1421500</v>
       </c>
       <c r="H43" s="3">
-        <v>1223200</v>
+        <v>1687800</v>
       </c>
       <c r="I43" s="3">
-        <v>2093000</v>
+        <v>1218700</v>
       </c>
       <c r="J43" s="3">
+        <v>2085300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1535600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1418200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>823000</v>
+        <v>935000</v>
       </c>
       <c r="E44" s="3">
-        <v>922900</v>
+        <v>819900</v>
       </c>
       <c r="F44" s="3">
-        <v>871900</v>
+        <v>919500</v>
       </c>
       <c r="G44" s="3">
-        <v>971000</v>
+        <v>868700</v>
       </c>
       <c r="H44" s="3">
-        <v>1115400</v>
+        <v>967400</v>
       </c>
       <c r="I44" s="3">
-        <v>1277600</v>
+        <v>1111300</v>
       </c>
       <c r="J44" s="3">
+        <v>1272900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1318900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1416400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>117100</v>
+        <v>115100</v>
       </c>
       <c r="E45" s="3">
-        <v>105600</v>
+        <v>116700</v>
       </c>
       <c r="F45" s="3">
-        <v>319600</v>
+        <v>105300</v>
       </c>
       <c r="G45" s="3">
-        <v>232400</v>
+        <v>318400</v>
       </c>
       <c r="H45" s="3">
-        <v>165300</v>
+        <v>231500</v>
       </c>
       <c r="I45" s="3">
-        <v>159300</v>
+        <v>164700</v>
       </c>
       <c r="J45" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K45" s="3">
         <v>179600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>430500</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5023500</v>
+        <v>5882700</v>
       </c>
       <c r="E46" s="3">
-        <v>5229300</v>
+        <v>5004800</v>
       </c>
       <c r="F46" s="3">
-        <v>6320600</v>
+        <v>5209900</v>
       </c>
       <c r="G46" s="3">
-        <v>5730200</v>
+        <v>6297100</v>
       </c>
       <c r="H46" s="3">
-        <v>5682700</v>
+        <v>5709000</v>
       </c>
       <c r="I46" s="3">
-        <v>6511400</v>
+        <v>5661600</v>
       </c>
       <c r="J46" s="3">
+        <v>6487200</v>
+      </c>
+      <c r="K46" s="3">
         <v>5949700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5845000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>475100</v>
+        <v>702000</v>
       </c>
       <c r="E47" s="3">
-        <v>465400</v>
+        <v>473400</v>
       </c>
       <c r="F47" s="3">
-        <v>348900</v>
+        <v>463600</v>
       </c>
       <c r="G47" s="3">
-        <v>288000</v>
+        <v>347600</v>
       </c>
       <c r="H47" s="3">
-        <v>510400</v>
+        <v>286900</v>
       </c>
       <c r="I47" s="3">
-        <v>521800</v>
+        <v>508500</v>
       </c>
       <c r="J47" s="3">
+        <v>519800</v>
+      </c>
+      <c r="K47" s="3">
         <v>493000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>511800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7735100</v>
+        <v>6929900</v>
       </c>
       <c r="E48" s="3">
-        <v>7798900</v>
+        <v>7706400</v>
       </c>
       <c r="F48" s="3">
-        <v>7915800</v>
+        <v>7770000</v>
       </c>
       <c r="G48" s="3">
-        <v>7830100</v>
+        <v>7886500</v>
       </c>
       <c r="H48" s="3">
-        <v>7340500</v>
+        <v>7801100</v>
       </c>
       <c r="I48" s="3">
-        <v>8148400</v>
+        <v>7313300</v>
       </c>
       <c r="J48" s="3">
+        <v>8118200</v>
+      </c>
+      <c r="K48" s="3">
         <v>9525100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10554300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>449300</v>
+        <v>447400</v>
       </c>
       <c r="E49" s="3">
-        <v>469300</v>
+        <v>447700</v>
       </c>
       <c r="F49" s="3">
-        <v>462000</v>
+        <v>467500</v>
       </c>
       <c r="G49" s="3">
-        <v>477200</v>
+        <v>460300</v>
       </c>
       <c r="H49" s="3">
-        <v>511300</v>
+        <v>475400</v>
       </c>
       <c r="I49" s="3">
-        <v>136300</v>
+        <v>509400</v>
       </c>
       <c r="J49" s="3">
+        <v>135800</v>
+      </c>
+      <c r="K49" s="3">
         <v>155500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>496700</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>266200</v>
+        <v>272100</v>
       </c>
       <c r="E52" s="3">
-        <v>414100</v>
+        <v>265200</v>
       </c>
       <c r="F52" s="3">
-        <v>438800</v>
+        <v>412600</v>
       </c>
       <c r="G52" s="3">
-        <v>750800</v>
+        <v>437200</v>
       </c>
       <c r="H52" s="3">
-        <v>883500</v>
+        <v>748100</v>
       </c>
       <c r="I52" s="3">
-        <v>199600</v>
+        <v>880200</v>
       </c>
       <c r="J52" s="3">
+        <v>198900</v>
+      </c>
+      <c r="K52" s="3">
         <v>183100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>546100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13949100</v>
+        <v>14234100</v>
       </c>
       <c r="E54" s="3">
-        <v>14376900</v>
+        <v>13897400</v>
       </c>
       <c r="F54" s="3">
-        <v>15486100</v>
+        <v>14323600</v>
       </c>
       <c r="G54" s="3">
-        <v>15076300</v>
+        <v>15428700</v>
       </c>
       <c r="H54" s="3">
-        <v>14928400</v>
+        <v>15020400</v>
       </c>
       <c r="I54" s="3">
-        <v>15517400</v>
+        <v>14873100</v>
       </c>
       <c r="J54" s="3">
+        <v>15459900</v>
+      </c>
+      <c r="K54" s="3">
         <v>16306400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17953800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1798100</v>
+        <v>1915700</v>
       </c>
       <c r="E57" s="3">
-        <v>2056400</v>
+        <v>1791500</v>
       </c>
       <c r="F57" s="3">
-        <v>1913700</v>
+        <v>2048800</v>
       </c>
       <c r="G57" s="3">
-        <v>2103800</v>
+        <v>1906600</v>
       </c>
       <c r="H57" s="3">
-        <v>2154400</v>
+        <v>2096000</v>
       </c>
       <c r="I57" s="3">
-        <v>2624800</v>
+        <v>2146400</v>
       </c>
       <c r="J57" s="3">
+        <v>2615100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2749000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2711000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>419000</v>
+        <v>612500</v>
       </c>
       <c r="E58" s="3">
-        <v>1057400</v>
+        <v>417400</v>
       </c>
       <c r="F58" s="3">
-        <v>406200</v>
+        <v>1053500</v>
       </c>
       <c r="G58" s="3">
-        <v>652500</v>
+        <v>404700</v>
       </c>
       <c r="H58" s="3">
-        <v>1427800</v>
+        <v>650100</v>
       </c>
       <c r="I58" s="3">
-        <v>1999500</v>
+        <v>1422500</v>
       </c>
       <c r="J58" s="3">
+        <v>1992100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2323000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1799700</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>958600</v>
+        <v>908800</v>
       </c>
       <c r="E59" s="3">
-        <v>1409300</v>
+        <v>955100</v>
       </c>
       <c r="F59" s="3">
-        <v>1441900</v>
+        <v>1404100</v>
       </c>
       <c r="G59" s="3">
-        <v>1357400</v>
+        <v>1436600</v>
       </c>
       <c r="H59" s="3">
-        <v>1376300</v>
+        <v>1352300</v>
       </c>
       <c r="I59" s="3">
-        <v>1484600</v>
+        <v>1371200</v>
       </c>
       <c r="J59" s="3">
+        <v>1479100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1289400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1861700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3175700</v>
+        <v>3436900</v>
       </c>
       <c r="E60" s="3">
-        <v>4523100</v>
+        <v>3164000</v>
       </c>
       <c r="F60" s="3">
-        <v>3761900</v>
+        <v>4506400</v>
       </c>
       <c r="G60" s="3">
-        <v>4113700</v>
+        <v>3747900</v>
       </c>
       <c r="H60" s="3">
-        <v>4958500</v>
+        <v>4098500</v>
       </c>
       <c r="I60" s="3">
-        <v>6108900</v>
+        <v>4940200</v>
       </c>
       <c r="J60" s="3">
+        <v>6086300</v>
+      </c>
+      <c r="K60" s="3">
         <v>6361400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6372400</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3958500</v>
+        <v>3829400</v>
       </c>
       <c r="E61" s="3">
-        <v>1989400</v>
+        <v>3943800</v>
       </c>
       <c r="F61" s="3">
-        <v>3594000</v>
+        <v>1982000</v>
       </c>
       <c r="G61" s="3">
-        <v>3725100</v>
+        <v>3580700</v>
       </c>
       <c r="H61" s="3">
-        <v>2404300</v>
+        <v>3711300</v>
       </c>
       <c r="I61" s="3">
-        <v>3006000</v>
+        <v>2395400</v>
       </c>
       <c r="J61" s="3">
+        <v>2994800</v>
+      </c>
+      <c r="K61" s="3">
         <v>4157200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5657500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>220700</v>
+        <v>194800</v>
       </c>
       <c r="E62" s="3">
-        <v>242300</v>
+        <v>219900</v>
       </c>
       <c r="F62" s="3">
-        <v>228600</v>
+        <v>241400</v>
       </c>
       <c r="G62" s="3">
-        <v>234300</v>
+        <v>227800</v>
       </c>
       <c r="H62" s="3">
-        <v>387000</v>
+        <v>233500</v>
       </c>
       <c r="I62" s="3">
-        <v>299100</v>
+        <v>385500</v>
       </c>
       <c r="J62" s="3">
+        <v>297900</v>
+      </c>
+      <c r="K62" s="3">
         <v>421000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>494700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7751500</v>
+        <v>7845100</v>
       </c>
       <c r="E66" s="3">
-        <v>7260500</v>
+        <v>7722800</v>
       </c>
       <c r="F66" s="3">
-        <v>8184100</v>
+        <v>7233600</v>
       </c>
       <c r="G66" s="3">
-        <v>8718200</v>
+        <v>8153700</v>
       </c>
       <c r="H66" s="3">
-        <v>8544400</v>
+        <v>8685900</v>
       </c>
       <c r="I66" s="3">
-        <v>10092000</v>
+        <v>8512700</v>
       </c>
       <c r="J66" s="3">
+        <v>10054600</v>
+      </c>
+      <c r="K66" s="3">
         <v>11431900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12993100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>803500</v>
+        <v>1057500</v>
       </c>
       <c r="E72" s="3">
-        <v>1643400</v>
+        <v>800500</v>
       </c>
       <c r="F72" s="3">
-        <v>1793100</v>
+        <v>1637300</v>
       </c>
       <c r="G72" s="3">
-        <v>850400</v>
+        <v>1786500</v>
       </c>
       <c r="H72" s="3">
-        <v>715900</v>
+        <v>847300</v>
       </c>
       <c r="I72" s="3">
-        <v>-233500</v>
+        <v>713200</v>
       </c>
       <c r="J72" s="3">
+        <v>-232600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-768200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1816500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6197600</v>
+        <v>6389000</v>
       </c>
       <c r="E76" s="3">
-        <v>7116400</v>
+        <v>6174700</v>
       </c>
       <c r="F76" s="3">
-        <v>7302100</v>
+        <v>7090100</v>
       </c>
       <c r="G76" s="3">
-        <v>6358100</v>
+        <v>7275000</v>
       </c>
       <c r="H76" s="3">
-        <v>6384000</v>
+        <v>6334500</v>
       </c>
       <c r="I76" s="3">
-        <v>5425400</v>
+        <v>6360400</v>
       </c>
       <c r="J76" s="3">
+        <v>5405300</v>
+      </c>
+      <c r="K76" s="3">
         <v>4874500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4960800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-673000</v>
+        <v>118000</v>
       </c>
       <c r="E81" s="3">
-        <v>356400</v>
+        <v>-670500</v>
       </c>
       <c r="F81" s="3">
-        <v>1135200</v>
+        <v>355100</v>
       </c>
       <c r="G81" s="3">
-        <v>274300</v>
+        <v>1131000</v>
       </c>
       <c r="H81" s="3">
-        <v>173000</v>
+        <v>273300</v>
       </c>
       <c r="I81" s="3">
-        <v>574100</v>
+        <v>172400</v>
       </c>
       <c r="J81" s="3">
+        <v>572000</v>
+      </c>
+      <c r="K81" s="3">
         <v>133400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1702400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1271900</v>
+        <v>1237100</v>
       </c>
       <c r="E83" s="3">
-        <v>1200700</v>
+        <v>1267200</v>
       </c>
       <c r="F83" s="3">
-        <v>1278000</v>
+        <v>1196300</v>
       </c>
       <c r="G83" s="3">
-        <v>1392400</v>
+        <v>1273200</v>
       </c>
       <c r="H83" s="3">
-        <v>1674900</v>
+        <v>1387300</v>
       </c>
       <c r="I83" s="3">
-        <v>1996100</v>
+        <v>1668700</v>
       </c>
       <c r="J83" s="3">
+        <v>1988800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2232400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2503700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>727200</v>
+        <v>899900</v>
       </c>
       <c r="E89" s="3">
-        <v>1410200</v>
+        <v>724500</v>
       </c>
       <c r="F89" s="3">
-        <v>2959500</v>
+        <v>1405000</v>
       </c>
       <c r="G89" s="3">
-        <v>1287300</v>
+        <v>2948500</v>
       </c>
       <c r="H89" s="3">
-        <v>2175100</v>
+        <v>1282500</v>
       </c>
       <c r="I89" s="3">
-        <v>2223800</v>
+        <v>2167000</v>
       </c>
       <c r="J89" s="3">
+        <v>2215600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1741500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1189000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1036500</v>
+        <v>-545200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1219700</v>
+        <v>-1032700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1539400</v>
+        <v>-1215200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1621400</v>
+        <v>-1533700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1173100</v>
+        <v>-1615400</v>
       </c>
       <c r="I91" s="3">
-        <v>-595300</v>
+        <v>-1168700</v>
       </c>
       <c r="J91" s="3">
+        <v>-593100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-893100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1441200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-986200</v>
+        <v>-618900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1210200</v>
+        <v>-982500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1531900</v>
+        <v>-1205700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1482700</v>
+        <v>-1526200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1113300</v>
+        <v>-1477200</v>
       </c>
       <c r="I94" s="3">
-        <v>-459800</v>
+        <v>-1109100</v>
       </c>
       <c r="J94" s="3">
+        <v>-458100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-814700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1436200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-168800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-506400</v>
+        <v>-168200</v>
       </c>
       <c r="F96" s="3">
-        <v>-189100</v>
+        <v>-504600</v>
       </c>
       <c r="G96" s="3">
-        <v>-118200</v>
+        <v>-188400</v>
       </c>
       <c r="H96" s="3">
-        <v>-168800</v>
+        <v>-117700</v>
       </c>
       <c r="I96" s="3">
-        <v>-50600</v>
+        <v>-168200</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-50500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>727600</v>
+        <v>94500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1468000</v>
+        <v>724900</v>
       </c>
       <c r="F100" s="3">
-        <v>-470400</v>
+        <v>-1462500</v>
       </c>
       <c r="G100" s="3">
-        <v>376100</v>
+        <v>-468700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1202400</v>
+        <v>374700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1580100</v>
+        <v>-1198000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1574200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-939600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-197600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-72800</v>
+        <v>-32100</v>
       </c>
       <c r="E101" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="F101" s="3">
         <v>10000</v>
       </c>
-      <c r="F101" s="3">
-        <v>-86200</v>
-      </c>
       <c r="G101" s="3">
-        <v>-134700</v>
+        <v>-85800</v>
       </c>
       <c r="H101" s="3">
-        <v>32400</v>
+        <v>-134200</v>
       </c>
       <c r="I101" s="3">
+        <v>32300</v>
+      </c>
+      <c r="J101" s="3">
         <v>14300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>395900</v>
+        <v>343400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1257900</v>
+        <v>394500</v>
       </c>
       <c r="F102" s="3">
-        <v>871000</v>
+        <v>-1253200</v>
       </c>
       <c r="G102" s="3">
-        <v>46000</v>
+        <v>867800</v>
       </c>
       <c r="H102" s="3">
-        <v>-108200</v>
+        <v>45800</v>
       </c>
       <c r="I102" s="3">
-        <v>198300</v>
+        <v>-107800</v>
       </c>
       <c r="J102" s="3">
+        <v>197600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-445600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9469900</v>
+        <v>9716500</v>
       </c>
       <c r="E8" s="3">
-        <v>9394300</v>
+        <v>9638900</v>
       </c>
       <c r="F8" s="3">
-        <v>10751800</v>
+        <v>11031800</v>
       </c>
       <c r="G8" s="3">
-        <v>11918900</v>
+        <v>12229300</v>
       </c>
       <c r="H8" s="3">
-        <v>11501700</v>
+        <v>11801100</v>
       </c>
       <c r="I8" s="3">
-        <v>12594100</v>
+        <v>12922000</v>
       </c>
       <c r="J8" s="3">
-        <v>14265800</v>
+        <v>14637300</v>
       </c>
       <c r="K8" s="3">
         <v>14606000</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8674200</v>
+        <v>8900100</v>
       </c>
       <c r="E9" s="3">
-        <v>9378300</v>
+        <v>9622500</v>
       </c>
       <c r="F9" s="3">
-        <v>9768300</v>
+        <v>10022700</v>
       </c>
       <c r="G9" s="3">
-        <v>9785500</v>
+        <v>10040300</v>
       </c>
       <c r="H9" s="3">
-        <v>10296200</v>
+        <v>10564300</v>
       </c>
       <c r="I9" s="3">
-        <v>11201800</v>
+        <v>11493500</v>
       </c>
       <c r="J9" s="3">
-        <v>12570400</v>
+        <v>12897700</v>
       </c>
       <c r="K9" s="3">
         <v>26827700</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>795600</v>
+        <v>816400</v>
       </c>
       <c r="E10" s="3">
-        <v>15900</v>
+        <v>16400</v>
       </c>
       <c r="F10" s="3">
-        <v>983500</v>
+        <v>1009100</v>
       </c>
       <c r="G10" s="3">
-        <v>2133400</v>
+        <v>2189000</v>
       </c>
       <c r="H10" s="3">
-        <v>1205500</v>
+        <v>1236800</v>
       </c>
       <c r="I10" s="3">
-        <v>1392300</v>
+        <v>1428600</v>
       </c>
       <c r="J10" s="3">
-        <v>1695400</v>
+        <v>1739600</v>
       </c>
       <c r="K10" s="3">
         <v>-12221700</v>
@@ -832,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>359500</v>
+        <v>368900</v>
       </c>
       <c r="E12" s="3">
-        <v>342800</v>
+        <v>351800</v>
       </c>
       <c r="F12" s="3">
-        <v>333700</v>
+        <v>342400</v>
       </c>
       <c r="G12" s="3">
-        <v>344400</v>
+        <v>353400</v>
       </c>
       <c r="H12" s="3">
-        <v>317400</v>
+        <v>325600</v>
       </c>
       <c r="I12" s="3">
-        <v>311200</v>
+        <v>319300</v>
       </c>
       <c r="J12" s="3">
-        <v>320000</v>
+        <v>328400</v>
       </c>
       <c r="K12" s="3">
         <v>299200</v>
@@ -898,25 +898,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>19100</v>
+        <v>19600</v>
       </c>
       <c r="E14" s="3">
-        <v>66500</v>
+        <v>68200</v>
       </c>
       <c r="F14" s="3">
-        <v>31500</v>
+        <v>32300</v>
       </c>
       <c r="G14" s="3">
-        <v>57000</v>
+        <v>58500</v>
       </c>
       <c r="H14" s="3">
-        <v>34100</v>
+        <v>35000</v>
       </c>
       <c r="I14" s="3">
-        <v>420400</v>
+        <v>431400</v>
       </c>
       <c r="J14" s="3">
-        <v>80100</v>
+        <v>82200</v>
       </c>
       <c r="K14" s="3">
         <v>140400</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9416200</v>
+        <v>9661400</v>
       </c>
       <c r="E17" s="3">
-        <v>10176100</v>
+        <v>10441100</v>
       </c>
       <c r="F17" s="3">
-        <v>10550300</v>
+        <v>10825000</v>
       </c>
       <c r="G17" s="3">
-        <v>10608000</v>
+        <v>10884200</v>
       </c>
       <c r="H17" s="3">
-        <v>11104500</v>
+        <v>11393600</v>
       </c>
       <c r="I17" s="3">
-        <v>12402200</v>
+        <v>12725100</v>
       </c>
       <c r="J17" s="3">
-        <v>13571300</v>
+        <v>13924600</v>
       </c>
       <c r="K17" s="3">
         <v>14455500</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>53700</v>
+        <v>55100</v>
       </c>
       <c r="E18" s="3">
-        <v>-781800</v>
+        <v>-802200</v>
       </c>
       <c r="F18" s="3">
-        <v>201500</v>
+        <v>206800</v>
       </c>
       <c r="G18" s="3">
-        <v>1310900</v>
+        <v>1345000</v>
       </c>
       <c r="H18" s="3">
-        <v>397200</v>
+        <v>407500</v>
       </c>
       <c r="I18" s="3">
-        <v>191900</v>
+        <v>196900</v>
       </c>
       <c r="J18" s="3">
-        <v>694600</v>
+        <v>712600</v>
       </c>
       <c r="K18" s="3">
         <v>150500</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>146700</v>
+        <v>150500</v>
       </c>
       <c r="E20" s="3">
-        <v>201900</v>
+        <v>207200</v>
       </c>
       <c r="F20" s="3">
-        <v>283600</v>
+        <v>290900</v>
       </c>
       <c r="G20" s="3">
-        <v>165100</v>
+        <v>169400</v>
       </c>
       <c r="H20" s="3">
-        <v>88400</v>
+        <v>90700</v>
       </c>
       <c r="I20" s="3">
-        <v>164200</v>
+        <v>168500</v>
       </c>
       <c r="J20" s="3">
-        <v>145100</v>
+        <v>148900</v>
       </c>
       <c r="K20" s="3">
         <v>368800</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1442800</v>
+        <v>1472800</v>
       </c>
       <c r="E21" s="3">
-        <v>692700</v>
+        <v>703000</v>
       </c>
       <c r="F21" s="3">
-        <v>1686500</v>
+        <v>1723100</v>
       </c>
       <c r="G21" s="3">
-        <v>2754700</v>
+        <v>2818600</v>
       </c>
       <c r="H21" s="3">
-        <v>1878800</v>
+        <v>1919200</v>
       </c>
       <c r="I21" s="3">
-        <v>2032000</v>
+        <v>2074700</v>
       </c>
       <c r="J21" s="3">
-        <v>2837000</v>
+        <v>2898700</v>
       </c>
       <c r="K21" s="3">
         <v>2752300</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>102900</v>
+        <v>105600</v>
       </c>
       <c r="E22" s="3">
-        <v>113600</v>
+        <v>116600</v>
       </c>
       <c r="F22" s="3">
-        <v>93100</v>
+        <v>95500</v>
       </c>
       <c r="G22" s="3">
-        <v>100200</v>
+        <v>102800</v>
       </c>
       <c r="H22" s="3">
-        <v>94600</v>
+        <v>97100</v>
       </c>
       <c r="I22" s="3">
-        <v>90600</v>
+        <v>92900</v>
       </c>
       <c r="J22" s="3">
-        <v>141400</v>
+        <v>145100</v>
       </c>
       <c r="K22" s="3">
         <v>335600</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>97400</v>
+        <v>100000</v>
       </c>
       <c r="E23" s="3">
-        <v>-693600</v>
+        <v>-711600</v>
       </c>
       <c r="F23" s="3">
-        <v>392000</v>
+        <v>402200</v>
       </c>
       <c r="G23" s="3">
-        <v>1375800</v>
+        <v>1411600</v>
       </c>
       <c r="H23" s="3">
-        <v>390900</v>
+        <v>401100</v>
       </c>
       <c r="I23" s="3">
-        <v>265600</v>
+        <v>272500</v>
       </c>
       <c r="J23" s="3">
-        <v>698300</v>
+        <v>716500</v>
       </c>
       <c r="K23" s="3">
         <v>183700</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E24" s="3">
-        <v>61300</v>
+        <v>62900</v>
       </c>
       <c r="F24" s="3">
-        <v>113800</v>
+        <v>116800</v>
       </c>
       <c r="G24" s="3">
-        <v>318200</v>
+        <v>326500</v>
       </c>
       <c r="H24" s="3">
-        <v>160000</v>
+        <v>164200</v>
       </c>
       <c r="I24" s="3">
-        <v>96300</v>
+        <v>98800</v>
       </c>
       <c r="J24" s="3">
-        <v>113400</v>
+        <v>116300</v>
       </c>
       <c r="K24" s="3">
         <v>47700</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>101600</v>
+        <v>104300</v>
       </c>
       <c r="E26" s="3">
-        <v>-754900</v>
+        <v>-774600</v>
       </c>
       <c r="F26" s="3">
-        <v>278200</v>
+        <v>285400</v>
       </c>
       <c r="G26" s="3">
-        <v>1057500</v>
+        <v>1085100</v>
       </c>
       <c r="H26" s="3">
-        <v>230900</v>
+        <v>236900</v>
       </c>
       <c r="I26" s="3">
-        <v>169300</v>
+        <v>173700</v>
       </c>
       <c r="J26" s="3">
-        <v>585000</v>
+        <v>600200</v>
       </c>
       <c r="K26" s="3">
         <v>136000</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>118000</v>
+        <v>121100</v>
       </c>
       <c r="E27" s="3">
-        <v>-670500</v>
+        <v>-688000</v>
       </c>
       <c r="F27" s="3">
-        <v>355100</v>
+        <v>364400</v>
       </c>
       <c r="G27" s="3">
-        <v>1131000</v>
+        <v>1160400</v>
       </c>
       <c r="H27" s="3">
-        <v>273300</v>
+        <v>280400</v>
       </c>
       <c r="I27" s="3">
-        <v>172400</v>
+        <v>176900</v>
       </c>
       <c r="J27" s="3">
-        <v>572000</v>
+        <v>586900</v>
       </c>
       <c r="K27" s="3">
         <v>133400</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-146700</v>
+        <v>-150500</v>
       </c>
       <c r="E32" s="3">
-        <v>-201900</v>
+        <v>-207200</v>
       </c>
       <c r="F32" s="3">
-        <v>-283600</v>
+        <v>-290900</v>
       </c>
       <c r="G32" s="3">
-        <v>-165100</v>
+        <v>-169400</v>
       </c>
       <c r="H32" s="3">
-        <v>-88400</v>
+        <v>-90700</v>
       </c>
       <c r="I32" s="3">
-        <v>-164200</v>
+        <v>-168500</v>
       </c>
       <c r="J32" s="3">
-        <v>-145100</v>
+        <v>-148900</v>
       </c>
       <c r="K32" s="3">
         <v>-368800</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>118000</v>
+        <v>121100</v>
       </c>
       <c r="E33" s="3">
-        <v>-670500</v>
+        <v>-688000</v>
       </c>
       <c r="F33" s="3">
-        <v>355100</v>
+        <v>364400</v>
       </c>
       <c r="G33" s="3">
-        <v>1131000</v>
+        <v>1160400</v>
       </c>
       <c r="H33" s="3">
-        <v>273300</v>
+        <v>280400</v>
       </c>
       <c r="I33" s="3">
-        <v>172400</v>
+        <v>176900</v>
       </c>
       <c r="J33" s="3">
-        <v>572000</v>
+        <v>586900</v>
       </c>
       <c r="K33" s="3">
         <v>133400</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>118000</v>
+        <v>121100</v>
       </c>
       <c r="E35" s="3">
-        <v>-670500</v>
+        <v>-688000</v>
       </c>
       <c r="F35" s="3">
-        <v>355100</v>
+        <v>364400</v>
       </c>
       <c r="G35" s="3">
-        <v>1131000</v>
+        <v>1160400</v>
       </c>
       <c r="H35" s="3">
-        <v>273300</v>
+        <v>280400</v>
       </c>
       <c r="I35" s="3">
-        <v>172400</v>
+        <v>176900</v>
       </c>
       <c r="J35" s="3">
-        <v>572000</v>
+        <v>586900</v>
       </c>
       <c r="K35" s="3">
         <v>133400</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3155100</v>
+        <v>3237300</v>
       </c>
       <c r="E41" s="3">
-        <v>2811700</v>
+        <v>2884900</v>
       </c>
       <c r="F41" s="3">
-        <v>2417300</v>
+        <v>2480200</v>
       </c>
       <c r="G41" s="3">
-        <v>3670500</v>
+        <v>3766000</v>
       </c>
       <c r="H41" s="3">
-        <v>2802700</v>
+        <v>2875700</v>
       </c>
       <c r="I41" s="3">
-        <v>2756900</v>
+        <v>2828700</v>
       </c>
       <c r="J41" s="3">
-        <v>2864700</v>
+        <v>2939300</v>
       </c>
       <c r="K41" s="3">
         <v>2677000</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39100</v>
+        <v>40200</v>
       </c>
       <c r="E42" s="3">
-        <v>132100</v>
+        <v>135600</v>
       </c>
       <c r="F42" s="3">
-        <v>108300</v>
+        <v>111100</v>
       </c>
       <c r="G42" s="3">
-        <v>18100</v>
+        <v>18600</v>
       </c>
       <c r="H42" s="3">
-        <v>19600</v>
+        <v>20100</v>
       </c>
       <c r="I42" s="3">
-        <v>410100</v>
+        <v>420800</v>
       </c>
       <c r="J42" s="3">
-        <v>105700</v>
+        <v>108400</v>
       </c>
       <c r="K42" s="3">
         <v>238500</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1638400</v>
+        <v>1681000</v>
       </c>
       <c r="E43" s="3">
-        <v>1124400</v>
+        <v>1153700</v>
       </c>
       <c r="F43" s="3">
-        <v>1659600</v>
+        <v>1702800</v>
       </c>
       <c r="G43" s="3">
-        <v>1421500</v>
+        <v>1458500</v>
       </c>
       <c r="H43" s="3">
-        <v>1687800</v>
+        <v>1731700</v>
       </c>
       <c r="I43" s="3">
-        <v>1218700</v>
+        <v>1250400</v>
       </c>
       <c r="J43" s="3">
-        <v>2085300</v>
+        <v>2139600</v>
       </c>
       <c r="K43" s="3">
         <v>1535600</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>935000</v>
+        <v>959400</v>
       </c>
       <c r="E44" s="3">
-        <v>819900</v>
+        <v>841300</v>
       </c>
       <c r="F44" s="3">
-        <v>919500</v>
+        <v>943400</v>
       </c>
       <c r="G44" s="3">
-        <v>868700</v>
+        <v>891300</v>
       </c>
       <c r="H44" s="3">
-        <v>967400</v>
+        <v>992600</v>
       </c>
       <c r="I44" s="3">
-        <v>1111300</v>
+        <v>1140200</v>
       </c>
       <c r="J44" s="3">
-        <v>1272900</v>
+        <v>1306000</v>
       </c>
       <c r="K44" s="3">
         <v>1318900</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>115100</v>
+        <v>118100</v>
       </c>
       <c r="E45" s="3">
-        <v>116700</v>
+        <v>119700</v>
       </c>
       <c r="F45" s="3">
-        <v>105300</v>
+        <v>108000</v>
       </c>
       <c r="G45" s="3">
-        <v>318400</v>
+        <v>326700</v>
       </c>
       <c r="H45" s="3">
-        <v>231500</v>
+        <v>237500</v>
       </c>
       <c r="I45" s="3">
-        <v>164700</v>
+        <v>169000</v>
       </c>
       <c r="J45" s="3">
-        <v>158700</v>
+        <v>162800</v>
       </c>
       <c r="K45" s="3">
         <v>179600</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5882700</v>
+        <v>6035900</v>
       </c>
       <c r="E46" s="3">
-        <v>5004800</v>
+        <v>5135200</v>
       </c>
       <c r="F46" s="3">
-        <v>5209900</v>
+        <v>5345600</v>
       </c>
       <c r="G46" s="3">
-        <v>6297100</v>
+        <v>6461100</v>
       </c>
       <c r="H46" s="3">
-        <v>5709000</v>
+        <v>5857600</v>
       </c>
       <c r="I46" s="3">
-        <v>5661600</v>
+        <v>5809000</v>
       </c>
       <c r="J46" s="3">
-        <v>6487200</v>
+        <v>6656100</v>
       </c>
       <c r="K46" s="3">
         <v>5949700</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>702000</v>
+        <v>720300</v>
       </c>
       <c r="E47" s="3">
-        <v>473400</v>
+        <v>485700</v>
       </c>
       <c r="F47" s="3">
-        <v>463600</v>
+        <v>475700</v>
       </c>
       <c r="G47" s="3">
-        <v>347600</v>
+        <v>356600</v>
       </c>
       <c r="H47" s="3">
-        <v>286900</v>
+        <v>294400</v>
       </c>
       <c r="I47" s="3">
-        <v>508500</v>
+        <v>521800</v>
       </c>
       <c r="J47" s="3">
-        <v>519800</v>
+        <v>533400</v>
       </c>
       <c r="K47" s="3">
         <v>493000</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6929900</v>
+        <v>7110300</v>
       </c>
       <c r="E48" s="3">
-        <v>7706400</v>
+        <v>7907000</v>
       </c>
       <c r="F48" s="3">
-        <v>7770000</v>
+        <v>7972300</v>
       </c>
       <c r="G48" s="3">
-        <v>7886500</v>
+        <v>8091800</v>
       </c>
       <c r="H48" s="3">
-        <v>7801100</v>
+        <v>8004200</v>
       </c>
       <c r="I48" s="3">
-        <v>7313300</v>
+        <v>7503800</v>
       </c>
       <c r="J48" s="3">
-        <v>8118200</v>
+        <v>8329600</v>
       </c>
       <c r="K48" s="3">
         <v>9525100</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>447400</v>
+        <v>459100</v>
       </c>
       <c r="E49" s="3">
-        <v>447700</v>
+        <v>459300</v>
       </c>
       <c r="F49" s="3">
-        <v>467500</v>
+        <v>479700</v>
       </c>
       <c r="G49" s="3">
-        <v>460300</v>
+        <v>472300</v>
       </c>
       <c r="H49" s="3">
-        <v>475400</v>
+        <v>487800</v>
       </c>
       <c r="I49" s="3">
-        <v>509400</v>
+        <v>522700</v>
       </c>
       <c r="J49" s="3">
-        <v>135800</v>
+        <v>139300</v>
       </c>
       <c r="K49" s="3">
         <v>155500</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E52" s="3">
         <v>272100</v>
       </c>
-      <c r="E52" s="3">
-        <v>265200</v>
-      </c>
       <c r="F52" s="3">
-        <v>412600</v>
+        <v>423300</v>
       </c>
       <c r="G52" s="3">
-        <v>437200</v>
+        <v>448600</v>
       </c>
       <c r="H52" s="3">
-        <v>748100</v>
+        <v>767500</v>
       </c>
       <c r="I52" s="3">
-        <v>880200</v>
+        <v>903200</v>
       </c>
       <c r="J52" s="3">
-        <v>198900</v>
+        <v>204000</v>
       </c>
       <c r="K52" s="3">
         <v>183100</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14234100</v>
+        <v>14604700</v>
       </c>
       <c r="E54" s="3">
-        <v>13897400</v>
+        <v>14259300</v>
       </c>
       <c r="F54" s="3">
-        <v>14323600</v>
+        <v>14696600</v>
       </c>
       <c r="G54" s="3">
-        <v>15428700</v>
+        <v>15830400</v>
       </c>
       <c r="H54" s="3">
-        <v>15020400</v>
+        <v>15411500</v>
       </c>
       <c r="I54" s="3">
-        <v>14873100</v>
+        <v>15260400</v>
       </c>
       <c r="J54" s="3">
-        <v>15459900</v>
+        <v>15862500</v>
       </c>
       <c r="K54" s="3">
         <v>16306400</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1915700</v>
+        <v>1965500</v>
       </c>
       <c r="E57" s="3">
-        <v>1791500</v>
+        <v>1838100</v>
       </c>
       <c r="F57" s="3">
-        <v>2048800</v>
+        <v>2102100</v>
       </c>
       <c r="G57" s="3">
-        <v>1906600</v>
+        <v>1956300</v>
       </c>
       <c r="H57" s="3">
-        <v>2096000</v>
+        <v>2150600</v>
       </c>
       <c r="I57" s="3">
-        <v>2146400</v>
+        <v>2202300</v>
       </c>
       <c r="J57" s="3">
-        <v>2615100</v>
+        <v>2683200</v>
       </c>
       <c r="K57" s="3">
         <v>2749000</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>612500</v>
+        <v>628400</v>
       </c>
       <c r="E58" s="3">
-        <v>417400</v>
+        <v>428300</v>
       </c>
       <c r="F58" s="3">
-        <v>1053500</v>
+        <v>1080900</v>
       </c>
       <c r="G58" s="3">
-        <v>404700</v>
+        <v>415200</v>
       </c>
       <c r="H58" s="3">
-        <v>650100</v>
+        <v>667000</v>
       </c>
       <c r="I58" s="3">
-        <v>1422500</v>
+        <v>1459600</v>
       </c>
       <c r="J58" s="3">
-        <v>1992100</v>
+        <v>2044000</v>
       </c>
       <c r="K58" s="3">
         <v>2323000</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>908800</v>
+        <v>932400</v>
       </c>
       <c r="E59" s="3">
-        <v>955100</v>
+        <v>979900</v>
       </c>
       <c r="F59" s="3">
-        <v>1404100</v>
+        <v>1440700</v>
       </c>
       <c r="G59" s="3">
-        <v>1436600</v>
+        <v>1474000</v>
       </c>
       <c r="H59" s="3">
-        <v>1352300</v>
+        <v>1387600</v>
       </c>
       <c r="I59" s="3">
-        <v>1371200</v>
+        <v>1406900</v>
       </c>
       <c r="J59" s="3">
-        <v>1479100</v>
+        <v>1517600</v>
       </c>
       <c r="K59" s="3">
         <v>1289400</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3436900</v>
+        <v>3526400</v>
       </c>
       <c r="E60" s="3">
-        <v>3164000</v>
+        <v>3246300</v>
       </c>
       <c r="F60" s="3">
-        <v>4506400</v>
+        <v>4623700</v>
       </c>
       <c r="G60" s="3">
-        <v>3747900</v>
+        <v>3845500</v>
       </c>
       <c r="H60" s="3">
-        <v>4098500</v>
+        <v>4205200</v>
       </c>
       <c r="I60" s="3">
-        <v>4940200</v>
+        <v>5068800</v>
       </c>
       <c r="J60" s="3">
-        <v>6086300</v>
+        <v>6244800</v>
       </c>
       <c r="K60" s="3">
         <v>6361400</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3829400</v>
+        <v>3929100</v>
       </c>
       <c r="E61" s="3">
-        <v>3943800</v>
+        <v>4046500</v>
       </c>
       <c r="F61" s="3">
-        <v>1982000</v>
+        <v>2033600</v>
       </c>
       <c r="G61" s="3">
-        <v>3580700</v>
+        <v>3674000</v>
       </c>
       <c r="H61" s="3">
-        <v>3711300</v>
+        <v>3807900</v>
       </c>
       <c r="I61" s="3">
-        <v>2395400</v>
+        <v>2457800</v>
       </c>
       <c r="J61" s="3">
-        <v>2994800</v>
+        <v>3072800</v>
       </c>
       <c r="K61" s="3">
         <v>4157200</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>194800</v>
+        <v>199900</v>
       </c>
       <c r="E62" s="3">
-        <v>219900</v>
+        <v>225600</v>
       </c>
       <c r="F62" s="3">
-        <v>241400</v>
+        <v>247600</v>
       </c>
       <c r="G62" s="3">
-        <v>227800</v>
+        <v>233700</v>
       </c>
       <c r="H62" s="3">
-        <v>233500</v>
+        <v>239500</v>
       </c>
       <c r="I62" s="3">
-        <v>385500</v>
+        <v>395600</v>
       </c>
       <c r="J62" s="3">
-        <v>297900</v>
+        <v>305700</v>
       </c>
       <c r="K62" s="3">
         <v>421000</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7845100</v>
+        <v>8049300</v>
       </c>
       <c r="E66" s="3">
-        <v>7722800</v>
+        <v>7923800</v>
       </c>
       <c r="F66" s="3">
-        <v>7233600</v>
+        <v>7421900</v>
       </c>
       <c r="G66" s="3">
-        <v>8153700</v>
+        <v>8366000</v>
       </c>
       <c r="H66" s="3">
-        <v>8685900</v>
+        <v>8912100</v>
       </c>
       <c r="I66" s="3">
-        <v>8512700</v>
+        <v>8734400</v>
       </c>
       <c r="J66" s="3">
-        <v>10054600</v>
+        <v>10316400</v>
       </c>
       <c r="K66" s="3">
         <v>11431900</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1057500</v>
+        <v>1085100</v>
       </c>
       <c r="E72" s="3">
-        <v>800500</v>
+        <v>821300</v>
       </c>
       <c r="F72" s="3">
-        <v>1637300</v>
+        <v>1679900</v>
       </c>
       <c r="G72" s="3">
-        <v>1786500</v>
+        <v>1833000</v>
       </c>
       <c r="H72" s="3">
-        <v>847300</v>
+        <v>869400</v>
       </c>
       <c r="I72" s="3">
-        <v>713200</v>
+        <v>731800</v>
       </c>
       <c r="J72" s="3">
-        <v>-232600</v>
+        <v>-238700</v>
       </c>
       <c r="K72" s="3">
         <v>-768200</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6389000</v>
+        <v>6555400</v>
       </c>
       <c r="E76" s="3">
-        <v>6174700</v>
+        <v>6335500</v>
       </c>
       <c r="F76" s="3">
-        <v>7090100</v>
+        <v>7274700</v>
       </c>
       <c r="G76" s="3">
-        <v>7275000</v>
+        <v>7464400</v>
       </c>
       <c r="H76" s="3">
-        <v>6334500</v>
+        <v>6499400</v>
       </c>
       <c r="I76" s="3">
-        <v>6360400</v>
+        <v>6526000</v>
       </c>
       <c r="J76" s="3">
-        <v>5405300</v>
+        <v>5546000</v>
       </c>
       <c r="K76" s="3">
         <v>4874500</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>118000</v>
+        <v>121100</v>
       </c>
       <c r="E81" s="3">
-        <v>-670500</v>
+        <v>-688000</v>
       </c>
       <c r="F81" s="3">
-        <v>355100</v>
+        <v>364400</v>
       </c>
       <c r="G81" s="3">
-        <v>1131000</v>
+        <v>1160400</v>
       </c>
       <c r="H81" s="3">
-        <v>273300</v>
+        <v>280400</v>
       </c>
       <c r="I81" s="3">
-        <v>172400</v>
+        <v>176900</v>
       </c>
       <c r="J81" s="3">
-        <v>572000</v>
+        <v>586900</v>
       </c>
       <c r="K81" s="3">
         <v>133400</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1237100</v>
+        <v>1269400</v>
       </c>
       <c r="E83" s="3">
-        <v>1267200</v>
+        <v>1300200</v>
       </c>
       <c r="F83" s="3">
-        <v>1196300</v>
+        <v>1227400</v>
       </c>
       <c r="G83" s="3">
-        <v>1273200</v>
+        <v>1306400</v>
       </c>
       <c r="H83" s="3">
-        <v>1387300</v>
+        <v>1423400</v>
       </c>
       <c r="I83" s="3">
-        <v>1668700</v>
+        <v>1712200</v>
       </c>
       <c r="J83" s="3">
-        <v>1988800</v>
+        <v>2040500</v>
       </c>
       <c r="K83" s="3">
         <v>2232400</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>899900</v>
+        <v>923300</v>
       </c>
       <c r="E89" s="3">
-        <v>724500</v>
+        <v>743400</v>
       </c>
       <c r="F89" s="3">
-        <v>1405000</v>
+        <v>1441600</v>
       </c>
       <c r="G89" s="3">
-        <v>2948500</v>
+        <v>3025300</v>
       </c>
       <c r="H89" s="3">
-        <v>1282500</v>
+        <v>1315900</v>
       </c>
       <c r="I89" s="3">
-        <v>2167000</v>
+        <v>2223400</v>
       </c>
       <c r="J89" s="3">
-        <v>2215600</v>
+        <v>2273300</v>
       </c>
       <c r="K89" s="3">
         <v>1741500</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-545200</v>
+        <v>-559400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1032700</v>
+        <v>-1059500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1215200</v>
+        <v>-1246900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1533700</v>
+        <v>-1573600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1615400</v>
+        <v>-1657500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1168700</v>
+        <v>-1199200</v>
       </c>
       <c r="J91" s="3">
-        <v>-593100</v>
+        <v>-608600</v>
       </c>
       <c r="K91" s="3">
         <v>-893100</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-618900</v>
+        <v>-635000</v>
       </c>
       <c r="E94" s="3">
-        <v>-982500</v>
+        <v>-1008100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1205700</v>
+        <v>-1237100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1526200</v>
+        <v>-1565900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1477200</v>
+        <v>-1515700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1109100</v>
+        <v>-1138000</v>
       </c>
       <c r="J94" s="3">
-        <v>-458100</v>
+        <v>-470000</v>
       </c>
       <c r="K94" s="3">
         <v>-814700</v>
@@ -3302,22 +3302,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-168200</v>
+        <v>-172600</v>
       </c>
       <c r="F96" s="3">
-        <v>-504600</v>
+        <v>-517700</v>
       </c>
       <c r="G96" s="3">
-        <v>-188400</v>
+        <v>-193300</v>
       </c>
       <c r="H96" s="3">
-        <v>-117700</v>
+        <v>-120800</v>
       </c>
       <c r="I96" s="3">
-        <v>-168200</v>
+        <v>-172600</v>
       </c>
       <c r="J96" s="3">
-        <v>-50500</v>
+        <v>-51800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>94500</v>
+        <v>97000</v>
       </c>
       <c r="E100" s="3">
-        <v>724900</v>
+        <v>743800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1462500</v>
+        <v>-1500600</v>
       </c>
       <c r="G100" s="3">
-        <v>-468700</v>
+        <v>-480900</v>
       </c>
       <c r="H100" s="3">
-        <v>374700</v>
+        <v>384500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1198000</v>
+        <v>-1229200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1574200</v>
+        <v>-1615200</v>
       </c>
       <c r="K100" s="3">
         <v>-939600</v>
@@ -3464,25 +3464,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-32100</v>
+        <v>-32900</v>
       </c>
       <c r="E101" s="3">
-        <v>-72500</v>
+        <v>-74400</v>
       </c>
       <c r="F101" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="G101" s="3">
-        <v>-85800</v>
+        <v>-88100</v>
       </c>
       <c r="H101" s="3">
-        <v>-134200</v>
+        <v>-137700</v>
       </c>
       <c r="I101" s="3">
-        <v>32300</v>
+        <v>33100</v>
       </c>
       <c r="J101" s="3">
-        <v>14300</v>
+        <v>14700</v>
       </c>
       <c r="K101" s="3">
         <v>800</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>343400</v>
+        <v>352300</v>
       </c>
       <c r="E102" s="3">
-        <v>394500</v>
+        <v>404700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1253200</v>
+        <v>-1285800</v>
       </c>
       <c r="G102" s="3">
-        <v>867800</v>
+        <v>890400</v>
       </c>
       <c r="H102" s="3">
-        <v>45800</v>
+        <v>47000</v>
       </c>
       <c r="I102" s="3">
-        <v>-107800</v>
+        <v>-110600</v>
       </c>
       <c r="J102" s="3">
-        <v>197600</v>
+        <v>202700</v>
       </c>
       <c r="K102" s="3">
         <v>-12000</v>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9716500</v>
+        <v>9667700</v>
       </c>
       <c r="E8" s="3">
-        <v>9638900</v>
+        <v>9590500</v>
       </c>
       <c r="F8" s="3">
-        <v>11031800</v>
+        <v>10976400</v>
       </c>
       <c r="G8" s="3">
-        <v>12229300</v>
+        <v>12167900</v>
       </c>
       <c r="H8" s="3">
-        <v>11801100</v>
+        <v>11741900</v>
       </c>
       <c r="I8" s="3">
-        <v>12922000</v>
+        <v>12857200</v>
       </c>
       <c r="J8" s="3">
-        <v>14637300</v>
+        <v>14563800</v>
       </c>
       <c r="K8" s="3">
         <v>14606000</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8900100</v>
+        <v>8855400</v>
       </c>
       <c r="E9" s="3">
-        <v>9622500</v>
+        <v>9574200</v>
       </c>
       <c r="F9" s="3">
-        <v>10022700</v>
+        <v>9972400</v>
       </c>
       <c r="G9" s="3">
-        <v>10040300</v>
+        <v>9989900</v>
       </c>
       <c r="H9" s="3">
-        <v>10564300</v>
+        <v>10511300</v>
       </c>
       <c r="I9" s="3">
-        <v>11493500</v>
+        <v>11435800</v>
       </c>
       <c r="J9" s="3">
-        <v>12897700</v>
+        <v>12833000</v>
       </c>
       <c r="K9" s="3">
         <v>26827700</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>816400</v>
+        <v>812300</v>
       </c>
       <c r="E10" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="F10" s="3">
-        <v>1009100</v>
+        <v>1004000</v>
       </c>
       <c r="G10" s="3">
-        <v>2189000</v>
+        <v>2178000</v>
       </c>
       <c r="H10" s="3">
-        <v>1236800</v>
+        <v>1230600</v>
       </c>
       <c r="I10" s="3">
-        <v>1428600</v>
+        <v>1421400</v>
       </c>
       <c r="J10" s="3">
-        <v>1739600</v>
+        <v>1730900</v>
       </c>
       <c r="K10" s="3">
         <v>-12221700</v>
@@ -832,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>368900</v>
+        <v>367000</v>
       </c>
       <c r="E12" s="3">
-        <v>351800</v>
+        <v>350000</v>
       </c>
       <c r="F12" s="3">
-        <v>342400</v>
+        <v>340600</v>
       </c>
       <c r="G12" s="3">
-        <v>353400</v>
+        <v>351600</v>
       </c>
       <c r="H12" s="3">
-        <v>325600</v>
+        <v>324000</v>
       </c>
       <c r="I12" s="3">
-        <v>319300</v>
+        <v>317700</v>
       </c>
       <c r="J12" s="3">
-        <v>328400</v>
+        <v>326700</v>
       </c>
       <c r="K12" s="3">
         <v>299200</v>
@@ -898,25 +898,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="E14" s="3">
-        <v>68200</v>
+        <v>67900</v>
       </c>
       <c r="F14" s="3">
-        <v>32300</v>
+        <v>32200</v>
       </c>
       <c r="G14" s="3">
-        <v>58500</v>
+        <v>58200</v>
       </c>
       <c r="H14" s="3">
-        <v>35000</v>
+        <v>34800</v>
       </c>
       <c r="I14" s="3">
-        <v>431400</v>
+        <v>429200</v>
       </c>
       <c r="J14" s="3">
-        <v>82200</v>
+        <v>81800</v>
       </c>
       <c r="K14" s="3">
         <v>140400</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9661400</v>
+        <v>9612900</v>
       </c>
       <c r="E17" s="3">
-        <v>10441100</v>
+        <v>10388700</v>
       </c>
       <c r="F17" s="3">
-        <v>10825000</v>
+        <v>10770600</v>
       </c>
       <c r="G17" s="3">
-        <v>10884200</v>
+        <v>10829600</v>
       </c>
       <c r="H17" s="3">
-        <v>11393600</v>
+        <v>11336400</v>
       </c>
       <c r="I17" s="3">
-        <v>12725100</v>
+        <v>12661200</v>
       </c>
       <c r="J17" s="3">
-        <v>13924600</v>
+        <v>13854800</v>
       </c>
       <c r="K17" s="3">
         <v>14455500</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55100</v>
+        <v>54800</v>
       </c>
       <c r="E18" s="3">
-        <v>-802200</v>
+        <v>-798200</v>
       </c>
       <c r="F18" s="3">
-        <v>206800</v>
+        <v>205800</v>
       </c>
       <c r="G18" s="3">
-        <v>1345000</v>
+        <v>1338300</v>
       </c>
       <c r="H18" s="3">
-        <v>407500</v>
+        <v>405400</v>
       </c>
       <c r="I18" s="3">
-        <v>196900</v>
+        <v>196000</v>
       </c>
       <c r="J18" s="3">
-        <v>712600</v>
+        <v>709100</v>
       </c>
       <c r="K18" s="3">
         <v>150500</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>150500</v>
+        <v>149700</v>
       </c>
       <c r="E20" s="3">
-        <v>207200</v>
+        <v>206100</v>
       </c>
       <c r="F20" s="3">
-        <v>290900</v>
+        <v>289500</v>
       </c>
       <c r="G20" s="3">
-        <v>169400</v>
+        <v>168500</v>
       </c>
       <c r="H20" s="3">
-        <v>90700</v>
+        <v>90300</v>
       </c>
       <c r="I20" s="3">
-        <v>168500</v>
+        <v>167600</v>
       </c>
       <c r="J20" s="3">
-        <v>148900</v>
+        <v>148200</v>
       </c>
       <c r="K20" s="3">
         <v>368800</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1472800</v>
+        <v>1476300</v>
       </c>
       <c r="E21" s="3">
-        <v>703000</v>
+        <v>710700</v>
       </c>
       <c r="F21" s="3">
-        <v>1723100</v>
+        <v>1725000</v>
       </c>
       <c r="G21" s="3">
-        <v>2818600</v>
+        <v>2815700</v>
       </c>
       <c r="H21" s="3">
-        <v>1919200</v>
+        <v>1921900</v>
       </c>
       <c r="I21" s="3">
-        <v>2074700</v>
+        <v>2079100</v>
       </c>
       <c r="J21" s="3">
-        <v>2898700</v>
+        <v>2901700</v>
       </c>
       <c r="K21" s="3">
         <v>2752300</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>105600</v>
+        <v>105000</v>
       </c>
       <c r="E22" s="3">
-        <v>116600</v>
+        <v>116000</v>
       </c>
       <c r="F22" s="3">
-        <v>95500</v>
+        <v>95000</v>
       </c>
       <c r="G22" s="3">
-        <v>102800</v>
+        <v>102300</v>
       </c>
       <c r="H22" s="3">
-        <v>97100</v>
+        <v>96600</v>
       </c>
       <c r="I22" s="3">
-        <v>92900</v>
+        <v>92400</v>
       </c>
       <c r="J22" s="3">
-        <v>145100</v>
+        <v>144300</v>
       </c>
       <c r="K22" s="3">
         <v>335600</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100000</v>
+        <v>99500</v>
       </c>
       <c r="E23" s="3">
-        <v>-711600</v>
+        <v>-708100</v>
       </c>
       <c r="F23" s="3">
-        <v>402200</v>
+        <v>400200</v>
       </c>
       <c r="G23" s="3">
-        <v>1411600</v>
+        <v>1404500</v>
       </c>
       <c r="H23" s="3">
-        <v>401100</v>
+        <v>399100</v>
       </c>
       <c r="I23" s="3">
-        <v>272500</v>
+        <v>271100</v>
       </c>
       <c r="J23" s="3">
-        <v>716500</v>
+        <v>712900</v>
       </c>
       <c r="K23" s="3">
         <v>183700</v>
@@ -1192,22 +1192,22 @@
         <v>-4300</v>
       </c>
       <c r="E24" s="3">
-        <v>62900</v>
+        <v>62600</v>
       </c>
       <c r="F24" s="3">
-        <v>116800</v>
+        <v>116200</v>
       </c>
       <c r="G24" s="3">
-        <v>326500</v>
+        <v>324900</v>
       </c>
       <c r="H24" s="3">
-        <v>164200</v>
+        <v>163400</v>
       </c>
       <c r="I24" s="3">
-        <v>98800</v>
+        <v>98300</v>
       </c>
       <c r="J24" s="3">
-        <v>116300</v>
+        <v>115700</v>
       </c>
       <c r="K24" s="3">
         <v>47700</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>104300</v>
+        <v>103700</v>
       </c>
       <c r="E26" s="3">
-        <v>-774600</v>
+        <v>-770700</v>
       </c>
       <c r="F26" s="3">
-        <v>285400</v>
+        <v>284000</v>
       </c>
       <c r="G26" s="3">
-        <v>1085100</v>
+        <v>1079600</v>
       </c>
       <c r="H26" s="3">
-        <v>236900</v>
+        <v>235700</v>
       </c>
       <c r="I26" s="3">
-        <v>173700</v>
+        <v>172800</v>
       </c>
       <c r="J26" s="3">
-        <v>600200</v>
+        <v>597200</v>
       </c>
       <c r="K26" s="3">
         <v>136000</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>121100</v>
+        <v>120500</v>
       </c>
       <c r="E27" s="3">
-        <v>-688000</v>
+        <v>-684500</v>
       </c>
       <c r="F27" s="3">
-        <v>364400</v>
+        <v>362500</v>
       </c>
       <c r="G27" s="3">
-        <v>1160400</v>
+        <v>1154600</v>
       </c>
       <c r="H27" s="3">
-        <v>280400</v>
+        <v>279000</v>
       </c>
       <c r="I27" s="3">
-        <v>176900</v>
+        <v>176000</v>
       </c>
       <c r="J27" s="3">
-        <v>586900</v>
+        <v>584000</v>
       </c>
       <c r="K27" s="3">
         <v>133400</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-150500</v>
+        <v>-149700</v>
       </c>
       <c r="E32" s="3">
-        <v>-207200</v>
+        <v>-206100</v>
       </c>
       <c r="F32" s="3">
-        <v>-290900</v>
+        <v>-289500</v>
       </c>
       <c r="G32" s="3">
-        <v>-169400</v>
+        <v>-168500</v>
       </c>
       <c r="H32" s="3">
-        <v>-90700</v>
+        <v>-90300</v>
       </c>
       <c r="I32" s="3">
-        <v>-168500</v>
+        <v>-167600</v>
       </c>
       <c r="J32" s="3">
-        <v>-148900</v>
+        <v>-148200</v>
       </c>
       <c r="K32" s="3">
         <v>-368800</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>121100</v>
+        <v>120500</v>
       </c>
       <c r="E33" s="3">
-        <v>-688000</v>
+        <v>-684500</v>
       </c>
       <c r="F33" s="3">
-        <v>364400</v>
+        <v>362500</v>
       </c>
       <c r="G33" s="3">
-        <v>1160400</v>
+        <v>1154600</v>
       </c>
       <c r="H33" s="3">
-        <v>280400</v>
+        <v>279000</v>
       </c>
       <c r="I33" s="3">
-        <v>176900</v>
+        <v>176000</v>
       </c>
       <c r="J33" s="3">
-        <v>586900</v>
+        <v>584000</v>
       </c>
       <c r="K33" s="3">
         <v>133400</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>121100</v>
+        <v>120500</v>
       </c>
       <c r="E35" s="3">
-        <v>-688000</v>
+        <v>-684500</v>
       </c>
       <c r="F35" s="3">
-        <v>364400</v>
+        <v>362500</v>
       </c>
       <c r="G35" s="3">
-        <v>1160400</v>
+        <v>1154600</v>
       </c>
       <c r="H35" s="3">
-        <v>280400</v>
+        <v>279000</v>
       </c>
       <c r="I35" s="3">
-        <v>176900</v>
+        <v>176000</v>
       </c>
       <c r="J35" s="3">
-        <v>586900</v>
+        <v>584000</v>
       </c>
       <c r="K35" s="3">
         <v>133400</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3237300</v>
+        <v>3221000</v>
       </c>
       <c r="E41" s="3">
-        <v>2884900</v>
+        <v>2870400</v>
       </c>
       <c r="F41" s="3">
-        <v>2480200</v>
+        <v>2467700</v>
       </c>
       <c r="G41" s="3">
-        <v>3766000</v>
+        <v>3747100</v>
       </c>
       <c r="H41" s="3">
-        <v>2875700</v>
+        <v>2861200</v>
       </c>
       <c r="I41" s="3">
-        <v>2828700</v>
+        <v>2814500</v>
       </c>
       <c r="J41" s="3">
-        <v>2939300</v>
+        <v>2924500</v>
       </c>
       <c r="K41" s="3">
         <v>2677000</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40200</v>
+        <v>40000</v>
       </c>
       <c r="E42" s="3">
-        <v>135600</v>
+        <v>134900</v>
       </c>
       <c r="F42" s="3">
-        <v>111100</v>
+        <v>110600</v>
       </c>
       <c r="G42" s="3">
-        <v>18600</v>
+        <v>18500</v>
       </c>
       <c r="H42" s="3">
-        <v>20100</v>
+        <v>20000</v>
       </c>
       <c r="I42" s="3">
-        <v>420800</v>
+        <v>418700</v>
       </c>
       <c r="J42" s="3">
-        <v>108400</v>
+        <v>107900</v>
       </c>
       <c r="K42" s="3">
         <v>238500</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1681000</v>
+        <v>1672600</v>
       </c>
       <c r="E43" s="3">
-        <v>1153700</v>
+        <v>1147900</v>
       </c>
       <c r="F43" s="3">
-        <v>1702800</v>
+        <v>1694200</v>
       </c>
       <c r="G43" s="3">
-        <v>1458500</v>
+        <v>1451200</v>
       </c>
       <c r="H43" s="3">
-        <v>1731700</v>
+        <v>1723000</v>
       </c>
       <c r="I43" s="3">
-        <v>1250400</v>
+        <v>1244100</v>
       </c>
       <c r="J43" s="3">
-        <v>2139600</v>
+        <v>2128800</v>
       </c>
       <c r="K43" s="3">
         <v>1535600</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>959400</v>
+        <v>954600</v>
       </c>
       <c r="E44" s="3">
-        <v>841300</v>
+        <v>837100</v>
       </c>
       <c r="F44" s="3">
-        <v>943400</v>
+        <v>938700</v>
       </c>
       <c r="G44" s="3">
-        <v>891300</v>
+        <v>886800</v>
       </c>
       <c r="H44" s="3">
-        <v>992600</v>
+        <v>987600</v>
       </c>
       <c r="I44" s="3">
-        <v>1140200</v>
+        <v>1134500</v>
       </c>
       <c r="J44" s="3">
-        <v>1306000</v>
+        <v>1299500</v>
       </c>
       <c r="K44" s="3">
         <v>1318900</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>118100</v>
+        <v>117500</v>
       </c>
       <c r="E45" s="3">
-        <v>119700</v>
+        <v>119100</v>
       </c>
       <c r="F45" s="3">
-        <v>108000</v>
+        <v>107500</v>
       </c>
       <c r="G45" s="3">
-        <v>326700</v>
+        <v>325000</v>
       </c>
       <c r="H45" s="3">
-        <v>237500</v>
+        <v>236300</v>
       </c>
       <c r="I45" s="3">
-        <v>169000</v>
+        <v>168100</v>
       </c>
       <c r="J45" s="3">
-        <v>162800</v>
+        <v>162000</v>
       </c>
       <c r="K45" s="3">
         <v>179600</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6035900</v>
+        <v>6005600</v>
       </c>
       <c r="E46" s="3">
-        <v>5135200</v>
+        <v>5109400</v>
       </c>
       <c r="F46" s="3">
-        <v>5345600</v>
+        <v>5318700</v>
       </c>
       <c r="G46" s="3">
-        <v>6461100</v>
+        <v>6428700</v>
       </c>
       <c r="H46" s="3">
-        <v>5857600</v>
+        <v>5828200</v>
       </c>
       <c r="I46" s="3">
-        <v>5809000</v>
+        <v>5779900</v>
       </c>
       <c r="J46" s="3">
-        <v>6656100</v>
+        <v>6622700</v>
       </c>
       <c r="K46" s="3">
         <v>5949700</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>720300</v>
+        <v>716700</v>
       </c>
       <c r="E47" s="3">
-        <v>485700</v>
+        <v>483300</v>
       </c>
       <c r="F47" s="3">
-        <v>475700</v>
+        <v>473300</v>
       </c>
       <c r="G47" s="3">
-        <v>356600</v>
+        <v>354900</v>
       </c>
       <c r="H47" s="3">
-        <v>294400</v>
+        <v>292900</v>
       </c>
       <c r="I47" s="3">
-        <v>521800</v>
+        <v>519100</v>
       </c>
       <c r="J47" s="3">
-        <v>533400</v>
+        <v>530700</v>
       </c>
       <c r="K47" s="3">
         <v>493000</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7110300</v>
+        <v>7074600</v>
       </c>
       <c r="E48" s="3">
-        <v>7907000</v>
+        <v>7867300</v>
       </c>
       <c r="F48" s="3">
-        <v>7972300</v>
+        <v>7932300</v>
       </c>
       <c r="G48" s="3">
-        <v>8091800</v>
+        <v>8051200</v>
       </c>
       <c r="H48" s="3">
-        <v>8004200</v>
+        <v>7964100</v>
       </c>
       <c r="I48" s="3">
-        <v>7503800</v>
+        <v>7466100</v>
       </c>
       <c r="J48" s="3">
-        <v>8329600</v>
+        <v>8287800</v>
       </c>
       <c r="K48" s="3">
         <v>9525100</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>459100</v>
+        <v>456800</v>
       </c>
       <c r="E49" s="3">
-        <v>459300</v>
+        <v>457000</v>
       </c>
       <c r="F49" s="3">
-        <v>479700</v>
+        <v>477300</v>
       </c>
       <c r="G49" s="3">
-        <v>472300</v>
+        <v>469900</v>
       </c>
       <c r="H49" s="3">
-        <v>487800</v>
+        <v>485300</v>
       </c>
       <c r="I49" s="3">
-        <v>522700</v>
+        <v>520000</v>
       </c>
       <c r="J49" s="3">
-        <v>139300</v>
+        <v>138600</v>
       </c>
       <c r="K49" s="3">
         <v>155500</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>279200</v>
+        <v>277800</v>
       </c>
       <c r="E52" s="3">
-        <v>272100</v>
+        <v>270700</v>
       </c>
       <c r="F52" s="3">
-        <v>423300</v>
+        <v>421200</v>
       </c>
       <c r="G52" s="3">
-        <v>448600</v>
+        <v>446300</v>
       </c>
       <c r="H52" s="3">
-        <v>767500</v>
+        <v>763700</v>
       </c>
       <c r="I52" s="3">
-        <v>903200</v>
+        <v>898600</v>
       </c>
       <c r="J52" s="3">
-        <v>204000</v>
+        <v>203000</v>
       </c>
       <c r="K52" s="3">
         <v>183100</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14604700</v>
+        <v>14531400</v>
       </c>
       <c r="E54" s="3">
-        <v>14259300</v>
+        <v>14187700</v>
       </c>
       <c r="F54" s="3">
-        <v>14696600</v>
+        <v>14622800</v>
       </c>
       <c r="G54" s="3">
-        <v>15830400</v>
+        <v>15751000</v>
       </c>
       <c r="H54" s="3">
-        <v>15411500</v>
+        <v>15334200</v>
       </c>
       <c r="I54" s="3">
-        <v>15260400</v>
+        <v>15183800</v>
       </c>
       <c r="J54" s="3">
-        <v>15862500</v>
+        <v>15782800</v>
       </c>
       <c r="K54" s="3">
         <v>16306400</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1965500</v>
+        <v>1955700</v>
       </c>
       <c r="E57" s="3">
-        <v>1838100</v>
+        <v>1828900</v>
       </c>
       <c r="F57" s="3">
-        <v>2102100</v>
+        <v>2091600</v>
       </c>
       <c r="G57" s="3">
-        <v>1956300</v>
+        <v>1946500</v>
       </c>
       <c r="H57" s="3">
-        <v>2150600</v>
+        <v>2139800</v>
       </c>
       <c r="I57" s="3">
-        <v>2202300</v>
+        <v>2191200</v>
       </c>
       <c r="J57" s="3">
-        <v>2683200</v>
+        <v>2669700</v>
       </c>
       <c r="K57" s="3">
         <v>2749000</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>628400</v>
+        <v>625300</v>
       </c>
       <c r="E58" s="3">
-        <v>428300</v>
+        <v>426100</v>
       </c>
       <c r="F58" s="3">
-        <v>1080900</v>
+        <v>1075500</v>
       </c>
       <c r="G58" s="3">
-        <v>415200</v>
+        <v>413200</v>
       </c>
       <c r="H58" s="3">
-        <v>667000</v>
+        <v>663700</v>
       </c>
       <c r="I58" s="3">
-        <v>1459600</v>
+        <v>1452200</v>
       </c>
       <c r="J58" s="3">
-        <v>2044000</v>
+        <v>2033700</v>
       </c>
       <c r="K58" s="3">
         <v>2323000</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>932400</v>
+        <v>927700</v>
       </c>
       <c r="E59" s="3">
-        <v>979900</v>
+        <v>975000</v>
       </c>
       <c r="F59" s="3">
-        <v>1440700</v>
+        <v>1433400</v>
       </c>
       <c r="G59" s="3">
-        <v>1474000</v>
+        <v>1466600</v>
       </c>
       <c r="H59" s="3">
-        <v>1387600</v>
+        <v>1380600</v>
       </c>
       <c r="I59" s="3">
-        <v>1406900</v>
+        <v>1399900</v>
       </c>
       <c r="J59" s="3">
-        <v>1517600</v>
+        <v>1510000</v>
       </c>
       <c r="K59" s="3">
         <v>1289400</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3526400</v>
+        <v>3508700</v>
       </c>
       <c r="E60" s="3">
-        <v>3246300</v>
+        <v>3230000</v>
       </c>
       <c r="F60" s="3">
-        <v>4623700</v>
+        <v>4600500</v>
       </c>
       <c r="G60" s="3">
-        <v>3845500</v>
+        <v>3826200</v>
       </c>
       <c r="H60" s="3">
-        <v>4205200</v>
+        <v>4184100</v>
       </c>
       <c r="I60" s="3">
-        <v>5068800</v>
+        <v>5043300</v>
       </c>
       <c r="J60" s="3">
-        <v>6244800</v>
+        <v>6213400</v>
       </c>
       <c r="K60" s="3">
         <v>6361400</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3929100</v>
+        <v>3909400</v>
       </c>
       <c r="E61" s="3">
-        <v>4046500</v>
+        <v>4026200</v>
       </c>
       <c r="F61" s="3">
-        <v>2033600</v>
+        <v>2023400</v>
       </c>
       <c r="G61" s="3">
-        <v>3674000</v>
+        <v>3655500</v>
       </c>
       <c r="H61" s="3">
-        <v>3807900</v>
+        <v>3788800</v>
       </c>
       <c r="I61" s="3">
-        <v>2457800</v>
+        <v>2445400</v>
       </c>
       <c r="J61" s="3">
-        <v>3072800</v>
+        <v>3057400</v>
       </c>
       <c r="K61" s="3">
         <v>4157200</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>199900</v>
+        <v>198900</v>
       </c>
       <c r="E62" s="3">
-        <v>225600</v>
+        <v>224500</v>
       </c>
       <c r="F62" s="3">
-        <v>247600</v>
+        <v>246400</v>
       </c>
       <c r="G62" s="3">
-        <v>233700</v>
+        <v>232500</v>
       </c>
       <c r="H62" s="3">
-        <v>239500</v>
+        <v>238300</v>
       </c>
       <c r="I62" s="3">
-        <v>395600</v>
+        <v>393600</v>
       </c>
       <c r="J62" s="3">
-        <v>305700</v>
+        <v>304200</v>
       </c>
       <c r="K62" s="3">
         <v>421000</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8049300</v>
+        <v>8008900</v>
       </c>
       <c r="E66" s="3">
-        <v>7923800</v>
+        <v>7884100</v>
       </c>
       <c r="F66" s="3">
-        <v>7421900</v>
+        <v>7384700</v>
       </c>
       <c r="G66" s="3">
-        <v>8366000</v>
+        <v>8324000</v>
       </c>
       <c r="H66" s="3">
-        <v>8912100</v>
+        <v>8867400</v>
       </c>
       <c r="I66" s="3">
-        <v>8734400</v>
+        <v>8690500</v>
       </c>
       <c r="J66" s="3">
-        <v>10316400</v>
+        <v>10264700</v>
       </c>
       <c r="K66" s="3">
         <v>11431900</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1085100</v>
+        <v>1079600</v>
       </c>
       <c r="E72" s="3">
-        <v>821300</v>
+        <v>817200</v>
       </c>
       <c r="F72" s="3">
-        <v>1679900</v>
+        <v>1671500</v>
       </c>
       <c r="G72" s="3">
-        <v>1833000</v>
+        <v>1823800</v>
       </c>
       <c r="H72" s="3">
-        <v>869400</v>
+        <v>865000</v>
       </c>
       <c r="I72" s="3">
-        <v>731800</v>
+        <v>728100</v>
       </c>
       <c r="J72" s="3">
-        <v>-238700</v>
+        <v>-237500</v>
       </c>
       <c r="K72" s="3">
         <v>-768200</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6555400</v>
+        <v>6522500</v>
       </c>
       <c r="E76" s="3">
-        <v>6335500</v>
+        <v>6303700</v>
       </c>
       <c r="F76" s="3">
-        <v>7274700</v>
+        <v>7238100</v>
       </c>
       <c r="G76" s="3">
-        <v>7464400</v>
+        <v>7426900</v>
       </c>
       <c r="H76" s="3">
-        <v>6499400</v>
+        <v>6466800</v>
       </c>
       <c r="I76" s="3">
-        <v>6526000</v>
+        <v>6493200</v>
       </c>
       <c r="J76" s="3">
-        <v>5546000</v>
+        <v>5518200</v>
       </c>
       <c r="K76" s="3">
         <v>4874500</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>121100</v>
+        <v>120500</v>
       </c>
       <c r="E81" s="3">
-        <v>-688000</v>
+        <v>-684500</v>
       </c>
       <c r="F81" s="3">
-        <v>364400</v>
+        <v>362500</v>
       </c>
       <c r="G81" s="3">
-        <v>1160400</v>
+        <v>1154600</v>
       </c>
       <c r="H81" s="3">
-        <v>280400</v>
+        <v>279000</v>
       </c>
       <c r="I81" s="3">
-        <v>176900</v>
+        <v>176000</v>
       </c>
       <c r="J81" s="3">
-        <v>586900</v>
+        <v>584000</v>
       </c>
       <c r="K81" s="3">
         <v>133400</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1269400</v>
+        <v>1263000</v>
       </c>
       <c r="E83" s="3">
-        <v>1300200</v>
+        <v>1293700</v>
       </c>
       <c r="F83" s="3">
-        <v>1227400</v>
+        <v>1221200</v>
       </c>
       <c r="G83" s="3">
-        <v>1306400</v>
+        <v>1299800</v>
       </c>
       <c r="H83" s="3">
-        <v>1423400</v>
+        <v>1416300</v>
       </c>
       <c r="I83" s="3">
-        <v>1712200</v>
+        <v>1703600</v>
       </c>
       <c r="J83" s="3">
-        <v>2040500</v>
+        <v>2030300</v>
       </c>
       <c r="K83" s="3">
         <v>2232400</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>923300</v>
+        <v>918700</v>
       </c>
       <c r="E89" s="3">
-        <v>743400</v>
+        <v>739700</v>
       </c>
       <c r="F89" s="3">
-        <v>1441600</v>
+        <v>1434400</v>
       </c>
       <c r="G89" s="3">
-        <v>3025300</v>
+        <v>3010100</v>
       </c>
       <c r="H89" s="3">
-        <v>1315900</v>
+        <v>1309300</v>
       </c>
       <c r="I89" s="3">
-        <v>2223400</v>
+        <v>2212300</v>
       </c>
       <c r="J89" s="3">
-        <v>2273300</v>
+        <v>2261900</v>
       </c>
       <c r="K89" s="3">
         <v>1741500</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-559400</v>
+        <v>-556600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1059500</v>
+        <v>-1054200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1246900</v>
+        <v>-1240600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1573600</v>
+        <v>-1565700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1657500</v>
+        <v>-1649100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1199200</v>
+        <v>-1193100</v>
       </c>
       <c r="J91" s="3">
-        <v>-608600</v>
+        <v>-605500</v>
       </c>
       <c r="K91" s="3">
         <v>-893100</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-635000</v>
+        <v>-631800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1008100</v>
+        <v>-1003000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1237100</v>
+        <v>-1230900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1565900</v>
+        <v>-1558100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1515700</v>
+        <v>-1508100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1138000</v>
+        <v>-1132300</v>
       </c>
       <c r="J94" s="3">
-        <v>-470000</v>
+        <v>-467700</v>
       </c>
       <c r="K94" s="3">
         <v>-814700</v>
@@ -3302,22 +3302,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-172600</v>
+        <v>-171700</v>
       </c>
       <c r="F96" s="3">
-        <v>-517700</v>
+        <v>-515100</v>
       </c>
       <c r="G96" s="3">
-        <v>-193300</v>
+        <v>-192300</v>
       </c>
       <c r="H96" s="3">
-        <v>-120800</v>
+        <v>-120200</v>
       </c>
       <c r="I96" s="3">
-        <v>-172600</v>
+        <v>-171700</v>
       </c>
       <c r="J96" s="3">
-        <v>-51800</v>
+        <v>-51500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>97000</v>
+        <v>96500</v>
       </c>
       <c r="E100" s="3">
-        <v>743800</v>
+        <v>740100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1500600</v>
+        <v>-1493100</v>
       </c>
       <c r="G100" s="3">
-        <v>-480900</v>
+        <v>-478500</v>
       </c>
       <c r="H100" s="3">
-        <v>384500</v>
+        <v>382500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1229200</v>
+        <v>-1223000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1615200</v>
+        <v>-1607100</v>
       </c>
       <c r="K100" s="3">
         <v>-939600</v>
@@ -3464,25 +3464,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-32900</v>
+        <v>-32700</v>
       </c>
       <c r="E101" s="3">
-        <v>-74400</v>
+        <v>-74000</v>
       </c>
       <c r="F101" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="G101" s="3">
-        <v>-88100</v>
+        <v>-87600</v>
       </c>
       <c r="H101" s="3">
-        <v>-137700</v>
+        <v>-137000</v>
       </c>
       <c r="I101" s="3">
-        <v>33100</v>
+        <v>33000</v>
       </c>
       <c r="J101" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="K101" s="3">
         <v>800</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>352300</v>
+        <v>350600</v>
       </c>
       <c r="E102" s="3">
-        <v>404700</v>
+        <v>402700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1285800</v>
+        <v>-1279400</v>
       </c>
       <c r="G102" s="3">
-        <v>890400</v>
+        <v>885900</v>
       </c>
       <c r="H102" s="3">
-        <v>47000</v>
+        <v>46800</v>
       </c>
       <c r="I102" s="3">
-        <v>-110600</v>
+        <v>-110100</v>
       </c>
       <c r="J102" s="3">
-        <v>202700</v>
+        <v>201700</v>
       </c>
       <c r="K102" s="3">
         <v>-12000</v>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9667700</v>
+        <v>9759800</v>
       </c>
       <c r="E8" s="3">
-        <v>9590500</v>
+        <v>9681900</v>
       </c>
       <c r="F8" s="3">
-        <v>10976400</v>
+        <v>11081000</v>
       </c>
       <c r="G8" s="3">
-        <v>12167900</v>
+        <v>12283800</v>
       </c>
       <c r="H8" s="3">
-        <v>11741900</v>
+        <v>11853800</v>
       </c>
       <c r="I8" s="3">
-        <v>12857200</v>
+        <v>12979700</v>
       </c>
       <c r="J8" s="3">
-        <v>14563800</v>
+        <v>14702600</v>
       </c>
       <c r="K8" s="3">
         <v>14606000</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8855400</v>
+        <v>8939800</v>
       </c>
       <c r="E9" s="3">
-        <v>9574200</v>
+        <v>9665500</v>
       </c>
       <c r="F9" s="3">
-        <v>9972400</v>
+        <v>10067400</v>
       </c>
       <c r="G9" s="3">
-        <v>9989900</v>
+        <v>10085100</v>
       </c>
       <c r="H9" s="3">
-        <v>10511300</v>
+        <v>10611400</v>
       </c>
       <c r="I9" s="3">
-        <v>11435800</v>
+        <v>11544700</v>
       </c>
       <c r="J9" s="3">
-        <v>12833000</v>
+        <v>12955200</v>
       </c>
       <c r="K9" s="3">
         <v>26827700</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>812300</v>
+        <v>820000</v>
       </c>
       <c r="E10" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="F10" s="3">
-        <v>1004000</v>
+        <v>1013600</v>
       </c>
       <c r="G10" s="3">
-        <v>2178000</v>
+        <v>2198700</v>
       </c>
       <c r="H10" s="3">
-        <v>1230600</v>
+        <v>1242400</v>
       </c>
       <c r="I10" s="3">
-        <v>1421400</v>
+        <v>1434900</v>
       </c>
       <c r="J10" s="3">
-        <v>1730900</v>
+        <v>1747400</v>
       </c>
       <c r="K10" s="3">
         <v>-12221700</v>
@@ -832,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>367000</v>
+        <v>370500</v>
       </c>
       <c r="E12" s="3">
-        <v>350000</v>
+        <v>353300</v>
       </c>
       <c r="F12" s="3">
-        <v>340600</v>
+        <v>343900</v>
       </c>
       <c r="G12" s="3">
-        <v>351600</v>
+        <v>355000</v>
       </c>
       <c r="H12" s="3">
-        <v>324000</v>
+        <v>327100</v>
       </c>
       <c r="I12" s="3">
-        <v>317700</v>
+        <v>320700</v>
       </c>
       <c r="J12" s="3">
-        <v>326700</v>
+        <v>329800</v>
       </c>
       <c r="K12" s="3">
         <v>299200</v>
@@ -898,25 +898,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>19500</v>
+        <v>19700</v>
       </c>
       <c r="E14" s="3">
-        <v>67900</v>
+        <v>68500</v>
       </c>
       <c r="F14" s="3">
-        <v>32200</v>
+        <v>32500</v>
       </c>
       <c r="G14" s="3">
-        <v>58200</v>
+        <v>58800</v>
       </c>
       <c r="H14" s="3">
-        <v>34800</v>
+        <v>35100</v>
       </c>
       <c r="I14" s="3">
-        <v>429200</v>
+        <v>433300</v>
       </c>
       <c r="J14" s="3">
-        <v>81800</v>
+        <v>82600</v>
       </c>
       <c r="K14" s="3">
         <v>140400</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9612900</v>
+        <v>9704500</v>
       </c>
       <c r="E17" s="3">
-        <v>10388700</v>
+        <v>10487600</v>
       </c>
       <c r="F17" s="3">
-        <v>10770600</v>
+        <v>10873300</v>
       </c>
       <c r="G17" s="3">
-        <v>10829600</v>
+        <v>10932800</v>
       </c>
       <c r="H17" s="3">
-        <v>11336400</v>
+        <v>11444500</v>
       </c>
       <c r="I17" s="3">
-        <v>12661200</v>
+        <v>12781900</v>
       </c>
       <c r="J17" s="3">
-        <v>13854800</v>
+        <v>13986800</v>
       </c>
       <c r="K17" s="3">
         <v>14455500</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>54800</v>
+        <v>55300</v>
       </c>
       <c r="E18" s="3">
-        <v>-798200</v>
+        <v>-805800</v>
       </c>
       <c r="F18" s="3">
-        <v>205800</v>
+        <v>207700</v>
       </c>
       <c r="G18" s="3">
-        <v>1338300</v>
+        <v>1351000</v>
       </c>
       <c r="H18" s="3">
-        <v>405400</v>
+        <v>409300</v>
       </c>
       <c r="I18" s="3">
-        <v>196000</v>
+        <v>197800</v>
       </c>
       <c r="J18" s="3">
-        <v>709100</v>
+        <v>715800</v>
       </c>
       <c r="K18" s="3">
         <v>150500</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>149700</v>
+        <v>151100</v>
       </c>
       <c r="E20" s="3">
-        <v>206100</v>
+        <v>208100</v>
       </c>
       <c r="F20" s="3">
-        <v>289500</v>
+        <v>292200</v>
       </c>
       <c r="G20" s="3">
-        <v>168500</v>
+        <v>170100</v>
       </c>
       <c r="H20" s="3">
-        <v>90300</v>
+        <v>91100</v>
       </c>
       <c r="I20" s="3">
-        <v>167600</v>
+        <v>169200</v>
       </c>
       <c r="J20" s="3">
-        <v>148200</v>
+        <v>149600</v>
       </c>
       <c r="K20" s="3">
         <v>368800</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1476300</v>
+        <v>1477200</v>
       </c>
       <c r="E21" s="3">
-        <v>710700</v>
+        <v>704000</v>
       </c>
       <c r="F21" s="3">
-        <v>1725000</v>
+        <v>1728700</v>
       </c>
       <c r="G21" s="3">
-        <v>2815700</v>
+        <v>2829000</v>
       </c>
       <c r="H21" s="3">
-        <v>1921900</v>
+        <v>1925400</v>
       </c>
       <c r="I21" s="3">
-        <v>2079100</v>
+        <v>2081100</v>
       </c>
       <c r="J21" s="3">
-        <v>2901700</v>
+        <v>2908200</v>
       </c>
       <c r="K21" s="3">
         <v>2752300</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>105000</v>
+        <v>106000</v>
       </c>
       <c r="E22" s="3">
-        <v>116000</v>
+        <v>117100</v>
       </c>
       <c r="F22" s="3">
-        <v>95000</v>
+        <v>95900</v>
       </c>
       <c r="G22" s="3">
-        <v>102300</v>
+        <v>103300</v>
       </c>
       <c r="H22" s="3">
-        <v>96600</v>
+        <v>97500</v>
       </c>
       <c r="I22" s="3">
-        <v>92400</v>
+        <v>93300</v>
       </c>
       <c r="J22" s="3">
-        <v>144300</v>
+        <v>145700</v>
       </c>
       <c r="K22" s="3">
         <v>335600</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>99500</v>
+        <v>100400</v>
       </c>
       <c r="E23" s="3">
-        <v>-708100</v>
+        <v>-714800</v>
       </c>
       <c r="F23" s="3">
-        <v>400200</v>
+        <v>404000</v>
       </c>
       <c r="G23" s="3">
-        <v>1404500</v>
+        <v>1417900</v>
       </c>
       <c r="H23" s="3">
-        <v>399100</v>
+        <v>402900</v>
       </c>
       <c r="I23" s="3">
-        <v>271100</v>
+        <v>273700</v>
       </c>
       <c r="J23" s="3">
-        <v>712900</v>
+        <v>719700</v>
       </c>
       <c r="K23" s="3">
         <v>183700</v>
@@ -1192,22 +1192,22 @@
         <v>-4300</v>
       </c>
       <c r="E24" s="3">
-        <v>62600</v>
+        <v>63200</v>
       </c>
       <c r="F24" s="3">
-        <v>116200</v>
+        <v>117300</v>
       </c>
       <c r="G24" s="3">
-        <v>324900</v>
+        <v>328000</v>
       </c>
       <c r="H24" s="3">
-        <v>163400</v>
+        <v>164900</v>
       </c>
       <c r="I24" s="3">
-        <v>98300</v>
+        <v>99300</v>
       </c>
       <c r="J24" s="3">
-        <v>115700</v>
+        <v>116800</v>
       </c>
       <c r="K24" s="3">
         <v>47700</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103700</v>
+        <v>104700</v>
       </c>
       <c r="E26" s="3">
-        <v>-770700</v>
+        <v>-778000</v>
       </c>
       <c r="F26" s="3">
-        <v>284000</v>
+        <v>286700</v>
       </c>
       <c r="G26" s="3">
-        <v>1079600</v>
+        <v>1089900</v>
       </c>
       <c r="H26" s="3">
-        <v>235700</v>
+        <v>238000</v>
       </c>
       <c r="I26" s="3">
-        <v>172800</v>
+        <v>174400</v>
       </c>
       <c r="J26" s="3">
-        <v>597200</v>
+        <v>602900</v>
       </c>
       <c r="K26" s="3">
         <v>136000</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>120500</v>
+        <v>121600</v>
       </c>
       <c r="E27" s="3">
-        <v>-684500</v>
+        <v>-691100</v>
       </c>
       <c r="F27" s="3">
-        <v>362500</v>
+        <v>366000</v>
       </c>
       <c r="G27" s="3">
-        <v>1154600</v>
+        <v>1165600</v>
       </c>
       <c r="H27" s="3">
-        <v>279000</v>
+        <v>281600</v>
       </c>
       <c r="I27" s="3">
-        <v>176000</v>
+        <v>177600</v>
       </c>
       <c r="J27" s="3">
-        <v>584000</v>
+        <v>589500</v>
       </c>
       <c r="K27" s="3">
         <v>133400</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-149700</v>
+        <v>-151100</v>
       </c>
       <c r="E32" s="3">
-        <v>-206100</v>
+        <v>-208100</v>
       </c>
       <c r="F32" s="3">
-        <v>-289500</v>
+        <v>-292200</v>
       </c>
       <c r="G32" s="3">
-        <v>-168500</v>
+        <v>-170100</v>
       </c>
       <c r="H32" s="3">
-        <v>-90300</v>
+        <v>-91100</v>
       </c>
       <c r="I32" s="3">
-        <v>-167600</v>
+        <v>-169200</v>
       </c>
       <c r="J32" s="3">
-        <v>-148200</v>
+        <v>-149600</v>
       </c>
       <c r="K32" s="3">
         <v>-368800</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>120500</v>
+        <v>121600</v>
       </c>
       <c r="E33" s="3">
-        <v>-684500</v>
+        <v>-691100</v>
       </c>
       <c r="F33" s="3">
-        <v>362500</v>
+        <v>366000</v>
       </c>
       <c r="G33" s="3">
-        <v>1154600</v>
+        <v>1165600</v>
       </c>
       <c r="H33" s="3">
-        <v>279000</v>
+        <v>281600</v>
       </c>
       <c r="I33" s="3">
-        <v>176000</v>
+        <v>177600</v>
       </c>
       <c r="J33" s="3">
-        <v>584000</v>
+        <v>589500</v>
       </c>
       <c r="K33" s="3">
         <v>133400</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>120500</v>
+        <v>121600</v>
       </c>
       <c r="E35" s="3">
-        <v>-684500</v>
+        <v>-691100</v>
       </c>
       <c r="F35" s="3">
-        <v>362500</v>
+        <v>366000</v>
       </c>
       <c r="G35" s="3">
-        <v>1154600</v>
+        <v>1165600</v>
       </c>
       <c r="H35" s="3">
-        <v>279000</v>
+        <v>281600</v>
       </c>
       <c r="I35" s="3">
-        <v>176000</v>
+        <v>177600</v>
       </c>
       <c r="J35" s="3">
-        <v>584000</v>
+        <v>589500</v>
       </c>
       <c r="K35" s="3">
         <v>133400</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3221000</v>
+        <v>3251700</v>
       </c>
       <c r="E41" s="3">
-        <v>2870400</v>
+        <v>2897800</v>
       </c>
       <c r="F41" s="3">
-        <v>2467700</v>
+        <v>2491300</v>
       </c>
       <c r="G41" s="3">
-        <v>3747100</v>
+        <v>3782800</v>
       </c>
       <c r="H41" s="3">
-        <v>2861200</v>
+        <v>2888500</v>
       </c>
       <c r="I41" s="3">
-        <v>2814500</v>
+        <v>2841300</v>
       </c>
       <c r="J41" s="3">
-        <v>2924500</v>
+        <v>2952400</v>
       </c>
       <c r="K41" s="3">
         <v>2677000</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="E42" s="3">
-        <v>134900</v>
+        <v>136200</v>
       </c>
       <c r="F42" s="3">
-        <v>110600</v>
+        <v>111600</v>
       </c>
       <c r="G42" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="H42" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="I42" s="3">
-        <v>418700</v>
+        <v>422700</v>
       </c>
       <c r="J42" s="3">
-        <v>107900</v>
+        <v>108900</v>
       </c>
       <c r="K42" s="3">
         <v>238500</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1672600</v>
+        <v>1688500</v>
       </c>
       <c r="E43" s="3">
-        <v>1147900</v>
+        <v>1158800</v>
       </c>
       <c r="F43" s="3">
-        <v>1694200</v>
+        <v>1710400</v>
       </c>
       <c r="G43" s="3">
-        <v>1451200</v>
+        <v>1465000</v>
       </c>
       <c r="H43" s="3">
-        <v>1723000</v>
+        <v>1739500</v>
       </c>
       <c r="I43" s="3">
-        <v>1244100</v>
+        <v>1256000</v>
       </c>
       <c r="J43" s="3">
-        <v>2128800</v>
+        <v>2149100</v>
       </c>
       <c r="K43" s="3">
         <v>1535600</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>954600</v>
+        <v>963700</v>
       </c>
       <c r="E44" s="3">
-        <v>837100</v>
+        <v>845000</v>
       </c>
       <c r="F44" s="3">
-        <v>938700</v>
+        <v>947700</v>
       </c>
       <c r="G44" s="3">
-        <v>886800</v>
+        <v>895300</v>
       </c>
       <c r="H44" s="3">
-        <v>987600</v>
+        <v>997000</v>
       </c>
       <c r="I44" s="3">
-        <v>1134500</v>
+        <v>1145300</v>
       </c>
       <c r="J44" s="3">
-        <v>1299500</v>
+        <v>1311900</v>
       </c>
       <c r="K44" s="3">
         <v>1318900</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>117500</v>
+        <v>118600</v>
       </c>
       <c r="E45" s="3">
-        <v>119100</v>
+        <v>120200</v>
       </c>
       <c r="F45" s="3">
-        <v>107500</v>
+        <v>108500</v>
       </c>
       <c r="G45" s="3">
-        <v>325000</v>
+        <v>328100</v>
       </c>
       <c r="H45" s="3">
-        <v>236300</v>
+        <v>238600</v>
       </c>
       <c r="I45" s="3">
-        <v>168100</v>
+        <v>169800</v>
       </c>
       <c r="J45" s="3">
-        <v>162000</v>
+        <v>163600</v>
       </c>
       <c r="K45" s="3">
         <v>179600</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6005600</v>
+        <v>6062800</v>
       </c>
       <c r="E46" s="3">
-        <v>5109400</v>
+        <v>5158100</v>
       </c>
       <c r="F46" s="3">
-        <v>5318700</v>
+        <v>5369400</v>
       </c>
       <c r="G46" s="3">
-        <v>6428700</v>
+        <v>6489900</v>
       </c>
       <c r="H46" s="3">
-        <v>5828200</v>
+        <v>5883700</v>
       </c>
       <c r="I46" s="3">
-        <v>5779900</v>
+        <v>5835000</v>
       </c>
       <c r="J46" s="3">
-        <v>6622700</v>
+        <v>6685800</v>
       </c>
       <c r="K46" s="3">
         <v>5949700</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>716700</v>
+        <v>723500</v>
       </c>
       <c r="E47" s="3">
-        <v>483300</v>
+        <v>487900</v>
       </c>
       <c r="F47" s="3">
-        <v>473300</v>
+        <v>477800</v>
       </c>
       <c r="G47" s="3">
-        <v>354900</v>
+        <v>358200</v>
       </c>
       <c r="H47" s="3">
-        <v>292900</v>
+        <v>295700</v>
       </c>
       <c r="I47" s="3">
-        <v>519100</v>
+        <v>524100</v>
       </c>
       <c r="J47" s="3">
-        <v>530700</v>
+        <v>535800</v>
       </c>
       <c r="K47" s="3">
         <v>493000</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7074600</v>
+        <v>7142000</v>
       </c>
       <c r="E48" s="3">
-        <v>7867300</v>
+        <v>7942300</v>
       </c>
       <c r="F48" s="3">
-        <v>7932300</v>
+        <v>8007900</v>
       </c>
       <c r="G48" s="3">
-        <v>8051200</v>
+        <v>8127900</v>
       </c>
       <c r="H48" s="3">
-        <v>7964100</v>
+        <v>8039900</v>
       </c>
       <c r="I48" s="3">
-        <v>7466100</v>
+        <v>7537200</v>
       </c>
       <c r="J48" s="3">
-        <v>8287800</v>
+        <v>8366700</v>
       </c>
       <c r="K48" s="3">
         <v>9525100</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>456800</v>
+        <v>461100</v>
       </c>
       <c r="E49" s="3">
-        <v>457000</v>
+        <v>461400</v>
       </c>
       <c r="F49" s="3">
-        <v>477300</v>
+        <v>481800</v>
       </c>
       <c r="G49" s="3">
-        <v>469900</v>
+        <v>474400</v>
       </c>
       <c r="H49" s="3">
-        <v>485300</v>
+        <v>490000</v>
       </c>
       <c r="I49" s="3">
-        <v>520000</v>
+        <v>525000</v>
       </c>
       <c r="J49" s="3">
-        <v>138600</v>
+        <v>140000</v>
       </c>
       <c r="K49" s="3">
         <v>155500</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>277800</v>
+        <v>280400</v>
       </c>
       <c r="E52" s="3">
-        <v>270700</v>
+        <v>273300</v>
       </c>
       <c r="F52" s="3">
-        <v>421200</v>
+        <v>425200</v>
       </c>
       <c r="G52" s="3">
-        <v>446300</v>
+        <v>450600</v>
       </c>
       <c r="H52" s="3">
-        <v>763700</v>
+        <v>771000</v>
       </c>
       <c r="I52" s="3">
-        <v>898600</v>
+        <v>907200</v>
       </c>
       <c r="J52" s="3">
-        <v>203000</v>
+        <v>204900</v>
       </c>
       <c r="K52" s="3">
         <v>183100</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14531400</v>
+        <v>14669900</v>
       </c>
       <c r="E54" s="3">
-        <v>14187700</v>
+        <v>14322900</v>
       </c>
       <c r="F54" s="3">
-        <v>14622800</v>
+        <v>14762100</v>
       </c>
       <c r="G54" s="3">
-        <v>15751000</v>
+        <v>15901100</v>
       </c>
       <c r="H54" s="3">
-        <v>15334200</v>
+        <v>15480300</v>
       </c>
       <c r="I54" s="3">
-        <v>15183800</v>
+        <v>15328500</v>
       </c>
       <c r="J54" s="3">
-        <v>15782800</v>
+        <v>15933200</v>
       </c>
       <c r="K54" s="3">
         <v>16306400</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1955700</v>
+        <v>1974300</v>
       </c>
       <c r="E57" s="3">
-        <v>1828900</v>
+        <v>1846300</v>
       </c>
       <c r="F57" s="3">
-        <v>2091600</v>
+        <v>2111500</v>
       </c>
       <c r="G57" s="3">
-        <v>1946500</v>
+        <v>1965000</v>
       </c>
       <c r="H57" s="3">
-        <v>2139800</v>
+        <v>2160200</v>
       </c>
       <c r="I57" s="3">
-        <v>2191200</v>
+        <v>2212100</v>
       </c>
       <c r="J57" s="3">
-        <v>2669700</v>
+        <v>2695200</v>
       </c>
       <c r="K57" s="3">
         <v>2749000</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>625300</v>
+        <v>631200</v>
       </c>
       <c r="E58" s="3">
-        <v>426100</v>
+        <v>430200</v>
       </c>
       <c r="F58" s="3">
-        <v>1075500</v>
+        <v>1085700</v>
       </c>
       <c r="G58" s="3">
-        <v>413200</v>
+        <v>417100</v>
       </c>
       <c r="H58" s="3">
-        <v>663700</v>
+        <v>670000</v>
       </c>
       <c r="I58" s="3">
-        <v>1452200</v>
+        <v>1466100</v>
       </c>
       <c r="J58" s="3">
-        <v>2033700</v>
+        <v>2053100</v>
       </c>
       <c r="K58" s="3">
         <v>2323000</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>927700</v>
+        <v>936600</v>
       </c>
       <c r="E59" s="3">
-        <v>975000</v>
+        <v>984300</v>
       </c>
       <c r="F59" s="3">
-        <v>1433400</v>
+        <v>1447100</v>
       </c>
       <c r="G59" s="3">
-        <v>1466600</v>
+        <v>1480600</v>
       </c>
       <c r="H59" s="3">
-        <v>1380600</v>
+        <v>1393700</v>
       </c>
       <c r="I59" s="3">
-        <v>1399900</v>
+        <v>1413200</v>
       </c>
       <c r="J59" s="3">
-        <v>1510000</v>
+        <v>1524400</v>
       </c>
       <c r="K59" s="3">
         <v>1289400</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3508700</v>
+        <v>3542100</v>
       </c>
       <c r="E60" s="3">
-        <v>3230000</v>
+        <v>3260800</v>
       </c>
       <c r="F60" s="3">
-        <v>4600500</v>
+        <v>4644300</v>
       </c>
       <c r="G60" s="3">
-        <v>3826200</v>
+        <v>3862700</v>
       </c>
       <c r="H60" s="3">
-        <v>4184100</v>
+        <v>4223900</v>
       </c>
       <c r="I60" s="3">
-        <v>5043300</v>
+        <v>5091400</v>
       </c>
       <c r="J60" s="3">
-        <v>6213400</v>
+        <v>6272600</v>
       </c>
       <c r="K60" s="3">
         <v>6361400</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3909400</v>
+        <v>3946600</v>
       </c>
       <c r="E61" s="3">
-        <v>4026200</v>
+        <v>4064600</v>
       </c>
       <c r="F61" s="3">
-        <v>2023400</v>
+        <v>2042700</v>
       </c>
       <c r="G61" s="3">
-        <v>3655500</v>
+        <v>3690300</v>
       </c>
       <c r="H61" s="3">
-        <v>3788800</v>
+        <v>3824900</v>
       </c>
       <c r="I61" s="3">
-        <v>2445400</v>
+        <v>2468700</v>
       </c>
       <c r="J61" s="3">
-        <v>3057400</v>
+        <v>3086500</v>
       </c>
       <c r="K61" s="3">
         <v>4157200</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>198900</v>
+        <v>200800</v>
       </c>
       <c r="E62" s="3">
-        <v>224500</v>
+        <v>226600</v>
       </c>
       <c r="F62" s="3">
-        <v>246400</v>
+        <v>248700</v>
       </c>
       <c r="G62" s="3">
-        <v>232500</v>
+        <v>234700</v>
       </c>
       <c r="H62" s="3">
-        <v>238300</v>
+        <v>240600</v>
       </c>
       <c r="I62" s="3">
-        <v>393600</v>
+        <v>397300</v>
       </c>
       <c r="J62" s="3">
-        <v>304200</v>
+        <v>307100</v>
       </c>
       <c r="K62" s="3">
         <v>421000</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8008900</v>
+        <v>8085300</v>
       </c>
       <c r="E66" s="3">
-        <v>7884100</v>
+        <v>7959200</v>
       </c>
       <c r="F66" s="3">
-        <v>7384700</v>
+        <v>7455000</v>
       </c>
       <c r="G66" s="3">
-        <v>8324000</v>
+        <v>8403400</v>
       </c>
       <c r="H66" s="3">
-        <v>8867400</v>
+        <v>8951900</v>
       </c>
       <c r="I66" s="3">
-        <v>8690500</v>
+        <v>8773400</v>
       </c>
       <c r="J66" s="3">
-        <v>10264700</v>
+        <v>10362500</v>
       </c>
       <c r="K66" s="3">
         <v>11431900</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1079600</v>
+        <v>1089900</v>
       </c>
       <c r="E72" s="3">
-        <v>817200</v>
+        <v>825000</v>
       </c>
       <c r="F72" s="3">
-        <v>1671500</v>
+        <v>1687400</v>
       </c>
       <c r="G72" s="3">
-        <v>1823800</v>
+        <v>1841200</v>
       </c>
       <c r="H72" s="3">
-        <v>865000</v>
+        <v>873200</v>
       </c>
       <c r="I72" s="3">
-        <v>728100</v>
+        <v>735100</v>
       </c>
       <c r="J72" s="3">
-        <v>-237500</v>
+        <v>-239800</v>
       </c>
       <c r="K72" s="3">
         <v>-768200</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6522500</v>
+        <v>6584600</v>
       </c>
       <c r="E76" s="3">
-        <v>6303700</v>
+        <v>6363700</v>
       </c>
       <c r="F76" s="3">
-        <v>7238100</v>
+        <v>7307100</v>
       </c>
       <c r="G76" s="3">
-        <v>7426900</v>
+        <v>7497700</v>
       </c>
       <c r="H76" s="3">
-        <v>6466800</v>
+        <v>6528400</v>
       </c>
       <c r="I76" s="3">
-        <v>6493200</v>
+        <v>6555100</v>
       </c>
       <c r="J76" s="3">
-        <v>5518200</v>
+        <v>5570800</v>
       </c>
       <c r="K76" s="3">
         <v>4874500</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>120500</v>
+        <v>121600</v>
       </c>
       <c r="E81" s="3">
-        <v>-684500</v>
+        <v>-691100</v>
       </c>
       <c r="F81" s="3">
-        <v>362500</v>
+        <v>366000</v>
       </c>
       <c r="G81" s="3">
-        <v>1154600</v>
+        <v>1165600</v>
       </c>
       <c r="H81" s="3">
-        <v>279000</v>
+        <v>281600</v>
       </c>
       <c r="I81" s="3">
-        <v>176000</v>
+        <v>177600</v>
       </c>
       <c r="J81" s="3">
-        <v>584000</v>
+        <v>589500</v>
       </c>
       <c r="K81" s="3">
         <v>133400</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1263000</v>
+        <v>1275000</v>
       </c>
       <c r="E83" s="3">
-        <v>1293700</v>
+        <v>1306000</v>
       </c>
       <c r="F83" s="3">
-        <v>1221200</v>
+        <v>1232900</v>
       </c>
       <c r="G83" s="3">
-        <v>1299800</v>
+        <v>1312200</v>
       </c>
       <c r="H83" s="3">
-        <v>1416300</v>
+        <v>1429800</v>
       </c>
       <c r="I83" s="3">
-        <v>1703600</v>
+        <v>1719800</v>
       </c>
       <c r="J83" s="3">
-        <v>2030300</v>
+        <v>2049600</v>
       </c>
       <c r="K83" s="3">
         <v>2232400</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>918700</v>
+        <v>927400</v>
       </c>
       <c r="E89" s="3">
-        <v>739700</v>
+        <v>746700</v>
       </c>
       <c r="F89" s="3">
-        <v>1434400</v>
+        <v>1448000</v>
       </c>
       <c r="G89" s="3">
-        <v>3010100</v>
+        <v>3038800</v>
       </c>
       <c r="H89" s="3">
-        <v>1309300</v>
+        <v>1321800</v>
       </c>
       <c r="I89" s="3">
-        <v>2212300</v>
+        <v>2233400</v>
       </c>
       <c r="J89" s="3">
-        <v>2261900</v>
+        <v>2283400</v>
       </c>
       <c r="K89" s="3">
         <v>1741500</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-556600</v>
+        <v>-561900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1054200</v>
+        <v>-1064300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1240600</v>
+        <v>-1252400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1565700</v>
+        <v>-1580600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1649100</v>
+        <v>-1664800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1193100</v>
+        <v>-1204500</v>
       </c>
       <c r="J91" s="3">
-        <v>-605500</v>
+        <v>-611300</v>
       </c>
       <c r="K91" s="3">
         <v>-893100</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-631800</v>
+        <v>-637800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1003000</v>
+        <v>-1012600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1230900</v>
+        <v>-1242600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1558100</v>
+        <v>-1572900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1508100</v>
+        <v>-1522500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1132300</v>
+        <v>-1143100</v>
       </c>
       <c r="J94" s="3">
-        <v>-467700</v>
+        <v>-472100</v>
       </c>
       <c r="K94" s="3">
         <v>-814700</v>
@@ -3302,22 +3302,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-171700</v>
+        <v>-173300</v>
       </c>
       <c r="F96" s="3">
-        <v>-515100</v>
+        <v>-520000</v>
       </c>
       <c r="G96" s="3">
-        <v>-192300</v>
+        <v>-194100</v>
       </c>
       <c r="H96" s="3">
-        <v>-120200</v>
+        <v>-121300</v>
       </c>
       <c r="I96" s="3">
-        <v>-171700</v>
+        <v>-173300</v>
       </c>
       <c r="J96" s="3">
-        <v>-51500</v>
+        <v>-52000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>96500</v>
+        <v>97400</v>
       </c>
       <c r="E100" s="3">
-        <v>740100</v>
+        <v>747100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1493100</v>
+        <v>-1507300</v>
       </c>
       <c r="G100" s="3">
-        <v>-478500</v>
+        <v>-483000</v>
       </c>
       <c r="H100" s="3">
-        <v>382500</v>
+        <v>386200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1223000</v>
+        <v>-1234700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1607100</v>
+        <v>-1622400</v>
       </c>
       <c r="K100" s="3">
         <v>-939600</v>
@@ -3464,25 +3464,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-32700</v>
+        <v>-33000</v>
       </c>
       <c r="E101" s="3">
-        <v>-74000</v>
+        <v>-74700</v>
       </c>
       <c r="F101" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="G101" s="3">
-        <v>-87600</v>
+        <v>-88500</v>
       </c>
       <c r="H101" s="3">
-        <v>-137000</v>
+        <v>-138300</v>
       </c>
       <c r="I101" s="3">
-        <v>33000</v>
+        <v>33300</v>
       </c>
       <c r="J101" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="K101" s="3">
         <v>800</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>350600</v>
+        <v>353900</v>
       </c>
       <c r="E102" s="3">
-        <v>402700</v>
+        <v>406500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1279400</v>
+        <v>-1291600</v>
       </c>
       <c r="G102" s="3">
-        <v>885900</v>
+        <v>894400</v>
       </c>
       <c r="H102" s="3">
-        <v>46800</v>
+        <v>47200</v>
       </c>
       <c r="I102" s="3">
-        <v>-110100</v>
+        <v>-111100</v>
       </c>
       <c r="J102" s="3">
-        <v>201700</v>
+        <v>203600</v>
       </c>
       <c r="K102" s="3">
         <v>-12000</v>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9759800</v>
+        <v>13051800</v>
       </c>
       <c r="E8" s="3">
-        <v>9681900</v>
+        <v>9540300</v>
       </c>
       <c r="F8" s="3">
-        <v>11081000</v>
+        <v>9464200</v>
       </c>
       <c r="G8" s="3">
-        <v>12283800</v>
+        <v>10831800</v>
       </c>
       <c r="H8" s="3">
-        <v>11853800</v>
+        <v>12007600</v>
       </c>
       <c r="I8" s="3">
-        <v>12979700</v>
+        <v>11587200</v>
       </c>
       <c r="J8" s="3">
+        <v>12687800</v>
+      </c>
+      <c r="K8" s="3">
         <v>14702600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14606000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12587900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8939800</v>
+        <v>9855900</v>
       </c>
       <c r="E9" s="3">
-        <v>9665500</v>
+        <v>8738800</v>
       </c>
       <c r="F9" s="3">
-        <v>10067400</v>
+        <v>9448100</v>
       </c>
       <c r="G9" s="3">
-        <v>10085100</v>
+        <v>9841000</v>
       </c>
       <c r="H9" s="3">
-        <v>10611400</v>
+        <v>9858300</v>
       </c>
       <c r="I9" s="3">
-        <v>11544700</v>
+        <v>10372800</v>
       </c>
       <c r="J9" s="3">
+        <v>11285100</v>
+      </c>
+      <c r="K9" s="3">
         <v>12955200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26827700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>25900900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>820000</v>
+        <v>3195900</v>
       </c>
       <c r="E10" s="3">
-        <v>16400</v>
+        <v>801600</v>
       </c>
       <c r="F10" s="3">
-        <v>1013600</v>
+        <v>16100</v>
       </c>
       <c r="G10" s="3">
-        <v>2198700</v>
+        <v>990800</v>
       </c>
       <c r="H10" s="3">
-        <v>1242400</v>
+        <v>2149300</v>
       </c>
       <c r="I10" s="3">
-        <v>1434900</v>
+        <v>1214400</v>
       </c>
       <c r="J10" s="3">
+        <v>1402700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1747400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-12221700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-13312900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>370500</v>
+        <v>460200</v>
       </c>
       <c r="E12" s="3">
-        <v>353300</v>
+        <v>362200</v>
       </c>
       <c r="F12" s="3">
-        <v>343900</v>
+        <v>345400</v>
       </c>
       <c r="G12" s="3">
-        <v>355000</v>
+        <v>336100</v>
       </c>
       <c r="H12" s="3">
-        <v>327100</v>
+        <v>347000</v>
       </c>
       <c r="I12" s="3">
-        <v>320700</v>
+        <v>319700</v>
       </c>
       <c r="J12" s="3">
+        <v>313500</v>
+      </c>
+      <c r="K12" s="3">
         <v>329800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>299200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>329400</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,42 +907,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>19700</v>
+        <v>51500</v>
       </c>
       <c r="E14" s="3">
-        <v>68500</v>
+        <v>19300</v>
       </c>
       <c r="F14" s="3">
-        <v>32500</v>
+        <v>67000</v>
       </c>
       <c r="G14" s="3">
-        <v>58800</v>
+        <v>31700</v>
       </c>
       <c r="H14" s="3">
-        <v>35100</v>
+        <v>57400</v>
       </c>
       <c r="I14" s="3">
-        <v>433300</v>
+        <v>34300</v>
       </c>
       <c r="J14" s="3">
+        <v>423600</v>
+      </c>
+      <c r="K14" s="3">
         <v>82600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>140400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800400</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,15 +973,18 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19800</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9704500</v>
+        <v>10882400</v>
       </c>
       <c r="E17" s="3">
-        <v>10487600</v>
+        <v>9486300</v>
       </c>
       <c r="F17" s="3">
-        <v>10873300</v>
+        <v>10251800</v>
       </c>
       <c r="G17" s="3">
-        <v>10932800</v>
+        <v>10628800</v>
       </c>
       <c r="H17" s="3">
-        <v>11444500</v>
+        <v>10687000</v>
       </c>
       <c r="I17" s="3">
-        <v>12781900</v>
+        <v>11187100</v>
       </c>
       <c r="J17" s="3">
+        <v>12494400</v>
+      </c>
+      <c r="K17" s="3">
         <v>13986800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14455500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14139900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55300</v>
+        <v>2169400</v>
       </c>
       <c r="E18" s="3">
-        <v>-805800</v>
+        <v>54100</v>
       </c>
       <c r="F18" s="3">
-        <v>207700</v>
+        <v>-787700</v>
       </c>
       <c r="G18" s="3">
-        <v>1351000</v>
+        <v>203000</v>
       </c>
       <c r="H18" s="3">
-        <v>409300</v>
+        <v>1320700</v>
       </c>
       <c r="I18" s="3">
-        <v>197800</v>
+        <v>400100</v>
       </c>
       <c r="J18" s="3">
+        <v>193400</v>
+      </c>
+      <c r="K18" s="3">
         <v>715800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>150500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1552000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,173 +1083,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>151100</v>
+        <v>246900</v>
       </c>
       <c r="E20" s="3">
-        <v>208100</v>
+        <v>147700</v>
       </c>
       <c r="F20" s="3">
-        <v>292200</v>
+        <v>203400</v>
       </c>
       <c r="G20" s="3">
-        <v>170100</v>
+        <v>285700</v>
       </c>
       <c r="H20" s="3">
-        <v>91100</v>
+        <v>166300</v>
       </c>
       <c r="I20" s="3">
-        <v>169200</v>
+        <v>89100</v>
       </c>
       <c r="J20" s="3">
+        <v>165400</v>
+      </c>
+      <c r="K20" s="3">
         <v>149600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>368800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>220500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1477200</v>
+        <v>3606000</v>
       </c>
       <c r="E21" s="3">
-        <v>704000</v>
+        <v>1452800</v>
       </c>
       <c r="F21" s="3">
-        <v>1728700</v>
+        <v>697100</v>
       </c>
       <c r="G21" s="3">
-        <v>2829000</v>
+        <v>1698300</v>
       </c>
       <c r="H21" s="3">
-        <v>1925400</v>
+        <v>2774400</v>
       </c>
       <c r="I21" s="3">
-        <v>2081100</v>
+        <v>1892000</v>
       </c>
       <c r="J21" s="3">
+        <v>2046100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2908200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2752300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1176800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>106000</v>
+        <v>78100</v>
       </c>
       <c r="E22" s="3">
-        <v>117100</v>
+        <v>103700</v>
       </c>
       <c r="F22" s="3">
-        <v>95900</v>
+        <v>114500</v>
       </c>
       <c r="G22" s="3">
-        <v>103300</v>
+        <v>93800</v>
       </c>
       <c r="H22" s="3">
-        <v>97500</v>
+        <v>101000</v>
       </c>
       <c r="I22" s="3">
-        <v>93300</v>
+        <v>95300</v>
       </c>
       <c r="J22" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K22" s="3">
         <v>145700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>335600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>381200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100400</v>
+        <v>2338200</v>
       </c>
       <c r="E23" s="3">
-        <v>-714800</v>
+        <v>98200</v>
       </c>
       <c r="F23" s="3">
-        <v>404000</v>
+        <v>-698700</v>
       </c>
       <c r="G23" s="3">
-        <v>1417900</v>
+        <v>394900</v>
       </c>
       <c r="H23" s="3">
-        <v>402900</v>
+        <v>1386000</v>
       </c>
       <c r="I23" s="3">
-        <v>273700</v>
+        <v>393900</v>
       </c>
       <c r="J23" s="3">
+        <v>267600</v>
+      </c>
+      <c r="K23" s="3">
         <v>719700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>183700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1712700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4300</v>
+        <v>103800</v>
       </c>
       <c r="E24" s="3">
-        <v>63200</v>
+        <v>-4200</v>
       </c>
       <c r="F24" s="3">
-        <v>117300</v>
+        <v>61800</v>
       </c>
       <c r="G24" s="3">
-        <v>328000</v>
+        <v>114700</v>
       </c>
       <c r="H24" s="3">
-        <v>164900</v>
+        <v>320600</v>
       </c>
       <c r="I24" s="3">
-        <v>99300</v>
+        <v>161200</v>
       </c>
       <c r="J24" s="3">
+        <v>97000</v>
+      </c>
+      <c r="K24" s="3">
         <v>116800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>104700</v>
+        <v>2234400</v>
       </c>
       <c r="E26" s="3">
-        <v>-778000</v>
+        <v>102400</v>
       </c>
       <c r="F26" s="3">
-        <v>286700</v>
+        <v>-760500</v>
       </c>
       <c r="G26" s="3">
-        <v>1089900</v>
+        <v>280300</v>
       </c>
       <c r="H26" s="3">
-        <v>238000</v>
+        <v>1065400</v>
       </c>
       <c r="I26" s="3">
-        <v>174400</v>
+        <v>232600</v>
       </c>
       <c r="J26" s="3">
+        <v>170500</v>
+      </c>
+      <c r="K26" s="3">
         <v>602900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>136000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1750100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>121600</v>
+        <v>2159500</v>
       </c>
       <c r="E27" s="3">
-        <v>-691100</v>
+        <v>118900</v>
       </c>
       <c r="F27" s="3">
-        <v>366000</v>
+        <v>-675500</v>
       </c>
       <c r="G27" s="3">
-        <v>1165600</v>
+        <v>357800</v>
       </c>
       <c r="H27" s="3">
-        <v>281600</v>
+        <v>1139400</v>
       </c>
       <c r="I27" s="3">
-        <v>177600</v>
+        <v>275300</v>
       </c>
       <c r="J27" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K27" s="3">
         <v>589500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>133400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1702400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-151100</v>
+        <v>-246900</v>
       </c>
       <c r="E32" s="3">
-        <v>-208100</v>
+        <v>-147700</v>
       </c>
       <c r="F32" s="3">
-        <v>-292200</v>
+        <v>-203400</v>
       </c>
       <c r="G32" s="3">
-        <v>-170100</v>
+        <v>-285700</v>
       </c>
       <c r="H32" s="3">
-        <v>-91100</v>
+        <v>-166300</v>
       </c>
       <c r="I32" s="3">
-        <v>-169200</v>
+        <v>-89100</v>
       </c>
       <c r="J32" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-149600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-368800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-220500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>121600</v>
+        <v>2159500</v>
       </c>
       <c r="E33" s="3">
-        <v>-691100</v>
+        <v>118900</v>
       </c>
       <c r="F33" s="3">
-        <v>366000</v>
+        <v>-675500</v>
       </c>
       <c r="G33" s="3">
-        <v>1165600</v>
+        <v>357800</v>
       </c>
       <c r="H33" s="3">
-        <v>281600</v>
+        <v>1139400</v>
       </c>
       <c r="I33" s="3">
-        <v>177600</v>
+        <v>275300</v>
       </c>
       <c r="J33" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K33" s="3">
         <v>589500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>133400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1702400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>121600</v>
+        <v>2159500</v>
       </c>
       <c r="E35" s="3">
-        <v>-691100</v>
+        <v>118900</v>
       </c>
       <c r="F35" s="3">
-        <v>366000</v>
+        <v>-675500</v>
       </c>
       <c r="G35" s="3">
-        <v>1165600</v>
+        <v>357800</v>
       </c>
       <c r="H35" s="3">
-        <v>281600</v>
+        <v>1139400</v>
       </c>
       <c r="I35" s="3">
-        <v>177600</v>
+        <v>275300</v>
       </c>
       <c r="J35" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K35" s="3">
         <v>589500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>133400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1702400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,305 +1732,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3251700</v>
+        <v>2814900</v>
       </c>
       <c r="E41" s="3">
-        <v>2897800</v>
+        <v>3178600</v>
       </c>
       <c r="F41" s="3">
-        <v>2491300</v>
+        <v>2832600</v>
       </c>
       <c r="G41" s="3">
-        <v>3782800</v>
+        <v>2435200</v>
       </c>
       <c r="H41" s="3">
-        <v>2888500</v>
+        <v>3697800</v>
       </c>
       <c r="I41" s="3">
-        <v>2841300</v>
+        <v>2823500</v>
       </c>
       <c r="J41" s="3">
+        <v>2777400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2952400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2677000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2398600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40300</v>
+        <v>429100</v>
       </c>
       <c r="E42" s="3">
-        <v>136200</v>
+        <v>39400</v>
       </c>
       <c r="F42" s="3">
-        <v>111600</v>
+        <v>133100</v>
       </c>
       <c r="G42" s="3">
-        <v>18700</v>
+        <v>109100</v>
       </c>
       <c r="H42" s="3">
-        <v>20200</v>
+        <v>18300</v>
       </c>
       <c r="I42" s="3">
-        <v>422700</v>
+        <v>19700</v>
       </c>
       <c r="J42" s="3">
+        <v>413200</v>
+      </c>
+      <c r="K42" s="3">
         <v>108900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>238500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>181200</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1688500</v>
+        <v>2170900</v>
       </c>
       <c r="E43" s="3">
-        <v>1158800</v>
+        <v>1650600</v>
       </c>
       <c r="F43" s="3">
-        <v>1710400</v>
+        <v>1132700</v>
       </c>
       <c r="G43" s="3">
-        <v>1465000</v>
+        <v>1671900</v>
       </c>
       <c r="H43" s="3">
-        <v>1739500</v>
+        <v>1432100</v>
       </c>
       <c r="I43" s="3">
-        <v>1256000</v>
+        <v>1700400</v>
       </c>
       <c r="J43" s="3">
+        <v>1227700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2149100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1535600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1418200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>963700</v>
+        <v>1214400</v>
       </c>
       <c r="E44" s="3">
-        <v>845000</v>
+        <v>942000</v>
       </c>
       <c r="F44" s="3">
-        <v>947700</v>
+        <v>826000</v>
       </c>
       <c r="G44" s="3">
-        <v>895300</v>
+        <v>926300</v>
       </c>
       <c r="H44" s="3">
-        <v>997000</v>
+        <v>875100</v>
       </c>
       <c r="I44" s="3">
-        <v>1145300</v>
+        <v>974600</v>
       </c>
       <c r="J44" s="3">
+        <v>1119500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1311900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1318900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1416400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>118600</v>
+        <v>132100</v>
       </c>
       <c r="E45" s="3">
-        <v>120200</v>
+        <v>115900</v>
       </c>
       <c r="F45" s="3">
-        <v>108500</v>
+        <v>117500</v>
       </c>
       <c r="G45" s="3">
-        <v>328100</v>
+        <v>106000</v>
       </c>
       <c r="H45" s="3">
-        <v>238600</v>
+        <v>320700</v>
       </c>
       <c r="I45" s="3">
-        <v>169800</v>
+        <v>233200</v>
       </c>
       <c r="J45" s="3">
+        <v>165900</v>
+      </c>
+      <c r="K45" s="3">
         <v>163600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>179600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>430500</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6062800</v>
+        <v>6761200</v>
       </c>
       <c r="E46" s="3">
-        <v>5158100</v>
+        <v>5926500</v>
       </c>
       <c r="F46" s="3">
-        <v>5369400</v>
+        <v>5042100</v>
       </c>
       <c r="G46" s="3">
-        <v>6489900</v>
+        <v>5248700</v>
       </c>
       <c r="H46" s="3">
-        <v>5883700</v>
+        <v>6344000</v>
       </c>
       <c r="I46" s="3">
-        <v>5835000</v>
+        <v>5751400</v>
       </c>
       <c r="J46" s="3">
+        <v>5703700</v>
+      </c>
+      <c r="K46" s="3">
         <v>6685800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5949700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5845000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>723500</v>
+        <v>942100</v>
       </c>
       <c r="E47" s="3">
-        <v>487900</v>
+        <v>707300</v>
       </c>
       <c r="F47" s="3">
-        <v>477800</v>
+        <v>476900</v>
       </c>
       <c r="G47" s="3">
-        <v>358200</v>
+        <v>467100</v>
       </c>
       <c r="H47" s="3">
-        <v>295700</v>
+        <v>350200</v>
       </c>
       <c r="I47" s="3">
-        <v>524100</v>
+        <v>289000</v>
       </c>
       <c r="J47" s="3">
+        <v>512300</v>
+      </c>
+      <c r="K47" s="3">
         <v>535800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>493000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>511800</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7142000</v>
+        <v>6453900</v>
       </c>
       <c r="E48" s="3">
-        <v>7942300</v>
+        <v>6981400</v>
       </c>
       <c r="F48" s="3">
-        <v>8007900</v>
+        <v>7763700</v>
       </c>
       <c r="G48" s="3">
-        <v>8127900</v>
+        <v>7827800</v>
       </c>
       <c r="H48" s="3">
-        <v>8039900</v>
+        <v>7945200</v>
       </c>
       <c r="I48" s="3">
-        <v>7537200</v>
+        <v>7859100</v>
       </c>
       <c r="J48" s="3">
+        <v>7367700</v>
+      </c>
+      <c r="K48" s="3">
         <v>8366700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9525100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10554300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>461100</v>
+        <v>414000</v>
       </c>
       <c r="E49" s="3">
-        <v>461400</v>
+        <v>450700</v>
       </c>
       <c r="F49" s="3">
-        <v>481800</v>
+        <v>451000</v>
       </c>
       <c r="G49" s="3">
-        <v>474400</v>
+        <v>471000</v>
       </c>
       <c r="H49" s="3">
-        <v>490000</v>
+        <v>463700</v>
       </c>
       <c r="I49" s="3">
-        <v>525000</v>
+        <v>479000</v>
       </c>
       <c r="J49" s="3">
+        <v>513200</v>
+      </c>
+      <c r="K49" s="3">
         <v>140000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>155500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>496700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>280400</v>
+        <v>386400</v>
       </c>
       <c r="E52" s="3">
-        <v>273300</v>
+        <v>274100</v>
       </c>
       <c r="F52" s="3">
-        <v>425200</v>
+        <v>267100</v>
       </c>
       <c r="G52" s="3">
-        <v>450600</v>
+        <v>415600</v>
       </c>
       <c r="H52" s="3">
-        <v>771000</v>
+        <v>440400</v>
       </c>
       <c r="I52" s="3">
-        <v>907200</v>
+        <v>753600</v>
       </c>
       <c r="J52" s="3">
+        <v>886800</v>
+      </c>
+      <c r="K52" s="3">
         <v>204900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>183100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>546100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14669900</v>
+        <v>14957600</v>
       </c>
       <c r="E54" s="3">
-        <v>14322900</v>
+        <v>14340000</v>
       </c>
       <c r="F54" s="3">
-        <v>14762100</v>
+        <v>14000800</v>
       </c>
       <c r="G54" s="3">
-        <v>15901100</v>
+        <v>14430200</v>
       </c>
       <c r="H54" s="3">
-        <v>15480300</v>
+        <v>15543500</v>
       </c>
       <c r="I54" s="3">
-        <v>15328500</v>
+        <v>15132200</v>
       </c>
       <c r="J54" s="3">
+        <v>14983800</v>
+      </c>
+      <c r="K54" s="3">
         <v>15933200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16306400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17953800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1974300</v>
+        <v>2232300</v>
       </c>
       <c r="E57" s="3">
-        <v>1846300</v>
+        <v>1929900</v>
       </c>
       <c r="F57" s="3">
-        <v>2111500</v>
+        <v>1804800</v>
       </c>
       <c r="G57" s="3">
-        <v>1965000</v>
+        <v>2064000</v>
       </c>
       <c r="H57" s="3">
-        <v>2160200</v>
+        <v>1920800</v>
       </c>
       <c r="I57" s="3">
-        <v>2212100</v>
+        <v>2111600</v>
       </c>
       <c r="J57" s="3">
+        <v>2162400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2695200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2749000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2711000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>631200</v>
+        <v>613100</v>
       </c>
       <c r="E58" s="3">
-        <v>430200</v>
+        <v>617000</v>
       </c>
       <c r="F58" s="3">
-        <v>1085700</v>
+        <v>420500</v>
       </c>
       <c r="G58" s="3">
-        <v>417100</v>
+        <v>1061300</v>
       </c>
       <c r="H58" s="3">
-        <v>670000</v>
+        <v>407700</v>
       </c>
       <c r="I58" s="3">
-        <v>1466100</v>
+        <v>655000</v>
       </c>
       <c r="J58" s="3">
+        <v>1433100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2053100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2323000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1799700</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>936600</v>
+        <v>1512000</v>
       </c>
       <c r="E59" s="3">
-        <v>984300</v>
+        <v>915500</v>
       </c>
       <c r="F59" s="3">
-        <v>1447100</v>
+        <v>962200</v>
       </c>
       <c r="G59" s="3">
-        <v>1480600</v>
+        <v>1414600</v>
       </c>
       <c r="H59" s="3">
-        <v>1393700</v>
+        <v>1447300</v>
       </c>
       <c r="I59" s="3">
-        <v>1413200</v>
+        <v>1362400</v>
       </c>
       <c r="J59" s="3">
+        <v>1381400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1524400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1289400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1861700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3542100</v>
+        <v>4357400</v>
       </c>
       <c r="E60" s="3">
-        <v>3260800</v>
+        <v>3462500</v>
       </c>
       <c r="F60" s="3">
-        <v>4644300</v>
+        <v>3187500</v>
       </c>
       <c r="G60" s="3">
-        <v>3862700</v>
+        <v>4539900</v>
       </c>
       <c r="H60" s="3">
-        <v>4223900</v>
+        <v>3775800</v>
       </c>
       <c r="I60" s="3">
-        <v>5091400</v>
+        <v>4128900</v>
       </c>
       <c r="J60" s="3">
+        <v>4976900</v>
+      </c>
+      <c r="K60" s="3">
         <v>6272600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6361400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6372400</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3946600</v>
+        <v>1655300</v>
       </c>
       <c r="E61" s="3">
-        <v>4064600</v>
+        <v>3857900</v>
       </c>
       <c r="F61" s="3">
-        <v>2042700</v>
+        <v>3973200</v>
       </c>
       <c r="G61" s="3">
-        <v>3690300</v>
+        <v>1996700</v>
       </c>
       <c r="H61" s="3">
-        <v>3824900</v>
+        <v>3607400</v>
       </c>
       <c r="I61" s="3">
-        <v>2468700</v>
+        <v>3738900</v>
       </c>
       <c r="J61" s="3">
+        <v>2413200</v>
+      </c>
+      <c r="K61" s="3">
         <v>3086500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4157200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5657500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200800</v>
+        <v>566100</v>
       </c>
       <c r="E62" s="3">
-        <v>226600</v>
+        <v>196300</v>
       </c>
       <c r="F62" s="3">
-        <v>248700</v>
+        <v>221500</v>
       </c>
       <c r="G62" s="3">
-        <v>234700</v>
+        <v>243200</v>
       </c>
       <c r="H62" s="3">
-        <v>240600</v>
+        <v>229500</v>
       </c>
       <c r="I62" s="3">
-        <v>397300</v>
+        <v>235200</v>
       </c>
       <c r="J62" s="3">
+        <v>388400</v>
+      </c>
+      <c r="K62" s="3">
         <v>307100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>421000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>494700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8085300</v>
+        <v>6796400</v>
       </c>
       <c r="E66" s="3">
-        <v>7959200</v>
+        <v>7903400</v>
       </c>
       <c r="F66" s="3">
-        <v>7455000</v>
+        <v>7780200</v>
       </c>
       <c r="G66" s="3">
-        <v>8403400</v>
+        <v>7287400</v>
       </c>
       <c r="H66" s="3">
-        <v>8951900</v>
+        <v>8214400</v>
       </c>
       <c r="I66" s="3">
-        <v>8773400</v>
+        <v>8750500</v>
       </c>
       <c r="J66" s="3">
+        <v>8576100</v>
+      </c>
+      <c r="K66" s="3">
         <v>10362500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11431900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12993100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1089900</v>
+        <v>2840400</v>
       </c>
       <c r="E72" s="3">
-        <v>825000</v>
+        <v>1065400</v>
       </c>
       <c r="F72" s="3">
-        <v>1687400</v>
+        <v>806400</v>
       </c>
       <c r="G72" s="3">
-        <v>1841200</v>
+        <v>1649400</v>
       </c>
       <c r="H72" s="3">
-        <v>873200</v>
+        <v>1799800</v>
       </c>
       <c r="I72" s="3">
-        <v>735100</v>
+        <v>853600</v>
       </c>
       <c r="J72" s="3">
+        <v>718500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-239800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-768200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1816500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6584600</v>
+        <v>8161200</v>
       </c>
       <c r="E76" s="3">
-        <v>6363700</v>
+        <v>6436600</v>
       </c>
       <c r="F76" s="3">
-        <v>7307100</v>
+        <v>6220600</v>
       </c>
       <c r="G76" s="3">
-        <v>7497700</v>
+        <v>7142800</v>
       </c>
       <c r="H76" s="3">
-        <v>6528400</v>
+        <v>7329100</v>
       </c>
       <c r="I76" s="3">
-        <v>6555100</v>
+        <v>6381600</v>
       </c>
       <c r="J76" s="3">
+        <v>6407700</v>
+      </c>
+      <c r="K76" s="3">
         <v>5570800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4874500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4960800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>121600</v>
+        <v>2159500</v>
       </c>
       <c r="E81" s="3">
-        <v>-691100</v>
+        <v>118900</v>
       </c>
       <c r="F81" s="3">
-        <v>366000</v>
+        <v>-675500</v>
       </c>
       <c r="G81" s="3">
-        <v>1165600</v>
+        <v>357800</v>
       </c>
       <c r="H81" s="3">
-        <v>281600</v>
+        <v>1139400</v>
       </c>
       <c r="I81" s="3">
-        <v>177600</v>
+        <v>275300</v>
       </c>
       <c r="J81" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K81" s="3">
         <v>589500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>133400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1702400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1275000</v>
+        <v>1185300</v>
       </c>
       <c r="E83" s="3">
-        <v>1306000</v>
+        <v>1246300</v>
       </c>
       <c r="F83" s="3">
-        <v>1232900</v>
+        <v>1276600</v>
       </c>
       <c r="G83" s="3">
-        <v>1312200</v>
+        <v>1205200</v>
       </c>
       <c r="H83" s="3">
-        <v>1429800</v>
+        <v>1282700</v>
       </c>
       <c r="I83" s="3">
-        <v>1719800</v>
+        <v>1397600</v>
       </c>
       <c r="J83" s="3">
+        <v>1681100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2049600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2232400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2503700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>927400</v>
+        <v>3687200</v>
       </c>
       <c r="E89" s="3">
-        <v>746700</v>
+        <v>906600</v>
       </c>
       <c r="F89" s="3">
-        <v>1448000</v>
+        <v>729900</v>
       </c>
       <c r="G89" s="3">
-        <v>3038800</v>
+        <v>1415500</v>
       </c>
       <c r="H89" s="3">
-        <v>1321800</v>
+        <v>2970400</v>
       </c>
       <c r="I89" s="3">
-        <v>2233400</v>
+        <v>1292100</v>
       </c>
       <c r="J89" s="3">
+        <v>2183100</v>
+      </c>
+      <c r="K89" s="3">
         <v>2283400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1741500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1189000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-561900</v>
+        <v>-599900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1064300</v>
+        <v>-549300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1252400</v>
+        <v>-1040300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1580600</v>
+        <v>-1224300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1664800</v>
+        <v>-1545100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1204500</v>
+        <v>-1627400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1177400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-611300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-893100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1441200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-637800</v>
+        <v>-1068600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1012600</v>
+        <v>-623500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1242600</v>
+        <v>-989800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1572900</v>
+        <v>-1214700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1522500</v>
+        <v>-1537500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1143100</v>
+        <v>-1488200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1117400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-472100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-814700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1436200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-100400</v>
       </c>
       <c r="E96" s="3">
-        <v>-173300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-520000</v>
+        <v>-169400</v>
       </c>
       <c r="G96" s="3">
-        <v>-194100</v>
+        <v>-508300</v>
       </c>
       <c r="H96" s="3">
-        <v>-121300</v>
+        <v>-189800</v>
       </c>
       <c r="I96" s="3">
-        <v>-173300</v>
+        <v>-118600</v>
       </c>
       <c r="J96" s="3">
+        <v>-169400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-52000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>97400</v>
+        <v>-2939000</v>
       </c>
       <c r="E100" s="3">
-        <v>747100</v>
+        <v>95200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1507300</v>
+        <v>730300</v>
       </c>
       <c r="G100" s="3">
-        <v>-483000</v>
+        <v>-1473400</v>
       </c>
       <c r="H100" s="3">
-        <v>386200</v>
+        <v>-472200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1234700</v>
+        <v>377500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1206900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1622400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-939600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-197600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-33000</v>
+        <v>-43300</v>
       </c>
       <c r="E101" s="3">
-        <v>-74700</v>
+        <v>-32300</v>
       </c>
       <c r="F101" s="3">
-        <v>10300</v>
+        <v>-73000</v>
       </c>
       <c r="G101" s="3">
-        <v>-88500</v>
+        <v>10100</v>
       </c>
       <c r="H101" s="3">
-        <v>-138300</v>
+        <v>-86500</v>
       </c>
       <c r="I101" s="3">
-        <v>33300</v>
+        <v>-135200</v>
       </c>
       <c r="J101" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K101" s="3">
         <v>14700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>353900</v>
+        <v>-363700</v>
       </c>
       <c r="E102" s="3">
-        <v>406500</v>
+        <v>345900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1291600</v>
+        <v>397400</v>
       </c>
       <c r="G102" s="3">
-        <v>894400</v>
+        <v>-1262500</v>
       </c>
       <c r="H102" s="3">
-        <v>47200</v>
+        <v>874200</v>
       </c>
       <c r="I102" s="3">
-        <v>-111100</v>
+        <v>46100</v>
       </c>
       <c r="J102" s="3">
+        <v>-108600</v>
+      </c>
+      <c r="K102" s="3">
         <v>203600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-445600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13051800</v>
+        <v>12410500</v>
       </c>
       <c r="E8" s="3">
-        <v>9540300</v>
+        <v>9071600</v>
       </c>
       <c r="F8" s="3">
-        <v>9464200</v>
+        <v>8999100</v>
       </c>
       <c r="G8" s="3">
-        <v>10831800</v>
+        <v>10299600</v>
       </c>
       <c r="H8" s="3">
-        <v>12007600</v>
+        <v>11417600</v>
       </c>
       <c r="I8" s="3">
-        <v>11587200</v>
+        <v>11017900</v>
       </c>
       <c r="J8" s="3">
-        <v>12687800</v>
+        <v>12064400</v>
       </c>
       <c r="K8" s="3">
         <v>14702600</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9855900</v>
+        <v>9371600</v>
       </c>
       <c r="E9" s="3">
-        <v>8738800</v>
+        <v>8309400</v>
       </c>
       <c r="F9" s="3">
-        <v>9448100</v>
+        <v>8983900</v>
       </c>
       <c r="G9" s="3">
-        <v>9841000</v>
+        <v>9357500</v>
       </c>
       <c r="H9" s="3">
-        <v>9858300</v>
+        <v>9373900</v>
       </c>
       <c r="I9" s="3">
-        <v>10372800</v>
+        <v>9863100</v>
       </c>
       <c r="J9" s="3">
-        <v>11285100</v>
+        <v>10730700</v>
       </c>
       <c r="K9" s="3">
         <v>12955200</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3195900</v>
+        <v>3038900</v>
       </c>
       <c r="E10" s="3">
-        <v>801600</v>
+        <v>762200</v>
       </c>
       <c r="F10" s="3">
-        <v>16100</v>
+        <v>15300</v>
       </c>
       <c r="G10" s="3">
-        <v>990800</v>
+        <v>942100</v>
       </c>
       <c r="H10" s="3">
-        <v>2149300</v>
+        <v>2043700</v>
       </c>
       <c r="I10" s="3">
-        <v>1214400</v>
+        <v>1154800</v>
       </c>
       <c r="J10" s="3">
-        <v>1402700</v>
+        <v>1333700</v>
       </c>
       <c r="K10" s="3">
         <v>1747400</v>
@@ -845,25 +845,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>460200</v>
+        <v>437600</v>
       </c>
       <c r="E12" s="3">
-        <v>362200</v>
+        <v>344400</v>
       </c>
       <c r="F12" s="3">
-        <v>345400</v>
+        <v>328400</v>
       </c>
       <c r="G12" s="3">
-        <v>336100</v>
+        <v>319600</v>
       </c>
       <c r="H12" s="3">
-        <v>347000</v>
+        <v>329900</v>
       </c>
       <c r="I12" s="3">
-        <v>319700</v>
+        <v>304000</v>
       </c>
       <c r="J12" s="3">
-        <v>313500</v>
+        <v>298100</v>
       </c>
       <c r="K12" s="3">
         <v>329800</v>
@@ -917,25 +917,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>51500</v>
+        <v>49000</v>
       </c>
       <c r="E14" s="3">
-        <v>19300</v>
+        <v>18300</v>
       </c>
       <c r="F14" s="3">
-        <v>67000</v>
+        <v>63700</v>
       </c>
       <c r="G14" s="3">
-        <v>31700</v>
+        <v>30200</v>
       </c>
       <c r="H14" s="3">
-        <v>57400</v>
+        <v>54600</v>
       </c>
       <c r="I14" s="3">
-        <v>34300</v>
+        <v>32600</v>
       </c>
       <c r="J14" s="3">
-        <v>423600</v>
+        <v>402700</v>
       </c>
       <c r="K14" s="3">
         <v>82600</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10882400</v>
+        <v>10347700</v>
       </c>
       <c r="E17" s="3">
-        <v>9486300</v>
+        <v>9020200</v>
       </c>
       <c r="F17" s="3">
-        <v>10251800</v>
+        <v>9748100</v>
       </c>
       <c r="G17" s="3">
-        <v>10628800</v>
+        <v>10106500</v>
       </c>
       <c r="H17" s="3">
-        <v>10687000</v>
+        <v>10161900</v>
       </c>
       <c r="I17" s="3">
-        <v>11187100</v>
+        <v>10637500</v>
       </c>
       <c r="J17" s="3">
-        <v>12494400</v>
+        <v>11880500</v>
       </c>
       <c r="K17" s="3">
         <v>13986800</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2169400</v>
+        <v>2062800</v>
       </c>
       <c r="E18" s="3">
-        <v>54100</v>
+        <v>51400</v>
       </c>
       <c r="F18" s="3">
-        <v>-787700</v>
+        <v>-749000</v>
       </c>
       <c r="G18" s="3">
-        <v>203000</v>
+        <v>193100</v>
       </c>
       <c r="H18" s="3">
-        <v>1320700</v>
+        <v>1255800</v>
       </c>
       <c r="I18" s="3">
-        <v>400100</v>
+        <v>380400</v>
       </c>
       <c r="J18" s="3">
-        <v>193400</v>
+        <v>183900</v>
       </c>
       <c r="K18" s="3">
         <v>715800</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>246900</v>
+        <v>234700</v>
       </c>
       <c r="E20" s="3">
-        <v>147700</v>
+        <v>140500</v>
       </c>
       <c r="F20" s="3">
-        <v>203400</v>
+        <v>193400</v>
       </c>
       <c r="G20" s="3">
-        <v>285700</v>
+        <v>271600</v>
       </c>
       <c r="H20" s="3">
-        <v>166300</v>
+        <v>158100</v>
       </c>
       <c r="I20" s="3">
-        <v>89100</v>
+        <v>84700</v>
       </c>
       <c r="J20" s="3">
-        <v>165400</v>
+        <v>157300</v>
       </c>
       <c r="K20" s="3">
         <v>149600</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3606000</v>
+        <v>3429300</v>
       </c>
       <c r="E21" s="3">
-        <v>1452800</v>
+        <v>1382000</v>
       </c>
       <c r="F21" s="3">
-        <v>697100</v>
+        <v>663400</v>
       </c>
       <c r="G21" s="3">
-        <v>1698300</v>
+        <v>1615400</v>
       </c>
       <c r="H21" s="3">
-        <v>2774400</v>
+        <v>2638700</v>
       </c>
       <c r="I21" s="3">
-        <v>1892000</v>
+        <v>1799700</v>
       </c>
       <c r="J21" s="3">
-        <v>2046100</v>
+        <v>1946400</v>
       </c>
       <c r="K21" s="3">
         <v>2908200</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>78100</v>
+        <v>74200</v>
       </c>
       <c r="E22" s="3">
-        <v>103700</v>
+        <v>98600</v>
       </c>
       <c r="F22" s="3">
-        <v>114500</v>
+        <v>108900</v>
       </c>
       <c r="G22" s="3">
-        <v>93800</v>
+        <v>89200</v>
       </c>
       <c r="H22" s="3">
-        <v>101000</v>
+        <v>96000</v>
       </c>
       <c r="I22" s="3">
-        <v>95300</v>
+        <v>90700</v>
       </c>
       <c r="J22" s="3">
-        <v>91200</v>
+        <v>86700</v>
       </c>
       <c r="K22" s="3">
         <v>145700</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2338200</v>
+        <v>2223300</v>
       </c>
       <c r="E23" s="3">
-        <v>98200</v>
+        <v>93300</v>
       </c>
       <c r="F23" s="3">
-        <v>-698700</v>
+        <v>-664400</v>
       </c>
       <c r="G23" s="3">
-        <v>394900</v>
+        <v>375500</v>
       </c>
       <c r="H23" s="3">
-        <v>1386000</v>
+        <v>1317900</v>
       </c>
       <c r="I23" s="3">
-        <v>393900</v>
+        <v>374500</v>
       </c>
       <c r="J23" s="3">
-        <v>267600</v>
+        <v>254400</v>
       </c>
       <c r="K23" s="3">
         <v>719700</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>103800</v>
+        <v>98700</v>
       </c>
       <c r="E24" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="F24" s="3">
-        <v>61800</v>
+        <v>58700</v>
       </c>
       <c r="G24" s="3">
-        <v>114700</v>
+        <v>109000</v>
       </c>
       <c r="H24" s="3">
-        <v>320600</v>
+        <v>304800</v>
       </c>
       <c r="I24" s="3">
-        <v>161200</v>
+        <v>153300</v>
       </c>
       <c r="J24" s="3">
-        <v>97000</v>
+        <v>92300</v>
       </c>
       <c r="K24" s="3">
         <v>116800</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2234400</v>
+        <v>2124600</v>
       </c>
       <c r="E26" s="3">
-        <v>102400</v>
+        <v>97300</v>
       </c>
       <c r="F26" s="3">
-        <v>-760500</v>
+        <v>-723100</v>
       </c>
       <c r="G26" s="3">
-        <v>280300</v>
+        <v>266500</v>
       </c>
       <c r="H26" s="3">
-        <v>1065400</v>
+        <v>1013100</v>
       </c>
       <c r="I26" s="3">
-        <v>232600</v>
+        <v>221200</v>
       </c>
       <c r="J26" s="3">
-        <v>170500</v>
+        <v>162100</v>
       </c>
       <c r="K26" s="3">
         <v>602900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2159500</v>
+        <v>2053300</v>
       </c>
       <c r="E27" s="3">
-        <v>118900</v>
+        <v>113000</v>
       </c>
       <c r="F27" s="3">
-        <v>-675500</v>
+        <v>-642300</v>
       </c>
       <c r="G27" s="3">
-        <v>357800</v>
+        <v>340200</v>
       </c>
       <c r="H27" s="3">
-        <v>1139400</v>
+        <v>1083400</v>
       </c>
       <c r="I27" s="3">
-        <v>275300</v>
+        <v>261800</v>
       </c>
       <c r="J27" s="3">
-        <v>173700</v>
+        <v>165100</v>
       </c>
       <c r="K27" s="3">
         <v>589500</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-246900</v>
+        <v>-234700</v>
       </c>
       <c r="E32" s="3">
-        <v>-147700</v>
+        <v>-140500</v>
       </c>
       <c r="F32" s="3">
-        <v>-203400</v>
+        <v>-193400</v>
       </c>
       <c r="G32" s="3">
-        <v>-285700</v>
+        <v>-271600</v>
       </c>
       <c r="H32" s="3">
-        <v>-166300</v>
+        <v>-158100</v>
       </c>
       <c r="I32" s="3">
-        <v>-89100</v>
+        <v>-84700</v>
       </c>
       <c r="J32" s="3">
-        <v>-165400</v>
+        <v>-157300</v>
       </c>
       <c r="K32" s="3">
         <v>-149600</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2159500</v>
+        <v>2053300</v>
       </c>
       <c r="E33" s="3">
-        <v>118900</v>
+        <v>113000</v>
       </c>
       <c r="F33" s="3">
-        <v>-675500</v>
+        <v>-642300</v>
       </c>
       <c r="G33" s="3">
-        <v>357800</v>
+        <v>340200</v>
       </c>
       <c r="H33" s="3">
-        <v>1139400</v>
+        <v>1083400</v>
       </c>
       <c r="I33" s="3">
-        <v>275300</v>
+        <v>261800</v>
       </c>
       <c r="J33" s="3">
-        <v>173700</v>
+        <v>165100</v>
       </c>
       <c r="K33" s="3">
         <v>589500</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2159500</v>
+        <v>2053300</v>
       </c>
       <c r="E35" s="3">
-        <v>118900</v>
+        <v>113000</v>
       </c>
       <c r="F35" s="3">
-        <v>-675500</v>
+        <v>-642300</v>
       </c>
       <c r="G35" s="3">
-        <v>357800</v>
+        <v>340200</v>
       </c>
       <c r="H35" s="3">
-        <v>1139400</v>
+        <v>1083400</v>
       </c>
       <c r="I35" s="3">
-        <v>275300</v>
+        <v>261800</v>
       </c>
       <c r="J35" s="3">
-        <v>173700</v>
+        <v>165100</v>
       </c>
       <c r="K35" s="3">
         <v>589500</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2814900</v>
+        <v>2676500</v>
       </c>
       <c r="E41" s="3">
-        <v>3178600</v>
+        <v>3022400</v>
       </c>
       <c r="F41" s="3">
-        <v>2832600</v>
+        <v>2693500</v>
       </c>
       <c r="G41" s="3">
-        <v>2435200</v>
+        <v>2315600</v>
       </c>
       <c r="H41" s="3">
-        <v>3697800</v>
+        <v>3516100</v>
       </c>
       <c r="I41" s="3">
-        <v>2823500</v>
+        <v>2684800</v>
       </c>
       <c r="J41" s="3">
-        <v>2777400</v>
+        <v>2640900</v>
       </c>
       <c r="K41" s="3">
         <v>2952400</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>429100</v>
+        <v>408000</v>
       </c>
       <c r="E42" s="3">
-        <v>39400</v>
+        <v>37500</v>
       </c>
       <c r="F42" s="3">
-        <v>133100</v>
+        <v>126600</v>
       </c>
       <c r="G42" s="3">
-        <v>109100</v>
+        <v>103800</v>
       </c>
       <c r="H42" s="3">
-        <v>18300</v>
+        <v>17400</v>
       </c>
       <c r="I42" s="3">
-        <v>19700</v>
+        <v>18700</v>
       </c>
       <c r="J42" s="3">
-        <v>413200</v>
+        <v>392900</v>
       </c>
       <c r="K42" s="3">
         <v>108900</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2170900</v>
+        <v>2064200</v>
       </c>
       <c r="E43" s="3">
-        <v>1650600</v>
+        <v>1569500</v>
       </c>
       <c r="F43" s="3">
-        <v>1132700</v>
+        <v>1077100</v>
       </c>
       <c r="G43" s="3">
-        <v>1671900</v>
+        <v>1589800</v>
       </c>
       <c r="H43" s="3">
-        <v>1432100</v>
+        <v>1361700</v>
       </c>
       <c r="I43" s="3">
-        <v>1700400</v>
+        <v>1616800</v>
       </c>
       <c r="J43" s="3">
-        <v>1227700</v>
+        <v>1167400</v>
       </c>
       <c r="K43" s="3">
         <v>2149100</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1214400</v>
+        <v>1154700</v>
       </c>
       <c r="E44" s="3">
-        <v>942000</v>
+        <v>895700</v>
       </c>
       <c r="F44" s="3">
-        <v>826000</v>
+        <v>785400</v>
       </c>
       <c r="G44" s="3">
-        <v>926300</v>
+        <v>880800</v>
       </c>
       <c r="H44" s="3">
-        <v>875100</v>
+        <v>832100</v>
       </c>
       <c r="I44" s="3">
-        <v>974600</v>
+        <v>926700</v>
       </c>
       <c r="J44" s="3">
-        <v>1119500</v>
+        <v>1064500</v>
       </c>
       <c r="K44" s="3">
         <v>1311900</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>132100</v>
+        <v>125600</v>
       </c>
       <c r="E45" s="3">
-        <v>115900</v>
+        <v>110200</v>
       </c>
       <c r="F45" s="3">
-        <v>117500</v>
+        <v>111800</v>
       </c>
       <c r="G45" s="3">
-        <v>106000</v>
+        <v>100800</v>
       </c>
       <c r="H45" s="3">
-        <v>320700</v>
+        <v>305000</v>
       </c>
       <c r="I45" s="3">
-        <v>233200</v>
+        <v>221800</v>
       </c>
       <c r="J45" s="3">
-        <v>165900</v>
+        <v>157800</v>
       </c>
       <c r="K45" s="3">
         <v>163600</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6761200</v>
+        <v>6429000</v>
       </c>
       <c r="E46" s="3">
-        <v>5926500</v>
+        <v>5635300</v>
       </c>
       <c r="F46" s="3">
-        <v>5042100</v>
+        <v>4794300</v>
       </c>
       <c r="G46" s="3">
-        <v>5248700</v>
+        <v>4990800</v>
       </c>
       <c r="H46" s="3">
-        <v>6344000</v>
+        <v>6032300</v>
       </c>
       <c r="I46" s="3">
-        <v>5751400</v>
+        <v>5468800</v>
       </c>
       <c r="J46" s="3">
-        <v>5703700</v>
+        <v>5423500</v>
       </c>
       <c r="K46" s="3">
         <v>6685800</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>942100</v>
+        <v>895800</v>
       </c>
       <c r="E47" s="3">
-        <v>707300</v>
+        <v>672500</v>
       </c>
       <c r="F47" s="3">
-        <v>476900</v>
+        <v>453500</v>
       </c>
       <c r="G47" s="3">
-        <v>467100</v>
+        <v>444100</v>
       </c>
       <c r="H47" s="3">
-        <v>350200</v>
+        <v>333000</v>
       </c>
       <c r="I47" s="3">
-        <v>289000</v>
+        <v>274800</v>
       </c>
       <c r="J47" s="3">
-        <v>512300</v>
+        <v>487100</v>
       </c>
       <c r="K47" s="3">
         <v>535800</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6453900</v>
+        <v>6136800</v>
       </c>
       <c r="E48" s="3">
-        <v>6981400</v>
+        <v>6638400</v>
       </c>
       <c r="F48" s="3">
-        <v>7763700</v>
+        <v>7382300</v>
       </c>
       <c r="G48" s="3">
-        <v>7827800</v>
+        <v>7443200</v>
       </c>
       <c r="H48" s="3">
-        <v>7945200</v>
+        <v>7554800</v>
       </c>
       <c r="I48" s="3">
-        <v>7859100</v>
+        <v>7473000</v>
       </c>
       <c r="J48" s="3">
-        <v>7367700</v>
+        <v>7005700</v>
       </c>
       <c r="K48" s="3">
         <v>8366700</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>414000</v>
+        <v>393600</v>
       </c>
       <c r="E49" s="3">
-        <v>450700</v>
+        <v>428600</v>
       </c>
       <c r="F49" s="3">
-        <v>451000</v>
+        <v>428800</v>
       </c>
       <c r="G49" s="3">
-        <v>471000</v>
+        <v>447900</v>
       </c>
       <c r="H49" s="3">
-        <v>463700</v>
+        <v>441000</v>
       </c>
       <c r="I49" s="3">
-        <v>479000</v>
+        <v>455400</v>
       </c>
       <c r="J49" s="3">
-        <v>513200</v>
+        <v>488000</v>
       </c>
       <c r="K49" s="3">
         <v>140000</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>386400</v>
+        <v>367400</v>
       </c>
       <c r="E52" s="3">
-        <v>274100</v>
+        <v>260600</v>
       </c>
       <c r="F52" s="3">
-        <v>267100</v>
+        <v>254000</v>
       </c>
       <c r="G52" s="3">
-        <v>415600</v>
+        <v>395200</v>
       </c>
       <c r="H52" s="3">
-        <v>440400</v>
+        <v>418800</v>
       </c>
       <c r="I52" s="3">
-        <v>753600</v>
+        <v>716600</v>
       </c>
       <c r="J52" s="3">
-        <v>886800</v>
+        <v>843200</v>
       </c>
       <c r="K52" s="3">
         <v>204900</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14957600</v>
+        <v>14222700</v>
       </c>
       <c r="E54" s="3">
-        <v>14340000</v>
+        <v>13635400</v>
       </c>
       <c r="F54" s="3">
-        <v>14000800</v>
+        <v>13312900</v>
       </c>
       <c r="G54" s="3">
-        <v>14430200</v>
+        <v>13721200</v>
       </c>
       <c r="H54" s="3">
-        <v>15543500</v>
+        <v>14779800</v>
       </c>
       <c r="I54" s="3">
-        <v>15132200</v>
+        <v>14388700</v>
       </c>
       <c r="J54" s="3">
-        <v>14983800</v>
+        <v>14247600</v>
       </c>
       <c r="K54" s="3">
         <v>15933200</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2232300</v>
+        <v>2122600</v>
       </c>
       <c r="E57" s="3">
-        <v>1929900</v>
+        <v>1835100</v>
       </c>
       <c r="F57" s="3">
-        <v>1804800</v>
+        <v>1716100</v>
       </c>
       <c r="G57" s="3">
-        <v>2064000</v>
+        <v>1962600</v>
       </c>
       <c r="H57" s="3">
-        <v>1920800</v>
+        <v>1826400</v>
       </c>
       <c r="I57" s="3">
-        <v>2111600</v>
+        <v>2007800</v>
       </c>
       <c r="J57" s="3">
-        <v>2162400</v>
+        <v>2056100</v>
       </c>
       <c r="K57" s="3">
         <v>2695200</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>613100</v>
+        <v>583000</v>
       </c>
       <c r="E58" s="3">
-        <v>617000</v>
+        <v>586700</v>
       </c>
       <c r="F58" s="3">
-        <v>420500</v>
+        <v>399900</v>
       </c>
       <c r="G58" s="3">
-        <v>1061300</v>
+        <v>1009200</v>
       </c>
       <c r="H58" s="3">
-        <v>407700</v>
+        <v>387700</v>
       </c>
       <c r="I58" s="3">
-        <v>655000</v>
+        <v>622800</v>
       </c>
       <c r="J58" s="3">
-        <v>1433100</v>
+        <v>1362700</v>
       </c>
       <c r="K58" s="3">
         <v>2053100</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1512000</v>
+        <v>1437700</v>
       </c>
       <c r="E59" s="3">
-        <v>915500</v>
+        <v>870500</v>
       </c>
       <c r="F59" s="3">
-        <v>962200</v>
+        <v>914900</v>
       </c>
       <c r="G59" s="3">
-        <v>1414600</v>
+        <v>1345100</v>
       </c>
       <c r="H59" s="3">
-        <v>1447300</v>
+        <v>1376100</v>
       </c>
       <c r="I59" s="3">
-        <v>1362400</v>
+        <v>1295500</v>
       </c>
       <c r="J59" s="3">
-        <v>1381400</v>
+        <v>1313600</v>
       </c>
       <c r="K59" s="3">
         <v>1524400</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4357400</v>
+        <v>4143300</v>
       </c>
       <c r="E60" s="3">
-        <v>3462500</v>
+        <v>3292400</v>
       </c>
       <c r="F60" s="3">
-        <v>3187500</v>
+        <v>3030900</v>
       </c>
       <c r="G60" s="3">
-        <v>4539900</v>
+        <v>4316800</v>
       </c>
       <c r="H60" s="3">
-        <v>3775800</v>
+        <v>3590300</v>
       </c>
       <c r="I60" s="3">
-        <v>4128900</v>
+        <v>3926100</v>
       </c>
       <c r="J60" s="3">
-        <v>4976900</v>
+        <v>4732400</v>
       </c>
       <c r="K60" s="3">
         <v>6272600</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1655300</v>
+        <v>1574000</v>
       </c>
       <c r="E61" s="3">
-        <v>3857900</v>
+        <v>3668300</v>
       </c>
       <c r="F61" s="3">
-        <v>3973200</v>
+        <v>3777900</v>
       </c>
       <c r="G61" s="3">
-        <v>1996700</v>
+        <v>1898600</v>
       </c>
       <c r="H61" s="3">
-        <v>3607400</v>
+        <v>3430100</v>
       </c>
       <c r="I61" s="3">
-        <v>3738900</v>
+        <v>3555200</v>
       </c>
       <c r="J61" s="3">
-        <v>2413200</v>
+        <v>2294600</v>
       </c>
       <c r="K61" s="3">
         <v>3086500</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>566100</v>
+        <v>538300</v>
       </c>
       <c r="E62" s="3">
-        <v>196300</v>
+        <v>186600</v>
       </c>
       <c r="F62" s="3">
-        <v>221500</v>
+        <v>210600</v>
       </c>
       <c r="G62" s="3">
-        <v>243200</v>
+        <v>231200</v>
       </c>
       <c r="H62" s="3">
-        <v>229500</v>
+        <v>218200</v>
       </c>
       <c r="I62" s="3">
-        <v>235200</v>
+        <v>223600</v>
       </c>
       <c r="J62" s="3">
-        <v>388400</v>
+        <v>369300</v>
       </c>
       <c r="K62" s="3">
         <v>307100</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6796400</v>
+        <v>6462400</v>
       </c>
       <c r="E66" s="3">
-        <v>7903400</v>
+        <v>7515100</v>
       </c>
       <c r="F66" s="3">
-        <v>7780200</v>
+        <v>7397900</v>
       </c>
       <c r="G66" s="3">
-        <v>7287400</v>
+        <v>6929300</v>
       </c>
       <c r="H66" s="3">
-        <v>8214400</v>
+        <v>7810800</v>
       </c>
       <c r="I66" s="3">
-        <v>8750500</v>
+        <v>8320600</v>
       </c>
       <c r="J66" s="3">
-        <v>8576100</v>
+        <v>8154700</v>
       </c>
       <c r="K66" s="3">
         <v>10362500</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2840400</v>
+        <v>2700800</v>
       </c>
       <c r="E72" s="3">
-        <v>1065400</v>
+        <v>1013000</v>
       </c>
       <c r="F72" s="3">
-        <v>806400</v>
+        <v>766800</v>
       </c>
       <c r="G72" s="3">
-        <v>1649400</v>
+        <v>1568400</v>
       </c>
       <c r="H72" s="3">
-        <v>1799800</v>
+        <v>1711300</v>
       </c>
       <c r="I72" s="3">
-        <v>853600</v>
+        <v>811700</v>
       </c>
       <c r="J72" s="3">
-        <v>718500</v>
+        <v>683200</v>
       </c>
       <c r="K72" s="3">
         <v>-239800</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8161200</v>
+        <v>7760200</v>
       </c>
       <c r="E76" s="3">
-        <v>6436600</v>
+        <v>6120300</v>
       </c>
       <c r="F76" s="3">
-        <v>6220600</v>
+        <v>5915000</v>
       </c>
       <c r="G76" s="3">
-        <v>7142800</v>
+        <v>6791800</v>
       </c>
       <c r="H76" s="3">
-        <v>7329100</v>
+        <v>6969000</v>
       </c>
       <c r="I76" s="3">
-        <v>6381600</v>
+        <v>6068100</v>
       </c>
       <c r="J76" s="3">
-        <v>6407700</v>
+        <v>6092900</v>
       </c>
       <c r="K76" s="3">
         <v>5570800</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2159500</v>
+        <v>2053300</v>
       </c>
       <c r="E81" s="3">
-        <v>118900</v>
+        <v>113000</v>
       </c>
       <c r="F81" s="3">
-        <v>-675500</v>
+        <v>-642300</v>
       </c>
       <c r="G81" s="3">
-        <v>357800</v>
+        <v>340200</v>
       </c>
       <c r="H81" s="3">
-        <v>1139400</v>
+        <v>1083400</v>
       </c>
       <c r="I81" s="3">
-        <v>275300</v>
+        <v>261800</v>
       </c>
       <c r="J81" s="3">
-        <v>173700</v>
+        <v>165100</v>
       </c>
       <c r="K81" s="3">
         <v>589500</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1185300</v>
+        <v>1127100</v>
       </c>
       <c r="E83" s="3">
-        <v>1246300</v>
+        <v>1185100</v>
       </c>
       <c r="F83" s="3">
-        <v>1276600</v>
+        <v>1213900</v>
       </c>
       <c r="G83" s="3">
-        <v>1205200</v>
+        <v>1145900</v>
       </c>
       <c r="H83" s="3">
-        <v>1282700</v>
+        <v>1219700</v>
       </c>
       <c r="I83" s="3">
-        <v>1397600</v>
+        <v>1328900</v>
       </c>
       <c r="J83" s="3">
-        <v>1681100</v>
+        <v>1598500</v>
       </c>
       <c r="K83" s="3">
         <v>2049600</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3687200</v>
+        <v>3506100</v>
       </c>
       <c r="E89" s="3">
-        <v>906600</v>
+        <v>862000</v>
       </c>
       <c r="F89" s="3">
-        <v>729900</v>
+        <v>694100</v>
       </c>
       <c r="G89" s="3">
-        <v>1415500</v>
+        <v>1345900</v>
       </c>
       <c r="H89" s="3">
-        <v>2970400</v>
+        <v>2824500</v>
       </c>
       <c r="I89" s="3">
-        <v>1292100</v>
+        <v>1228600</v>
       </c>
       <c r="J89" s="3">
-        <v>2183100</v>
+        <v>2075900</v>
       </c>
       <c r="K89" s="3">
         <v>2283400</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-599900</v>
+        <v>-570400</v>
       </c>
       <c r="E91" s="3">
-        <v>-549300</v>
+        <v>-522300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1040300</v>
+        <v>-989200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1224300</v>
+        <v>-1164100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1545100</v>
+        <v>-1469200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1627400</v>
+        <v>-1547400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1177400</v>
+        <v>-1119600</v>
       </c>
       <c r="K91" s="3">
         <v>-611300</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1068600</v>
+        <v>-1016100</v>
       </c>
       <c r="E94" s="3">
-        <v>-623500</v>
+        <v>-592900</v>
       </c>
       <c r="F94" s="3">
-        <v>-989800</v>
+        <v>-941200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1214700</v>
+        <v>-1155000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1537500</v>
+        <v>-1462000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1488200</v>
+        <v>-1415100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1117400</v>
+        <v>-1062500</v>
       </c>
       <c r="K94" s="3">
         <v>-472100</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-100400</v>
+        <v>-95500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-169400</v>
+        <v>-161100</v>
       </c>
       <c r="G96" s="3">
-        <v>-508300</v>
+        <v>-483300</v>
       </c>
       <c r="H96" s="3">
-        <v>-189800</v>
+        <v>-180400</v>
       </c>
       <c r="I96" s="3">
-        <v>-118600</v>
+        <v>-112800</v>
       </c>
       <c r="J96" s="3">
-        <v>-169400</v>
+        <v>-161100</v>
       </c>
       <c r="K96" s="3">
         <v>-52000</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2939000</v>
+        <v>-2794600</v>
       </c>
       <c r="E100" s="3">
-        <v>95200</v>
+        <v>90500</v>
       </c>
       <c r="F100" s="3">
-        <v>730300</v>
+        <v>694400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1473400</v>
+        <v>-1401000</v>
       </c>
       <c r="H100" s="3">
-        <v>-472200</v>
+        <v>-449000</v>
       </c>
       <c r="I100" s="3">
-        <v>377500</v>
+        <v>358900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1206900</v>
+        <v>-1147600</v>
       </c>
       <c r="K100" s="3">
         <v>-1622400</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-43300</v>
+        <v>-41200</v>
       </c>
       <c r="E101" s="3">
-        <v>-32300</v>
+        <v>-30700</v>
       </c>
       <c r="F101" s="3">
-        <v>-73000</v>
+        <v>-69400</v>
       </c>
       <c r="G101" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="H101" s="3">
-        <v>-86500</v>
+        <v>-82200</v>
       </c>
       <c r="I101" s="3">
-        <v>-135200</v>
+        <v>-128500</v>
       </c>
       <c r="J101" s="3">
-        <v>32500</v>
+        <v>30900</v>
       </c>
       <c r="K101" s="3">
         <v>14700</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-363700</v>
+        <v>-345800</v>
       </c>
       <c r="E102" s="3">
-        <v>345900</v>
+        <v>328900</v>
       </c>
       <c r="F102" s="3">
-        <v>397400</v>
+        <v>377900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1262500</v>
+        <v>-1200500</v>
       </c>
       <c r="H102" s="3">
-        <v>874200</v>
+        <v>831300</v>
       </c>
       <c r="I102" s="3">
-        <v>46100</v>
+        <v>43900</v>
       </c>
       <c r="J102" s="3">
-        <v>-108600</v>
+        <v>-103300</v>
       </c>
       <c r="K102" s="3">
         <v>203600</v>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12410500</v>
+        <v>12269700</v>
       </c>
       <c r="E8" s="3">
-        <v>9071600</v>
+        <v>8968600</v>
       </c>
       <c r="F8" s="3">
-        <v>8999100</v>
+        <v>8897000</v>
       </c>
       <c r="G8" s="3">
-        <v>10299600</v>
+        <v>10182700</v>
       </c>
       <c r="H8" s="3">
-        <v>11417600</v>
+        <v>11288000</v>
       </c>
       <c r="I8" s="3">
-        <v>11017900</v>
+        <v>10892800</v>
       </c>
       <c r="J8" s="3">
-        <v>12064400</v>
+        <v>11927500</v>
       </c>
       <c r="K8" s="3">
         <v>14702600</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9371600</v>
+        <v>9265300</v>
       </c>
       <c r="E9" s="3">
-        <v>8309400</v>
+        <v>8215100</v>
       </c>
       <c r="F9" s="3">
-        <v>8983900</v>
+        <v>8881900</v>
       </c>
       <c r="G9" s="3">
-        <v>9357500</v>
+        <v>9251300</v>
       </c>
       <c r="H9" s="3">
-        <v>9373900</v>
+        <v>9267600</v>
       </c>
       <c r="I9" s="3">
-        <v>9863100</v>
+        <v>9751200</v>
       </c>
       <c r="J9" s="3">
-        <v>10730700</v>
+        <v>10608900</v>
       </c>
       <c r="K9" s="3">
         <v>12955200</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3038900</v>
+        <v>3004400</v>
       </c>
       <c r="E10" s="3">
-        <v>762200</v>
+        <v>753500</v>
       </c>
       <c r="F10" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="G10" s="3">
-        <v>942100</v>
+        <v>931400</v>
       </c>
       <c r="H10" s="3">
-        <v>2043700</v>
+        <v>2020500</v>
       </c>
       <c r="I10" s="3">
-        <v>1154800</v>
+        <v>1141700</v>
       </c>
       <c r="J10" s="3">
-        <v>1333700</v>
+        <v>1318600</v>
       </c>
       <c r="K10" s="3">
         <v>1747400</v>
@@ -845,25 +845,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>437600</v>
+        <v>432600</v>
       </c>
       <c r="E12" s="3">
-        <v>344400</v>
+        <v>340500</v>
       </c>
       <c r="F12" s="3">
-        <v>328400</v>
+        <v>324700</v>
       </c>
       <c r="G12" s="3">
-        <v>319600</v>
+        <v>316000</v>
       </c>
       <c r="H12" s="3">
-        <v>329900</v>
+        <v>326200</v>
       </c>
       <c r="I12" s="3">
-        <v>304000</v>
+        <v>300600</v>
       </c>
       <c r="J12" s="3">
-        <v>298100</v>
+        <v>294700</v>
       </c>
       <c r="K12" s="3">
         <v>329800</v>
@@ -917,25 +917,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>49000</v>
+        <v>48400</v>
       </c>
       <c r="E14" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="F14" s="3">
-        <v>63700</v>
+        <v>63000</v>
       </c>
       <c r="G14" s="3">
-        <v>30200</v>
+        <v>29800</v>
       </c>
       <c r="H14" s="3">
-        <v>54600</v>
+        <v>54000</v>
       </c>
       <c r="I14" s="3">
-        <v>32600</v>
+        <v>32300</v>
       </c>
       <c r="J14" s="3">
-        <v>402700</v>
+        <v>398200</v>
       </c>
       <c r="K14" s="3">
         <v>82600</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10347700</v>
+        <v>10230300</v>
       </c>
       <c r="E17" s="3">
-        <v>9020200</v>
+        <v>8917800</v>
       </c>
       <c r="F17" s="3">
-        <v>9748100</v>
+        <v>9637500</v>
       </c>
       <c r="G17" s="3">
-        <v>10106500</v>
+        <v>9991800</v>
       </c>
       <c r="H17" s="3">
-        <v>10161900</v>
+        <v>10046500</v>
       </c>
       <c r="I17" s="3">
-        <v>10637500</v>
+        <v>10516700</v>
       </c>
       <c r="J17" s="3">
-        <v>11880500</v>
+        <v>11745700</v>
       </c>
       <c r="K17" s="3">
         <v>13986800</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2062800</v>
+        <v>2039400</v>
       </c>
       <c r="E18" s="3">
-        <v>51400</v>
+        <v>50800</v>
       </c>
       <c r="F18" s="3">
-        <v>-749000</v>
+        <v>-740400</v>
       </c>
       <c r="G18" s="3">
-        <v>193100</v>
+        <v>190900</v>
       </c>
       <c r="H18" s="3">
-        <v>1255800</v>
+        <v>1241500</v>
       </c>
       <c r="I18" s="3">
-        <v>380400</v>
+        <v>376100</v>
       </c>
       <c r="J18" s="3">
-        <v>183900</v>
+        <v>181800</v>
       </c>
       <c r="K18" s="3">
         <v>715800</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>234700</v>
+        <v>232100</v>
       </c>
       <c r="E20" s="3">
-        <v>140500</v>
+        <v>138900</v>
       </c>
       <c r="F20" s="3">
-        <v>193400</v>
+        <v>191200</v>
       </c>
       <c r="G20" s="3">
-        <v>271600</v>
+        <v>268500</v>
       </c>
       <c r="H20" s="3">
-        <v>158100</v>
+        <v>156400</v>
       </c>
       <c r="I20" s="3">
-        <v>84700</v>
+        <v>83800</v>
       </c>
       <c r="J20" s="3">
-        <v>157300</v>
+        <v>155500</v>
       </c>
       <c r="K20" s="3">
         <v>149600</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3429300</v>
+        <v>3385100</v>
       </c>
       <c r="E21" s="3">
-        <v>1382000</v>
+        <v>1360700</v>
       </c>
       <c r="F21" s="3">
-        <v>663400</v>
+        <v>650200</v>
       </c>
       <c r="G21" s="3">
-        <v>1615400</v>
+        <v>1591700</v>
       </c>
       <c r="H21" s="3">
-        <v>2638700</v>
+        <v>2603000</v>
       </c>
       <c r="I21" s="3">
-        <v>1799700</v>
+        <v>1772900</v>
       </c>
       <c r="J21" s="3">
-        <v>1946400</v>
+        <v>1916700</v>
       </c>
       <c r="K21" s="3">
         <v>2908200</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>74200</v>
+        <v>73400</v>
       </c>
       <c r="E22" s="3">
-        <v>98600</v>
+        <v>97400</v>
       </c>
       <c r="F22" s="3">
-        <v>108900</v>
+        <v>107600</v>
       </c>
       <c r="G22" s="3">
-        <v>89200</v>
+        <v>88200</v>
       </c>
       <c r="H22" s="3">
-        <v>96000</v>
+        <v>94900</v>
       </c>
       <c r="I22" s="3">
-        <v>90700</v>
+        <v>89600</v>
       </c>
       <c r="J22" s="3">
-        <v>86700</v>
+        <v>85800</v>
       </c>
       <c r="K22" s="3">
         <v>145700</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2223300</v>
+        <v>2198100</v>
       </c>
       <c r="E23" s="3">
-        <v>93300</v>
+        <v>92300</v>
       </c>
       <c r="F23" s="3">
-        <v>-664400</v>
+        <v>-656900</v>
       </c>
       <c r="G23" s="3">
-        <v>375500</v>
+        <v>371300</v>
       </c>
       <c r="H23" s="3">
-        <v>1317900</v>
+        <v>1302900</v>
       </c>
       <c r="I23" s="3">
-        <v>374500</v>
+        <v>370300</v>
       </c>
       <c r="J23" s="3">
-        <v>254400</v>
+        <v>251500</v>
       </c>
       <c r="K23" s="3">
         <v>719700</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>98700</v>
+        <v>97600</v>
       </c>
       <c r="E24" s="3">
         <v>-4000</v>
       </c>
       <c r="F24" s="3">
-        <v>58700</v>
+        <v>58100</v>
       </c>
       <c r="G24" s="3">
-        <v>109000</v>
+        <v>107800</v>
       </c>
       <c r="H24" s="3">
-        <v>304800</v>
+        <v>301400</v>
       </c>
       <c r="I24" s="3">
-        <v>153300</v>
+        <v>151600</v>
       </c>
       <c r="J24" s="3">
-        <v>92300</v>
+        <v>91200</v>
       </c>
       <c r="K24" s="3">
         <v>116800</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2124600</v>
+        <v>2100500</v>
       </c>
       <c r="E26" s="3">
-        <v>97300</v>
+        <v>96200</v>
       </c>
       <c r="F26" s="3">
-        <v>-723100</v>
+        <v>-714900</v>
       </c>
       <c r="G26" s="3">
-        <v>266500</v>
+        <v>263500</v>
       </c>
       <c r="H26" s="3">
-        <v>1013100</v>
+        <v>1001600</v>
       </c>
       <c r="I26" s="3">
-        <v>221200</v>
+        <v>218700</v>
       </c>
       <c r="J26" s="3">
-        <v>162100</v>
+        <v>160300</v>
       </c>
       <c r="K26" s="3">
         <v>602900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2053300</v>
+        <v>2030000</v>
       </c>
       <c r="E27" s="3">
-        <v>113000</v>
+        <v>111800</v>
       </c>
       <c r="F27" s="3">
-        <v>-642300</v>
+        <v>-635000</v>
       </c>
       <c r="G27" s="3">
-        <v>340200</v>
+        <v>336300</v>
       </c>
       <c r="H27" s="3">
-        <v>1083400</v>
+        <v>1071100</v>
       </c>
       <c r="I27" s="3">
-        <v>261800</v>
+        <v>258800</v>
       </c>
       <c r="J27" s="3">
-        <v>165100</v>
+        <v>163200</v>
       </c>
       <c r="K27" s="3">
         <v>589500</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-234700</v>
+        <v>-232100</v>
       </c>
       <c r="E32" s="3">
-        <v>-140500</v>
+        <v>-138900</v>
       </c>
       <c r="F32" s="3">
-        <v>-193400</v>
+        <v>-191200</v>
       </c>
       <c r="G32" s="3">
-        <v>-271600</v>
+        <v>-268500</v>
       </c>
       <c r="H32" s="3">
-        <v>-158100</v>
+        <v>-156400</v>
       </c>
       <c r="I32" s="3">
-        <v>-84700</v>
+        <v>-83800</v>
       </c>
       <c r="J32" s="3">
-        <v>-157300</v>
+        <v>-155500</v>
       </c>
       <c r="K32" s="3">
         <v>-149600</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2053300</v>
+        <v>2030000</v>
       </c>
       <c r="E33" s="3">
-        <v>113000</v>
+        <v>111800</v>
       </c>
       <c r="F33" s="3">
-        <v>-642300</v>
+        <v>-635000</v>
       </c>
       <c r="G33" s="3">
-        <v>340200</v>
+        <v>336300</v>
       </c>
       <c r="H33" s="3">
-        <v>1083400</v>
+        <v>1071100</v>
       </c>
       <c r="I33" s="3">
-        <v>261800</v>
+        <v>258800</v>
       </c>
       <c r="J33" s="3">
-        <v>165100</v>
+        <v>163200</v>
       </c>
       <c r="K33" s="3">
         <v>589500</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2053300</v>
+        <v>2030000</v>
       </c>
       <c r="E35" s="3">
-        <v>113000</v>
+        <v>111800</v>
       </c>
       <c r="F35" s="3">
-        <v>-642300</v>
+        <v>-635000</v>
       </c>
       <c r="G35" s="3">
-        <v>340200</v>
+        <v>336300</v>
       </c>
       <c r="H35" s="3">
-        <v>1083400</v>
+        <v>1071100</v>
       </c>
       <c r="I35" s="3">
-        <v>261800</v>
+        <v>258800</v>
       </c>
       <c r="J35" s="3">
-        <v>165100</v>
+        <v>163200</v>
       </c>
       <c r="K35" s="3">
         <v>589500</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2676500</v>
+        <v>2646200</v>
       </c>
       <c r="E41" s="3">
-        <v>3022400</v>
+        <v>2988100</v>
       </c>
       <c r="F41" s="3">
-        <v>2693500</v>
+        <v>2662900</v>
       </c>
       <c r="G41" s="3">
-        <v>2315600</v>
+        <v>2289300</v>
       </c>
       <c r="H41" s="3">
-        <v>3516100</v>
+        <v>3476200</v>
       </c>
       <c r="I41" s="3">
-        <v>2684800</v>
+        <v>2654300</v>
       </c>
       <c r="J41" s="3">
-        <v>2640900</v>
+        <v>2611000</v>
       </c>
       <c r="K41" s="3">
         <v>2952400</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>408000</v>
+        <v>403400</v>
       </c>
       <c r="E42" s="3">
-        <v>37500</v>
+        <v>37100</v>
       </c>
       <c r="F42" s="3">
-        <v>126600</v>
+        <v>125200</v>
       </c>
       <c r="G42" s="3">
-        <v>103800</v>
+        <v>102600</v>
       </c>
       <c r="H42" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="I42" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="J42" s="3">
-        <v>392900</v>
+        <v>388400</v>
       </c>
       <c r="K42" s="3">
         <v>108900</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2064200</v>
+        <v>2040800</v>
       </c>
       <c r="E43" s="3">
-        <v>1569500</v>
+        <v>1551600</v>
       </c>
       <c r="F43" s="3">
-        <v>1077100</v>
+        <v>1064900</v>
       </c>
       <c r="G43" s="3">
-        <v>1589800</v>
+        <v>1571700</v>
       </c>
       <c r="H43" s="3">
-        <v>1361700</v>
+        <v>1346300</v>
       </c>
       <c r="I43" s="3">
-        <v>1616800</v>
+        <v>1598500</v>
       </c>
       <c r="J43" s="3">
-        <v>1167400</v>
+        <v>1154200</v>
       </c>
       <c r="K43" s="3">
         <v>2149100</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1154700</v>
+        <v>1141600</v>
       </c>
       <c r="E44" s="3">
-        <v>895700</v>
+        <v>885500</v>
       </c>
       <c r="F44" s="3">
-        <v>785400</v>
+        <v>776500</v>
       </c>
       <c r="G44" s="3">
-        <v>880800</v>
+        <v>870800</v>
       </c>
       <c r="H44" s="3">
-        <v>832100</v>
+        <v>822700</v>
       </c>
       <c r="I44" s="3">
-        <v>926700</v>
+        <v>916200</v>
       </c>
       <c r="J44" s="3">
-        <v>1064500</v>
+        <v>1052400</v>
       </c>
       <c r="K44" s="3">
         <v>1311900</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>125600</v>
+        <v>124200</v>
       </c>
       <c r="E45" s="3">
-        <v>110200</v>
+        <v>109000</v>
       </c>
       <c r="F45" s="3">
-        <v>111800</v>
+        <v>110500</v>
       </c>
       <c r="G45" s="3">
-        <v>100800</v>
+        <v>99700</v>
       </c>
       <c r="H45" s="3">
-        <v>305000</v>
+        <v>301500</v>
       </c>
       <c r="I45" s="3">
-        <v>221800</v>
+        <v>219300</v>
       </c>
       <c r="J45" s="3">
-        <v>157800</v>
+        <v>156000</v>
       </c>
       <c r="K45" s="3">
         <v>163600</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6429000</v>
+        <v>6356100</v>
       </c>
       <c r="E46" s="3">
-        <v>5635300</v>
+        <v>5571300</v>
       </c>
       <c r="F46" s="3">
-        <v>4794300</v>
+        <v>4739900</v>
       </c>
       <c r="G46" s="3">
-        <v>4990800</v>
+        <v>4934100</v>
       </c>
       <c r="H46" s="3">
-        <v>6032300</v>
+        <v>5963800</v>
       </c>
       <c r="I46" s="3">
-        <v>5468800</v>
+        <v>5406800</v>
       </c>
       <c r="J46" s="3">
-        <v>5423500</v>
+        <v>5361900</v>
       </c>
       <c r="K46" s="3">
         <v>6685800</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>895800</v>
+        <v>885600</v>
       </c>
       <c r="E47" s="3">
-        <v>672500</v>
+        <v>664900</v>
       </c>
       <c r="F47" s="3">
-        <v>453500</v>
+        <v>448300</v>
       </c>
       <c r="G47" s="3">
-        <v>444100</v>
+        <v>439100</v>
       </c>
       <c r="H47" s="3">
-        <v>333000</v>
+        <v>329200</v>
       </c>
       <c r="I47" s="3">
-        <v>274800</v>
+        <v>271700</v>
       </c>
       <c r="J47" s="3">
-        <v>487100</v>
+        <v>481600</v>
       </c>
       <c r="K47" s="3">
         <v>535800</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6136800</v>
+        <v>6067200</v>
       </c>
       <c r="E48" s="3">
-        <v>6638400</v>
+        <v>6563100</v>
       </c>
       <c r="F48" s="3">
-        <v>7382300</v>
+        <v>7298500</v>
       </c>
       <c r="G48" s="3">
-        <v>7443200</v>
+        <v>7358700</v>
       </c>
       <c r="H48" s="3">
-        <v>7554800</v>
+        <v>7469000</v>
       </c>
       <c r="I48" s="3">
-        <v>7473000</v>
+        <v>7388200</v>
       </c>
       <c r="J48" s="3">
-        <v>7005700</v>
+        <v>6926200</v>
       </c>
       <c r="K48" s="3">
         <v>8366700</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>393600</v>
+        <v>389200</v>
       </c>
       <c r="E49" s="3">
-        <v>428600</v>
+        <v>423700</v>
       </c>
       <c r="F49" s="3">
-        <v>428800</v>
+        <v>424000</v>
       </c>
       <c r="G49" s="3">
-        <v>447900</v>
+        <v>442800</v>
       </c>
       <c r="H49" s="3">
-        <v>441000</v>
+        <v>436000</v>
       </c>
       <c r="I49" s="3">
-        <v>455400</v>
+        <v>450300</v>
       </c>
       <c r="J49" s="3">
-        <v>488000</v>
+        <v>482400</v>
       </c>
       <c r="K49" s="3">
         <v>140000</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>367400</v>
+        <v>363200</v>
       </c>
       <c r="E52" s="3">
-        <v>260600</v>
+        <v>257700</v>
       </c>
       <c r="F52" s="3">
-        <v>254000</v>
+        <v>251100</v>
       </c>
       <c r="G52" s="3">
-        <v>395200</v>
+        <v>390700</v>
       </c>
       <c r="H52" s="3">
-        <v>418800</v>
+        <v>414000</v>
       </c>
       <c r="I52" s="3">
-        <v>716600</v>
+        <v>708500</v>
       </c>
       <c r="J52" s="3">
-        <v>843200</v>
+        <v>833600</v>
       </c>
       <c r="K52" s="3">
         <v>204900</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14222700</v>
+        <v>14061200</v>
       </c>
       <c r="E54" s="3">
-        <v>13635400</v>
+        <v>13480600</v>
       </c>
       <c r="F54" s="3">
-        <v>13312900</v>
+        <v>13161800</v>
       </c>
       <c r="G54" s="3">
-        <v>13721200</v>
+        <v>13565400</v>
       </c>
       <c r="H54" s="3">
-        <v>14779800</v>
+        <v>14612000</v>
       </c>
       <c r="I54" s="3">
-        <v>14388700</v>
+        <v>14225400</v>
       </c>
       <c r="J54" s="3">
-        <v>14247600</v>
+        <v>14085800</v>
       </c>
       <c r="K54" s="3">
         <v>15933200</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2122600</v>
+        <v>2098500</v>
       </c>
       <c r="E57" s="3">
-        <v>1835100</v>
+        <v>1814300</v>
       </c>
       <c r="F57" s="3">
-        <v>1716100</v>
+        <v>1696600</v>
       </c>
       <c r="G57" s="3">
-        <v>1962600</v>
+        <v>1940300</v>
       </c>
       <c r="H57" s="3">
-        <v>1826400</v>
+        <v>1805700</v>
       </c>
       <c r="I57" s="3">
-        <v>2007800</v>
+        <v>1985000</v>
       </c>
       <c r="J57" s="3">
-        <v>2056100</v>
+        <v>2032800</v>
       </c>
       <c r="K57" s="3">
         <v>2695200</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>583000</v>
+        <v>576400</v>
       </c>
       <c r="E58" s="3">
-        <v>586700</v>
+        <v>580100</v>
       </c>
       <c r="F58" s="3">
-        <v>399900</v>
+        <v>395300</v>
       </c>
       <c r="G58" s="3">
-        <v>1009200</v>
+        <v>997700</v>
       </c>
       <c r="H58" s="3">
-        <v>387700</v>
+        <v>383300</v>
       </c>
       <c r="I58" s="3">
-        <v>622800</v>
+        <v>615700</v>
       </c>
       <c r="J58" s="3">
-        <v>1362700</v>
+        <v>1347200</v>
       </c>
       <c r="K58" s="3">
         <v>2053100</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1437700</v>
+        <v>1421400</v>
       </c>
       <c r="E59" s="3">
-        <v>870500</v>
+        <v>860700</v>
       </c>
       <c r="F59" s="3">
-        <v>914900</v>
+        <v>904500</v>
       </c>
       <c r="G59" s="3">
-        <v>1345100</v>
+        <v>1329800</v>
       </c>
       <c r="H59" s="3">
-        <v>1376100</v>
+        <v>1360500</v>
       </c>
       <c r="I59" s="3">
-        <v>1295500</v>
+        <v>1280800</v>
       </c>
       <c r="J59" s="3">
-        <v>1313600</v>
+        <v>1298700</v>
       </c>
       <c r="K59" s="3">
         <v>1524400</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4143300</v>
+        <v>4096300</v>
       </c>
       <c r="E60" s="3">
-        <v>3292400</v>
+        <v>3255000</v>
       </c>
       <c r="F60" s="3">
-        <v>3030900</v>
+        <v>2996500</v>
       </c>
       <c r="G60" s="3">
-        <v>4316800</v>
+        <v>4267800</v>
       </c>
       <c r="H60" s="3">
-        <v>3590300</v>
+        <v>3549500</v>
       </c>
       <c r="I60" s="3">
-        <v>3926100</v>
+        <v>3881500</v>
       </c>
       <c r="J60" s="3">
-        <v>4732400</v>
+        <v>4678700</v>
       </c>
       <c r="K60" s="3">
         <v>6272600</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1574000</v>
+        <v>1556100</v>
       </c>
       <c r="E61" s="3">
-        <v>3668300</v>
+        <v>3626700</v>
       </c>
       <c r="F61" s="3">
-        <v>3777900</v>
+        <v>3735100</v>
       </c>
       <c r="G61" s="3">
-        <v>1898600</v>
+        <v>1877100</v>
       </c>
       <c r="H61" s="3">
-        <v>3430100</v>
+        <v>3391200</v>
       </c>
       <c r="I61" s="3">
-        <v>3555200</v>
+        <v>3514800</v>
       </c>
       <c r="J61" s="3">
-        <v>2294600</v>
+        <v>2268600</v>
       </c>
       <c r="K61" s="3">
         <v>3086500</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>538300</v>
+        <v>532200</v>
       </c>
       <c r="E62" s="3">
-        <v>186600</v>
+        <v>184500</v>
       </c>
       <c r="F62" s="3">
-        <v>210600</v>
+        <v>208200</v>
       </c>
       <c r="G62" s="3">
-        <v>231200</v>
+        <v>228600</v>
       </c>
       <c r="H62" s="3">
-        <v>218200</v>
+        <v>215700</v>
       </c>
       <c r="I62" s="3">
-        <v>223600</v>
+        <v>221100</v>
       </c>
       <c r="J62" s="3">
-        <v>369300</v>
+        <v>365100</v>
       </c>
       <c r="K62" s="3">
         <v>307100</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6462400</v>
+        <v>6389100</v>
       </c>
       <c r="E66" s="3">
-        <v>7515100</v>
+        <v>7429800</v>
       </c>
       <c r="F66" s="3">
-        <v>7397900</v>
+        <v>7314000</v>
       </c>
       <c r="G66" s="3">
-        <v>6929300</v>
+        <v>6850700</v>
       </c>
       <c r="H66" s="3">
-        <v>7810800</v>
+        <v>7722100</v>
       </c>
       <c r="I66" s="3">
-        <v>8320600</v>
+        <v>8226200</v>
       </c>
       <c r="J66" s="3">
-        <v>8154700</v>
+        <v>8062100</v>
       </c>
       <c r="K66" s="3">
         <v>10362500</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2700800</v>
+        <v>2670200</v>
       </c>
       <c r="E72" s="3">
-        <v>1013000</v>
+        <v>1001500</v>
       </c>
       <c r="F72" s="3">
-        <v>766800</v>
+        <v>758100</v>
       </c>
       <c r="G72" s="3">
-        <v>1568400</v>
+        <v>1550600</v>
       </c>
       <c r="H72" s="3">
-        <v>1711300</v>
+        <v>1691900</v>
       </c>
       <c r="I72" s="3">
-        <v>811700</v>
+        <v>802400</v>
       </c>
       <c r="J72" s="3">
-        <v>683200</v>
+        <v>675500</v>
       </c>
       <c r="K72" s="3">
         <v>-239800</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7760200</v>
+        <v>7672200</v>
       </c>
       <c r="E76" s="3">
-        <v>6120300</v>
+        <v>6050800</v>
       </c>
       <c r="F76" s="3">
-        <v>5915000</v>
+        <v>5847800</v>
       </c>
       <c r="G76" s="3">
-        <v>6791800</v>
+        <v>6714800</v>
       </c>
       <c r="H76" s="3">
-        <v>6969000</v>
+        <v>6889900</v>
       </c>
       <c r="I76" s="3">
-        <v>6068100</v>
+        <v>5999200</v>
       </c>
       <c r="J76" s="3">
-        <v>6092900</v>
+        <v>6023700</v>
       </c>
       <c r="K76" s="3">
         <v>5570800</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2053300</v>
+        <v>2030000</v>
       </c>
       <c r="E81" s="3">
-        <v>113000</v>
+        <v>111800</v>
       </c>
       <c r="F81" s="3">
-        <v>-642300</v>
+        <v>-635000</v>
       </c>
       <c r="G81" s="3">
-        <v>340200</v>
+        <v>336300</v>
       </c>
       <c r="H81" s="3">
-        <v>1083400</v>
+        <v>1071100</v>
       </c>
       <c r="I81" s="3">
-        <v>261800</v>
+        <v>258800</v>
       </c>
       <c r="J81" s="3">
-        <v>165100</v>
+        <v>163200</v>
       </c>
       <c r="K81" s="3">
         <v>589500</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1127100</v>
+        <v>1114300</v>
       </c>
       <c r="E83" s="3">
-        <v>1185100</v>
+        <v>1171700</v>
       </c>
       <c r="F83" s="3">
-        <v>1213900</v>
+        <v>1200100</v>
       </c>
       <c r="G83" s="3">
-        <v>1145900</v>
+        <v>1132900</v>
       </c>
       <c r="H83" s="3">
-        <v>1219700</v>
+        <v>1205800</v>
       </c>
       <c r="I83" s="3">
-        <v>1328900</v>
+        <v>1313800</v>
       </c>
       <c r="J83" s="3">
-        <v>1598500</v>
+        <v>1580400</v>
       </c>
       <c r="K83" s="3">
         <v>2049600</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3506100</v>
+        <v>3466300</v>
       </c>
       <c r="E89" s="3">
-        <v>862000</v>
+        <v>852200</v>
       </c>
       <c r="F89" s="3">
-        <v>694100</v>
+        <v>686200</v>
       </c>
       <c r="G89" s="3">
-        <v>1345900</v>
+        <v>1330600</v>
       </c>
       <c r="H89" s="3">
-        <v>2824500</v>
+        <v>2792400</v>
       </c>
       <c r="I89" s="3">
-        <v>1228600</v>
+        <v>1214600</v>
       </c>
       <c r="J89" s="3">
-        <v>2075900</v>
+        <v>2052300</v>
       </c>
       <c r="K89" s="3">
         <v>2283400</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-570400</v>
+        <v>-563900</v>
       </c>
       <c r="E91" s="3">
-        <v>-522300</v>
+        <v>-516400</v>
       </c>
       <c r="F91" s="3">
-        <v>-989200</v>
+        <v>-978000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1164100</v>
+        <v>-1150900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1469200</v>
+        <v>-1452500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1547400</v>
+        <v>-1529900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1119600</v>
+        <v>-1106900</v>
       </c>
       <c r="K91" s="3">
         <v>-611300</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1016100</v>
+        <v>-1004600</v>
       </c>
       <c r="E94" s="3">
-        <v>-592900</v>
+        <v>-586100</v>
       </c>
       <c r="F94" s="3">
-        <v>-941200</v>
+        <v>-930500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1155000</v>
+        <v>-1141900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1462000</v>
+        <v>-1445400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1415100</v>
+        <v>-1399000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1062500</v>
+        <v>-1050400</v>
       </c>
       <c r="K94" s="3">
         <v>-472100</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-95500</v>
+        <v>-94400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-161100</v>
+        <v>-159300</v>
       </c>
       <c r="G96" s="3">
-        <v>-483300</v>
+        <v>-477800</v>
       </c>
       <c r="H96" s="3">
-        <v>-180400</v>
+        <v>-178400</v>
       </c>
       <c r="I96" s="3">
-        <v>-112800</v>
+        <v>-111500</v>
       </c>
       <c r="J96" s="3">
-        <v>-161100</v>
+        <v>-159300</v>
       </c>
       <c r="K96" s="3">
         <v>-52000</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2794600</v>
+        <v>-2762900</v>
       </c>
       <c r="E100" s="3">
-        <v>90500</v>
+        <v>89500</v>
       </c>
       <c r="F100" s="3">
-        <v>694400</v>
+        <v>686600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1401000</v>
+        <v>-1385100</v>
       </c>
       <c r="H100" s="3">
-        <v>-449000</v>
+        <v>-443900</v>
       </c>
       <c r="I100" s="3">
-        <v>358900</v>
+        <v>354900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1147600</v>
+        <v>-1134600</v>
       </c>
       <c r="K100" s="3">
         <v>-1622400</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-41200</v>
+        <v>-40700</v>
       </c>
       <c r="E101" s="3">
-        <v>-30700</v>
+        <v>-30400</v>
       </c>
       <c r="F101" s="3">
-        <v>-69400</v>
+        <v>-68600</v>
       </c>
       <c r="G101" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="H101" s="3">
-        <v>-82200</v>
+        <v>-81300</v>
       </c>
       <c r="I101" s="3">
-        <v>-128500</v>
+        <v>-127100</v>
       </c>
       <c r="J101" s="3">
-        <v>30900</v>
+        <v>30600</v>
       </c>
       <c r="K101" s="3">
         <v>14700</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-345800</v>
+        <v>-341900</v>
       </c>
       <c r="E102" s="3">
-        <v>328900</v>
+        <v>325200</v>
       </c>
       <c r="F102" s="3">
-        <v>377900</v>
+        <v>373600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1200500</v>
+        <v>-1186900</v>
       </c>
       <c r="H102" s="3">
-        <v>831300</v>
+        <v>821900</v>
       </c>
       <c r="I102" s="3">
-        <v>43900</v>
+        <v>43400</v>
       </c>
       <c r="J102" s="3">
-        <v>-103300</v>
+        <v>-102100</v>
       </c>
       <c r="K102" s="3">
         <v>203600</v>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12269700</v>
+        <v>11817400</v>
       </c>
       <c r="E8" s="3">
-        <v>8968600</v>
+        <v>8638100</v>
       </c>
       <c r="F8" s="3">
-        <v>8897000</v>
+        <v>8569100</v>
       </c>
       <c r="G8" s="3">
-        <v>10182700</v>
+        <v>9807400</v>
       </c>
       <c r="H8" s="3">
-        <v>11288000</v>
+        <v>10872000</v>
       </c>
       <c r="I8" s="3">
-        <v>10892800</v>
+        <v>10491400</v>
       </c>
       <c r="J8" s="3">
-        <v>11927500</v>
+        <v>11487800</v>
       </c>
       <c r="K8" s="3">
         <v>14702600</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9265300</v>
+        <v>8923800</v>
       </c>
       <c r="E9" s="3">
-        <v>8215100</v>
+        <v>7912300</v>
       </c>
       <c r="F9" s="3">
-        <v>8881900</v>
+        <v>8554500</v>
       </c>
       <c r="G9" s="3">
-        <v>9251300</v>
+        <v>8910300</v>
       </c>
       <c r="H9" s="3">
-        <v>9267600</v>
+        <v>8926000</v>
       </c>
       <c r="I9" s="3">
-        <v>9751200</v>
+        <v>9391800</v>
       </c>
       <c r="J9" s="3">
-        <v>10608900</v>
+        <v>10217800</v>
       </c>
       <c r="K9" s="3">
         <v>12955200</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3004400</v>
+        <v>2893700</v>
       </c>
       <c r="E10" s="3">
-        <v>753500</v>
+        <v>725800</v>
       </c>
       <c r="F10" s="3">
-        <v>15100</v>
+        <v>14500</v>
       </c>
       <c r="G10" s="3">
-        <v>931400</v>
+        <v>897100</v>
       </c>
       <c r="H10" s="3">
-        <v>2020500</v>
+        <v>1946000</v>
       </c>
       <c r="I10" s="3">
-        <v>1141700</v>
+        <v>1099600</v>
       </c>
       <c r="J10" s="3">
-        <v>1318600</v>
+        <v>1270000</v>
       </c>
       <c r="K10" s="3">
         <v>1747400</v>
@@ -845,25 +845,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>432600</v>
+        <v>416700</v>
       </c>
       <c r="E12" s="3">
-        <v>340500</v>
+        <v>327900</v>
       </c>
       <c r="F12" s="3">
-        <v>324700</v>
+        <v>312700</v>
       </c>
       <c r="G12" s="3">
-        <v>316000</v>
+        <v>304400</v>
       </c>
       <c r="H12" s="3">
-        <v>326200</v>
+        <v>314200</v>
       </c>
       <c r="I12" s="3">
-        <v>300600</v>
+        <v>289500</v>
       </c>
       <c r="J12" s="3">
-        <v>294700</v>
+        <v>283900</v>
       </c>
       <c r="K12" s="3">
         <v>329800</v>
@@ -917,25 +917,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>48400</v>
+        <v>46600</v>
       </c>
       <c r="E14" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="F14" s="3">
-        <v>63000</v>
+        <v>60600</v>
       </c>
       <c r="G14" s="3">
-        <v>29800</v>
+        <v>28700</v>
       </c>
       <c r="H14" s="3">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="I14" s="3">
-        <v>32300</v>
+        <v>31100</v>
       </c>
       <c r="J14" s="3">
-        <v>398200</v>
+        <v>383500</v>
       </c>
       <c r="K14" s="3">
         <v>82600</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10230300</v>
+        <v>9853200</v>
       </c>
       <c r="E17" s="3">
-        <v>8917800</v>
+        <v>8589100</v>
       </c>
       <c r="F17" s="3">
-        <v>9637500</v>
+        <v>9282200</v>
       </c>
       <c r="G17" s="3">
-        <v>9991800</v>
+        <v>9623500</v>
       </c>
       <c r="H17" s="3">
-        <v>10046500</v>
+        <v>9676200</v>
       </c>
       <c r="I17" s="3">
-        <v>10516700</v>
+        <v>10129100</v>
       </c>
       <c r="J17" s="3">
-        <v>11745700</v>
+        <v>11312800</v>
       </c>
       <c r="K17" s="3">
         <v>13986800</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2039400</v>
+        <v>1964200</v>
       </c>
       <c r="E18" s="3">
-        <v>50800</v>
+        <v>48900</v>
       </c>
       <c r="F18" s="3">
-        <v>-740400</v>
+        <v>-713200</v>
       </c>
       <c r="G18" s="3">
-        <v>190900</v>
+        <v>183800</v>
       </c>
       <c r="H18" s="3">
-        <v>1241500</v>
+        <v>1195800</v>
       </c>
       <c r="I18" s="3">
-        <v>376100</v>
+        <v>362300</v>
       </c>
       <c r="J18" s="3">
-        <v>181800</v>
+        <v>175100</v>
       </c>
       <c r="K18" s="3">
         <v>715800</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>232100</v>
+        <v>223500</v>
       </c>
       <c r="E20" s="3">
-        <v>138900</v>
+        <v>133800</v>
       </c>
       <c r="F20" s="3">
-        <v>191200</v>
+        <v>184200</v>
       </c>
       <c r="G20" s="3">
-        <v>268500</v>
+        <v>258600</v>
       </c>
       <c r="H20" s="3">
-        <v>156400</v>
+        <v>150600</v>
       </c>
       <c r="I20" s="3">
-        <v>83800</v>
+        <v>80700</v>
       </c>
       <c r="J20" s="3">
-        <v>155500</v>
+        <v>149800</v>
       </c>
       <c r="K20" s="3">
         <v>149600</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3385100</v>
+        <v>3242100</v>
       </c>
       <c r="E21" s="3">
-        <v>1360700</v>
+        <v>1291400</v>
       </c>
       <c r="F21" s="3">
-        <v>650200</v>
+        <v>606600</v>
       </c>
       <c r="G21" s="3">
-        <v>1591700</v>
+        <v>1514500</v>
       </c>
       <c r="H21" s="3">
-        <v>2603000</v>
+        <v>2487300</v>
       </c>
       <c r="I21" s="3">
-        <v>1772900</v>
+        <v>1686100</v>
       </c>
       <c r="J21" s="3">
-        <v>1916700</v>
+        <v>1820300</v>
       </c>
       <c r="K21" s="3">
         <v>2908200</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>73400</v>
+        <v>70700</v>
       </c>
       <c r="E22" s="3">
-        <v>97400</v>
+        <v>93900</v>
       </c>
       <c r="F22" s="3">
-        <v>107600</v>
+        <v>103700</v>
       </c>
       <c r="G22" s="3">
-        <v>88200</v>
+        <v>84900</v>
       </c>
       <c r="H22" s="3">
-        <v>94900</v>
+        <v>91400</v>
       </c>
       <c r="I22" s="3">
-        <v>89600</v>
+        <v>86300</v>
       </c>
       <c r="J22" s="3">
-        <v>85800</v>
+        <v>82600</v>
       </c>
       <c r="K22" s="3">
         <v>145700</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2198100</v>
+        <v>2117000</v>
       </c>
       <c r="E23" s="3">
-        <v>92300</v>
+        <v>88900</v>
       </c>
       <c r="F23" s="3">
-        <v>-656900</v>
+        <v>-632700</v>
       </c>
       <c r="G23" s="3">
-        <v>371300</v>
+        <v>357600</v>
       </c>
       <c r="H23" s="3">
-        <v>1302900</v>
+        <v>1254900</v>
       </c>
       <c r="I23" s="3">
-        <v>370300</v>
+        <v>356600</v>
       </c>
       <c r="J23" s="3">
-        <v>251500</v>
+        <v>242300</v>
       </c>
       <c r="K23" s="3">
         <v>719700</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>97600</v>
+        <v>94000</v>
       </c>
       <c r="E24" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="F24" s="3">
-        <v>58100</v>
+        <v>55900</v>
       </c>
       <c r="G24" s="3">
-        <v>107800</v>
+        <v>103800</v>
       </c>
       <c r="H24" s="3">
-        <v>301400</v>
+        <v>290300</v>
       </c>
       <c r="I24" s="3">
-        <v>151600</v>
+        <v>146000</v>
       </c>
       <c r="J24" s="3">
-        <v>91200</v>
+        <v>87900</v>
       </c>
       <c r="K24" s="3">
         <v>116800</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2100500</v>
+        <v>2023100</v>
       </c>
       <c r="E26" s="3">
-        <v>96200</v>
+        <v>92700</v>
       </c>
       <c r="F26" s="3">
-        <v>-714900</v>
+        <v>-688600</v>
       </c>
       <c r="G26" s="3">
-        <v>263500</v>
+        <v>253800</v>
       </c>
       <c r="H26" s="3">
-        <v>1001600</v>
+        <v>964600</v>
       </c>
       <c r="I26" s="3">
-        <v>218700</v>
+        <v>210600</v>
       </c>
       <c r="J26" s="3">
-        <v>160300</v>
+        <v>154400</v>
       </c>
       <c r="K26" s="3">
         <v>602900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2030000</v>
+        <v>1955200</v>
       </c>
       <c r="E27" s="3">
-        <v>111800</v>
+        <v>107600</v>
       </c>
       <c r="F27" s="3">
-        <v>-635000</v>
+        <v>-611600</v>
       </c>
       <c r="G27" s="3">
-        <v>336300</v>
+        <v>323900</v>
       </c>
       <c r="H27" s="3">
-        <v>1071100</v>
+        <v>1031600</v>
       </c>
       <c r="I27" s="3">
-        <v>258800</v>
+        <v>249300</v>
       </c>
       <c r="J27" s="3">
-        <v>163200</v>
+        <v>157200</v>
       </c>
       <c r="K27" s="3">
         <v>589500</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-232100</v>
+        <v>-223500</v>
       </c>
       <c r="E32" s="3">
-        <v>-138900</v>
+        <v>-133800</v>
       </c>
       <c r="F32" s="3">
-        <v>-191200</v>
+        <v>-184200</v>
       </c>
       <c r="G32" s="3">
-        <v>-268500</v>
+        <v>-258600</v>
       </c>
       <c r="H32" s="3">
-        <v>-156400</v>
+        <v>-150600</v>
       </c>
       <c r="I32" s="3">
-        <v>-83800</v>
+        <v>-80700</v>
       </c>
       <c r="J32" s="3">
-        <v>-155500</v>
+        <v>-149800</v>
       </c>
       <c r="K32" s="3">
         <v>-149600</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2030000</v>
+        <v>1955200</v>
       </c>
       <c r="E33" s="3">
-        <v>111800</v>
+        <v>107600</v>
       </c>
       <c r="F33" s="3">
-        <v>-635000</v>
+        <v>-611600</v>
       </c>
       <c r="G33" s="3">
-        <v>336300</v>
+        <v>323900</v>
       </c>
       <c r="H33" s="3">
-        <v>1071100</v>
+        <v>1031600</v>
       </c>
       <c r="I33" s="3">
-        <v>258800</v>
+        <v>249300</v>
       </c>
       <c r="J33" s="3">
-        <v>163200</v>
+        <v>157200</v>
       </c>
       <c r="K33" s="3">
         <v>589500</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2030000</v>
+        <v>1955200</v>
       </c>
       <c r="E35" s="3">
-        <v>111800</v>
+        <v>107600</v>
       </c>
       <c r="F35" s="3">
-        <v>-635000</v>
+        <v>-611600</v>
       </c>
       <c r="G35" s="3">
-        <v>336300</v>
+        <v>323900</v>
       </c>
       <c r="H35" s="3">
-        <v>1071100</v>
+        <v>1031600</v>
       </c>
       <c r="I35" s="3">
-        <v>258800</v>
+        <v>249300</v>
       </c>
       <c r="J35" s="3">
-        <v>163200</v>
+        <v>157200</v>
       </c>
       <c r="K35" s="3">
         <v>589500</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2646200</v>
+        <v>2548600</v>
       </c>
       <c r="E41" s="3">
-        <v>2988100</v>
+        <v>2878000</v>
       </c>
       <c r="F41" s="3">
-        <v>2662900</v>
+        <v>2564700</v>
       </c>
       <c r="G41" s="3">
-        <v>2289300</v>
+        <v>2204900</v>
       </c>
       <c r="H41" s="3">
-        <v>3476200</v>
+        <v>3348100</v>
       </c>
       <c r="I41" s="3">
-        <v>2654300</v>
+        <v>2556500</v>
       </c>
       <c r="J41" s="3">
-        <v>2611000</v>
+        <v>2514700</v>
       </c>
       <c r="K41" s="3">
         <v>2952400</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>403400</v>
+        <v>388500</v>
       </c>
       <c r="E42" s="3">
-        <v>37100</v>
+        <v>35700</v>
       </c>
       <c r="F42" s="3">
-        <v>125200</v>
+        <v>120500</v>
       </c>
       <c r="G42" s="3">
-        <v>102600</v>
+        <v>98800</v>
       </c>
       <c r="H42" s="3">
-        <v>17200</v>
+        <v>16500</v>
       </c>
       <c r="I42" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="J42" s="3">
-        <v>388400</v>
+        <v>374100</v>
       </c>
       <c r="K42" s="3">
         <v>108900</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2040800</v>
+        <v>1965500</v>
       </c>
       <c r="E43" s="3">
-        <v>1551600</v>
+        <v>1494500</v>
       </c>
       <c r="F43" s="3">
-        <v>1064900</v>
+        <v>1025600</v>
       </c>
       <c r="G43" s="3">
-        <v>1571700</v>
+        <v>1513800</v>
       </c>
       <c r="H43" s="3">
-        <v>1346300</v>
+        <v>1296600</v>
       </c>
       <c r="I43" s="3">
-        <v>1598500</v>
+        <v>1539500</v>
       </c>
       <c r="J43" s="3">
-        <v>1154200</v>
+        <v>1111600</v>
       </c>
       <c r="K43" s="3">
         <v>2149100</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1141600</v>
+        <v>1099500</v>
       </c>
       <c r="E44" s="3">
-        <v>885500</v>
+        <v>852900</v>
       </c>
       <c r="F44" s="3">
-        <v>776500</v>
+        <v>747900</v>
       </c>
       <c r="G44" s="3">
-        <v>870800</v>
+        <v>838700</v>
       </c>
       <c r="H44" s="3">
-        <v>822700</v>
+        <v>792400</v>
       </c>
       <c r="I44" s="3">
-        <v>916200</v>
+        <v>882400</v>
       </c>
       <c r="J44" s="3">
-        <v>1052400</v>
+        <v>1013600</v>
       </c>
       <c r="K44" s="3">
         <v>1311900</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>124200</v>
+        <v>119600</v>
       </c>
       <c r="E45" s="3">
-        <v>109000</v>
+        <v>105000</v>
       </c>
       <c r="F45" s="3">
-        <v>110500</v>
+        <v>106400</v>
       </c>
       <c r="G45" s="3">
-        <v>99700</v>
+        <v>96000</v>
       </c>
       <c r="H45" s="3">
-        <v>301500</v>
+        <v>290400</v>
       </c>
       <c r="I45" s="3">
-        <v>219300</v>
+        <v>211200</v>
       </c>
       <c r="J45" s="3">
-        <v>156000</v>
+        <v>150200</v>
       </c>
       <c r="K45" s="3">
         <v>163600</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6356100</v>
+        <v>6121800</v>
       </c>
       <c r="E46" s="3">
-        <v>5571300</v>
+        <v>5366000</v>
       </c>
       <c r="F46" s="3">
-        <v>4739900</v>
+        <v>4565200</v>
       </c>
       <c r="G46" s="3">
-        <v>4934100</v>
+        <v>4752300</v>
       </c>
       <c r="H46" s="3">
-        <v>5963800</v>
+        <v>5744000</v>
       </c>
       <c r="I46" s="3">
-        <v>5406800</v>
+        <v>5207500</v>
       </c>
       <c r="J46" s="3">
-        <v>5361900</v>
+        <v>5164300</v>
       </c>
       <c r="K46" s="3">
         <v>6685800</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>885600</v>
+        <v>853000</v>
       </c>
       <c r="E47" s="3">
-        <v>664900</v>
+        <v>640400</v>
       </c>
       <c r="F47" s="3">
-        <v>448300</v>
+        <v>431800</v>
       </c>
       <c r="G47" s="3">
-        <v>439100</v>
+        <v>422900</v>
       </c>
       <c r="H47" s="3">
-        <v>329200</v>
+        <v>317100</v>
       </c>
       <c r="I47" s="3">
-        <v>271700</v>
+        <v>261700</v>
       </c>
       <c r="J47" s="3">
-        <v>481600</v>
+        <v>463800</v>
       </c>
       <c r="K47" s="3">
         <v>535800</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6067200</v>
+        <v>5843500</v>
       </c>
       <c r="E48" s="3">
-        <v>6563100</v>
+        <v>6321200</v>
       </c>
       <c r="F48" s="3">
-        <v>7298500</v>
+        <v>7029500</v>
       </c>
       <c r="G48" s="3">
-        <v>7358700</v>
+        <v>7087500</v>
       </c>
       <c r="H48" s="3">
-        <v>7469000</v>
+        <v>7193800</v>
       </c>
       <c r="I48" s="3">
-        <v>7388200</v>
+        <v>7115900</v>
       </c>
       <c r="J48" s="3">
-        <v>6926200</v>
+        <v>6670900</v>
       </c>
       <c r="K48" s="3">
         <v>8366700</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>389200</v>
+        <v>374800</v>
       </c>
       <c r="E49" s="3">
-        <v>423700</v>
+        <v>408100</v>
       </c>
       <c r="F49" s="3">
-        <v>424000</v>
+        <v>408300</v>
       </c>
       <c r="G49" s="3">
-        <v>442800</v>
+        <v>426500</v>
       </c>
       <c r="H49" s="3">
-        <v>436000</v>
+        <v>419900</v>
       </c>
       <c r="I49" s="3">
-        <v>450300</v>
+        <v>433700</v>
       </c>
       <c r="J49" s="3">
-        <v>482400</v>
+        <v>464700</v>
       </c>
       <c r="K49" s="3">
         <v>140000</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>363200</v>
+        <v>349900</v>
       </c>
       <c r="E52" s="3">
-        <v>257700</v>
+        <v>248200</v>
       </c>
       <c r="F52" s="3">
-        <v>251100</v>
+        <v>241900</v>
       </c>
       <c r="G52" s="3">
-        <v>390700</v>
+        <v>376300</v>
       </c>
       <c r="H52" s="3">
-        <v>414000</v>
+        <v>398800</v>
       </c>
       <c r="I52" s="3">
-        <v>708500</v>
+        <v>682400</v>
       </c>
       <c r="J52" s="3">
-        <v>833600</v>
+        <v>802900</v>
       </c>
       <c r="K52" s="3">
         <v>204900</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14061200</v>
+        <v>13543000</v>
       </c>
       <c r="E54" s="3">
-        <v>13480600</v>
+        <v>12983800</v>
       </c>
       <c r="F54" s="3">
-        <v>13161800</v>
+        <v>12676700</v>
       </c>
       <c r="G54" s="3">
-        <v>13565400</v>
+        <v>13065400</v>
       </c>
       <c r="H54" s="3">
-        <v>14612000</v>
+        <v>14073500</v>
       </c>
       <c r="I54" s="3">
-        <v>14225400</v>
+        <v>13701000</v>
       </c>
       <c r="J54" s="3">
-        <v>14085800</v>
+        <v>13566700</v>
       </c>
       <c r="K54" s="3">
         <v>15933200</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2098500</v>
+        <v>2021200</v>
       </c>
       <c r="E57" s="3">
-        <v>1814300</v>
+        <v>1747400</v>
       </c>
       <c r="F57" s="3">
-        <v>1696600</v>
+        <v>1634100</v>
       </c>
       <c r="G57" s="3">
-        <v>1940300</v>
+        <v>1868800</v>
       </c>
       <c r="H57" s="3">
-        <v>1805700</v>
+        <v>1739200</v>
       </c>
       <c r="I57" s="3">
-        <v>1985000</v>
+        <v>1911900</v>
       </c>
       <c r="J57" s="3">
-        <v>2032800</v>
+        <v>1957900</v>
       </c>
       <c r="K57" s="3">
         <v>2695200</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>576400</v>
+        <v>555100</v>
       </c>
       <c r="E58" s="3">
-        <v>580100</v>
+        <v>558700</v>
       </c>
       <c r="F58" s="3">
-        <v>395300</v>
+        <v>380700</v>
       </c>
       <c r="G58" s="3">
-        <v>997700</v>
+        <v>960900</v>
       </c>
       <c r="H58" s="3">
-        <v>383300</v>
+        <v>369200</v>
       </c>
       <c r="I58" s="3">
-        <v>615700</v>
+        <v>593000</v>
       </c>
       <c r="J58" s="3">
-        <v>1347200</v>
+        <v>1297600</v>
       </c>
       <c r="K58" s="3">
         <v>2053100</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1421400</v>
+        <v>1369000</v>
       </c>
       <c r="E59" s="3">
-        <v>860700</v>
+        <v>828900</v>
       </c>
       <c r="F59" s="3">
-        <v>904500</v>
+        <v>871200</v>
       </c>
       <c r="G59" s="3">
-        <v>1329800</v>
+        <v>1280800</v>
       </c>
       <c r="H59" s="3">
-        <v>1360500</v>
+        <v>1310400</v>
       </c>
       <c r="I59" s="3">
-        <v>1280800</v>
+        <v>1233600</v>
       </c>
       <c r="J59" s="3">
-        <v>1298700</v>
+        <v>1250800</v>
       </c>
       <c r="K59" s="3">
         <v>1524400</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4096300</v>
+        <v>3945300</v>
       </c>
       <c r="E60" s="3">
-        <v>3255000</v>
+        <v>3135000</v>
       </c>
       <c r="F60" s="3">
-        <v>2996500</v>
+        <v>2886000</v>
       </c>
       <c r="G60" s="3">
-        <v>4267800</v>
+        <v>4110500</v>
       </c>
       <c r="H60" s="3">
-        <v>3549500</v>
+        <v>3418700</v>
       </c>
       <c r="I60" s="3">
-        <v>3881500</v>
+        <v>3738400</v>
       </c>
       <c r="J60" s="3">
-        <v>4678700</v>
+        <v>4506200</v>
       </c>
       <c r="K60" s="3">
         <v>6272600</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1556100</v>
+        <v>1498700</v>
       </c>
       <c r="E61" s="3">
-        <v>3626700</v>
+        <v>3493000</v>
       </c>
       <c r="F61" s="3">
-        <v>3735100</v>
+        <v>3597400</v>
       </c>
       <c r="G61" s="3">
-        <v>1877100</v>
+        <v>1807900</v>
       </c>
       <c r="H61" s="3">
-        <v>3391200</v>
+        <v>3266200</v>
       </c>
       <c r="I61" s="3">
-        <v>3514800</v>
+        <v>3385300</v>
       </c>
       <c r="J61" s="3">
-        <v>2268600</v>
+        <v>2185000</v>
       </c>
       <c r="K61" s="3">
         <v>3086500</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>532200</v>
+        <v>512600</v>
       </c>
       <c r="E62" s="3">
-        <v>184500</v>
+        <v>177700</v>
       </c>
       <c r="F62" s="3">
-        <v>208200</v>
+        <v>200600</v>
       </c>
       <c r="G62" s="3">
-        <v>228600</v>
+        <v>220200</v>
       </c>
       <c r="H62" s="3">
-        <v>215700</v>
+        <v>207800</v>
       </c>
       <c r="I62" s="3">
-        <v>221100</v>
+        <v>213000</v>
       </c>
       <c r="J62" s="3">
-        <v>365100</v>
+        <v>351700</v>
       </c>
       <c r="K62" s="3">
         <v>307100</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6389100</v>
+        <v>6153600</v>
       </c>
       <c r="E66" s="3">
-        <v>7429800</v>
+        <v>7156000</v>
       </c>
       <c r="F66" s="3">
-        <v>7314000</v>
+        <v>7044400</v>
       </c>
       <c r="G66" s="3">
-        <v>6850700</v>
+        <v>6598200</v>
       </c>
       <c r="H66" s="3">
-        <v>7722100</v>
+        <v>7437500</v>
       </c>
       <c r="I66" s="3">
-        <v>8226200</v>
+        <v>7923000</v>
       </c>
       <c r="J66" s="3">
-        <v>8062100</v>
+        <v>7765000</v>
       </c>
       <c r="K66" s="3">
         <v>10362500</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2670200</v>
+        <v>2571800</v>
       </c>
       <c r="E72" s="3">
-        <v>1001500</v>
+        <v>964600</v>
       </c>
       <c r="F72" s="3">
-        <v>758100</v>
+        <v>730200</v>
       </c>
       <c r="G72" s="3">
-        <v>1550600</v>
+        <v>1493500</v>
       </c>
       <c r="H72" s="3">
-        <v>1691900</v>
+        <v>1629600</v>
       </c>
       <c r="I72" s="3">
-        <v>802400</v>
+        <v>772900</v>
       </c>
       <c r="J72" s="3">
-        <v>675500</v>
+        <v>650600</v>
       </c>
       <c r="K72" s="3">
         <v>-239800</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7672200</v>
+        <v>7389400</v>
       </c>
       <c r="E76" s="3">
-        <v>6050800</v>
+        <v>5827800</v>
       </c>
       <c r="F76" s="3">
-        <v>5847800</v>
+        <v>5632300</v>
       </c>
       <c r="G76" s="3">
-        <v>6714800</v>
+        <v>6467300</v>
       </c>
       <c r="H76" s="3">
-        <v>6889900</v>
+        <v>6636000</v>
       </c>
       <c r="I76" s="3">
-        <v>5999200</v>
+        <v>5778100</v>
       </c>
       <c r="J76" s="3">
-        <v>6023700</v>
+        <v>5801700</v>
       </c>
       <c r="K76" s="3">
         <v>5570800</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2030000</v>
+        <v>1955200</v>
       </c>
       <c r="E81" s="3">
-        <v>111800</v>
+        <v>107600</v>
       </c>
       <c r="F81" s="3">
-        <v>-635000</v>
+        <v>-611600</v>
       </c>
       <c r="G81" s="3">
-        <v>336300</v>
+        <v>323900</v>
       </c>
       <c r="H81" s="3">
-        <v>1071100</v>
+        <v>1031600</v>
       </c>
       <c r="I81" s="3">
-        <v>258800</v>
+        <v>249300</v>
       </c>
       <c r="J81" s="3">
-        <v>163200</v>
+        <v>157200</v>
       </c>
       <c r="K81" s="3">
         <v>589500</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1114300</v>
+        <v>1073200</v>
       </c>
       <c r="E83" s="3">
-        <v>1171700</v>
+        <v>1128500</v>
       </c>
       <c r="F83" s="3">
-        <v>1200100</v>
+        <v>1155900</v>
       </c>
       <c r="G83" s="3">
-        <v>1132900</v>
+        <v>1091200</v>
       </c>
       <c r="H83" s="3">
-        <v>1205800</v>
+        <v>1161400</v>
       </c>
       <c r="I83" s="3">
-        <v>1313800</v>
+        <v>1265400</v>
       </c>
       <c r="J83" s="3">
-        <v>1580400</v>
+        <v>1522100</v>
       </c>
       <c r="K83" s="3">
         <v>2049600</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3466300</v>
+        <v>3338500</v>
       </c>
       <c r="E89" s="3">
-        <v>852200</v>
+        <v>820800</v>
       </c>
       <c r="F89" s="3">
-        <v>686200</v>
+        <v>660900</v>
       </c>
       <c r="G89" s="3">
-        <v>1330600</v>
+        <v>1281600</v>
       </c>
       <c r="H89" s="3">
-        <v>2792400</v>
+        <v>2689500</v>
       </c>
       <c r="I89" s="3">
-        <v>1214600</v>
+        <v>1169900</v>
       </c>
       <c r="J89" s="3">
-        <v>2052300</v>
+        <v>1976700</v>
       </c>
       <c r="K89" s="3">
         <v>2283400</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-563900</v>
+        <v>-543200</v>
       </c>
       <c r="E91" s="3">
-        <v>-516400</v>
+        <v>-497300</v>
       </c>
       <c r="F91" s="3">
-        <v>-978000</v>
+        <v>-941900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1150900</v>
+        <v>-1108500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1452500</v>
+        <v>-1398900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1529900</v>
+        <v>-1473500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1106900</v>
+        <v>-1066100</v>
       </c>
       <c r="K91" s="3">
         <v>-611300</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1004600</v>
+        <v>-967600</v>
       </c>
       <c r="E94" s="3">
-        <v>-586100</v>
+        <v>-564500</v>
       </c>
       <c r="F94" s="3">
-        <v>-930500</v>
+        <v>-896200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1141900</v>
+        <v>-1099800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1445400</v>
+        <v>-1392100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1399000</v>
+        <v>-1347500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1050400</v>
+        <v>-1011700</v>
       </c>
       <c r="K94" s="3">
         <v>-472100</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-94400</v>
+        <v>-90900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-159300</v>
+        <v>-153400</v>
       </c>
       <c r="G96" s="3">
-        <v>-477800</v>
+        <v>-460200</v>
       </c>
       <c r="H96" s="3">
-        <v>-178400</v>
+        <v>-171800</v>
       </c>
       <c r="I96" s="3">
-        <v>-111500</v>
+        <v>-107400</v>
       </c>
       <c r="J96" s="3">
-        <v>-159300</v>
+        <v>-153400</v>
       </c>
       <c r="K96" s="3">
         <v>-52000</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2762900</v>
+        <v>-2661000</v>
       </c>
       <c r="E100" s="3">
-        <v>89500</v>
+        <v>86200</v>
       </c>
       <c r="F100" s="3">
-        <v>686600</v>
+        <v>661300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1385100</v>
+        <v>-1334100</v>
       </c>
       <c r="H100" s="3">
-        <v>-443900</v>
+        <v>-427500</v>
       </c>
       <c r="I100" s="3">
-        <v>354900</v>
+        <v>341800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1134600</v>
+        <v>-1092800</v>
       </c>
       <c r="K100" s="3">
         <v>-1622400</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-40700</v>
+        <v>-39200</v>
       </c>
       <c r="E101" s="3">
-        <v>-30400</v>
+        <v>-29200</v>
       </c>
       <c r="F101" s="3">
-        <v>-68600</v>
+        <v>-66100</v>
       </c>
       <c r="G101" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="H101" s="3">
-        <v>-81300</v>
+        <v>-78300</v>
       </c>
       <c r="I101" s="3">
-        <v>-127100</v>
+        <v>-122400</v>
       </c>
       <c r="J101" s="3">
-        <v>30600</v>
+        <v>29400</v>
       </c>
       <c r="K101" s="3">
         <v>14700</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-341900</v>
+        <v>-329300</v>
       </c>
       <c r="E102" s="3">
-        <v>325200</v>
+        <v>313200</v>
       </c>
       <c r="F102" s="3">
-        <v>373600</v>
+        <v>359800</v>
       </c>
       <c r="G102" s="3">
-        <v>-1186900</v>
+        <v>-1143100</v>
       </c>
       <c r="H102" s="3">
-        <v>821900</v>
+        <v>791600</v>
       </c>
       <c r="I102" s="3">
-        <v>43400</v>
+        <v>41800</v>
       </c>
       <c r="J102" s="3">
-        <v>-102100</v>
+        <v>-98300</v>
       </c>
       <c r="K102" s="3">
         <v>203600</v>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11817400</v>
+        <v>8003500</v>
       </c>
       <c r="E8" s="3">
-        <v>8638100</v>
+        <v>12021300</v>
       </c>
       <c r="F8" s="3">
-        <v>8569100</v>
+        <v>8787100</v>
       </c>
       <c r="G8" s="3">
-        <v>9807400</v>
+        <v>8716900</v>
       </c>
       <c r="H8" s="3">
-        <v>10872000</v>
+        <v>9976600</v>
       </c>
       <c r="I8" s="3">
-        <v>10491400</v>
+        <v>11059500</v>
       </c>
       <c r="J8" s="3">
+        <v>10672400</v>
+      </c>
+      <c r="K8" s="3">
         <v>11487800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14702600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14606000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12587900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8923800</v>
+        <v>7952700</v>
       </c>
       <c r="E9" s="3">
-        <v>7912300</v>
+        <v>9077700</v>
       </c>
       <c r="F9" s="3">
-        <v>8554500</v>
+        <v>8048800</v>
       </c>
       <c r="G9" s="3">
-        <v>8910300</v>
+        <v>8702100</v>
       </c>
       <c r="H9" s="3">
-        <v>8926000</v>
+        <v>9064000</v>
       </c>
       <c r="I9" s="3">
-        <v>9391800</v>
+        <v>9080000</v>
       </c>
       <c r="J9" s="3">
+        <v>9553800</v>
+      </c>
+      <c r="K9" s="3">
         <v>10217800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12955200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26827700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>25900900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2893700</v>
+        <v>50800</v>
       </c>
       <c r="E10" s="3">
-        <v>725800</v>
+        <v>2943600</v>
       </c>
       <c r="F10" s="3">
-        <v>14500</v>
+        <v>738300</v>
       </c>
       <c r="G10" s="3">
-        <v>897100</v>
+        <v>14800</v>
       </c>
       <c r="H10" s="3">
-        <v>1946000</v>
+        <v>912600</v>
       </c>
       <c r="I10" s="3">
-        <v>1099600</v>
+        <v>1979600</v>
       </c>
       <c r="J10" s="3">
+        <v>1118500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1270000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1747400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-12221700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-13312900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>416700</v>
+        <v>417300</v>
       </c>
       <c r="E12" s="3">
-        <v>327900</v>
+        <v>423800</v>
       </c>
       <c r="F12" s="3">
-        <v>312700</v>
+        <v>333600</v>
       </c>
       <c r="G12" s="3">
-        <v>304400</v>
+        <v>318100</v>
       </c>
       <c r="H12" s="3">
-        <v>314200</v>
+        <v>309600</v>
       </c>
       <c r="I12" s="3">
-        <v>289500</v>
+        <v>319600</v>
       </c>
       <c r="J12" s="3">
+        <v>294500</v>
+      </c>
+      <c r="K12" s="3">
         <v>283900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>329800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>299200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>329400</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,45 +926,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>46600</v>
+        <v>36500</v>
       </c>
       <c r="E14" s="3">
-        <v>17500</v>
+        <v>47400</v>
       </c>
       <c r="F14" s="3">
-        <v>60600</v>
+        <v>17800</v>
       </c>
       <c r="G14" s="3">
-        <v>28700</v>
+        <v>61700</v>
       </c>
       <c r="H14" s="3">
-        <v>52000</v>
+        <v>29200</v>
       </c>
       <c r="I14" s="3">
-        <v>31100</v>
+        <v>52900</v>
       </c>
       <c r="J14" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K14" s="3">
         <v>383500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>82600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>140400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800400</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -976,15 +998,18 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19800</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9853200</v>
+        <v>8817300</v>
       </c>
       <c r="E17" s="3">
-        <v>8589100</v>
+        <v>10023200</v>
       </c>
       <c r="F17" s="3">
-        <v>9282200</v>
+        <v>8737300</v>
       </c>
       <c r="G17" s="3">
-        <v>9623500</v>
+        <v>9442400</v>
       </c>
       <c r="H17" s="3">
-        <v>9676200</v>
+        <v>9789600</v>
       </c>
       <c r="I17" s="3">
-        <v>10129100</v>
+        <v>9843200</v>
       </c>
       <c r="J17" s="3">
+        <v>10303800</v>
+      </c>
+      <c r="K17" s="3">
         <v>11312800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13986800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14455500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14139900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1964200</v>
+        <v>-813800</v>
       </c>
       <c r="E18" s="3">
-        <v>48900</v>
+        <v>1998100</v>
       </c>
       <c r="F18" s="3">
-        <v>-713200</v>
+        <v>49800</v>
       </c>
       <c r="G18" s="3">
-        <v>183800</v>
+        <v>-725500</v>
       </c>
       <c r="H18" s="3">
-        <v>1195800</v>
+        <v>187000</v>
       </c>
       <c r="I18" s="3">
-        <v>362300</v>
+        <v>1216400</v>
       </c>
       <c r="J18" s="3">
+        <v>368500</v>
+      </c>
+      <c r="K18" s="3">
         <v>175100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>715800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>150500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1552000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>223500</v>
+        <v>230200</v>
       </c>
       <c r="E20" s="3">
-        <v>133800</v>
+        <v>227400</v>
       </c>
       <c r="F20" s="3">
-        <v>184200</v>
+        <v>136100</v>
       </c>
       <c r="G20" s="3">
-        <v>258600</v>
+        <v>187300</v>
       </c>
       <c r="H20" s="3">
-        <v>150600</v>
+        <v>263100</v>
       </c>
       <c r="I20" s="3">
-        <v>80700</v>
+        <v>153200</v>
       </c>
       <c r="J20" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K20" s="3">
         <v>149800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>149600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>368800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>220500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3242100</v>
+        <v>440200</v>
       </c>
       <c r="E21" s="3">
-        <v>1291400</v>
+        <v>3320900</v>
       </c>
       <c r="F21" s="3">
-        <v>606600</v>
+        <v>1337700</v>
       </c>
       <c r="G21" s="3">
-        <v>1514500</v>
+        <v>641700</v>
       </c>
       <c r="H21" s="3">
-        <v>2487300</v>
+        <v>1563900</v>
       </c>
       <c r="I21" s="3">
-        <v>1686100</v>
+        <v>2555000</v>
       </c>
       <c r="J21" s="3">
+        <v>1742200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1820300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2908200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2752300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1176800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>70700</v>
+        <v>48900</v>
       </c>
       <c r="E22" s="3">
-        <v>93900</v>
+        <v>71900</v>
       </c>
       <c r="F22" s="3">
-        <v>103700</v>
+        <v>95500</v>
       </c>
       <c r="G22" s="3">
-        <v>84900</v>
+        <v>105400</v>
       </c>
       <c r="H22" s="3">
-        <v>91400</v>
+        <v>86400</v>
       </c>
       <c r="I22" s="3">
-        <v>86300</v>
+        <v>93000</v>
       </c>
       <c r="J22" s="3">
+        <v>87800</v>
+      </c>
+      <c r="K22" s="3">
         <v>82600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>145700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>335600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>381200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2117000</v>
+        <v>-632600</v>
       </c>
       <c r="E23" s="3">
-        <v>88900</v>
+        <v>2153600</v>
       </c>
       <c r="F23" s="3">
-        <v>-632700</v>
+        <v>90400</v>
       </c>
       <c r="G23" s="3">
-        <v>357600</v>
+        <v>-643600</v>
       </c>
       <c r="H23" s="3">
-        <v>1254900</v>
+        <v>363700</v>
       </c>
       <c r="I23" s="3">
-        <v>356600</v>
+        <v>1276600</v>
       </c>
       <c r="J23" s="3">
+        <v>362800</v>
+      </c>
+      <c r="K23" s="3">
         <v>242300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>719700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>183700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1712700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>94000</v>
+        <v>47600</v>
       </c>
       <c r="E24" s="3">
-        <v>-3800</v>
+        <v>95600</v>
       </c>
       <c r="F24" s="3">
-        <v>55900</v>
+        <v>-3900</v>
       </c>
       <c r="G24" s="3">
-        <v>103800</v>
+        <v>56900</v>
       </c>
       <c r="H24" s="3">
-        <v>290300</v>
+        <v>105600</v>
       </c>
       <c r="I24" s="3">
-        <v>146000</v>
+        <v>295300</v>
       </c>
       <c r="J24" s="3">
+        <v>148500</v>
+      </c>
+      <c r="K24" s="3">
         <v>87900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>116800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2023100</v>
+        <v>-680200</v>
       </c>
       <c r="E26" s="3">
-        <v>92700</v>
+        <v>2058000</v>
       </c>
       <c r="F26" s="3">
-        <v>-688600</v>
+        <v>94300</v>
       </c>
       <c r="G26" s="3">
-        <v>253800</v>
+        <v>-700500</v>
       </c>
       <c r="H26" s="3">
-        <v>964600</v>
+        <v>258100</v>
       </c>
       <c r="I26" s="3">
-        <v>210600</v>
+        <v>981300</v>
       </c>
       <c r="J26" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K26" s="3">
         <v>154400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>602900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>136000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1750100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1955200</v>
+        <v>-684300</v>
       </c>
       <c r="E27" s="3">
-        <v>107600</v>
+        <v>1989000</v>
       </c>
       <c r="F27" s="3">
-        <v>-611600</v>
+        <v>109500</v>
       </c>
       <c r="G27" s="3">
-        <v>323900</v>
+        <v>-622200</v>
       </c>
       <c r="H27" s="3">
-        <v>1031600</v>
+        <v>329500</v>
       </c>
       <c r="I27" s="3">
-        <v>249300</v>
+        <v>1049400</v>
       </c>
       <c r="J27" s="3">
+        <v>253600</v>
+      </c>
+      <c r="K27" s="3">
         <v>157200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>589500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>133400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1702400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-223500</v>
+        <v>-230200</v>
       </c>
       <c r="E32" s="3">
-        <v>-133800</v>
+        <v>-227400</v>
       </c>
       <c r="F32" s="3">
-        <v>-184200</v>
+        <v>-136100</v>
       </c>
       <c r="G32" s="3">
-        <v>-258600</v>
+        <v>-187300</v>
       </c>
       <c r="H32" s="3">
-        <v>-150600</v>
+        <v>-263100</v>
       </c>
       <c r="I32" s="3">
-        <v>-80700</v>
+        <v>-153200</v>
       </c>
       <c r="J32" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-149800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-149600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-368800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-220500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1955200</v>
+        <v>-684300</v>
       </c>
       <c r="E33" s="3">
-        <v>107600</v>
+        <v>1989000</v>
       </c>
       <c r="F33" s="3">
-        <v>-611600</v>
+        <v>109500</v>
       </c>
       <c r="G33" s="3">
-        <v>323900</v>
+        <v>-622200</v>
       </c>
       <c r="H33" s="3">
-        <v>1031600</v>
+        <v>329500</v>
       </c>
       <c r="I33" s="3">
-        <v>249300</v>
+        <v>1049400</v>
       </c>
       <c r="J33" s="3">
+        <v>253600</v>
+      </c>
+      <c r="K33" s="3">
         <v>157200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>589500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>133400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1702400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1955200</v>
+        <v>-684300</v>
       </c>
       <c r="E35" s="3">
-        <v>107600</v>
+        <v>1989000</v>
       </c>
       <c r="F35" s="3">
-        <v>-611600</v>
+        <v>109500</v>
       </c>
       <c r="G35" s="3">
-        <v>323900</v>
+        <v>-622200</v>
       </c>
       <c r="H35" s="3">
-        <v>1031600</v>
+        <v>329500</v>
       </c>
       <c r="I35" s="3">
-        <v>249300</v>
+        <v>1049400</v>
       </c>
       <c r="J35" s="3">
+        <v>253600</v>
+      </c>
+      <c r="K35" s="3">
         <v>157200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>589500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>133400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1702400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,332 +1818,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2548600</v>
+        <v>2614300</v>
       </c>
       <c r="E41" s="3">
-        <v>2878000</v>
+        <v>2592600</v>
       </c>
       <c r="F41" s="3">
-        <v>2564700</v>
+        <v>2927600</v>
       </c>
       <c r="G41" s="3">
-        <v>2204900</v>
+        <v>2609000</v>
       </c>
       <c r="H41" s="3">
-        <v>3348100</v>
+        <v>2243000</v>
       </c>
       <c r="I41" s="3">
-        <v>2556500</v>
+        <v>3405800</v>
       </c>
       <c r="J41" s="3">
+        <v>2600600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2514700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2952400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2677000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2398600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>388500</v>
+        <v>149000</v>
       </c>
       <c r="E42" s="3">
-        <v>35700</v>
+        <v>395200</v>
       </c>
       <c r="F42" s="3">
-        <v>120500</v>
+        <v>36300</v>
       </c>
       <c r="G42" s="3">
-        <v>98800</v>
+        <v>122600</v>
       </c>
       <c r="H42" s="3">
-        <v>16500</v>
+        <v>100500</v>
       </c>
       <c r="I42" s="3">
-        <v>17900</v>
+        <v>16800</v>
       </c>
       <c r="J42" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K42" s="3">
         <v>374100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>108900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>238500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>181200</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1965500</v>
+        <v>646100</v>
       </c>
       <c r="E43" s="3">
-        <v>1494500</v>
+        <v>1999500</v>
       </c>
       <c r="F43" s="3">
-        <v>1025600</v>
+        <v>1520200</v>
       </c>
       <c r="G43" s="3">
-        <v>1513800</v>
+        <v>1043300</v>
       </c>
       <c r="H43" s="3">
-        <v>1296600</v>
+        <v>1539900</v>
       </c>
       <c r="I43" s="3">
-        <v>1539500</v>
+        <v>1319000</v>
       </c>
       <c r="J43" s="3">
+        <v>1566100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1111600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2149100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1535600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1418200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1099500</v>
+        <v>981500</v>
       </c>
       <c r="E44" s="3">
-        <v>852900</v>
+        <v>1118500</v>
       </c>
       <c r="F44" s="3">
-        <v>747900</v>
+        <v>867600</v>
       </c>
       <c r="G44" s="3">
-        <v>838700</v>
+        <v>760800</v>
       </c>
       <c r="H44" s="3">
-        <v>792400</v>
+        <v>853200</v>
       </c>
       <c r="I44" s="3">
-        <v>882400</v>
+        <v>806000</v>
       </c>
       <c r="J44" s="3">
+        <v>897600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1013600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1311900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1318900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1416400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>119600</v>
+        <v>155100</v>
       </c>
       <c r="E45" s="3">
-        <v>105000</v>
+        <v>121700</v>
       </c>
       <c r="F45" s="3">
-        <v>106400</v>
+        <v>106800</v>
       </c>
       <c r="G45" s="3">
-        <v>96000</v>
+        <v>108300</v>
       </c>
       <c r="H45" s="3">
-        <v>290400</v>
+        <v>97700</v>
       </c>
       <c r="I45" s="3">
-        <v>211200</v>
+        <v>295400</v>
       </c>
       <c r="J45" s="3">
+        <v>214800</v>
+      </c>
+      <c r="K45" s="3">
         <v>150200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>163600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>179600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>430500</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6121800</v>
+        <v>4545900</v>
       </c>
       <c r="E46" s="3">
-        <v>5366000</v>
+        <v>6227400</v>
       </c>
       <c r="F46" s="3">
-        <v>4565200</v>
+        <v>5458500</v>
       </c>
       <c r="G46" s="3">
-        <v>4752300</v>
+        <v>4644000</v>
       </c>
       <c r="H46" s="3">
-        <v>5744000</v>
+        <v>4834300</v>
       </c>
       <c r="I46" s="3">
-        <v>5207500</v>
+        <v>5843100</v>
       </c>
       <c r="J46" s="3">
+        <v>5297300</v>
+      </c>
+      <c r="K46" s="3">
         <v>5164300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6685800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5949700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5845000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>853000</v>
+        <v>1091100</v>
       </c>
       <c r="E47" s="3">
-        <v>640400</v>
+        <v>867700</v>
       </c>
       <c r="F47" s="3">
-        <v>431800</v>
+        <v>651400</v>
       </c>
       <c r="G47" s="3">
-        <v>422900</v>
+        <v>439300</v>
       </c>
       <c r="H47" s="3">
-        <v>317100</v>
+        <v>430200</v>
       </c>
       <c r="I47" s="3">
-        <v>261700</v>
+        <v>322500</v>
       </c>
       <c r="J47" s="3">
+        <v>266200</v>
+      </c>
+      <c r="K47" s="3">
         <v>463800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>535800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>493000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>511800</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5843500</v>
+        <v>6162600</v>
       </c>
       <c r="E48" s="3">
-        <v>6321200</v>
+        <v>5944400</v>
       </c>
       <c r="F48" s="3">
-        <v>7029500</v>
+        <v>6430200</v>
       </c>
       <c r="G48" s="3">
-        <v>7087500</v>
+        <v>7150700</v>
       </c>
       <c r="H48" s="3">
-        <v>7193800</v>
+        <v>7209700</v>
       </c>
       <c r="I48" s="3">
-        <v>7115900</v>
+        <v>7317900</v>
       </c>
       <c r="J48" s="3">
+        <v>7238600</v>
+      </c>
+      <c r="K48" s="3">
         <v>6670900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8366700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9525100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10554300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>374800</v>
+        <v>369600</v>
       </c>
       <c r="E49" s="3">
-        <v>408100</v>
+        <v>381300</v>
       </c>
       <c r="F49" s="3">
-        <v>408300</v>
+        <v>415100</v>
       </c>
       <c r="G49" s="3">
-        <v>426500</v>
+        <v>415400</v>
       </c>
       <c r="H49" s="3">
-        <v>419900</v>
+        <v>433800</v>
       </c>
       <c r="I49" s="3">
-        <v>433700</v>
+        <v>427100</v>
       </c>
       <c r="J49" s="3">
+        <v>441100</v>
+      </c>
+      <c r="K49" s="3">
         <v>464700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>140000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>155500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>496700</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>349900</v>
+        <v>376000</v>
       </c>
       <c r="E52" s="3">
-        <v>248200</v>
+        <v>355900</v>
       </c>
       <c r="F52" s="3">
-        <v>241900</v>
+        <v>252500</v>
       </c>
       <c r="G52" s="3">
-        <v>376300</v>
+        <v>246000</v>
       </c>
       <c r="H52" s="3">
-        <v>398800</v>
+        <v>382800</v>
       </c>
       <c r="I52" s="3">
-        <v>682400</v>
+        <v>405700</v>
       </c>
       <c r="J52" s="3">
+        <v>694100</v>
+      </c>
+      <c r="K52" s="3">
         <v>802900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>204900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>183100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>546100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13543000</v>
+        <v>12545200</v>
       </c>
       <c r="E54" s="3">
-        <v>12983800</v>
+        <v>13776600</v>
       </c>
       <c r="F54" s="3">
-        <v>12676700</v>
+        <v>13207800</v>
       </c>
       <c r="G54" s="3">
-        <v>13065400</v>
+        <v>12895400</v>
       </c>
       <c r="H54" s="3">
-        <v>14073500</v>
+        <v>13290800</v>
       </c>
       <c r="I54" s="3">
-        <v>13701000</v>
+        <v>14316300</v>
       </c>
       <c r="J54" s="3">
+        <v>13937400</v>
+      </c>
+      <c r="K54" s="3">
         <v>13566700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15933200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16306400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17953800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2021200</v>
+        <v>1536200</v>
       </c>
       <c r="E57" s="3">
-        <v>1747400</v>
+        <v>2056000</v>
       </c>
       <c r="F57" s="3">
-        <v>1634100</v>
+        <v>1777500</v>
       </c>
       <c r="G57" s="3">
-        <v>1868800</v>
+        <v>1662300</v>
       </c>
       <c r="H57" s="3">
-        <v>1739200</v>
+        <v>1901100</v>
       </c>
       <c r="I57" s="3">
-        <v>1911900</v>
+        <v>1769200</v>
       </c>
       <c r="J57" s="3">
+        <v>1944900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1957900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2695200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2749000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2711000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>555100</v>
+        <v>473400</v>
       </c>
       <c r="E58" s="3">
-        <v>558700</v>
+        <v>564700</v>
       </c>
       <c r="F58" s="3">
-        <v>380700</v>
+        <v>568300</v>
       </c>
       <c r="G58" s="3">
-        <v>960900</v>
+        <v>387300</v>
       </c>
       <c r="H58" s="3">
-        <v>369200</v>
+        <v>977500</v>
       </c>
       <c r="I58" s="3">
-        <v>593000</v>
+        <v>375500</v>
       </c>
       <c r="J58" s="3">
+        <v>603200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1297600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2053100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2323000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1799700</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1369000</v>
+        <v>1141600</v>
       </c>
       <c r="E59" s="3">
-        <v>828900</v>
+        <v>1392600</v>
       </c>
       <c r="F59" s="3">
-        <v>871200</v>
+        <v>843200</v>
       </c>
       <c r="G59" s="3">
-        <v>1280800</v>
+        <v>886200</v>
       </c>
       <c r="H59" s="3">
-        <v>1310400</v>
+        <v>1302900</v>
       </c>
       <c r="I59" s="3">
-        <v>1233600</v>
+        <v>1333000</v>
       </c>
       <c r="J59" s="3">
+        <v>1254800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1250800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1524400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1289400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1861700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3945300</v>
+        <v>3151200</v>
       </c>
       <c r="E60" s="3">
-        <v>3135000</v>
+        <v>4013400</v>
       </c>
       <c r="F60" s="3">
-        <v>2886000</v>
+        <v>3189100</v>
       </c>
       <c r="G60" s="3">
-        <v>4110500</v>
+        <v>2935800</v>
       </c>
       <c r="H60" s="3">
-        <v>3418700</v>
+        <v>4181500</v>
       </c>
       <c r="I60" s="3">
-        <v>3738400</v>
+        <v>3477700</v>
       </c>
       <c r="J60" s="3">
+        <v>3802900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4506200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6272600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6361400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6372400</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1498700</v>
+        <v>2646000</v>
       </c>
       <c r="E61" s="3">
-        <v>3493000</v>
+        <v>1524600</v>
       </c>
       <c r="F61" s="3">
-        <v>3597400</v>
+        <v>3553300</v>
       </c>
       <c r="G61" s="3">
-        <v>1807900</v>
+        <v>3659500</v>
       </c>
       <c r="H61" s="3">
-        <v>3266200</v>
+        <v>1839100</v>
       </c>
       <c r="I61" s="3">
-        <v>3385300</v>
+        <v>3322500</v>
       </c>
       <c r="J61" s="3">
+        <v>3443700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2185000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3086500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4157200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5657500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>512600</v>
+        <v>540600</v>
       </c>
       <c r="E62" s="3">
-        <v>177700</v>
+        <v>521400</v>
       </c>
       <c r="F62" s="3">
-        <v>200600</v>
+        <v>180800</v>
       </c>
       <c r="G62" s="3">
-        <v>220200</v>
+        <v>204000</v>
       </c>
       <c r="H62" s="3">
-        <v>207800</v>
+        <v>224000</v>
       </c>
       <c r="I62" s="3">
-        <v>213000</v>
+        <v>211300</v>
       </c>
       <c r="J62" s="3">
+        <v>216600</v>
+      </c>
+      <c r="K62" s="3">
         <v>351700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>307100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>421000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>494700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6153600</v>
+        <v>6542500</v>
       </c>
       <c r="E66" s="3">
-        <v>7156000</v>
+        <v>6259800</v>
       </c>
       <c r="F66" s="3">
-        <v>7044400</v>
+        <v>7279400</v>
       </c>
       <c r="G66" s="3">
-        <v>6598200</v>
+        <v>7165900</v>
       </c>
       <c r="H66" s="3">
-        <v>7437500</v>
+        <v>6712000</v>
       </c>
       <c r="I66" s="3">
-        <v>7923000</v>
+        <v>7565800</v>
       </c>
       <c r="J66" s="3">
+        <v>8059700</v>
+      </c>
+      <c r="K66" s="3">
         <v>7765000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10362500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11431900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12993100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2571800</v>
+        <v>1624100</v>
       </c>
       <c r="E72" s="3">
-        <v>964600</v>
+        <v>2616100</v>
       </c>
       <c r="F72" s="3">
-        <v>730200</v>
+        <v>981300</v>
       </c>
       <c r="G72" s="3">
-        <v>1493500</v>
+        <v>742800</v>
       </c>
       <c r="H72" s="3">
-        <v>1629600</v>
+        <v>1519200</v>
       </c>
       <c r="I72" s="3">
-        <v>772900</v>
+        <v>1657700</v>
       </c>
       <c r="J72" s="3">
+        <v>786200</v>
+      </c>
+      <c r="K72" s="3">
         <v>650600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-239800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-768200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1816500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7389400</v>
+        <v>6002800</v>
       </c>
       <c r="E76" s="3">
-        <v>5827800</v>
+        <v>7516900</v>
       </c>
       <c r="F76" s="3">
-        <v>5632300</v>
+        <v>5928400</v>
       </c>
       <c r="G76" s="3">
-        <v>6467300</v>
+        <v>5729500</v>
       </c>
       <c r="H76" s="3">
-        <v>6636000</v>
+        <v>6578800</v>
       </c>
       <c r="I76" s="3">
-        <v>5778100</v>
+        <v>6750400</v>
       </c>
       <c r="J76" s="3">
+        <v>5877800</v>
+      </c>
+      <c r="K76" s="3">
         <v>5801700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5570800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4874500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4960800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1955200</v>
+        <v>-684300</v>
       </c>
       <c r="E81" s="3">
-        <v>107600</v>
+        <v>1989000</v>
       </c>
       <c r="F81" s="3">
-        <v>-611600</v>
+        <v>109500</v>
       </c>
       <c r="G81" s="3">
-        <v>323900</v>
+        <v>-622200</v>
       </c>
       <c r="H81" s="3">
-        <v>1031600</v>
+        <v>329500</v>
       </c>
       <c r="I81" s="3">
-        <v>249300</v>
+        <v>1049400</v>
       </c>
       <c r="J81" s="3">
+        <v>253600</v>
+      </c>
+      <c r="K81" s="3">
         <v>157200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>589500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>133400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1702400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1073200</v>
+        <v>1020500</v>
       </c>
       <c r="E83" s="3">
-        <v>1128500</v>
+        <v>1091700</v>
       </c>
       <c r="F83" s="3">
-        <v>1155900</v>
+        <v>1147900</v>
       </c>
       <c r="G83" s="3">
-        <v>1091200</v>
+        <v>1175800</v>
       </c>
       <c r="H83" s="3">
-        <v>1161400</v>
+        <v>1110000</v>
       </c>
       <c r="I83" s="3">
-        <v>1265400</v>
+        <v>1181400</v>
       </c>
       <c r="J83" s="3">
+        <v>1287300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1522100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2049600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2232400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2503700</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3338500</v>
+        <v>874700</v>
       </c>
       <c r="E89" s="3">
-        <v>820800</v>
+        <v>3396100</v>
       </c>
       <c r="F89" s="3">
-        <v>660900</v>
+        <v>835000</v>
       </c>
       <c r="G89" s="3">
-        <v>1281600</v>
+        <v>672300</v>
       </c>
       <c r="H89" s="3">
-        <v>2689500</v>
+        <v>1303700</v>
       </c>
       <c r="I89" s="3">
-        <v>1169900</v>
+        <v>2735900</v>
       </c>
       <c r="J89" s="3">
+        <v>1190000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1976700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2283400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1741500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1189000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-543200</v>
+        <v>-1165900</v>
       </c>
       <c r="E91" s="3">
-        <v>-497300</v>
+        <v>-552500</v>
       </c>
       <c r="F91" s="3">
-        <v>-941900</v>
+        <v>-505900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1108500</v>
+        <v>-958200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1398900</v>
+        <v>-1127600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1473500</v>
+        <v>-1423100</v>
       </c>
       <c r="J91" s="3">
+        <v>-1498900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1066100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-611300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-893100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1441200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-967600</v>
+        <v>-1034900</v>
       </c>
       <c r="E94" s="3">
-        <v>-564500</v>
+        <v>-984300</v>
       </c>
       <c r="F94" s="3">
-        <v>-896200</v>
+        <v>-574300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1099800</v>
+        <v>-911700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1392100</v>
+        <v>-1118800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1347500</v>
+        <v>-1416100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1370700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1011700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-472100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-814700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1436200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-90900</v>
+        <v>-310500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-92500</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-156100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-468200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-174800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-109200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-153400</v>
       </c>
-      <c r="G96" s="3">
-        <v>-460200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-171800</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-107400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-153400</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-52000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2661000</v>
+        <v>76300</v>
       </c>
       <c r="E100" s="3">
-        <v>86200</v>
+        <v>-2706900</v>
       </c>
       <c r="F100" s="3">
-        <v>661300</v>
+        <v>87700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1334100</v>
+        <v>672700</v>
       </c>
       <c r="H100" s="3">
-        <v>-427500</v>
+        <v>-1357100</v>
       </c>
       <c r="I100" s="3">
-        <v>341800</v>
+        <v>-434900</v>
       </c>
       <c r="J100" s="3">
+        <v>347700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1092800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1622400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-939600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-197600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39200</v>
+        <v>105600</v>
       </c>
       <c r="E101" s="3">
-        <v>-29200</v>
+        <v>-39900</v>
       </c>
       <c r="F101" s="3">
-        <v>-66100</v>
+        <v>-29800</v>
       </c>
       <c r="G101" s="3">
-        <v>9100</v>
+        <v>-67300</v>
       </c>
       <c r="H101" s="3">
-        <v>-78300</v>
+        <v>9300</v>
       </c>
       <c r="I101" s="3">
-        <v>-122400</v>
+        <v>-79700</v>
       </c>
       <c r="J101" s="3">
+        <v>-124500</v>
+      </c>
+      <c r="K101" s="3">
         <v>29400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>14700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-329300</v>
+        <v>21700</v>
       </c>
       <c r="E102" s="3">
-        <v>313200</v>
+        <v>-335000</v>
       </c>
       <c r="F102" s="3">
-        <v>359800</v>
+        <v>318600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1143100</v>
+        <v>366000</v>
       </c>
       <c r="H102" s="3">
-        <v>791600</v>
+        <v>-1162900</v>
       </c>
       <c r="I102" s="3">
-        <v>41800</v>
+        <v>805200</v>
       </c>
       <c r="J102" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-98300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>203600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-445600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8003500</v>
+        <v>8033100</v>
       </c>
       <c r="E8" s="3">
-        <v>12021300</v>
+        <v>12065800</v>
       </c>
       <c r="F8" s="3">
-        <v>8787100</v>
+        <v>8819600</v>
       </c>
       <c r="G8" s="3">
-        <v>8716900</v>
+        <v>8749200</v>
       </c>
       <c r="H8" s="3">
-        <v>9976600</v>
+        <v>10013500</v>
       </c>
       <c r="I8" s="3">
-        <v>11059500</v>
+        <v>11100500</v>
       </c>
       <c r="J8" s="3">
-        <v>10672400</v>
+        <v>10711800</v>
       </c>
       <c r="K8" s="3">
         <v>11487800</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7952700</v>
+        <v>7982100</v>
       </c>
       <c r="E9" s="3">
-        <v>9077700</v>
+        <v>9111300</v>
       </c>
       <c r="F9" s="3">
-        <v>8048800</v>
+        <v>8078600</v>
       </c>
       <c r="G9" s="3">
-        <v>8702100</v>
+        <v>8734300</v>
       </c>
       <c r="H9" s="3">
-        <v>9064000</v>
+        <v>9097600</v>
       </c>
       <c r="I9" s="3">
-        <v>9080000</v>
+        <v>9113600</v>
       </c>
       <c r="J9" s="3">
-        <v>9553800</v>
+        <v>9589200</v>
       </c>
       <c r="K9" s="3">
         <v>10217800</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>50800</v>
+        <v>51000</v>
       </c>
       <c r="E10" s="3">
-        <v>2943600</v>
+        <v>2954500</v>
       </c>
       <c r="F10" s="3">
-        <v>738300</v>
+        <v>741000</v>
       </c>
       <c r="G10" s="3">
         <v>14800</v>
       </c>
       <c r="H10" s="3">
-        <v>912600</v>
+        <v>915900</v>
       </c>
       <c r="I10" s="3">
-        <v>1979600</v>
+        <v>1986900</v>
       </c>
       <c r="J10" s="3">
-        <v>1118500</v>
+        <v>1122700</v>
       </c>
       <c r="K10" s="3">
         <v>1270000</v>
@@ -858,25 +858,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>417300</v>
+        <v>418800</v>
       </c>
       <c r="E12" s="3">
-        <v>423800</v>
+        <v>425400</v>
       </c>
       <c r="F12" s="3">
-        <v>333600</v>
+        <v>334800</v>
       </c>
       <c r="G12" s="3">
-        <v>318100</v>
+        <v>319300</v>
       </c>
       <c r="H12" s="3">
-        <v>309600</v>
+        <v>310800</v>
       </c>
       <c r="I12" s="3">
-        <v>319600</v>
+        <v>320800</v>
       </c>
       <c r="J12" s="3">
-        <v>294500</v>
+        <v>295600</v>
       </c>
       <c r="K12" s="3">
         <v>283900</v>
@@ -936,25 +936,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="E14" s="3">
-        <v>47400</v>
+        <v>34100</v>
       </c>
       <c r="F14" s="3">
-        <v>17800</v>
+        <v>12900</v>
       </c>
       <c r="G14" s="3">
-        <v>61700</v>
+        <v>74800</v>
       </c>
       <c r="H14" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="I14" s="3">
-        <v>52900</v>
+        <v>53100</v>
       </c>
       <c r="J14" s="3">
-        <v>31600</v>
+        <v>31700</v>
       </c>
       <c r="K14" s="3">
         <v>383500</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8817300</v>
+        <v>8848100</v>
       </c>
       <c r="E17" s="3">
-        <v>10023200</v>
+        <v>10046800</v>
       </c>
       <c r="F17" s="3">
-        <v>8737300</v>
+        <v>8764700</v>
       </c>
       <c r="G17" s="3">
-        <v>9442400</v>
+        <v>9490200</v>
       </c>
       <c r="H17" s="3">
-        <v>9789600</v>
+        <v>9825800</v>
       </c>
       <c r="I17" s="3">
-        <v>9843200</v>
+        <v>9879600</v>
       </c>
       <c r="J17" s="3">
-        <v>10303800</v>
+        <v>10342000</v>
       </c>
       <c r="K17" s="3">
         <v>11312800</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-813800</v>
+        <v>-815000</v>
       </c>
       <c r="E18" s="3">
-        <v>1998100</v>
+        <v>2019000</v>
       </c>
       <c r="F18" s="3">
-        <v>49800</v>
+        <v>54900</v>
       </c>
       <c r="G18" s="3">
-        <v>-725500</v>
+        <v>-741100</v>
       </c>
       <c r="H18" s="3">
-        <v>187000</v>
+        <v>187700</v>
       </c>
       <c r="I18" s="3">
-        <v>1216400</v>
+        <v>1220900</v>
       </c>
       <c r="J18" s="3">
-        <v>368500</v>
+        <v>369900</v>
       </c>
       <c r="K18" s="3">
         <v>175100</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>230200</v>
+        <v>229100</v>
       </c>
       <c r="E20" s="3">
-        <v>227400</v>
+        <v>214700</v>
       </c>
       <c r="F20" s="3">
-        <v>136100</v>
+        <v>131700</v>
       </c>
       <c r="G20" s="3">
-        <v>187300</v>
+        <v>200900</v>
       </c>
       <c r="H20" s="3">
-        <v>263100</v>
+        <v>264100</v>
       </c>
       <c r="I20" s="3">
-        <v>153200</v>
+        <v>153800</v>
       </c>
       <c r="J20" s="3">
-        <v>82100</v>
+        <v>82400</v>
       </c>
       <c r="K20" s="3">
         <v>149800</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>440200</v>
+        <v>436800</v>
       </c>
       <c r="E21" s="3">
-        <v>3320900</v>
+        <v>3327800</v>
       </c>
       <c r="F21" s="3">
-        <v>1337700</v>
+        <v>1337000</v>
       </c>
       <c r="G21" s="3">
-        <v>641700</v>
+        <v>638300</v>
       </c>
       <c r="H21" s="3">
-        <v>1563900</v>
+        <v>1564200</v>
       </c>
       <c r="I21" s="3">
-        <v>2555000</v>
+        <v>2558600</v>
       </c>
       <c r="J21" s="3">
-        <v>1742200</v>
+        <v>1742300</v>
       </c>
       <c r="K21" s="3">
         <v>1820300</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48900</v>
+        <v>49100</v>
       </c>
       <c r="E22" s="3">
-        <v>71900</v>
+        <v>72200</v>
       </c>
       <c r="F22" s="3">
-        <v>95500</v>
+        <v>95800</v>
       </c>
       <c r="G22" s="3">
-        <v>105400</v>
+        <v>105800</v>
       </c>
       <c r="H22" s="3">
-        <v>86400</v>
+        <v>86700</v>
       </c>
       <c r="I22" s="3">
-        <v>93000</v>
+        <v>93300</v>
       </c>
       <c r="J22" s="3">
-        <v>87800</v>
+        <v>88100</v>
       </c>
       <c r="K22" s="3">
         <v>82600</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-632600</v>
+        <v>-634900</v>
       </c>
       <c r="E23" s="3">
-        <v>2153600</v>
+        <v>2161500</v>
       </c>
       <c r="F23" s="3">
-        <v>90400</v>
+        <v>90700</v>
       </c>
       <c r="G23" s="3">
-        <v>-643600</v>
+        <v>-645900</v>
       </c>
       <c r="H23" s="3">
-        <v>363700</v>
+        <v>365100</v>
       </c>
       <c r="I23" s="3">
-        <v>1276600</v>
+        <v>1281300</v>
       </c>
       <c r="J23" s="3">
-        <v>362800</v>
+        <v>364100</v>
       </c>
       <c r="K23" s="3">
         <v>242300</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47600</v>
+        <v>47800</v>
       </c>
       <c r="E24" s="3">
-        <v>95600</v>
+        <v>95900</v>
       </c>
       <c r="F24" s="3">
         <v>-3900</v>
       </c>
       <c r="G24" s="3">
-        <v>56900</v>
+        <v>57100</v>
       </c>
       <c r="H24" s="3">
-        <v>105600</v>
+        <v>106000</v>
       </c>
       <c r="I24" s="3">
-        <v>295300</v>
+        <v>296400</v>
       </c>
       <c r="J24" s="3">
-        <v>148500</v>
+        <v>149100</v>
       </c>
       <c r="K24" s="3">
         <v>87900</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-680200</v>
+        <v>-682700</v>
       </c>
       <c r="E26" s="3">
-        <v>2058000</v>
+        <v>2065600</v>
       </c>
       <c r="F26" s="3">
-        <v>94300</v>
+        <v>94600</v>
       </c>
       <c r="G26" s="3">
-        <v>-700500</v>
+        <v>-703100</v>
       </c>
       <c r="H26" s="3">
-        <v>258100</v>
+        <v>259100</v>
       </c>
       <c r="I26" s="3">
-        <v>981300</v>
+        <v>984900</v>
       </c>
       <c r="J26" s="3">
-        <v>214300</v>
+        <v>215000</v>
       </c>
       <c r="K26" s="3">
         <v>154400</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-684300</v>
+        <v>-686800</v>
       </c>
       <c r="E27" s="3">
-        <v>1989000</v>
+        <v>1996300</v>
       </c>
       <c r="F27" s="3">
-        <v>109500</v>
+        <v>109900</v>
       </c>
       <c r="G27" s="3">
-        <v>-622200</v>
+        <v>-624500</v>
       </c>
       <c r="H27" s="3">
-        <v>329500</v>
+        <v>330700</v>
       </c>
       <c r="I27" s="3">
-        <v>1049400</v>
+        <v>1053300</v>
       </c>
       <c r="J27" s="3">
-        <v>253600</v>
+        <v>254500</v>
       </c>
       <c r="K27" s="3">
         <v>157200</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-230200</v>
+        <v>-229100</v>
       </c>
       <c r="E32" s="3">
-        <v>-227400</v>
+        <v>-214700</v>
       </c>
       <c r="F32" s="3">
-        <v>-136100</v>
+        <v>-131700</v>
       </c>
       <c r="G32" s="3">
-        <v>-187300</v>
+        <v>-200900</v>
       </c>
       <c r="H32" s="3">
-        <v>-263100</v>
+        <v>-264100</v>
       </c>
       <c r="I32" s="3">
-        <v>-153200</v>
+        <v>-153800</v>
       </c>
       <c r="J32" s="3">
-        <v>-82100</v>
+        <v>-82400</v>
       </c>
       <c r="K32" s="3">
         <v>-149800</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-684300</v>
+        <v>-686800</v>
       </c>
       <c r="E33" s="3">
-        <v>1989000</v>
+        <v>1996300</v>
       </c>
       <c r="F33" s="3">
-        <v>109500</v>
+        <v>109900</v>
       </c>
       <c r="G33" s="3">
-        <v>-622200</v>
+        <v>-624500</v>
       </c>
       <c r="H33" s="3">
-        <v>329500</v>
+        <v>330700</v>
       </c>
       <c r="I33" s="3">
-        <v>1049400</v>
+        <v>1053300</v>
       </c>
       <c r="J33" s="3">
-        <v>253600</v>
+        <v>254500</v>
       </c>
       <c r="K33" s="3">
         <v>157200</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-684300</v>
+        <v>-686800</v>
       </c>
       <c r="E35" s="3">
-        <v>1989000</v>
+        <v>1996300</v>
       </c>
       <c r="F35" s="3">
-        <v>109500</v>
+        <v>109900</v>
       </c>
       <c r="G35" s="3">
-        <v>-622200</v>
+        <v>-624500</v>
       </c>
       <c r="H35" s="3">
-        <v>329500</v>
+        <v>330700</v>
       </c>
       <c r="I35" s="3">
-        <v>1049400</v>
+        <v>1053300</v>
       </c>
       <c r="J35" s="3">
-        <v>253600</v>
+        <v>254500</v>
       </c>
       <c r="K35" s="3">
         <v>157200</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2614300</v>
+        <v>2624000</v>
       </c>
       <c r="E41" s="3">
-        <v>2592600</v>
+        <v>2602200</v>
       </c>
       <c r="F41" s="3">
-        <v>2927600</v>
+        <v>2938400</v>
       </c>
       <c r="G41" s="3">
-        <v>2609000</v>
+        <v>2618600</v>
       </c>
       <c r="H41" s="3">
-        <v>2243000</v>
+        <v>2251300</v>
       </c>
       <c r="I41" s="3">
-        <v>3405800</v>
+        <v>3418400</v>
       </c>
       <c r="J41" s="3">
-        <v>2600600</v>
+        <v>2610200</v>
       </c>
       <c r="K41" s="3">
         <v>2514700</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>149000</v>
+        <v>149500</v>
       </c>
       <c r="E42" s="3">
-        <v>395200</v>
+        <v>396700</v>
       </c>
       <c r="F42" s="3">
-        <v>36300</v>
+        <v>36500</v>
       </c>
       <c r="G42" s="3">
-        <v>122600</v>
+        <v>123100</v>
       </c>
       <c r="H42" s="3">
-        <v>100500</v>
+        <v>100900</v>
       </c>
       <c r="I42" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="J42" s="3">
         <v>18200</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>646100</v>
+        <v>648500</v>
       </c>
       <c r="E43" s="3">
-        <v>1999500</v>
+        <v>2006900</v>
       </c>
       <c r="F43" s="3">
-        <v>1520200</v>
+        <v>1525900</v>
       </c>
       <c r="G43" s="3">
-        <v>1043300</v>
+        <v>1047200</v>
       </c>
       <c r="H43" s="3">
-        <v>1539900</v>
+        <v>1545600</v>
       </c>
       <c r="I43" s="3">
-        <v>1319000</v>
+        <v>1323900</v>
       </c>
       <c r="J43" s="3">
-        <v>1566100</v>
+        <v>1571900</v>
       </c>
       <c r="K43" s="3">
         <v>1111600</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>981500</v>
+        <v>985100</v>
       </c>
       <c r="E44" s="3">
-        <v>1118500</v>
+        <v>1122600</v>
       </c>
       <c r="F44" s="3">
-        <v>867600</v>
+        <v>870800</v>
       </c>
       <c r="G44" s="3">
-        <v>760800</v>
+        <v>763600</v>
       </c>
       <c r="H44" s="3">
-        <v>853200</v>
+        <v>856400</v>
       </c>
       <c r="I44" s="3">
-        <v>806000</v>
+        <v>809000</v>
       </c>
       <c r="J44" s="3">
-        <v>897600</v>
+        <v>901000</v>
       </c>
       <c r="K44" s="3">
         <v>1013600</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>155100</v>
+        <v>155700</v>
       </c>
       <c r="E45" s="3">
-        <v>121700</v>
+        <v>122100</v>
       </c>
       <c r="F45" s="3">
-        <v>106800</v>
+        <v>107200</v>
       </c>
       <c r="G45" s="3">
-        <v>108300</v>
+        <v>108700</v>
       </c>
       <c r="H45" s="3">
-        <v>97700</v>
+        <v>98000</v>
       </c>
       <c r="I45" s="3">
-        <v>295400</v>
+        <v>296500</v>
       </c>
       <c r="J45" s="3">
-        <v>214800</v>
+        <v>215600</v>
       </c>
       <c r="K45" s="3">
         <v>150200</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4545900</v>
+        <v>4562800</v>
       </c>
       <c r="E46" s="3">
-        <v>6227400</v>
+        <v>6250500</v>
       </c>
       <c r="F46" s="3">
-        <v>5458500</v>
+        <v>5478700</v>
       </c>
       <c r="G46" s="3">
-        <v>4644000</v>
+        <v>4661200</v>
       </c>
       <c r="H46" s="3">
-        <v>4834300</v>
+        <v>4852200</v>
       </c>
       <c r="I46" s="3">
-        <v>5843100</v>
+        <v>5864700</v>
       </c>
       <c r="J46" s="3">
-        <v>5297300</v>
+        <v>5316900</v>
       </c>
       <c r="K46" s="3">
         <v>5164300</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1091100</v>
+        <v>1095100</v>
       </c>
       <c r="E47" s="3">
-        <v>867700</v>
+        <v>870900</v>
       </c>
       <c r="F47" s="3">
-        <v>651400</v>
+        <v>653800</v>
       </c>
       <c r="G47" s="3">
-        <v>439300</v>
+        <v>440900</v>
       </c>
       <c r="H47" s="3">
-        <v>430200</v>
+        <v>431800</v>
       </c>
       <c r="I47" s="3">
-        <v>322500</v>
+        <v>323700</v>
       </c>
       <c r="J47" s="3">
-        <v>266200</v>
+        <v>267200</v>
       </c>
       <c r="K47" s="3">
         <v>463800</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6162600</v>
+        <v>6185400</v>
       </c>
       <c r="E48" s="3">
-        <v>5944400</v>
+        <v>5966400</v>
       </c>
       <c r="F48" s="3">
-        <v>6430200</v>
+        <v>6454000</v>
       </c>
       <c r="G48" s="3">
-        <v>7150700</v>
+        <v>7177200</v>
       </c>
       <c r="H48" s="3">
-        <v>7209700</v>
+        <v>7236400</v>
       </c>
       <c r="I48" s="3">
-        <v>7317900</v>
+        <v>7344900</v>
       </c>
       <c r="J48" s="3">
-        <v>7238600</v>
+        <v>7265400</v>
       </c>
       <c r="K48" s="3">
         <v>6670900</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>369600</v>
+        <v>370900</v>
       </c>
       <c r="E49" s="3">
-        <v>381300</v>
+        <v>382700</v>
       </c>
       <c r="F49" s="3">
-        <v>415100</v>
+        <v>416700</v>
       </c>
       <c r="G49" s="3">
-        <v>415400</v>
+        <v>416900</v>
       </c>
       <c r="H49" s="3">
-        <v>433800</v>
+        <v>435400</v>
       </c>
       <c r="I49" s="3">
-        <v>427100</v>
+        <v>428700</v>
       </c>
       <c r="J49" s="3">
-        <v>441100</v>
+        <v>442800</v>
       </c>
       <c r="K49" s="3">
         <v>464700</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>376000</v>
+        <v>377400</v>
       </c>
       <c r="E52" s="3">
-        <v>355900</v>
+        <v>357200</v>
       </c>
       <c r="F52" s="3">
-        <v>252500</v>
+        <v>253400</v>
       </c>
       <c r="G52" s="3">
-        <v>246000</v>
+        <v>247000</v>
       </c>
       <c r="H52" s="3">
-        <v>382800</v>
+        <v>384200</v>
       </c>
       <c r="I52" s="3">
-        <v>405700</v>
+        <v>407200</v>
       </c>
       <c r="J52" s="3">
-        <v>694100</v>
+        <v>696700</v>
       </c>
       <c r="K52" s="3">
         <v>802900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12545200</v>
+        <v>12591700</v>
       </c>
       <c r="E54" s="3">
-        <v>13776600</v>
+        <v>13827600</v>
       </c>
       <c r="F54" s="3">
-        <v>13207800</v>
+        <v>13256600</v>
       </c>
       <c r="G54" s="3">
-        <v>12895400</v>
+        <v>12943100</v>
       </c>
       <c r="H54" s="3">
-        <v>13290800</v>
+        <v>13340000</v>
       </c>
       <c r="I54" s="3">
-        <v>14316300</v>
+        <v>14369200</v>
       </c>
       <c r="J54" s="3">
-        <v>13937400</v>
+        <v>13989000</v>
       </c>
       <c r="K54" s="3">
         <v>13566700</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1536200</v>
+        <v>1541900</v>
       </c>
       <c r="E57" s="3">
-        <v>2056000</v>
+        <v>2063700</v>
       </c>
       <c r="F57" s="3">
-        <v>1777500</v>
+        <v>1784100</v>
       </c>
       <c r="G57" s="3">
-        <v>1662300</v>
+        <v>1668500</v>
       </c>
       <c r="H57" s="3">
-        <v>1901100</v>
+        <v>1908100</v>
       </c>
       <c r="I57" s="3">
-        <v>1769200</v>
+        <v>1775700</v>
       </c>
       <c r="J57" s="3">
-        <v>1944900</v>
+        <v>1952100</v>
       </c>
       <c r="K57" s="3">
         <v>1957900</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>473400</v>
+        <v>475100</v>
       </c>
       <c r="E58" s="3">
-        <v>564700</v>
+        <v>566800</v>
       </c>
       <c r="F58" s="3">
-        <v>568300</v>
+        <v>570400</v>
       </c>
       <c r="G58" s="3">
-        <v>387300</v>
+        <v>388800</v>
       </c>
       <c r="H58" s="3">
-        <v>977500</v>
+        <v>981100</v>
       </c>
       <c r="I58" s="3">
-        <v>375500</v>
+        <v>376900</v>
       </c>
       <c r="J58" s="3">
-        <v>603200</v>
+        <v>605500</v>
       </c>
       <c r="K58" s="3">
         <v>1297600</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1141600</v>
+        <v>1145800</v>
       </c>
       <c r="E59" s="3">
-        <v>1392600</v>
+        <v>1397700</v>
       </c>
       <c r="F59" s="3">
-        <v>843200</v>
+        <v>846400</v>
       </c>
       <c r="G59" s="3">
-        <v>886200</v>
+        <v>889500</v>
       </c>
       <c r="H59" s="3">
-        <v>1302900</v>
+        <v>1307700</v>
       </c>
       <c r="I59" s="3">
-        <v>1333000</v>
+        <v>1337900</v>
       </c>
       <c r="J59" s="3">
-        <v>1254800</v>
+        <v>1259500</v>
       </c>
       <c r="K59" s="3">
         <v>1250800</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3151200</v>
+        <v>3162800</v>
       </c>
       <c r="E60" s="3">
-        <v>4013400</v>
+        <v>4028200</v>
       </c>
       <c r="F60" s="3">
-        <v>3189100</v>
+        <v>3200900</v>
       </c>
       <c r="G60" s="3">
-        <v>2935800</v>
+        <v>2946700</v>
       </c>
       <c r="H60" s="3">
-        <v>4181500</v>
+        <v>4196900</v>
       </c>
       <c r="I60" s="3">
-        <v>3477700</v>
+        <v>3490600</v>
       </c>
       <c r="J60" s="3">
-        <v>3802900</v>
+        <v>3817000</v>
       </c>
       <c r="K60" s="3">
         <v>4506200</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2646000</v>
+        <v>2655800</v>
       </c>
       <c r="E61" s="3">
-        <v>1524600</v>
+        <v>1530200</v>
       </c>
       <c r="F61" s="3">
-        <v>3553300</v>
+        <v>3566400</v>
       </c>
       <c r="G61" s="3">
-        <v>3659500</v>
+        <v>3673000</v>
       </c>
       <c r="H61" s="3">
-        <v>1839100</v>
+        <v>1845900</v>
       </c>
       <c r="I61" s="3">
-        <v>3322500</v>
+        <v>3334800</v>
       </c>
       <c r="J61" s="3">
-        <v>3443700</v>
+        <v>3456400</v>
       </c>
       <c r="K61" s="3">
         <v>2185000</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>540600</v>
+        <v>542600</v>
       </c>
       <c r="E62" s="3">
-        <v>521400</v>
+        <v>523300</v>
       </c>
       <c r="F62" s="3">
-        <v>180800</v>
+        <v>181400</v>
       </c>
       <c r="G62" s="3">
-        <v>204000</v>
+        <v>204800</v>
       </c>
       <c r="H62" s="3">
-        <v>224000</v>
+        <v>224800</v>
       </c>
       <c r="I62" s="3">
-        <v>211300</v>
+        <v>212100</v>
       </c>
       <c r="J62" s="3">
-        <v>216600</v>
+        <v>217400</v>
       </c>
       <c r="K62" s="3">
         <v>351700</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6542500</v>
+        <v>6566700</v>
       </c>
       <c r="E66" s="3">
-        <v>6259800</v>
+        <v>6282900</v>
       </c>
       <c r="F66" s="3">
-        <v>7279400</v>
+        <v>7306400</v>
       </c>
       <c r="G66" s="3">
-        <v>7165900</v>
+        <v>7192400</v>
       </c>
       <c r="H66" s="3">
-        <v>6712000</v>
+        <v>6736800</v>
       </c>
       <c r="I66" s="3">
-        <v>7565800</v>
+        <v>7593800</v>
       </c>
       <c r="J66" s="3">
-        <v>8059700</v>
+        <v>8089500</v>
       </c>
       <c r="K66" s="3">
         <v>7765000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1624100</v>
+        <v>1630100</v>
       </c>
       <c r="E72" s="3">
-        <v>2616100</v>
+        <v>2625800</v>
       </c>
       <c r="F72" s="3">
-        <v>981300</v>
+        <v>984900</v>
       </c>
       <c r="G72" s="3">
-        <v>742800</v>
+        <v>745500</v>
       </c>
       <c r="H72" s="3">
-        <v>1519200</v>
+        <v>1524800</v>
       </c>
       <c r="I72" s="3">
-        <v>1657700</v>
+        <v>1663800</v>
       </c>
       <c r="J72" s="3">
-        <v>786200</v>
+        <v>789100</v>
       </c>
       <c r="K72" s="3">
         <v>650600</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6002800</v>
+        <v>6025000</v>
       </c>
       <c r="E76" s="3">
-        <v>7516900</v>
+        <v>7544700</v>
       </c>
       <c r="F76" s="3">
-        <v>5928400</v>
+        <v>5950300</v>
       </c>
       <c r="G76" s="3">
-        <v>5729500</v>
+        <v>5750700</v>
       </c>
       <c r="H76" s="3">
-        <v>6578800</v>
+        <v>6603200</v>
       </c>
       <c r="I76" s="3">
-        <v>6750400</v>
+        <v>6775400</v>
       </c>
       <c r="J76" s="3">
-        <v>5877800</v>
+        <v>5899500</v>
       </c>
       <c r="K76" s="3">
         <v>5801700</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-684300</v>
+        <v>-686800</v>
       </c>
       <c r="E81" s="3">
-        <v>1989000</v>
+        <v>1996300</v>
       </c>
       <c r="F81" s="3">
-        <v>109500</v>
+        <v>109900</v>
       </c>
       <c r="G81" s="3">
-        <v>-622200</v>
+        <v>-624500</v>
       </c>
       <c r="H81" s="3">
-        <v>329500</v>
+        <v>330700</v>
       </c>
       <c r="I81" s="3">
-        <v>1049400</v>
+        <v>1053300</v>
       </c>
       <c r="J81" s="3">
-        <v>253600</v>
+        <v>254500</v>
       </c>
       <c r="K81" s="3">
         <v>157200</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1020500</v>
+        <v>1024200</v>
       </c>
       <c r="E83" s="3">
-        <v>1091700</v>
+        <v>1095800</v>
       </c>
       <c r="F83" s="3">
-        <v>1147900</v>
+        <v>1152200</v>
       </c>
       <c r="G83" s="3">
-        <v>1175800</v>
+        <v>1180200</v>
       </c>
       <c r="H83" s="3">
-        <v>1110000</v>
+        <v>1114100</v>
       </c>
       <c r="I83" s="3">
-        <v>1181400</v>
+        <v>1185800</v>
       </c>
       <c r="J83" s="3">
-        <v>1287300</v>
+        <v>1292000</v>
       </c>
       <c r="K83" s="3">
         <v>1522100</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>874700</v>
+        <v>877900</v>
       </c>
       <c r="E89" s="3">
-        <v>3396100</v>
+        <v>3408700</v>
       </c>
       <c r="F89" s="3">
-        <v>835000</v>
+        <v>838100</v>
       </c>
       <c r="G89" s="3">
-        <v>672300</v>
+        <v>674800</v>
       </c>
       <c r="H89" s="3">
-        <v>1303700</v>
+        <v>1308500</v>
       </c>
       <c r="I89" s="3">
-        <v>2735900</v>
+        <v>2746000</v>
       </c>
       <c r="J89" s="3">
-        <v>1190000</v>
+        <v>1194400</v>
       </c>
       <c r="K89" s="3">
         <v>1976700</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1165900</v>
+        <v>-1170200</v>
       </c>
       <c r="E91" s="3">
-        <v>-552500</v>
+        <v>-554600</v>
       </c>
       <c r="F91" s="3">
-        <v>-505900</v>
+        <v>-507800</v>
       </c>
       <c r="G91" s="3">
-        <v>-958200</v>
+        <v>-961700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1127600</v>
+        <v>-1131800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1423100</v>
+        <v>-1428300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1498900</v>
+        <v>-1504500</v>
       </c>
       <c r="K91" s="3">
         <v>-1066100</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1034900</v>
+        <v>-1038800</v>
       </c>
       <c r="E94" s="3">
-        <v>-984300</v>
+        <v>-987900</v>
       </c>
       <c r="F94" s="3">
-        <v>-574300</v>
+        <v>-576400</v>
       </c>
       <c r="G94" s="3">
-        <v>-911700</v>
+        <v>-915100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1118800</v>
+        <v>-1122900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1416100</v>
+        <v>-1421400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1370700</v>
+        <v>-1375800</v>
       </c>
       <c r="K94" s="3">
         <v>-1011700</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-310500</v>
+        <v>-311700</v>
       </c>
       <c r="E96" s="3">
-        <v>-92500</v>
+        <v>-92800</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-156100</v>
+        <v>-156600</v>
       </c>
       <c r="H96" s="3">
-        <v>-468200</v>
+        <v>-469900</v>
       </c>
       <c r="I96" s="3">
-        <v>-174800</v>
+        <v>-175400</v>
       </c>
       <c r="J96" s="3">
-        <v>-109200</v>
+        <v>-109600</v>
       </c>
       <c r="K96" s="3">
         <v>-153400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>76300</v>
+        <v>76600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2706900</v>
+        <v>-2717000</v>
       </c>
       <c r="F100" s="3">
-        <v>87700</v>
+        <v>88000</v>
       </c>
       <c r="G100" s="3">
-        <v>672700</v>
+        <v>675200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1357100</v>
+        <v>-1362100</v>
       </c>
       <c r="I100" s="3">
-        <v>-434900</v>
+        <v>-436500</v>
       </c>
       <c r="J100" s="3">
-        <v>347700</v>
+        <v>349000</v>
       </c>
       <c r="K100" s="3">
         <v>-1092800</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>105600</v>
+        <v>106000</v>
       </c>
       <c r="E101" s="3">
-        <v>-39900</v>
+        <v>-40100</v>
       </c>
       <c r="F101" s="3">
-        <v>-29800</v>
+        <v>-29900</v>
       </c>
       <c r="G101" s="3">
-        <v>-67300</v>
+        <v>-67500</v>
       </c>
       <c r="H101" s="3">
         <v>9300</v>
       </c>
       <c r="I101" s="3">
-        <v>-79700</v>
+        <v>-79900</v>
       </c>
       <c r="J101" s="3">
-        <v>-124500</v>
+        <v>-125000</v>
       </c>
       <c r="K101" s="3">
         <v>29400</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="E102" s="3">
-        <v>-335000</v>
+        <v>-336200</v>
       </c>
       <c r="F102" s="3">
-        <v>318600</v>
+        <v>319800</v>
       </c>
       <c r="G102" s="3">
-        <v>366000</v>
+        <v>367400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1162900</v>
+        <v>-1167200</v>
       </c>
       <c r="I102" s="3">
-        <v>805200</v>
+        <v>808200</v>
       </c>
       <c r="J102" s="3">
-        <v>42500</v>
+        <v>42700</v>
       </c>
       <c r="K102" s="3">
         <v>-98300</v>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8033100</v>
+        <v>7749300</v>
       </c>
       <c r="E8" s="3">
-        <v>12065800</v>
+        <v>11639500</v>
       </c>
       <c r="F8" s="3">
-        <v>8819600</v>
+        <v>8508000</v>
       </c>
       <c r="G8" s="3">
-        <v>8749200</v>
+        <v>8440100</v>
       </c>
       <c r="H8" s="3">
-        <v>10013500</v>
+        <v>9659700</v>
       </c>
       <c r="I8" s="3">
-        <v>11100500</v>
+        <v>10708300</v>
       </c>
       <c r="J8" s="3">
-        <v>10711800</v>
+        <v>10333400</v>
       </c>
       <c r="K8" s="3">
         <v>11487800</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7982100</v>
+        <v>7700100</v>
       </c>
       <c r="E9" s="3">
-        <v>9111300</v>
+        <v>8789400</v>
       </c>
       <c r="F9" s="3">
-        <v>8078600</v>
+        <v>7793200</v>
       </c>
       <c r="G9" s="3">
-        <v>8734300</v>
+        <v>8425700</v>
       </c>
       <c r="H9" s="3">
-        <v>9097600</v>
+        <v>8776100</v>
       </c>
       <c r="I9" s="3">
-        <v>9113600</v>
+        <v>8791600</v>
       </c>
       <c r="J9" s="3">
-        <v>9589200</v>
+        <v>9250400</v>
       </c>
       <c r="K9" s="3">
         <v>10217800</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>51000</v>
+        <v>49200</v>
       </c>
       <c r="E10" s="3">
-        <v>2954500</v>
+        <v>2850100</v>
       </c>
       <c r="F10" s="3">
-        <v>741000</v>
+        <v>714800</v>
       </c>
       <c r="G10" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="H10" s="3">
-        <v>915900</v>
+        <v>883600</v>
       </c>
       <c r="I10" s="3">
-        <v>1986900</v>
+        <v>1916700</v>
       </c>
       <c r="J10" s="3">
-        <v>1122700</v>
+        <v>1083000</v>
       </c>
       <c r="K10" s="3">
         <v>1270000</v>
@@ -858,25 +858,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>418800</v>
+        <v>404000</v>
       </c>
       <c r="E12" s="3">
-        <v>425400</v>
+        <v>410400</v>
       </c>
       <c r="F12" s="3">
-        <v>334800</v>
+        <v>323000</v>
       </c>
       <c r="G12" s="3">
-        <v>319300</v>
+        <v>308000</v>
       </c>
       <c r="H12" s="3">
-        <v>310800</v>
+        <v>299800</v>
       </c>
       <c r="I12" s="3">
-        <v>320800</v>
+        <v>309400</v>
       </c>
       <c r="J12" s="3">
-        <v>295600</v>
+        <v>285100</v>
       </c>
       <c r="K12" s="3">
         <v>283900</v>
@@ -936,25 +936,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>34800</v>
+        <v>33500</v>
       </c>
       <c r="E14" s="3">
-        <v>34100</v>
+        <v>32900</v>
       </c>
       <c r="F14" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="G14" s="3">
-        <v>74800</v>
+        <v>72200</v>
       </c>
       <c r="H14" s="3">
-        <v>29300</v>
+        <v>28300</v>
       </c>
       <c r="I14" s="3">
-        <v>53100</v>
+        <v>51200</v>
       </c>
       <c r="J14" s="3">
-        <v>31700</v>
+        <v>30600</v>
       </c>
       <c r="K14" s="3">
         <v>383500</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8848100</v>
+        <v>8535500</v>
       </c>
       <c r="E17" s="3">
-        <v>10046800</v>
+        <v>9691800</v>
       </c>
       <c r="F17" s="3">
-        <v>8764700</v>
+        <v>8455000</v>
       </c>
       <c r="G17" s="3">
-        <v>9490200</v>
+        <v>9154900</v>
       </c>
       <c r="H17" s="3">
-        <v>9825800</v>
+        <v>9478600</v>
       </c>
       <c r="I17" s="3">
-        <v>9879600</v>
+        <v>9530500</v>
       </c>
       <c r="J17" s="3">
-        <v>10342000</v>
+        <v>9976600</v>
       </c>
       <c r="K17" s="3">
         <v>11312800</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-815000</v>
+        <v>-786200</v>
       </c>
       <c r="E18" s="3">
-        <v>2019000</v>
+        <v>1947700</v>
       </c>
       <c r="F18" s="3">
-        <v>54900</v>
+        <v>53000</v>
       </c>
       <c r="G18" s="3">
-        <v>-741100</v>
+        <v>-714900</v>
       </c>
       <c r="H18" s="3">
-        <v>187700</v>
+        <v>181100</v>
       </c>
       <c r="I18" s="3">
-        <v>1220900</v>
+        <v>1177700</v>
       </c>
       <c r="J18" s="3">
-        <v>369900</v>
+        <v>356800</v>
       </c>
       <c r="K18" s="3">
         <v>175100</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>229100</v>
+        <v>221100</v>
       </c>
       <c r="E20" s="3">
-        <v>214700</v>
+        <v>207100</v>
       </c>
       <c r="F20" s="3">
-        <v>131700</v>
+        <v>127000</v>
       </c>
       <c r="G20" s="3">
-        <v>200900</v>
+        <v>193800</v>
       </c>
       <c r="H20" s="3">
-        <v>264100</v>
+        <v>254700</v>
       </c>
       <c r="I20" s="3">
-        <v>153800</v>
+        <v>148300</v>
       </c>
       <c r="J20" s="3">
-        <v>82400</v>
+        <v>79500</v>
       </c>
       <c r="K20" s="3">
         <v>149800</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>436800</v>
+        <v>422900</v>
       </c>
       <c r="E21" s="3">
-        <v>3327800</v>
+        <v>3211900</v>
       </c>
       <c r="F21" s="3">
-        <v>1337000</v>
+        <v>1291500</v>
       </c>
       <c r="G21" s="3">
-        <v>638300</v>
+        <v>617500</v>
       </c>
       <c r="H21" s="3">
-        <v>1564200</v>
+        <v>1510600</v>
       </c>
       <c r="I21" s="3">
-        <v>2558600</v>
+        <v>2470000</v>
       </c>
       <c r="J21" s="3">
-        <v>1742300</v>
+        <v>1682600</v>
       </c>
       <c r="K21" s="3">
         <v>1820300</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>49100</v>
+        <v>47400</v>
       </c>
       <c r="E22" s="3">
-        <v>72200</v>
+        <v>69600</v>
       </c>
       <c r="F22" s="3">
-        <v>95800</v>
+        <v>92400</v>
       </c>
       <c r="G22" s="3">
-        <v>105800</v>
+        <v>102100</v>
       </c>
       <c r="H22" s="3">
-        <v>86700</v>
+        <v>83600</v>
       </c>
       <c r="I22" s="3">
-        <v>93300</v>
+        <v>90100</v>
       </c>
       <c r="J22" s="3">
-        <v>88100</v>
+        <v>85000</v>
       </c>
       <c r="K22" s="3">
         <v>82600</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-634900</v>
+        <v>-612500</v>
       </c>
       <c r="E23" s="3">
-        <v>2161500</v>
+        <v>2085200</v>
       </c>
       <c r="F23" s="3">
-        <v>90700</v>
+        <v>87500</v>
       </c>
       <c r="G23" s="3">
-        <v>-645900</v>
+        <v>-623100</v>
       </c>
       <c r="H23" s="3">
-        <v>365100</v>
+        <v>352200</v>
       </c>
       <c r="I23" s="3">
-        <v>1281300</v>
+        <v>1236000</v>
       </c>
       <c r="J23" s="3">
-        <v>364100</v>
+        <v>351200</v>
       </c>
       <c r="K23" s="3">
         <v>242300</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47800</v>
+        <v>46100</v>
       </c>
       <c r="E24" s="3">
-        <v>95900</v>
+        <v>92600</v>
       </c>
       <c r="F24" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="G24" s="3">
-        <v>57100</v>
+        <v>55100</v>
       </c>
       <c r="H24" s="3">
-        <v>106000</v>
+        <v>102200</v>
       </c>
       <c r="I24" s="3">
-        <v>296400</v>
+        <v>285900</v>
       </c>
       <c r="J24" s="3">
-        <v>149100</v>
+        <v>143800</v>
       </c>
       <c r="K24" s="3">
         <v>87900</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-682700</v>
+        <v>-658600</v>
       </c>
       <c r="E26" s="3">
-        <v>2065600</v>
+        <v>1992600</v>
       </c>
       <c r="F26" s="3">
-        <v>94600</v>
+        <v>91300</v>
       </c>
       <c r="G26" s="3">
-        <v>-703100</v>
+        <v>-678200</v>
       </c>
       <c r="H26" s="3">
-        <v>259100</v>
+        <v>249900</v>
       </c>
       <c r="I26" s="3">
-        <v>984900</v>
+        <v>950100</v>
       </c>
       <c r="J26" s="3">
-        <v>215000</v>
+        <v>207500</v>
       </c>
       <c r="K26" s="3">
         <v>154400</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-686800</v>
+        <v>-662600</v>
       </c>
       <c r="E27" s="3">
-        <v>1996300</v>
+        <v>1925800</v>
       </c>
       <c r="F27" s="3">
-        <v>109900</v>
+        <v>106000</v>
       </c>
       <c r="G27" s="3">
-        <v>-624500</v>
+        <v>-602400</v>
       </c>
       <c r="H27" s="3">
-        <v>330700</v>
+        <v>319000</v>
       </c>
       <c r="I27" s="3">
-        <v>1053300</v>
+        <v>1016100</v>
       </c>
       <c r="J27" s="3">
-        <v>254500</v>
+        <v>245500</v>
       </c>
       <c r="K27" s="3">
         <v>157200</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-229100</v>
+        <v>-221100</v>
       </c>
       <c r="E32" s="3">
-        <v>-214700</v>
+        <v>-207100</v>
       </c>
       <c r="F32" s="3">
-        <v>-131700</v>
+        <v>-127000</v>
       </c>
       <c r="G32" s="3">
-        <v>-200900</v>
+        <v>-193800</v>
       </c>
       <c r="H32" s="3">
-        <v>-264100</v>
+        <v>-254700</v>
       </c>
       <c r="I32" s="3">
-        <v>-153800</v>
+        <v>-148300</v>
       </c>
       <c r="J32" s="3">
-        <v>-82400</v>
+        <v>-79500</v>
       </c>
       <c r="K32" s="3">
         <v>-149800</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-686800</v>
+        <v>-662600</v>
       </c>
       <c r="E33" s="3">
-        <v>1996300</v>
+        <v>1925800</v>
       </c>
       <c r="F33" s="3">
-        <v>109900</v>
+        <v>106000</v>
       </c>
       <c r="G33" s="3">
-        <v>-624500</v>
+        <v>-602400</v>
       </c>
       <c r="H33" s="3">
-        <v>330700</v>
+        <v>319000</v>
       </c>
       <c r="I33" s="3">
-        <v>1053300</v>
+        <v>1016100</v>
       </c>
       <c r="J33" s="3">
-        <v>254500</v>
+        <v>245500</v>
       </c>
       <c r="K33" s="3">
         <v>157200</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-686800</v>
+        <v>-662600</v>
       </c>
       <c r="E35" s="3">
-        <v>1996300</v>
+        <v>1925800</v>
       </c>
       <c r="F35" s="3">
-        <v>109900</v>
+        <v>106000</v>
       </c>
       <c r="G35" s="3">
-        <v>-624500</v>
+        <v>-602400</v>
       </c>
       <c r="H35" s="3">
-        <v>330700</v>
+        <v>319000</v>
       </c>
       <c r="I35" s="3">
-        <v>1053300</v>
+        <v>1016100</v>
       </c>
       <c r="J35" s="3">
-        <v>254500</v>
+        <v>245500</v>
       </c>
       <c r="K35" s="3">
         <v>157200</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2624000</v>
+        <v>2531300</v>
       </c>
       <c r="E41" s="3">
-        <v>2602200</v>
+        <v>2510300</v>
       </c>
       <c r="F41" s="3">
-        <v>2938400</v>
+        <v>2834600</v>
       </c>
       <c r="G41" s="3">
-        <v>2618600</v>
+        <v>2526100</v>
       </c>
       <c r="H41" s="3">
-        <v>2251300</v>
+        <v>2171700</v>
       </c>
       <c r="I41" s="3">
-        <v>3418400</v>
+        <v>3297600</v>
       </c>
       <c r="J41" s="3">
-        <v>2610200</v>
+        <v>2518000</v>
       </c>
       <c r="K41" s="3">
         <v>2514700</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>149500</v>
+        <v>144200</v>
       </c>
       <c r="E42" s="3">
-        <v>396700</v>
+        <v>382700</v>
       </c>
       <c r="F42" s="3">
-        <v>36500</v>
+        <v>35200</v>
       </c>
       <c r="G42" s="3">
-        <v>123100</v>
+        <v>118700</v>
       </c>
       <c r="H42" s="3">
-        <v>100900</v>
+        <v>97300</v>
       </c>
       <c r="I42" s="3">
-        <v>16900</v>
+        <v>16300</v>
       </c>
       <c r="J42" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="K42" s="3">
         <v>374100</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>648500</v>
+        <v>625600</v>
       </c>
       <c r="E43" s="3">
-        <v>2006900</v>
+        <v>1936000</v>
       </c>
       <c r="F43" s="3">
-        <v>1525900</v>
+        <v>1472000</v>
       </c>
       <c r="G43" s="3">
-        <v>1047200</v>
+        <v>1010200</v>
       </c>
       <c r="H43" s="3">
-        <v>1545600</v>
+        <v>1491000</v>
       </c>
       <c r="I43" s="3">
-        <v>1323900</v>
+        <v>1277100</v>
       </c>
       <c r="J43" s="3">
-        <v>1571900</v>
+        <v>1516400</v>
       </c>
       <c r="K43" s="3">
         <v>1111600</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>985100</v>
+        <v>950300</v>
       </c>
       <c r="E44" s="3">
-        <v>1122600</v>
+        <v>1083000</v>
       </c>
       <c r="F44" s="3">
-        <v>870800</v>
+        <v>840100</v>
       </c>
       <c r="G44" s="3">
-        <v>763600</v>
+        <v>736600</v>
       </c>
       <c r="H44" s="3">
-        <v>856400</v>
+        <v>826100</v>
       </c>
       <c r="I44" s="3">
-        <v>809000</v>
+        <v>780400</v>
       </c>
       <c r="J44" s="3">
-        <v>901000</v>
+        <v>869100</v>
       </c>
       <c r="K44" s="3">
         <v>1013600</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>155700</v>
+        <v>150200</v>
       </c>
       <c r="E45" s="3">
-        <v>122100</v>
+        <v>117800</v>
       </c>
       <c r="F45" s="3">
-        <v>107200</v>
+        <v>103400</v>
       </c>
       <c r="G45" s="3">
-        <v>108700</v>
+        <v>104800</v>
       </c>
       <c r="H45" s="3">
-        <v>98000</v>
+        <v>94600</v>
       </c>
       <c r="I45" s="3">
-        <v>296500</v>
+        <v>286000</v>
       </c>
       <c r="J45" s="3">
-        <v>215600</v>
+        <v>208000</v>
       </c>
       <c r="K45" s="3">
         <v>150200</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4562800</v>
+        <v>4401600</v>
       </c>
       <c r="E46" s="3">
-        <v>6250500</v>
+        <v>6029600</v>
       </c>
       <c r="F46" s="3">
-        <v>5478700</v>
+        <v>5285200</v>
       </c>
       <c r="G46" s="3">
-        <v>4661200</v>
+        <v>4496500</v>
       </c>
       <c r="H46" s="3">
-        <v>4852200</v>
+        <v>4680700</v>
       </c>
       <c r="I46" s="3">
-        <v>5864700</v>
+        <v>5657500</v>
       </c>
       <c r="J46" s="3">
-        <v>5316900</v>
+        <v>5129100</v>
       </c>
       <c r="K46" s="3">
         <v>5164300</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1095100</v>
+        <v>1056400</v>
       </c>
       <c r="E47" s="3">
-        <v>870900</v>
+        <v>840100</v>
       </c>
       <c r="F47" s="3">
-        <v>653800</v>
+        <v>630700</v>
       </c>
       <c r="G47" s="3">
-        <v>440900</v>
+        <v>425300</v>
       </c>
       <c r="H47" s="3">
-        <v>431800</v>
+        <v>416500</v>
       </c>
       <c r="I47" s="3">
-        <v>323700</v>
+        <v>312300</v>
       </c>
       <c r="J47" s="3">
-        <v>267200</v>
+        <v>257800</v>
       </c>
       <c r="K47" s="3">
         <v>463800</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6185400</v>
+        <v>5966900</v>
       </c>
       <c r="E48" s="3">
-        <v>5966400</v>
+        <v>5755600</v>
       </c>
       <c r="F48" s="3">
-        <v>6454000</v>
+        <v>6226000</v>
       </c>
       <c r="G48" s="3">
-        <v>7177200</v>
+        <v>6923600</v>
       </c>
       <c r="H48" s="3">
-        <v>7236400</v>
+        <v>6980700</v>
       </c>
       <c r="I48" s="3">
-        <v>7344900</v>
+        <v>7085400</v>
       </c>
       <c r="J48" s="3">
-        <v>7265400</v>
+        <v>7008700</v>
       </c>
       <c r="K48" s="3">
         <v>6670900</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>370900</v>
+        <v>357800</v>
       </c>
       <c r="E49" s="3">
-        <v>382700</v>
+        <v>369200</v>
       </c>
       <c r="F49" s="3">
-        <v>416700</v>
+        <v>402000</v>
       </c>
       <c r="G49" s="3">
-        <v>416900</v>
+        <v>402200</v>
       </c>
       <c r="H49" s="3">
-        <v>435400</v>
+        <v>420000</v>
       </c>
       <c r="I49" s="3">
-        <v>428700</v>
+        <v>413600</v>
       </c>
       <c r="J49" s="3">
-        <v>442800</v>
+        <v>427100</v>
       </c>
       <c r="K49" s="3">
         <v>464700</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>377400</v>
+        <v>364100</v>
       </c>
       <c r="E52" s="3">
-        <v>357200</v>
+        <v>344600</v>
       </c>
       <c r="F52" s="3">
-        <v>253400</v>
+        <v>244400</v>
       </c>
       <c r="G52" s="3">
-        <v>247000</v>
+        <v>238200</v>
       </c>
       <c r="H52" s="3">
-        <v>384200</v>
+        <v>370700</v>
       </c>
       <c r="I52" s="3">
-        <v>407200</v>
+        <v>392800</v>
       </c>
       <c r="J52" s="3">
-        <v>696700</v>
+        <v>672100</v>
       </c>
       <c r="K52" s="3">
         <v>802900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12591700</v>
+        <v>12146800</v>
       </c>
       <c r="E54" s="3">
-        <v>13827600</v>
+        <v>13339100</v>
       </c>
       <c r="F54" s="3">
-        <v>13256600</v>
+        <v>12788300</v>
       </c>
       <c r="G54" s="3">
-        <v>12943100</v>
+        <v>12485800</v>
       </c>
       <c r="H54" s="3">
-        <v>13340000</v>
+        <v>12868700</v>
       </c>
       <c r="I54" s="3">
-        <v>14369200</v>
+        <v>13861600</v>
       </c>
       <c r="J54" s="3">
-        <v>13989000</v>
+        <v>13494800</v>
       </c>
       <c r="K54" s="3">
         <v>13566700</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1541900</v>
+        <v>1487400</v>
       </c>
       <c r="E57" s="3">
-        <v>2063700</v>
+        <v>1990700</v>
       </c>
       <c r="F57" s="3">
-        <v>1784100</v>
+        <v>1721100</v>
       </c>
       <c r="G57" s="3">
-        <v>1668500</v>
+        <v>1609500</v>
       </c>
       <c r="H57" s="3">
-        <v>1908100</v>
+        <v>1840700</v>
       </c>
       <c r="I57" s="3">
-        <v>1775700</v>
+        <v>1713000</v>
       </c>
       <c r="J57" s="3">
-        <v>1952100</v>
+        <v>1883100</v>
       </c>
       <c r="K57" s="3">
         <v>1957900</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>475100</v>
+        <v>458300</v>
       </c>
       <c r="E58" s="3">
-        <v>566800</v>
+        <v>546800</v>
       </c>
       <c r="F58" s="3">
-        <v>570400</v>
+        <v>550300</v>
       </c>
       <c r="G58" s="3">
-        <v>388800</v>
+        <v>375000</v>
       </c>
       <c r="H58" s="3">
-        <v>981100</v>
+        <v>946500</v>
       </c>
       <c r="I58" s="3">
-        <v>376900</v>
+        <v>363600</v>
       </c>
       <c r="J58" s="3">
-        <v>605500</v>
+        <v>584100</v>
       </c>
       <c r="K58" s="3">
         <v>1297600</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1145800</v>
+        <v>1105300</v>
       </c>
       <c r="E59" s="3">
-        <v>1397700</v>
+        <v>1348400</v>
       </c>
       <c r="F59" s="3">
-        <v>846400</v>
+        <v>816500</v>
       </c>
       <c r="G59" s="3">
-        <v>889500</v>
+        <v>858100</v>
       </c>
       <c r="H59" s="3">
-        <v>1307700</v>
+        <v>1261500</v>
       </c>
       <c r="I59" s="3">
-        <v>1337900</v>
+        <v>1290700</v>
       </c>
       <c r="J59" s="3">
-        <v>1259500</v>
+        <v>1215000</v>
       </c>
       <c r="K59" s="3">
         <v>1250800</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3162800</v>
+        <v>3051100</v>
       </c>
       <c r="E60" s="3">
-        <v>4028200</v>
+        <v>3885900</v>
       </c>
       <c r="F60" s="3">
-        <v>3200900</v>
+        <v>3087800</v>
       </c>
       <c r="G60" s="3">
-        <v>2946700</v>
+        <v>2842600</v>
       </c>
       <c r="H60" s="3">
-        <v>4196900</v>
+        <v>4048700</v>
       </c>
       <c r="I60" s="3">
-        <v>3490600</v>
+        <v>3367200</v>
       </c>
       <c r="J60" s="3">
-        <v>3817000</v>
+        <v>3682200</v>
       </c>
       <c r="K60" s="3">
         <v>4506200</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2655800</v>
+        <v>2562000</v>
       </c>
       <c r="E61" s="3">
-        <v>1530200</v>
+        <v>1476200</v>
       </c>
       <c r="F61" s="3">
-        <v>3566400</v>
+        <v>3440400</v>
       </c>
       <c r="G61" s="3">
-        <v>3673000</v>
+        <v>3543200</v>
       </c>
       <c r="H61" s="3">
-        <v>1845900</v>
+        <v>1780700</v>
       </c>
       <c r="I61" s="3">
-        <v>3334800</v>
+        <v>3217000</v>
       </c>
       <c r="J61" s="3">
-        <v>3456400</v>
+        <v>3334300</v>
       </c>
       <c r="K61" s="3">
         <v>2185000</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>542600</v>
+        <v>523400</v>
       </c>
       <c r="E62" s="3">
-        <v>523300</v>
+        <v>504900</v>
       </c>
       <c r="F62" s="3">
-        <v>181400</v>
+        <v>175000</v>
       </c>
       <c r="G62" s="3">
-        <v>204800</v>
+        <v>197500</v>
       </c>
       <c r="H62" s="3">
-        <v>224800</v>
+        <v>216800</v>
       </c>
       <c r="I62" s="3">
-        <v>212100</v>
+        <v>204600</v>
       </c>
       <c r="J62" s="3">
-        <v>217400</v>
+        <v>209700</v>
       </c>
       <c r="K62" s="3">
         <v>351700</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6566700</v>
+        <v>6334700</v>
       </c>
       <c r="E66" s="3">
-        <v>6282900</v>
+        <v>6061000</v>
       </c>
       <c r="F66" s="3">
-        <v>7306400</v>
+        <v>7048200</v>
       </c>
       <c r="G66" s="3">
-        <v>7192400</v>
+        <v>6938300</v>
       </c>
       <c r="H66" s="3">
-        <v>6736800</v>
+        <v>6498800</v>
       </c>
       <c r="I66" s="3">
-        <v>7593800</v>
+        <v>7325500</v>
       </c>
       <c r="J66" s="3">
-        <v>8089500</v>
+        <v>7803700</v>
       </c>
       <c r="K66" s="3">
         <v>7765000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1630100</v>
+        <v>1572500</v>
       </c>
       <c r="E72" s="3">
-        <v>2625800</v>
+        <v>2533000</v>
       </c>
       <c r="F72" s="3">
-        <v>984900</v>
+        <v>950100</v>
       </c>
       <c r="G72" s="3">
-        <v>745500</v>
+        <v>719200</v>
       </c>
       <c r="H72" s="3">
-        <v>1524800</v>
+        <v>1471000</v>
       </c>
       <c r="I72" s="3">
-        <v>1663800</v>
+        <v>1605000</v>
       </c>
       <c r="J72" s="3">
-        <v>789100</v>
+        <v>761200</v>
       </c>
       <c r="K72" s="3">
         <v>650600</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6025000</v>
+        <v>5812100</v>
       </c>
       <c r="E76" s="3">
-        <v>7544700</v>
+        <v>7278100</v>
       </c>
       <c r="F76" s="3">
-        <v>5950300</v>
+        <v>5740100</v>
       </c>
       <c r="G76" s="3">
-        <v>5750700</v>
+        <v>5547500</v>
       </c>
       <c r="H76" s="3">
-        <v>6603200</v>
+        <v>6369900</v>
       </c>
       <c r="I76" s="3">
-        <v>6775400</v>
+        <v>6536000</v>
       </c>
       <c r="J76" s="3">
-        <v>5899500</v>
+        <v>5691100</v>
       </c>
       <c r="K76" s="3">
         <v>5801700</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-686800</v>
+        <v>-662600</v>
       </c>
       <c r="E81" s="3">
-        <v>1996300</v>
+        <v>1925800</v>
       </c>
       <c r="F81" s="3">
-        <v>109900</v>
+        <v>106000</v>
       </c>
       <c r="G81" s="3">
-        <v>-624500</v>
+        <v>-602400</v>
       </c>
       <c r="H81" s="3">
-        <v>330700</v>
+        <v>319000</v>
       </c>
       <c r="I81" s="3">
-        <v>1053300</v>
+        <v>1016100</v>
       </c>
       <c r="J81" s="3">
-        <v>254500</v>
+        <v>245500</v>
       </c>
       <c r="K81" s="3">
         <v>157200</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1024200</v>
+        <v>988000</v>
       </c>
       <c r="E83" s="3">
-        <v>1095800</v>
+        <v>1057100</v>
       </c>
       <c r="F83" s="3">
-        <v>1152200</v>
+        <v>1111500</v>
       </c>
       <c r="G83" s="3">
-        <v>1180200</v>
+        <v>1138500</v>
       </c>
       <c r="H83" s="3">
-        <v>1114100</v>
+        <v>1074700</v>
       </c>
       <c r="I83" s="3">
-        <v>1185800</v>
+        <v>1143900</v>
       </c>
       <c r="J83" s="3">
-        <v>1292000</v>
+        <v>1246400</v>
       </c>
       <c r="K83" s="3">
         <v>1522100</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>877900</v>
+        <v>846900</v>
       </c>
       <c r="E89" s="3">
-        <v>3408700</v>
+        <v>3288200</v>
       </c>
       <c r="F89" s="3">
-        <v>838100</v>
+        <v>808500</v>
       </c>
       <c r="G89" s="3">
-        <v>674800</v>
+        <v>650900</v>
       </c>
       <c r="H89" s="3">
-        <v>1308500</v>
+        <v>1262300</v>
       </c>
       <c r="I89" s="3">
-        <v>2746000</v>
+        <v>2649000</v>
       </c>
       <c r="J89" s="3">
-        <v>1194400</v>
+        <v>1152200</v>
       </c>
       <c r="K89" s="3">
         <v>1976700</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1170200</v>
+        <v>-1128800</v>
       </c>
       <c r="E91" s="3">
-        <v>-554600</v>
+        <v>-535000</v>
       </c>
       <c r="F91" s="3">
-        <v>-507800</v>
+        <v>-489900</v>
       </c>
       <c r="G91" s="3">
-        <v>-961700</v>
+        <v>-927800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1131800</v>
+        <v>-1091800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1428300</v>
+        <v>-1377900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1504500</v>
+        <v>-1451300</v>
       </c>
       <c r="K91" s="3">
         <v>-1066100</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1038800</v>
+        <v>-1002100</v>
       </c>
       <c r="E94" s="3">
-        <v>-987900</v>
+        <v>-953000</v>
       </c>
       <c r="F94" s="3">
-        <v>-576400</v>
+        <v>-556000</v>
       </c>
       <c r="G94" s="3">
-        <v>-915100</v>
+        <v>-882700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1122900</v>
+        <v>-1083200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1421400</v>
+        <v>-1371200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1375800</v>
+        <v>-1327200</v>
       </c>
       <c r="K94" s="3">
         <v>-1011700</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-311700</v>
+        <v>-300700</v>
       </c>
       <c r="E96" s="3">
-        <v>-92800</v>
+        <v>-89500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-156600</v>
+        <v>-151100</v>
       </c>
       <c r="H96" s="3">
-        <v>-469900</v>
+        <v>-453300</v>
       </c>
       <c r="I96" s="3">
-        <v>-175400</v>
+        <v>-169200</v>
       </c>
       <c r="J96" s="3">
-        <v>-109600</v>
+        <v>-105800</v>
       </c>
       <c r="K96" s="3">
         <v>-153400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>76600</v>
+        <v>73900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2717000</v>
+        <v>-2621000</v>
       </c>
       <c r="F100" s="3">
-        <v>88000</v>
+        <v>84900</v>
       </c>
       <c r="G100" s="3">
-        <v>675200</v>
+        <v>651300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1362100</v>
+        <v>-1314000</v>
       </c>
       <c r="I100" s="3">
-        <v>-436500</v>
+        <v>-421100</v>
       </c>
       <c r="J100" s="3">
-        <v>349000</v>
+        <v>336600</v>
       </c>
       <c r="K100" s="3">
         <v>-1092800</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>106000</v>
+        <v>102200</v>
       </c>
       <c r="E101" s="3">
-        <v>-40100</v>
+        <v>-38600</v>
       </c>
       <c r="F101" s="3">
-        <v>-29900</v>
+        <v>-28800</v>
       </c>
       <c r="G101" s="3">
-        <v>-67500</v>
+        <v>-65100</v>
       </c>
       <c r="H101" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="I101" s="3">
-        <v>-79900</v>
+        <v>-77100</v>
       </c>
       <c r="J101" s="3">
-        <v>-125000</v>
+        <v>-120600</v>
       </c>
       <c r="K101" s="3">
         <v>29400</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21800</v>
+        <v>21000</v>
       </c>
       <c r="E102" s="3">
-        <v>-336200</v>
+        <v>-324400</v>
       </c>
       <c r="F102" s="3">
-        <v>319800</v>
+        <v>308500</v>
       </c>
       <c r="G102" s="3">
-        <v>367400</v>
+        <v>354400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1167200</v>
+        <v>-1125900</v>
       </c>
       <c r="I102" s="3">
-        <v>808200</v>
+        <v>779600</v>
       </c>
       <c r="J102" s="3">
-        <v>42700</v>
+        <v>41200</v>
       </c>
       <c r="K102" s="3">
         <v>-98300</v>

--- a/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AUOTY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7749300</v>
+        <v>7737000</v>
       </c>
       <c r="E8" s="3">
-        <v>11639500</v>
+        <v>11621000</v>
       </c>
       <c r="F8" s="3">
-        <v>8508000</v>
+        <v>8494500</v>
       </c>
       <c r="G8" s="3">
-        <v>8440100</v>
+        <v>8426600</v>
       </c>
       <c r="H8" s="3">
-        <v>9659700</v>
+        <v>9644300</v>
       </c>
       <c r="I8" s="3">
-        <v>10708300</v>
+        <v>10691200</v>
       </c>
       <c r="J8" s="3">
-        <v>10333400</v>
+        <v>10316900</v>
       </c>
       <c r="K8" s="3">
         <v>11487800</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7700100</v>
+        <v>7687800</v>
       </c>
       <c r="E9" s="3">
-        <v>8789400</v>
+        <v>8775400</v>
       </c>
       <c r="F9" s="3">
-        <v>7793200</v>
+        <v>7780800</v>
       </c>
       <c r="G9" s="3">
-        <v>8425700</v>
+        <v>8412300</v>
       </c>
       <c r="H9" s="3">
-        <v>8776100</v>
+        <v>8762200</v>
       </c>
       <c r="I9" s="3">
-        <v>8791600</v>
+        <v>8777600</v>
       </c>
       <c r="J9" s="3">
-        <v>9250400</v>
+        <v>9235600</v>
       </c>
       <c r="K9" s="3">
         <v>10217800</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>49200</v>
+        <v>49100</v>
       </c>
       <c r="E10" s="3">
-        <v>2850100</v>
+        <v>2845600</v>
       </c>
       <c r="F10" s="3">
-        <v>714800</v>
+        <v>713700</v>
       </c>
       <c r="G10" s="3">
         <v>14300</v>
       </c>
       <c r="H10" s="3">
-        <v>883600</v>
+        <v>882200</v>
       </c>
       <c r="I10" s="3">
-        <v>1916700</v>
+        <v>1913700</v>
       </c>
       <c r="J10" s="3">
-        <v>1083000</v>
+        <v>1081300</v>
       </c>
       <c r="K10" s="3">
         <v>1270000</v>
@@ -858,25 +858,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>404000</v>
+        <v>403400</v>
       </c>
       <c r="E12" s="3">
-        <v>410400</v>
+        <v>409700</v>
       </c>
       <c r="F12" s="3">
-        <v>323000</v>
+        <v>322500</v>
       </c>
       <c r="G12" s="3">
-        <v>308000</v>
+        <v>307500</v>
       </c>
       <c r="H12" s="3">
-        <v>299800</v>
+        <v>299300</v>
       </c>
       <c r="I12" s="3">
-        <v>309400</v>
+        <v>308900</v>
       </c>
       <c r="J12" s="3">
-        <v>285100</v>
+        <v>284700</v>
       </c>
       <c r="K12" s="3">
         <v>283900</v>
@@ -939,19 +939,19 @@
         <v>33500</v>
       </c>
       <c r="E14" s="3">
-        <v>32900</v>
+        <v>32800</v>
       </c>
       <c r="F14" s="3">
         <v>12400</v>
       </c>
       <c r="G14" s="3">
-        <v>72200</v>
+        <v>72100</v>
       </c>
       <c r="H14" s="3">
         <v>28300</v>
       </c>
       <c r="I14" s="3">
-        <v>51200</v>
+        <v>51100</v>
       </c>
       <c r="J14" s="3">
         <v>30600</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8535500</v>
+        <v>8521900</v>
       </c>
       <c r="E17" s="3">
-        <v>9691800</v>
+        <v>9676400</v>
       </c>
       <c r="F17" s="3">
-        <v>8455000</v>
+        <v>8441600</v>
       </c>
       <c r="G17" s="3">
-        <v>9154900</v>
+        <v>9140400</v>
       </c>
       <c r="H17" s="3">
-        <v>9478600</v>
+        <v>9463600</v>
       </c>
       <c r="I17" s="3">
-        <v>9530500</v>
+        <v>9515400</v>
       </c>
       <c r="J17" s="3">
-        <v>9976600</v>
+        <v>9960700</v>
       </c>
       <c r="K17" s="3">
         <v>11312800</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-786200</v>
+        <v>-784900</v>
       </c>
       <c r="E18" s="3">
-        <v>1947700</v>
+        <v>1944600</v>
       </c>
       <c r="F18" s="3">
-        <v>53000</v>
+        <v>52900</v>
       </c>
       <c r="G18" s="3">
-        <v>-714900</v>
+        <v>-713700</v>
       </c>
       <c r="H18" s="3">
-        <v>181100</v>
+        <v>180800</v>
       </c>
       <c r="I18" s="3">
-        <v>1177700</v>
+        <v>1175900</v>
       </c>
       <c r="J18" s="3">
-        <v>356800</v>
+        <v>356200</v>
       </c>
       <c r="K18" s="3">
         <v>175100</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>221100</v>
+        <v>220700</v>
       </c>
       <c r="E20" s="3">
-        <v>207100</v>
+        <v>206800</v>
       </c>
       <c r="F20" s="3">
-        <v>127000</v>
+        <v>126800</v>
       </c>
       <c r="G20" s="3">
-        <v>193800</v>
+        <v>193500</v>
       </c>
       <c r="H20" s="3">
-        <v>254700</v>
+        <v>254300</v>
       </c>
       <c r="I20" s="3">
-        <v>148300</v>
+        <v>148100</v>
       </c>
       <c r="J20" s="3">
-        <v>79500</v>
+        <v>79300</v>
       </c>
       <c r="K20" s="3">
         <v>149800</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>422900</v>
+        <v>420000</v>
       </c>
       <c r="E21" s="3">
-        <v>3211900</v>
+        <v>3204400</v>
       </c>
       <c r="F21" s="3">
-        <v>1291500</v>
+        <v>1286900</v>
       </c>
       <c r="G21" s="3">
-        <v>617500</v>
+        <v>613900</v>
       </c>
       <c r="H21" s="3">
-        <v>1510600</v>
+        <v>1505800</v>
       </c>
       <c r="I21" s="3">
-        <v>2470000</v>
+        <v>2463500</v>
       </c>
       <c r="J21" s="3">
-        <v>1682600</v>
+        <v>1677200</v>
       </c>
       <c r="K21" s="3">
         <v>1820300</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47400</v>
+        <v>47300</v>
       </c>
       <c r="E22" s="3">
-        <v>69600</v>
+        <v>69500</v>
       </c>
       <c r="F22" s="3">
-        <v>92400</v>
+        <v>92300</v>
       </c>
       <c r="G22" s="3">
-        <v>102100</v>
+        <v>101900</v>
       </c>
       <c r="H22" s="3">
-        <v>83600</v>
+        <v>83500</v>
       </c>
       <c r="I22" s="3">
-        <v>90100</v>
+        <v>89900</v>
       </c>
       <c r="J22" s="3">
-        <v>85000</v>
+        <v>84900</v>
       </c>
       <c r="K22" s="3">
         <v>82600</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-612500</v>
+        <v>-611500</v>
       </c>
       <c r="E23" s="3">
-        <v>2085200</v>
+        <v>2081900</v>
       </c>
       <c r="F23" s="3">
-        <v>87500</v>
+        <v>87400</v>
       </c>
       <c r="G23" s="3">
-        <v>-623100</v>
+        <v>-622100</v>
       </c>
       <c r="H23" s="3">
-        <v>352200</v>
+        <v>351600</v>
       </c>
       <c r="I23" s="3">
-        <v>1236000</v>
+        <v>1234000</v>
       </c>
       <c r="J23" s="3">
-        <v>351200</v>
+        <v>350700</v>
       </c>
       <c r="K23" s="3">
         <v>242300</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46100</v>
+        <v>46000</v>
       </c>
       <c r="E24" s="3">
-        <v>92600</v>
+        <v>92400</v>
       </c>
       <c r="F24" s="3">
         <v>-3800</v>
       </c>
       <c r="G24" s="3">
-        <v>55100</v>
+        <v>55000</v>
       </c>
       <c r="H24" s="3">
-        <v>102200</v>
+        <v>102100</v>
       </c>
       <c r="I24" s="3">
-        <v>285900</v>
+        <v>285400</v>
       </c>
       <c r="J24" s="3">
-        <v>143800</v>
+        <v>143600</v>
       </c>
       <c r="K24" s="3">
         <v>87900</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-658600</v>
+        <v>-657500</v>
       </c>
       <c r="E26" s="3">
-        <v>1992600</v>
+        <v>1989400</v>
       </c>
       <c r="F26" s="3">
-        <v>91300</v>
+        <v>91100</v>
       </c>
       <c r="G26" s="3">
-        <v>-678200</v>
+        <v>-677100</v>
       </c>
       <c r="H26" s="3">
-        <v>249900</v>
+        <v>249500</v>
       </c>
       <c r="I26" s="3">
-        <v>950100</v>
+        <v>948600</v>
       </c>
       <c r="J26" s="3">
-        <v>207500</v>
+        <v>207100</v>
       </c>
       <c r="K26" s="3">
         <v>154400</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-662600</v>
+        <v>-661500</v>
       </c>
       <c r="E27" s="3">
-        <v>1925800</v>
+        <v>1922700</v>
       </c>
       <c r="F27" s="3">
-        <v>106000</v>
+        <v>105800</v>
       </c>
       <c r="G27" s="3">
-        <v>-602400</v>
+        <v>-601500</v>
       </c>
       <c r="H27" s="3">
-        <v>319000</v>
+        <v>318500</v>
       </c>
       <c r="I27" s="3">
-        <v>1016100</v>
+        <v>1014500</v>
       </c>
       <c r="J27" s="3">
-        <v>245500</v>
+        <v>245100</v>
       </c>
       <c r="K27" s="3">
         <v>157200</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-221100</v>
+        <v>-220700</v>
       </c>
       <c r="E32" s="3">
-        <v>-207100</v>
+        <v>-206800</v>
       </c>
       <c r="F32" s="3">
-        <v>-127000</v>
+        <v>-126800</v>
       </c>
       <c r="G32" s="3">
-        <v>-193800</v>
+        <v>-193500</v>
       </c>
       <c r="H32" s="3">
-        <v>-254700</v>
+        <v>-254300</v>
       </c>
       <c r="I32" s="3">
-        <v>-148300</v>
+        <v>-148100</v>
       </c>
       <c r="J32" s="3">
-        <v>-79500</v>
+        <v>-79300</v>
       </c>
       <c r="K32" s="3">
         <v>-149800</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-662600</v>
+        <v>-661500</v>
       </c>
       <c r="E33" s="3">
-        <v>1925800</v>
+        <v>1922700</v>
       </c>
       <c r="F33" s="3">
-        <v>106000</v>
+        <v>105800</v>
       </c>
       <c r="G33" s="3">
-        <v>-602400</v>
+        <v>-601500</v>
       </c>
       <c r="H33" s="3">
-        <v>319000</v>
+        <v>318500</v>
       </c>
       <c r="I33" s="3">
-        <v>1016100</v>
+        <v>1014500</v>
       </c>
       <c r="J33" s="3">
-        <v>245500</v>
+        <v>245100</v>
       </c>
       <c r="K33" s="3">
         <v>157200</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-662600</v>
+        <v>-661500</v>
       </c>
       <c r="E35" s="3">
-        <v>1925800</v>
+        <v>1922700</v>
       </c>
       <c r="F35" s="3">
-        <v>106000</v>
+        <v>105800</v>
       </c>
       <c r="G35" s="3">
-        <v>-602400</v>
+        <v>-601500</v>
       </c>
       <c r="H35" s="3">
-        <v>319000</v>
+        <v>318500</v>
       </c>
       <c r="I35" s="3">
-        <v>1016100</v>
+        <v>1014500</v>
       </c>
       <c r="J35" s="3">
-        <v>245500</v>
+        <v>245100</v>
       </c>
       <c r="K35" s="3">
         <v>157200</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2531300</v>
+        <v>2527200</v>
       </c>
       <c r="E41" s="3">
-        <v>2510300</v>
+        <v>2506300</v>
       </c>
       <c r="F41" s="3">
-        <v>2834600</v>
+        <v>2830100</v>
       </c>
       <c r="G41" s="3">
-        <v>2526100</v>
+        <v>2522100</v>
       </c>
       <c r="H41" s="3">
-        <v>2171700</v>
+        <v>2168300</v>
       </c>
       <c r="I41" s="3">
-        <v>3297600</v>
+        <v>3292400</v>
       </c>
       <c r="J41" s="3">
-        <v>2518000</v>
+        <v>2514000</v>
       </c>
       <c r="K41" s="3">
         <v>2514700</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>144200</v>
+        <v>144000</v>
       </c>
       <c r="E42" s="3">
-        <v>382700</v>
+        <v>382100</v>
       </c>
       <c r="F42" s="3">
-        <v>35200</v>
+        <v>35100</v>
       </c>
       <c r="G42" s="3">
-        <v>118700</v>
+        <v>118500</v>
       </c>
       <c r="H42" s="3">
-        <v>97300</v>
+        <v>97200</v>
       </c>
       <c r="I42" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="J42" s="3">
         <v>17600</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>625600</v>
+        <v>624600</v>
       </c>
       <c r="E43" s="3">
-        <v>1936000</v>
+        <v>1932900</v>
       </c>
       <c r="F43" s="3">
-        <v>1472000</v>
+        <v>1469600</v>
       </c>
       <c r="G43" s="3">
-        <v>1010200</v>
+        <v>1008600</v>
       </c>
       <c r="H43" s="3">
-        <v>1491000</v>
+        <v>1488600</v>
       </c>
       <c r="I43" s="3">
-        <v>1277100</v>
+        <v>1275100</v>
       </c>
       <c r="J43" s="3">
-        <v>1516400</v>
+        <v>1513900</v>
       </c>
       <c r="K43" s="3">
         <v>1111600</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>950300</v>
+        <v>948800</v>
       </c>
       <c r="E44" s="3">
-        <v>1083000</v>
+        <v>1081200</v>
       </c>
       <c r="F44" s="3">
-        <v>840100</v>
+        <v>838700</v>
       </c>
       <c r="G44" s="3">
-        <v>736600</v>
+        <v>735500</v>
       </c>
       <c r="H44" s="3">
-        <v>826100</v>
+        <v>824800</v>
       </c>
       <c r="I44" s="3">
-        <v>780400</v>
+        <v>779200</v>
       </c>
       <c r="J44" s="3">
-        <v>869100</v>
+        <v>867700</v>
       </c>
       <c r="K44" s="3">
         <v>1013600</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>150200</v>
+        <v>150000</v>
       </c>
       <c r="E45" s="3">
-        <v>117800</v>
+        <v>117600</v>
       </c>
       <c r="F45" s="3">
-        <v>103400</v>
+        <v>103200</v>
       </c>
       <c r="G45" s="3">
-        <v>104800</v>
+        <v>104700</v>
       </c>
       <c r="H45" s="3">
-        <v>94600</v>
+        <v>94400</v>
       </c>
       <c r="I45" s="3">
-        <v>286000</v>
+        <v>285600</v>
       </c>
       <c r="J45" s="3">
-        <v>208000</v>
+        <v>207700</v>
       </c>
       <c r="K45" s="3">
         <v>150200</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4401600</v>
+        <v>4394500</v>
       </c>
       <c r="E46" s="3">
-        <v>6029600</v>
+        <v>6020000</v>
       </c>
       <c r="F46" s="3">
-        <v>5285200</v>
+        <v>5276800</v>
       </c>
       <c r="G46" s="3">
-        <v>4496500</v>
+        <v>4489300</v>
       </c>
       <c r="H46" s="3">
-        <v>4680700</v>
+        <v>4673300</v>
       </c>
       <c r="I46" s="3">
-        <v>5657500</v>
+        <v>5648500</v>
       </c>
       <c r="J46" s="3">
-        <v>5129100</v>
+        <v>5120900</v>
       </c>
       <c r="K46" s="3">
         <v>5164300</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1056400</v>
+        <v>1054800</v>
       </c>
       <c r="E47" s="3">
-        <v>840100</v>
+        <v>838800</v>
       </c>
       <c r="F47" s="3">
-        <v>630700</v>
+        <v>629700</v>
       </c>
       <c r="G47" s="3">
-        <v>425300</v>
+        <v>424600</v>
       </c>
       <c r="H47" s="3">
-        <v>416500</v>
+        <v>415900</v>
       </c>
       <c r="I47" s="3">
-        <v>312300</v>
+        <v>311800</v>
       </c>
       <c r="J47" s="3">
-        <v>257800</v>
+        <v>257300</v>
       </c>
       <c r="K47" s="3">
         <v>463800</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5966900</v>
+        <v>5957400</v>
       </c>
       <c r="E48" s="3">
-        <v>5755600</v>
+        <v>5746400</v>
       </c>
       <c r="F48" s="3">
-        <v>6226000</v>
+        <v>6216100</v>
       </c>
       <c r="G48" s="3">
-        <v>6923600</v>
+        <v>6912600</v>
       </c>
       <c r="H48" s="3">
-        <v>6980700</v>
+        <v>6969600</v>
       </c>
       <c r="I48" s="3">
-        <v>7085400</v>
+        <v>7074200</v>
       </c>
       <c r="J48" s="3">
-        <v>7008700</v>
+        <v>6997600</v>
       </c>
       <c r="K48" s="3">
         <v>6670900</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>357800</v>
+        <v>357300</v>
       </c>
       <c r="E49" s="3">
-        <v>369200</v>
+        <v>368600</v>
       </c>
       <c r="F49" s="3">
-        <v>402000</v>
+        <v>401300</v>
       </c>
       <c r="G49" s="3">
-        <v>402200</v>
+        <v>401500</v>
       </c>
       <c r="H49" s="3">
-        <v>420000</v>
+        <v>419400</v>
       </c>
       <c r="I49" s="3">
-        <v>413600</v>
+        <v>412900</v>
       </c>
       <c r="J49" s="3">
-        <v>427100</v>
+        <v>426400</v>
       </c>
       <c r="K49" s="3">
         <v>464700</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>364100</v>
+        <v>363500</v>
       </c>
       <c r="E52" s="3">
-        <v>344600</v>
+        <v>344000</v>
       </c>
       <c r="F52" s="3">
-        <v>244400</v>
+        <v>244000</v>
       </c>
       <c r="G52" s="3">
-        <v>238200</v>
+        <v>237900</v>
       </c>
       <c r="H52" s="3">
-        <v>370700</v>
+        <v>370100</v>
       </c>
       <c r="I52" s="3">
-        <v>392800</v>
+        <v>392100</v>
       </c>
       <c r="J52" s="3">
-        <v>672100</v>
+        <v>671000</v>
       </c>
       <c r="K52" s="3">
         <v>802900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12146800</v>
+        <v>12127500</v>
       </c>
       <c r="E54" s="3">
-        <v>13339100</v>
+        <v>13317800</v>
       </c>
       <c r="F54" s="3">
-        <v>12788300</v>
+        <v>12767900</v>
       </c>
       <c r="G54" s="3">
-        <v>12485800</v>
+        <v>12465900</v>
       </c>
       <c r="H54" s="3">
-        <v>12868700</v>
+        <v>12848200</v>
       </c>
       <c r="I54" s="3">
-        <v>13861600</v>
+        <v>13839500</v>
       </c>
       <c r="J54" s="3">
-        <v>13494800</v>
+        <v>13473300</v>
       </c>
       <c r="K54" s="3">
         <v>13566700</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1487400</v>
+        <v>1485000</v>
       </c>
       <c r="E57" s="3">
-        <v>1990700</v>
+        <v>1987600</v>
       </c>
       <c r="F57" s="3">
-        <v>1721100</v>
+        <v>1718300</v>
       </c>
       <c r="G57" s="3">
-        <v>1609500</v>
+        <v>1606900</v>
       </c>
       <c r="H57" s="3">
-        <v>1840700</v>
+        <v>1837800</v>
       </c>
       <c r="I57" s="3">
-        <v>1713000</v>
+        <v>1710200</v>
       </c>
       <c r="J57" s="3">
-        <v>1883100</v>
+        <v>1880100</v>
       </c>
       <c r="K57" s="3">
         <v>1957900</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>458300</v>
+        <v>457600</v>
       </c>
       <c r="E58" s="3">
-        <v>546800</v>
+        <v>545900</v>
       </c>
       <c r="F58" s="3">
-        <v>550300</v>
+        <v>549400</v>
       </c>
       <c r="G58" s="3">
-        <v>375000</v>
+        <v>374400</v>
       </c>
       <c r="H58" s="3">
-        <v>946500</v>
+        <v>945000</v>
       </c>
       <c r="I58" s="3">
-        <v>363600</v>
+        <v>363000</v>
       </c>
       <c r="J58" s="3">
-        <v>584100</v>
+        <v>583200</v>
       </c>
       <c r="K58" s="3">
         <v>1297600</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1105300</v>
+        <v>1103600</v>
       </c>
       <c r="E59" s="3">
-        <v>1348400</v>
+        <v>1346200</v>
       </c>
       <c r="F59" s="3">
-        <v>816500</v>
+        <v>815200</v>
       </c>
       <c r="G59" s="3">
-        <v>858100</v>
+        <v>856700</v>
       </c>
       <c r="H59" s="3">
-        <v>1261500</v>
+        <v>1259500</v>
       </c>
       <c r="I59" s="3">
-        <v>1290700</v>
+        <v>1288600</v>
       </c>
       <c r="J59" s="3">
-        <v>1215000</v>
+        <v>1213000</v>
       </c>
       <c r="K59" s="3">
         <v>1250800</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3051100</v>
+        <v>3046200</v>
       </c>
       <c r="E60" s="3">
-        <v>3885900</v>
+        <v>3879700</v>
       </c>
       <c r="F60" s="3">
-        <v>3087800</v>
+        <v>3082900</v>
       </c>
       <c r="G60" s="3">
-        <v>2842600</v>
+        <v>2838100</v>
       </c>
       <c r="H60" s="3">
-        <v>4048700</v>
+        <v>4042200</v>
       </c>
       <c r="I60" s="3">
-        <v>3367200</v>
+        <v>3361900</v>
       </c>
       <c r="J60" s="3">
-        <v>3682200</v>
+        <v>3676300</v>
       </c>
       <c r="K60" s="3">
         <v>4506200</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2562000</v>
+        <v>2557900</v>
       </c>
       <c r="E61" s="3">
-        <v>1476200</v>
+        <v>1473800</v>
       </c>
       <c r="F61" s="3">
-        <v>3440400</v>
+        <v>3434900</v>
       </c>
       <c r="G61" s="3">
-        <v>3543200</v>
+        <v>3537600</v>
       </c>
       <c r="H61" s="3">
-        <v>1780700</v>
+        <v>1777800</v>
       </c>
       <c r="I61" s="3">
-        <v>3217000</v>
+        <v>3211900</v>
       </c>
       <c r="J61" s="3">
-        <v>3334300</v>
+        <v>3329000</v>
       </c>
       <c r="K61" s="3">
         <v>2185000</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>523400</v>
+        <v>522600</v>
       </c>
       <c r="E62" s="3">
-        <v>504900</v>
+        <v>504100</v>
       </c>
       <c r="F62" s="3">
-        <v>175000</v>
+        <v>174700</v>
       </c>
       <c r="G62" s="3">
-        <v>197500</v>
+        <v>197200</v>
       </c>
       <c r="H62" s="3">
-        <v>216800</v>
+        <v>216500</v>
       </c>
       <c r="I62" s="3">
-        <v>204600</v>
+        <v>204300</v>
       </c>
       <c r="J62" s="3">
-        <v>209700</v>
+        <v>209400</v>
       </c>
       <c r="K62" s="3">
         <v>351700</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6334700</v>
+        <v>6324600</v>
       </c>
       <c r="E66" s="3">
-        <v>6061000</v>
+        <v>6051300</v>
       </c>
       <c r="F66" s="3">
-        <v>7048200</v>
+        <v>7037000</v>
       </c>
       <c r="G66" s="3">
-        <v>6938300</v>
+        <v>6927300</v>
       </c>
       <c r="H66" s="3">
-        <v>6498800</v>
+        <v>6488500</v>
       </c>
       <c r="I66" s="3">
-        <v>7325500</v>
+        <v>7313900</v>
       </c>
       <c r="J66" s="3">
-        <v>7803700</v>
+        <v>7791200</v>
       </c>
       <c r="K66" s="3">
         <v>7765000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1572500</v>
+        <v>1570000</v>
       </c>
       <c r="E72" s="3">
-        <v>2533000</v>
+        <v>2529000</v>
       </c>
       <c r="F72" s="3">
-        <v>950100</v>
+        <v>948600</v>
       </c>
       <c r="G72" s="3">
-        <v>719200</v>
+        <v>718000</v>
       </c>
       <c r="H72" s="3">
-        <v>1471000</v>
+        <v>1468600</v>
       </c>
       <c r="I72" s="3">
-        <v>1605000</v>
+        <v>1602500</v>
       </c>
       <c r="J72" s="3">
-        <v>761200</v>
+        <v>760000</v>
       </c>
       <c r="K72" s="3">
         <v>650600</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5812100</v>
+        <v>5802900</v>
       </c>
       <c r="E76" s="3">
-        <v>7278100</v>
+        <v>7266500</v>
       </c>
       <c r="F76" s="3">
-        <v>5740100</v>
+        <v>5730900</v>
       </c>
       <c r="G76" s="3">
-        <v>5547500</v>
+        <v>5538700</v>
       </c>
       <c r="H76" s="3">
-        <v>6369900</v>
+        <v>6359700</v>
       </c>
       <c r="I76" s="3">
-        <v>6536000</v>
+        <v>6525600</v>
       </c>
       <c r="J76" s="3">
-        <v>5691100</v>
+        <v>5682000</v>
       </c>
       <c r="K76" s="3">
         <v>5801700</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-662600</v>
+        <v>-661500</v>
       </c>
       <c r="E81" s="3">
-        <v>1925800</v>
+        <v>1922700</v>
       </c>
       <c r="F81" s="3">
-        <v>106000</v>
+        <v>105800</v>
       </c>
       <c r="G81" s="3">
-        <v>-602400</v>
+        <v>-601500</v>
       </c>
       <c r="H81" s="3">
-        <v>319000</v>
+        <v>318500</v>
       </c>
       <c r="I81" s="3">
-        <v>1016100</v>
+        <v>1014500</v>
       </c>
       <c r="J81" s="3">
-        <v>245500</v>
+        <v>245100</v>
       </c>
       <c r="K81" s="3">
         <v>157200</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>988000</v>
+        <v>986500</v>
       </c>
       <c r="E83" s="3">
-        <v>1057100</v>
+        <v>1055400</v>
       </c>
       <c r="F83" s="3">
-        <v>1111500</v>
+        <v>1109700</v>
       </c>
       <c r="G83" s="3">
-        <v>1138500</v>
+        <v>1136700</v>
       </c>
       <c r="H83" s="3">
-        <v>1074700</v>
+        <v>1073000</v>
       </c>
       <c r="I83" s="3">
-        <v>1143900</v>
+        <v>1142100</v>
       </c>
       <c r="J83" s="3">
-        <v>1246400</v>
+        <v>1244400</v>
       </c>
       <c r="K83" s="3">
         <v>1522100</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>846900</v>
+        <v>845500</v>
       </c>
       <c r="E89" s="3">
-        <v>3288200</v>
+        <v>3283000</v>
       </c>
       <c r="F89" s="3">
-        <v>808500</v>
+        <v>807200</v>
       </c>
       <c r="G89" s="3">
-        <v>650900</v>
+        <v>649900</v>
       </c>
       <c r="H89" s="3">
-        <v>1262300</v>
+        <v>1260300</v>
       </c>
       <c r="I89" s="3">
-        <v>2649000</v>
+        <v>2644800</v>
       </c>
       <c r="J89" s="3">
-        <v>1152200</v>
+        <v>1150400</v>
       </c>
       <c r="K89" s="3">
         <v>1976700</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1128800</v>
+        <v>-1127000</v>
       </c>
       <c r="E91" s="3">
-        <v>-535000</v>
+        <v>-534100</v>
       </c>
       <c r="F91" s="3">
-        <v>-489900</v>
+        <v>-489100</v>
       </c>
       <c r="G91" s="3">
-        <v>-927800</v>
+        <v>-926300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1091800</v>
+        <v>-1090000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1377900</v>
+        <v>-1375700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1451300</v>
+        <v>-1449000</v>
       </c>
       <c r="K91" s="3">
         <v>-1066100</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1002100</v>
+        <v>-1000500</v>
       </c>
       <c r="E94" s="3">
-        <v>-953000</v>
+        <v>-951500</v>
       </c>
       <c r="F94" s="3">
-        <v>-556000</v>
+        <v>-555200</v>
       </c>
       <c r="G94" s="3">
-        <v>-882700</v>
+        <v>-881300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1083200</v>
+        <v>-1081500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1371200</v>
+        <v>-1369000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1327200</v>
+        <v>-1325100</v>
       </c>
       <c r="K94" s="3">
         <v>-1011700</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-300700</v>
+        <v>-300200</v>
       </c>
       <c r="E96" s="3">
-        <v>-89500</v>
+        <v>-89400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-151100</v>
+        <v>-150900</v>
       </c>
       <c r="H96" s="3">
-        <v>-453300</v>
+        <v>-452600</v>
       </c>
       <c r="I96" s="3">
-        <v>-169200</v>
+        <v>-169000</v>
       </c>
       <c r="J96" s="3">
-        <v>-105800</v>
+        <v>-105600</v>
       </c>
       <c r="K96" s="3">
         <v>-153400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>73900</v>
+        <v>73800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2621000</v>
+        <v>-2616800</v>
       </c>
       <c r="F100" s="3">
-        <v>84900</v>
+        <v>84800</v>
       </c>
       <c r="G100" s="3">
-        <v>651300</v>
+        <v>650300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1314000</v>
+        <v>-1311900</v>
       </c>
       <c r="I100" s="3">
-        <v>-421100</v>
+        <v>-420400</v>
       </c>
       <c r="J100" s="3">
-        <v>336600</v>
+        <v>336100</v>
       </c>
       <c r="K100" s="3">
         <v>-1092800</v>
@@ -3960,7 +3960,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>102200</v>
+        <v>102100</v>
       </c>
       <c r="E101" s="3">
         <v>-38600</v>
@@ -3969,16 +3969,16 @@
         <v>-28800</v>
       </c>
       <c r="G101" s="3">
-        <v>-65100</v>
+        <v>-65000</v>
       </c>
       <c r="H101" s="3">
         <v>9000</v>
       </c>
       <c r="I101" s="3">
-        <v>-77100</v>
+        <v>-77000</v>
       </c>
       <c r="J101" s="3">
-        <v>-120600</v>
+        <v>-120400</v>
       </c>
       <c r="K101" s="3">
         <v>29400</v>
@@ -4002,22 +4002,22 @@
         <v>21000</v>
       </c>
       <c r="E102" s="3">
-        <v>-324400</v>
+        <v>-323800</v>
       </c>
       <c r="F102" s="3">
-        <v>308500</v>
+        <v>308000</v>
       </c>
       <c r="G102" s="3">
-        <v>354400</v>
+        <v>353800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1125900</v>
+        <v>-1124100</v>
       </c>
       <c r="I102" s="3">
-        <v>779600</v>
+        <v>778400</v>
       </c>
       <c r="J102" s="3">
-        <v>41200</v>
+        <v>41100</v>
       </c>
       <c r="K102" s="3">
         <v>-98300</v>
